--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -340,34 +340,55 @@
     <t>25- Conectividad</t>
   </si>
   <si>
-    <t>25.1 Registrar escala de calificaciones.</t>
-  </si>
-  <si>
-    <t>25.2 Registrar Alumnos.</t>
-  </si>
-  <si>
-    <t>25.3 Registrar personal de la institución.</t>
-  </si>
-  <si>
-    <t>25.4 Registrar asignaturas.</t>
-  </si>
-  <si>
-    <t>25.5 Registrar sanciones.</t>
-  </si>
-  <si>
-    <t>25.6 Registrar calificaciones.</t>
-  </si>
-  <si>
-    <t>25.7 Registrar inasistencias de alumnos.</t>
-  </si>
-  <si>
-    <t>25.8 Registrar inasistencias de profesores.</t>
-  </si>
-  <si>
     <t>5.1 Generar reporte de notas de cada una de las materias en los que va del año de un alumno.</t>
   </si>
   <si>
     <t>6.1 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
+  </si>
+  <si>
+    <t>25.1 Obtener escala de calificaciones.</t>
+  </si>
+  <si>
+    <t>25.2 Obtener Alumnos.</t>
+  </si>
+  <si>
+    <t>25.3 Obtener personal de la institución.</t>
+  </si>
+  <si>
+    <t>25.4 Obtener asignaturas.</t>
+  </si>
+  <si>
+    <t>25.5 Obtener sanciones.</t>
+  </si>
+  <si>
+    <t>25.6 Obtener calificaciones.</t>
+  </si>
+  <si>
+    <t>25.7 Obtener inasistencias de alumnos.</t>
+  </si>
+  <si>
+    <t>25.8 Obtener inasistencias de profesores.</t>
+  </si>
+  <si>
+    <t>21.1 Mantener el sistema disponible en un 97% de lunes a viernes 8 a 18 hs.</t>
+  </si>
+  <si>
+    <t>23.1 Mantener independencia de los motores de bases de datos</t>
+  </si>
+  <si>
+    <t>22.1 Permitir la integración de nuevas funcionalidades.</t>
+  </si>
+  <si>
+    <t>24.1 Registrar administrador de foro.</t>
+  </si>
+  <si>
+    <t>24.2 Modificar administrador de foro.</t>
+  </si>
+  <si>
+    <t>24.3 Eliminar mensaje en foro.</t>
+  </si>
+  <si>
+    <t>1.3 Permitir el logueo del usuario al sistema.</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1176,8 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1273,9 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1615,7 +1638,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="5"/>
@@ -1693,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
@@ -3336,7 +3359,9 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3460,7 +3485,9 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="C167" s="14"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -3584,7 +3611,9 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="C177" s="14"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3708,7 +3737,9 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="C187" s="14"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3720,7 +3751,9 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C188" s="14"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3732,7 +3765,9 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="C189" s="14"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3835,7 +3870,7 @@
         <v>59</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="5"/>
@@ -3851,7 +3886,7 @@
         <v>59</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="5"/>
@@ -3867,7 +3902,7 @@
         <v>59</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="5"/>
@@ -3883,7 +3918,7 @@
         <v>59</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="5"/>
@@ -3899,7 +3934,7 @@
         <v>59</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="5"/>
@@ -3915,7 +3950,7 @@
         <v>59</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="5"/>
@@ -3931,7 +3966,7 @@
         <v>59</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="5"/>
@@ -3947,7 +3982,7 @@
         <v>59</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="5"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Caso de Prueba</t>
   </si>
   <si>
-    <t>User Stories / Product BackLog Items</t>
-  </si>
-  <si>
-    <t>Sprint Backlog Items</t>
-  </si>
-  <si>
     <t>Modulo</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>11.3 Consultar mensajes</t>
   </si>
   <si>
-    <t>Gestion de foro</t>
-  </si>
-  <si>
     <t>2.1 Consultar foro</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>1.2 Actualizar novedades institucionales.</t>
   </si>
   <si>
-    <t>Novedades Aulicas</t>
-  </si>
-  <si>
     <t>4.1 Registrar novedades en aula.</t>
   </si>
   <si>
@@ -389,13 +377,64 @@
   </si>
   <si>
     <t>1.3 Permitir el logueo del usuario al sistema.</t>
+  </si>
+  <si>
+    <t>Gestión de foro</t>
+  </si>
+  <si>
+    <t>Novedades Áulicas</t>
+  </si>
+  <si>
+    <t>User Stories / Product BackLog Ítems</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Ítems</t>
+  </si>
+  <si>
+    <t>Estimacion</t>
+  </si>
+  <si>
+    <t>2- Desarrollar Plataforma para Foro de discusión</t>
+  </si>
+  <si>
+    <t>3- Desarrollar Plataforma para envio de mensajeria interna</t>
+  </si>
+  <si>
+    <t>4- Desarrollar Plataforma para envio de mensajeria de texto</t>
+  </si>
+  <si>
+    <t>26- Actividades adicionales</t>
+  </si>
+  <si>
+    <t>5- Desarrollar Plataforma para tablero de control</t>
+  </si>
+  <si>
+    <t>6- Definir estructura de BD del sistema</t>
+  </si>
+  <si>
+    <t>7- Capacitación</t>
+  </si>
+  <si>
+    <t>8- Definir estándares y normas de trabajo</t>
+  </si>
+  <si>
+    <t>9- Creación de manual de usuario</t>
+  </si>
+  <si>
+    <t>10- Creación de manual de procedimientos</t>
+  </si>
+  <si>
+    <t>1- Desarrollar Pagina Web Institucional (secciones de acceso público con contenido estático)</t>
+  </si>
+  <si>
+    <t>Total Horas Estimadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +464,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -446,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -508,11 +555,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,11 +614,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1173,80 +1377,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="C3" s="19">
+        <v>16</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1254,15 +1464,18 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="19">
+        <v>12</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1270,13 +1483,18 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C5" s="19">
+        <v>18</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1284,11 +1502,12 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1296,11 +1515,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1308,2867 +1528,3371 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="19">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="23">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C16" s="19">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="19">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="19">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C19" s="19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="19">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C21" s="19">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="24">
+        <v>16</v>
+      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="24">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C31" s="24">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="C37" s="25">
+        <v>25</v>
+      </c>
+      <c r="D37" s="14"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C42" s="24">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C43" s="24">
+        <v>12</v>
+      </c>
+      <c r="D43" s="14"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C44" s="24">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C45" s="24">
+        <v>10</v>
+      </c>
+      <c r="D45" s="14"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="24">
+        <v>40</v>
+      </c>
+      <c r="D49" s="14"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C50" s="24">
+        <v>10</v>
+      </c>
+      <c r="D50" s="14"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="C51" s="24">
+        <v>20</v>
+      </c>
+      <c r="D51" s="14"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C52" s="24">
+        <v>10</v>
+      </c>
+      <c r="D52" s="14"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="5"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C56" s="24">
+        <v>25</v>
+      </c>
+      <c r="D56" s="14"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C61" s="24">
+        <v>20</v>
+      </c>
+      <c r="D61" s="14"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C62" s="24">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="5"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C67" s="24">
+        <v>12</v>
+      </c>
+      <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C68" s="24">
+        <v>15</v>
+      </c>
+      <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="5"/>
+      <c r="C69" s="24">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="5"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="5"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C75" s="23">
+        <v>15</v>
+      </c>
+      <c r="D75" s="14"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="C76" s="19">
+        <v>22</v>
+      </c>
+      <c r="D76" s="14"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C77" s="19">
+        <v>22</v>
+      </c>
+      <c r="D77" s="14"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="5"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="5"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="5"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="5"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="5"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K86" s="16"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="5"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="16"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="5"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K90" s="10"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="5"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="5"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="5"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="5"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C96" s="26">
+        <v>12</v>
+      </c>
+      <c r="D96" s="14"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C97" s="24">
+        <v>12</v>
+      </c>
+      <c r="D97" s="14"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C98" s="24">
+        <v>12</v>
+      </c>
+      <c r="D98" s="14"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C99" s="24">
+        <v>12</v>
+      </c>
+      <c r="D99" s="14"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C100" s="24">
+        <v>20</v>
+      </c>
+      <c r="D100" s="14"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C101" s="24">
+        <v>20</v>
+      </c>
+      <c r="D101" s="14"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C102" s="24">
+        <v>20</v>
+      </c>
+      <c r="D102" s="14"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C103" s="24">
+        <v>20</v>
+      </c>
+      <c r="D103" s="14"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C104" s="24">
+        <v>20</v>
+      </c>
+      <c r="D104" s="14"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="5"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C107" s="24">
+        <v>18</v>
+      </c>
+      <c r="D107" s="14"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C108" s="24">
+        <v>14</v>
+      </c>
+      <c r="D108" s="14"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="C109" s="24">
+        <v>12</v>
+      </c>
+      <c r="D109" s="14"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="5"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="5"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="5"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="5"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="5"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="5"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K116" s="10"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C117" s="24">
+        <v>18</v>
+      </c>
+      <c r="D117" s="14"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="5"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="5"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="5"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="14"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="5"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="5"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="5"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K123" s="5"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="5"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K124" s="5"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="5"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="C126" s="21"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C127" s="24">
+        <v>20</v>
+      </c>
+      <c r="D127" s="14"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C128" s="26">
+        <v>26</v>
+      </c>
+      <c r="D128" s="14"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K128" s="5"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C129" s="24">
+        <v>26</v>
+      </c>
+      <c r="D129" s="14"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K129" s="5"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="5"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="14"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="5"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="14"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="5"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="14"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="5"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="14"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="5"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="14"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="5"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="C136" s="21"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C137" s="24">
+        <v>18</v>
+      </c>
+      <c r="D137" s="14"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C138" s="24">
+        <v>18</v>
+      </c>
+      <c r="D138" s="14"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C139" s="24">
+        <v>18</v>
+      </c>
+      <c r="D139" s="14"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C140" s="24">
+        <v>18</v>
+      </c>
+      <c r="D140" s="14"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C141" s="24">
+        <v>18</v>
+      </c>
+      <c r="D141" s="14"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="5"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="14"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="5"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="5"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="5"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K146" s="10"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C147" s="24">
+        <v>24</v>
+      </c>
+      <c r="D147" s="14"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C148" s="24">
+        <v>24</v>
+      </c>
+      <c r="D148" s="14"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C149" s="24">
+        <v>30</v>
+      </c>
+      <c r="D149" s="14"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="5"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="14"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="5"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="14"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="5"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="14"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="5"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="14"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="5"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="14"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="5"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="14"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C157" s="24"/>
+      <c r="D157" s="14"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="5"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="14"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="5"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="14"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="5"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="14"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="5"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="14"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="5"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="14"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="5"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="14"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="5"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="14"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="5"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="14"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C166" s="12"/>
-      <c r="D166" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="12"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
-    </row>
-    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K166" s="10"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="C167" s="24"/>
+      <c r="D167" s="14"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="5"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="14"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="5"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="14"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="5"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="14"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="5"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="14"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="5"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="14"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="5"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="14"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="5"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="14"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="5"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="14"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C176" s="21"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K176" s="10"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C177" s="14"/>
-      <c r="D177" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C177" s="24"/>
+      <c r="D177" s="14"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K177" s="5"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="5"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="14"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="5"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="14"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="5"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="14"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="5"/>
+      <c r="B182" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" s="24">
+        <v>16</v>
+      </c>
+      <c r="D182" s="14"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="5"/>
+      <c r="B183" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="24">
+        <v>16</v>
+      </c>
+      <c r="D183" s="14"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="5"/>
+      <c r="B184" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="24">
+        <v>10</v>
+      </c>
+      <c r="D184" s="14"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="5"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="14"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K185" s="5"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
-      <c r="B187" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C187" s="14"/>
-      <c r="D187" s="5"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="14"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
-      <c r="B188" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C188" s="14"/>
-      <c r="D188" s="5"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="14"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C189" s="14"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="5"/>
+      <c r="K188" s="5"/>
+    </row>
+    <row r="189" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C189" s="21"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" s="24">
+        <v>12</v>
+      </c>
+      <c r="D190" s="14"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="5"/>
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C191" s="24">
+        <v>12</v>
+      </c>
+      <c r="D191" s="14"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="5"/>
+      <c r="K191" s="5"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" s="24">
+        <v>12</v>
+      </c>
+      <c r="D192" s="14"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="5"/>
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="24">
+        <v>12</v>
+      </c>
+      <c r="D193" s="14"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="5"/>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C194" s="24">
+        <v>12</v>
+      </c>
+      <c r="D194" s="14"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="5"/>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C195" s="24">
+        <v>12</v>
+      </c>
+      <c r="D195" s="14"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C196" s="12"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-    </row>
-    <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K195" s="5"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C196" s="24">
+        <v>12</v>
+      </c>
+      <c r="D196" s="14"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C197" s="14"/>
-      <c r="D197" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C197" s="24">
+        <v>12</v>
+      </c>
+      <c r="D197" s="14"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="5"/>
+      <c r="K197" s="5"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="14"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C200" s="14"/>
-      <c r="D200" s="5"/>
+      <c r="K198" s="5"/>
+    </row>
+    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
+      <c r="B200" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200" s="24"/>
+      <c r="D200" s="14"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C201" s="14"/>
-      <c r="D201" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="C201" s="24">
+        <v>40</v>
+      </c>
+      <c r="D201" s="14"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K201" s="5"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C202" s="14"/>
-      <c r="D202" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="C202" s="24">
+        <v>50</v>
+      </c>
+      <c r="D202" s="14"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K202" s="5"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C203" s="14"/>
-      <c r="D203" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C203" s="24">
+        <v>50</v>
+      </c>
+      <c r="D203" s="14"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K203" s="5"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C204" s="14"/>
-      <c r="D204" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="C204" s="24">
+        <v>50</v>
+      </c>
+      <c r="D204" s="14"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K204" s="5"/>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="5"/>
+      <c r="B205" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" s="24">
+        <v>80</v>
+      </c>
+      <c r="D205" s="14"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="9"/>
+      <c r="B206" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C206" s="24">
+        <v>30</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="9"/>
+      <c r="B207" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C207" s="24">
+        <v>100</v>
+      </c>
+      <c r="D207" s="14"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="9"/>
+      <c r="B208" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C208" s="24">
+        <v>20</v>
+      </c>
+      <c r="D208" s="14"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="9"/>
+      <c r="B209" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C209" s="24">
+        <v>50</v>
+      </c>
+      <c r="D209" s="14"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C210" s="24">
+        <v>40</v>
+      </c>
+      <c r="D210" s="14"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C215" s="27">
+        <f>SUM(C2:C214)</f>
+        <v>1676</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C45 C72:C99 C48:C55 C57:C69">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
+  <conditionalFormatting sqref="D8:D45 D72:D99 D48:D55 D57:D69 D200:D204 D176:D188">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106:C115">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C106)))</formula>
+  <conditionalFormatting sqref="D106:D115">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D106)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C125">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
+  <conditionalFormatting sqref="D116:D125">
+    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126:C135">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
+  <conditionalFormatting sqref="D126:D135">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D126)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136:C145">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
+  <conditionalFormatting sqref="D136:D145">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D136)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:C155">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
+  <conditionalFormatting sqref="D146:D155">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D146)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156:C165">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
+  <conditionalFormatting sqref="D156:D165">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166:C175">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
+  <conditionalFormatting sqref="D166:D175">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D166)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176:C185">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
+  <conditionalFormatting sqref="D100:D105">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C186:C195">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
+  <conditionalFormatting sqref="D70:D71">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100:C105">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C100)))</formula>
+  <conditionalFormatting sqref="D189:D198">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D189)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C71">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C196:C205">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C46)))</formula>
+  <conditionalFormatting sqref="D205">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D205)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C56)))</formula>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208:D214">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -247,9 +247,6 @@
     <t>8.4 Completar Encuesta</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1 Generar reporte estadístico sobre las encuestas de los alumnos y de los padres. </t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -428,6 +425,12 @@
   </si>
   <si>
     <t>Total Horas Estimadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 Generar reporte estadístico sobre las encuestas de docente. </t>
+  </si>
+  <si>
+    <t>9.2 Generar reporte estadístico sobre las encuestas de la institución.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,95 +637,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -1379,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1414,13 +1334,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -1449,7 +1369,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>57</v>
@@ -1468,7 +1388,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>58</v>
@@ -1487,10 +1407,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="19">
         <v>18</v>
@@ -1560,7 +1480,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>44</v>
@@ -1579,7 +1499,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>45</v>
@@ -1807,7 +1727,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>59</v>
@@ -1826,7 +1746,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>60</v>
@@ -1902,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="24">
         <v>20</v>
@@ -1988,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="25">
         <v>25</v>
@@ -2294,8 +2214,8 @@
       <c r="A56" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>70</v>
+      <c r="B56" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="C56" s="24">
         <v>25</v>
@@ -2311,7 +2231,9 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="C57" s="24"/>
       <c r="D57" s="14"/>
       <c r="E57" s="5"/>
@@ -3065,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="12"/>
@@ -3082,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C107" s="24">
         <v>18</v>
@@ -3101,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" s="24">
         <v>14</v>
@@ -3120,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109" s="24">
         <v>12</v>
@@ -3215,7 +3137,7 @@
     <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="12"/>
@@ -3232,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C117" s="24">
         <v>18</v>
@@ -3353,7 +3275,7 @@
     <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="12"/>
@@ -3370,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="24">
         <v>20</v>
@@ -3389,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" s="26">
         <v>26</v>
@@ -3408,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="24">
         <v>26</v>
@@ -3505,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C136" s="21"/>
       <c r="D136" s="12"/>
@@ -3522,7 +3444,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C137" s="24">
         <v>18</v>
@@ -3541,7 +3463,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="24">
         <v>18</v>
@@ -3560,7 +3482,7 @@
         <v>55</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C139" s="24">
         <v>18</v>
@@ -3579,7 +3501,7 @@
         <v>55</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C140" s="24">
         <v>18</v>
@@ -3598,7 +3520,7 @@
         <v>55</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141" s="24">
         <v>18</v>
@@ -3669,7 +3591,7 @@
         <v>24</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C146" s="21"/>
       <c r="D146" s="12"/>
@@ -3686,7 +3608,7 @@
         <v>55</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C147" s="24">
         <v>24</v>
@@ -3705,7 +3627,7 @@
         <v>55</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C148" s="24">
         <v>24</v>
@@ -3724,7 +3646,7 @@
         <v>55</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C149" s="24">
         <v>30</v>
@@ -3821,7 +3743,7 @@
         <v>24</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="12"/>
@@ -3836,7 +3758,7 @@
     <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C157" s="24"/>
       <c r="D157" s="14"/>
@@ -3957,7 +3879,7 @@
         <v>24</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" s="21"/>
       <c r="D166" s="12"/>
@@ -3972,7 +3894,7 @@
     <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167" s="24"/>
       <c r="D167" s="14"/>
@@ -4093,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C176" s="21"/>
       <c r="D176" s="12"/>
@@ -4108,7 +4030,7 @@
     <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="14"/>
@@ -4164,7 +4086,7 @@
         <v>24</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C181" s="21"/>
       <c r="D181" s="12"/>
@@ -4179,7 +4101,7 @@
     <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C182" s="24">
         <v>16</v>
@@ -4196,7 +4118,7 @@
     <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C183" s="24">
         <v>16</v>
@@ -4213,7 +4135,7 @@
     <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C184" s="24">
         <v>10</v>
@@ -4284,7 +4206,7 @@
         <v>24</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C189" s="21"/>
       <c r="D189" s="12"/>
@@ -4301,7 +4223,7 @@
         <v>56</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C190" s="24">
         <v>12</v>
@@ -4320,7 +4242,7 @@
         <v>56</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C191" s="24">
         <v>12</v>
@@ -4339,7 +4261,7 @@
         <v>56</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C192" s="24">
         <v>12</v>
@@ -4358,7 +4280,7 @@
         <v>56</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C193" s="24">
         <v>12</v>
@@ -4377,7 +4299,7 @@
         <v>56</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C194" s="24">
         <v>12</v>
@@ -4396,7 +4318,7 @@
         <v>56</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C195" s="24">
         <v>12</v>
@@ -4415,7 +4337,7 @@
         <v>56</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C196" s="24">
         <v>12</v>
@@ -4434,7 +4356,7 @@
         <v>56</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C197" s="24">
         <v>12</v>
@@ -4464,7 +4386,7 @@
     <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="14"/>
@@ -4479,7 +4401,7 @@
     <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C201" s="24">
         <v>40</v>
@@ -4496,7 +4418,7 @@
     <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C202" s="24">
         <v>50</v>
@@ -4513,7 +4435,7 @@
     <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C203" s="24">
         <v>50</v>
@@ -4530,7 +4452,7 @@
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C204" s="24">
         <v>50</v>
@@ -4547,7 +4469,7 @@
     <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C205" s="24">
         <v>80</v>
@@ -4564,7 +4486,7 @@
     <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C206" s="24">
         <v>30</v>
@@ -4581,7 +4503,7 @@
     <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C207" s="24">
         <v>100</v>
@@ -4598,7 +4520,7 @@
     <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C208" s="24">
         <v>20</v>
@@ -4615,7 +4537,7 @@
     <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C209" s="24">
         <v>50</v>
@@ -4632,7 +4554,7 @@
     <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C210" s="24">
         <v>40</v>
@@ -4700,7 +4622,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B215" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C215" s="27">
         <f>SUM(C2:C214)</f>
@@ -4709,189 +4631,189 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D45 D72:D99 D48:D55 D57:D69 D200:D204 D176:D188">
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:D115">
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="45" priority="57" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D125">
-    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126:D135">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D145">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D155">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156:D165">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166:D175">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:D105">
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189:D198">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208:D214">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D208)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -24,8 +24,8 @@
     <definedName name="_Toc220775284" localSheetId="0">Sheet1!$B$66</definedName>
     <definedName name="_Toc220775285" localSheetId="0">Sheet1!$B$74</definedName>
     <definedName name="_Toc220775286" localSheetId="0">Sheet1!$B$80</definedName>
-    <definedName name="_Toc220775287" localSheetId="0">Sheet1!$B$90</definedName>
-    <definedName name="_Toc220775288" localSheetId="0">Sheet1!$B$95</definedName>
+    <definedName name="_Toc220775287" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_Toc220775288" localSheetId="0">Sheet1!$B$86</definedName>
     <definedName name="_Toc220775289" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_Toc290939942" localSheetId="0">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="0">Sheet1!$B$2</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -103,12 +103,6 @@
     <t>13- Generar reportes estratégicos para el gabinete psicopedagógico</t>
   </si>
   <si>
-    <t>14- Generar reportes estratégicos para los preceptores</t>
-  </si>
-  <si>
-    <t>15- Generar reportes estratégicos para la dirección</t>
-  </si>
-  <si>
     <t>Requisitos NO Funcionales</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>12.1 Consultar tablero de control Docente: Representación gráfica del nivel de calificaciones de alumnos</t>
   </si>
   <si>
-    <t>15.1 Consultar tablero de control Directivo: Representación gráfica del nivel de calificaciones de cursos</t>
-  </si>
-  <si>
-    <t>15.2 Consultar tablero de control Directivo: Representación gráfica del nivel de calificaciones de asignatura</t>
-  </si>
-  <si>
     <t>1- Proveer una página web de la institución</t>
   </si>
   <si>
@@ -133,27 +121,6 @@
     <t>12.2 Generar reporte de rendimiento de alumnos por periodo</t>
   </si>
   <si>
-    <t>15.3 Consultar tablero de control Directivo: Representación gráfica del nivel de inasistencias de cursos (alumnos)</t>
-  </si>
-  <si>
-    <t>15.4 Consultar tablero de control Directivo: Representación gráfica del nivel de inasistencias de cursos (docentes)</t>
-  </si>
-  <si>
-    <t>15.5 Generar reporte de alumnos y de profesores según sus inasistencias.</t>
-  </si>
-  <si>
-    <t>15.6 Generar reporte de rendimientos de profesores por periodo.</t>
-  </si>
-  <si>
-    <t>15.7 Generar reporte de rendimiento por cursos</t>
-  </si>
-  <si>
-    <t>15.8 Generar reporte de rendimiento por asignatura y curso.</t>
-  </si>
-  <si>
-    <t>15.9 Generar reporte estadístico de uso sobre la cantidad de accesos a la autogestión por mes.</t>
-  </si>
-  <si>
     <t>11.1 Generar mensaje.</t>
   </si>
   <si>
@@ -250,129 +217,12 @@
     <t>Web</t>
   </si>
   <si>
-    <t>16- Registrar plan anual de clases</t>
-  </si>
-  <si>
-    <t>17- Registrar temas desarrollados en clases</t>
-  </si>
-  <si>
-    <t>16.1 Registrar planificación de clases</t>
-  </si>
-  <si>
-    <t>16.2 Consultar Planificación</t>
-  </si>
-  <si>
-    <t>16.3 Asignar fecha y hora de contenido</t>
-  </si>
-  <si>
-    <t>17.1 Registrar desarrollo real de clase.</t>
-  </si>
-  <si>
-    <t>18- Gestionar temas desarrollados en clases versus temas planificados</t>
-  </si>
-  <si>
-    <t>18.1 Emitir informe de advertencias sobre el desvío de lo estimado y lo real</t>
-  </si>
-  <si>
-    <t>18.2 Consultar tablero de control Docente: Representación gráfica del desvío de la planificación de clases</t>
-  </si>
-  <si>
-    <t>18.3 Consultar tablero de control Directivo: Representación gráfica del desvío de la planificación de clases por curso</t>
-  </si>
-  <si>
-    <t>19- Seguridad</t>
-  </si>
-  <si>
-    <t>19.1 Registrar Perfiles.</t>
-  </si>
-  <si>
-    <t>19.2 Registrar usuario.</t>
-  </si>
-  <si>
-    <t>19.3 Asignar perfil.</t>
-  </si>
-  <si>
-    <t>19.4 Actualizar usuario.</t>
-  </si>
-  <si>
-    <t>19.5 Registrar email</t>
-  </si>
-  <si>
-    <t>20- Auditoria</t>
-  </si>
-  <si>
-    <t>20.1 Registro de logueo E/S al sistema.</t>
-  </si>
-  <si>
-    <t>20.2 Generar estadística de acceso al sistema.</t>
-  </si>
-  <si>
-    <t>20.3 Generar estadística de utilización de sistema según perfiles.</t>
-  </si>
-  <si>
-    <t>21- Disponibilidad</t>
-  </si>
-  <si>
-    <t>22- Escalabilidad</t>
-  </si>
-  <si>
-    <t>23- Plataforma</t>
-  </si>
-  <si>
-    <t>24- Control de foros de discusión</t>
-  </si>
-  <si>
-    <t>25- Conectividad</t>
-  </si>
-  <si>
     <t>5.1 Generar reporte de notas de cada una de las materias en los que va del año de un alumno.</t>
   </si>
   <si>
     <t>6.1 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
   </si>
   <si>
-    <t>25.1 Obtener escala de calificaciones.</t>
-  </si>
-  <si>
-    <t>25.2 Obtener Alumnos.</t>
-  </si>
-  <si>
-    <t>25.3 Obtener personal de la institución.</t>
-  </si>
-  <si>
-    <t>25.4 Obtener asignaturas.</t>
-  </si>
-  <si>
-    <t>25.5 Obtener sanciones.</t>
-  </si>
-  <si>
-    <t>25.6 Obtener calificaciones.</t>
-  </si>
-  <si>
-    <t>25.7 Obtener inasistencias de alumnos.</t>
-  </si>
-  <si>
-    <t>25.8 Obtener inasistencias de profesores.</t>
-  </si>
-  <si>
-    <t>21.1 Mantener el sistema disponible en un 97% de lunes a viernes 8 a 18 hs.</t>
-  </si>
-  <si>
-    <t>23.1 Mantener independencia de los motores de bases de datos</t>
-  </si>
-  <si>
-    <t>22.1 Permitir la integración de nuevas funcionalidades.</t>
-  </si>
-  <si>
-    <t>24.1 Registrar administrador de foro.</t>
-  </si>
-  <si>
-    <t>24.2 Modificar administrador de foro.</t>
-  </si>
-  <si>
-    <t>24.3 Eliminar mensaje en foro.</t>
-  </si>
-  <si>
     <t>1.3 Permitir el logueo del usuario al sistema.</t>
   </si>
   <si>
@@ -400,9 +250,6 @@
     <t>4- Desarrollar Plataforma para envio de mensajeria de texto</t>
   </si>
   <si>
-    <t>26- Actividades adicionales</t>
-  </si>
-  <si>
     <t>5- Desarrollar Plataforma para tablero de control</t>
   </si>
   <si>
@@ -431,6 +278,156 @@
   </si>
   <si>
     <t>9.2 Generar reporte estadístico sobre las encuestas de la institución.</t>
+  </si>
+  <si>
+    <t>14- Generar reportes estratégicos para la dirección</t>
+  </si>
+  <si>
+    <t>14.1 Consultar tablero de control Directivo: Representación gráfica del nivel de calificaciones de cursos</t>
+  </si>
+  <si>
+    <t>14.2 Consultar tablero de control Directivo: Representación gráfica del nivel de calificaciones de asignatura</t>
+  </si>
+  <si>
+    <t>14.3 Consultar tablero de control Directivo: Representación gráfica del nivel de inasistencias de cursos (alumnos)</t>
+  </si>
+  <si>
+    <t>14.4 Consultar tablero de control Directivo: Representación gráfica del nivel de inasistencias de cursos (docentes)</t>
+  </si>
+  <si>
+    <t>14.5 Generar reporte de alumnos y de profesores según sus inasistencias.</t>
+  </si>
+  <si>
+    <t>14.6 Generar reporte de rendimientos de profesores por periodo.</t>
+  </si>
+  <si>
+    <t>14.7 Generar reporte de rendimiento por cursos</t>
+  </si>
+  <si>
+    <t>14.8 Generar reporte de rendimiento por asignatura y curso.</t>
+  </si>
+  <si>
+    <t>14.9 Generar reporte estadístico de uso sobre la cantidad de accesos a la autogestión por mes.</t>
+  </si>
+  <si>
+    <t>15- Registrar plan anual de clases</t>
+  </si>
+  <si>
+    <t>15.1 Registrar planificación de clases</t>
+  </si>
+  <si>
+    <t>15.2 Consultar Planificación</t>
+  </si>
+  <si>
+    <t>15.3 Asignar fecha y hora de contenido</t>
+  </si>
+  <si>
+    <t>16- Registrar temas desarrollados en clases</t>
+  </si>
+  <si>
+    <t>16.1 Registrar desarrollo real de clase.</t>
+  </si>
+  <si>
+    <t>17- Gestionar temas desarrollados en clases versus temas planificados</t>
+  </si>
+  <si>
+    <t>17.1 Emitir informe de advertencias sobre el desvío de lo estimado y lo real</t>
+  </si>
+  <si>
+    <t>17.2 Consultar tablero de control Docente: Representación gráfica del desvío de la planificación de clases</t>
+  </si>
+  <si>
+    <t>17.3 Consultar tablero de control Directivo: Representación gráfica del desvío de la planificación de clases por curso</t>
+  </si>
+  <si>
+    <t>18- Seguridad</t>
+  </si>
+  <si>
+    <t>18.1 Registrar Perfiles.</t>
+  </si>
+  <si>
+    <t>18.2 Registrar usuario.</t>
+  </si>
+  <si>
+    <t>18.3 Asignar perfil.</t>
+  </si>
+  <si>
+    <t>18.4 Actualizar usuario.</t>
+  </si>
+  <si>
+    <t>18.5 Registrar email</t>
+  </si>
+  <si>
+    <t>19- Auditoria</t>
+  </si>
+  <si>
+    <t>19.1 Registro de logueo E/S al sistema.</t>
+  </si>
+  <si>
+    <t>19.2 Generar estadística de acceso al sistema.</t>
+  </si>
+  <si>
+    <t>19.3 Generar estadística de utilización de sistema según perfiles.</t>
+  </si>
+  <si>
+    <t>20- Disponibilidad</t>
+  </si>
+  <si>
+    <t>20.1 Mantener el sistema disponible en un 97% de lunes a viernes 8 a 18 hs.</t>
+  </si>
+  <si>
+    <t>21- Escalabilidad</t>
+  </si>
+  <si>
+    <t>21.1 Permitir la integración de nuevas funcionalidades.</t>
+  </si>
+  <si>
+    <t>22- Plataforma</t>
+  </si>
+  <si>
+    <t>22.1 Mantener independencia de los motores de bases de datos</t>
+  </si>
+  <si>
+    <t>23- Control de foros de discusión</t>
+  </si>
+  <si>
+    <t>23.1 Registrar administrador de foro.</t>
+  </si>
+  <si>
+    <t>23.2 Modificar administrador de foro.</t>
+  </si>
+  <si>
+    <t>23.3 Eliminar mensaje en foro.</t>
+  </si>
+  <si>
+    <t>26- Conectividad</t>
+  </si>
+  <si>
+    <t>26.1 Obtener escala de calificaciones.</t>
+  </si>
+  <si>
+    <t>26.2 Obtener Alumnos.</t>
+  </si>
+  <si>
+    <t>26.3 Obtener personal de la institución.</t>
+  </si>
+  <si>
+    <t>26.4 Obtener asignaturas.</t>
+  </si>
+  <si>
+    <t>26.5 Obtener sanciones.</t>
+  </si>
+  <si>
+    <t>26.6 Obtener calificaciones.</t>
+  </si>
+  <si>
+    <t>26.7 Obtener inasistencias de alumnos.</t>
+  </si>
+  <si>
+    <t>26.8 Obtener inasistencias de profesores.</t>
+  </si>
+  <si>
+    <t>27- Actividades adicionales</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K215"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1334,13 +1331,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -1349,13 +1346,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="12"/>
@@ -1369,10 +1366,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C3" s="19">
         <v>16</v>
@@ -1388,10 +1385,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C4" s="19">
         <v>12</v>
@@ -1407,10 +1404,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19">
         <v>18</v>
@@ -1480,10 +1477,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C10" s="19">
         <v>10</v>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C11" s="23">
         <v>16</v>
@@ -1572,10 +1569,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C16" s="19">
         <v>24</v>
@@ -1591,10 +1588,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" s="19">
         <v>18</v>
@@ -1610,10 +1607,10 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C18" s="19">
         <v>18</v>
@@ -1629,10 +1626,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19">
         <v>18</v>
@@ -1648,10 +1645,10 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19">
         <v>18</v>
@@ -1667,10 +1664,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C21" s="19">
         <v>14</v>
@@ -1727,10 +1724,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C25" s="24">
         <v>16</v>
@@ -1746,10 +1743,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C26" s="24">
         <v>12</v>
@@ -1819,10 +1816,10 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C31" s="24">
         <v>20</v>
@@ -1905,10 +1902,10 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C37" s="25">
         <v>25</v>
@@ -1978,10 +1975,10 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C42" s="24">
         <v>40</v>
@@ -1997,10 +1994,10 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
@@ -2016,10 +2013,10 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C44" s="24">
         <v>20</v>
@@ -2035,10 +2032,10 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C45" s="24">
         <v>10</v>
@@ -2095,10 +2092,10 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C49" s="24">
         <v>40</v>
@@ -2114,10 +2111,10 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C50" s="24">
         <v>10</v>
@@ -2133,10 +2130,10 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C51" s="24">
         <v>20</v>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C52" s="24">
         <v>10</v>
@@ -2212,10 +2209,10 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C56" s="24">
         <v>25</v>
@@ -2232,7 +2229,7 @@
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="14"/>
@@ -2287,10 +2284,10 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C61" s="24">
         <v>20</v>
@@ -2306,10 +2303,10 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C62" s="24">
         <v>20</v>
@@ -2379,10 +2376,10 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C67" s="24">
         <v>12</v>
@@ -2398,10 +2395,10 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C68" s="24">
         <v>15</v>
@@ -2417,10 +2414,10 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C69" s="24">
         <v>10</v>
@@ -2506,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="23">
         <v>15</v>
@@ -2522,10 +2519,10 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C76" s="19">
         <v>22</v>
@@ -2541,10 +2538,10 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C77" s="19">
         <v>22</v>
@@ -2664,23 +2661,31 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="26">
+        <v>12</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -2691,22 +2696,34 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="24"/>
+      <c r="A88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="24">
+        <v>12</v>
+      </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="22"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="24">
+        <v>12</v>
+      </c>
       <c r="D89" s="14"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -2716,25 +2733,35 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="24">
+        <v>12</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="24"/>
+      <c r="A91" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="24">
+        <v>20</v>
+      </c>
       <c r="D91" s="14"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -2745,9 +2772,15 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="24"/>
+      <c r="A92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="24">
+        <v>20</v>
+      </c>
       <c r="D92" s="14"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -2758,9 +2791,15 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="24"/>
+      <c r="A93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="24">
+        <v>20</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -2770,10 +2809,16 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="22"/>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="24">
+        <v>20</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -2783,31 +2828,29 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="24">
+        <v>20</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="26">
-        <v>12</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="24"/>
       <c r="D96" s="14"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2817,34 +2860,32 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="24">
-        <v>12</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="B97" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C98" s="24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="5"/>
@@ -2860,10 +2901,10 @@
         <v>9</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C99" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="5"/>
@@ -2876,13 +2917,13 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C100" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="5"/>
@@ -2894,15 +2935,9 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="24">
-        <v>20</v>
-      </c>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="24"/>
       <c r="D101" s="14"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -2913,15 +2948,9 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="24">
-        <v>20</v>
-      </c>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="14"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -2932,15 +2961,9 @@
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="24">
-        <v>20</v>
-      </c>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="14"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2951,15 +2974,9 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="24">
-        <v>20</v>
-      </c>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="24"/>
       <c r="D104" s="14"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -2982,51 +2999,43 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" s="24">
-        <v>18</v>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C108" s="24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="5"/>
@@ -3038,15 +3047,9 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="24">
-        <v>12</v>
-      </c>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="24"/>
       <c r="D109" s="14"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -3134,44 +3137,44 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-    </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="24">
-        <v>18</v>
-      </c>
-      <c r="D117" s="14"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="24"/>
+      <c r="B118" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="24">
+        <v>20</v>
+      </c>
       <c r="D118" s="14"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -3182,9 +3185,15 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="24"/>
+      <c r="A119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="26">
+        <v>26</v>
+      </c>
       <c r="D119" s="14"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3195,9 +3204,15 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="24"/>
+      <c r="A120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="24">
+        <v>26</v>
+      </c>
       <c r="D120" s="14"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3272,49 +3287,45 @@
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" s="21"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" s="24">
-        <v>20</v>
-      </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="26">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="24">
+        <v>18</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="5"/>
@@ -3327,13 +3338,13 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C129" s="24">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="5"/>
@@ -3345,9 +3356,15 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="24"/>
+      <c r="A130" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="24">
+        <v>18</v>
+      </c>
       <c r="D130" s="14"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -3358,9 +3375,15 @@
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="24"/>
+      <c r="A131" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="24">
+        <v>18</v>
+      </c>
       <c r="D131" s="14"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -3371,9 +3394,15 @@
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="24"/>
+      <c r="A132" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="24">
+        <v>18</v>
+      </c>
       <c r="D132" s="14"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -3422,51 +3451,45 @@
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="21"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" s="24">
-        <v>18</v>
-      </c>
-      <c r="D137" s="14"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C138" s="24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="5"/>
@@ -3479,13 +3502,13 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C139" s="24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="5"/>
@@ -3498,13 +3521,13 @@
     </row>
     <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C140" s="24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="5"/>
@@ -3516,15 +3539,9 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C141" s="24">
-        <v>18</v>
-      </c>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="24"/>
       <c r="D141" s="14"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -3586,52 +3603,42 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C147" s="24">
-        <v>24</v>
-      </c>
-      <c r="D147" s="14"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
+    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C148" s="24">
-        <v>24</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C148" s="24"/>
       <c r="D148" s="14"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -3642,15 +3649,9 @@
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C149" s="24">
-        <v>30</v>
-      </c>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="24"/>
       <c r="D149" s="14"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -3738,41 +3739,41 @@
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" s="21"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-    </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C157" s="24"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
+    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="21"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="B158" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="C158" s="24"/>
       <c r="D158" s="14"/>
       <c r="E158" s="5"/>
@@ -3874,41 +3875,41 @@
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C167" s="24"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
+    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="C168" s="24"/>
       <c r="D168" s="14"/>
       <c r="E168" s="5"/>
@@ -3958,23 +3959,31 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
+    <row r="172" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" s="21"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="24"/>
+      <c r="B173" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173" s="24">
+        <v>16</v>
+      </c>
       <c r="D173" s="14"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -3986,8 +3995,12 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="24"/>
+      <c r="B174" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="24">
+        <v>16</v>
+      </c>
       <c r="D174" s="14"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -3999,8 +4012,12 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="24"/>
+      <c r="B175" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="24">
+        <v>10</v>
+      </c>
       <c r="D175" s="14"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -4010,28 +4027,22 @@
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C176" s="21"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
+    <row r="176" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
-      <c r="B177" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B177" s="9"/>
       <c r="C177" s="24"/>
       <c r="D177" s="14"/>
       <c r="E177" s="5"/>
@@ -4068,43 +4079,51 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-    </row>
-    <row r="181" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C181" s="21"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
+    <row r="180" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" s="21"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" s="24">
+        <v>12</v>
+      </c>
+      <c r="D181" s="14"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+      <c r="A182" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B182" s="9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C182" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="5"/>
@@ -4116,12 +4135,14 @@
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B183" s="9" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C183" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="5"/>
@@ -4133,12 +4154,14 @@
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B184" s="9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C184" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="5"/>
@@ -4150,9 +4173,15 @@
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="24"/>
+      <c r="A185" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="24">
+        <v>12</v>
+      </c>
       <c r="D185" s="14"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -4163,9 +4192,15 @@
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="24"/>
+      <c r="A186" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C186" s="24">
+        <v>12</v>
+      </c>
       <c r="D186" s="14"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -4176,9 +4211,15 @@
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="24"/>
+      <c r="A187" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187" s="24">
+        <v>12</v>
+      </c>
       <c r="D187" s="14"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -4189,9 +4230,15 @@
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="24"/>
+      <c r="A188" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" s="24">
+        <v>12</v>
+      </c>
       <c r="D188" s="14"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -4201,52 +4248,25 @@
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C189" s="21"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C190" s="24">
-        <v>12</v>
-      </c>
-      <c r="D190" s="14"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" s="24">
-        <v>12</v>
-      </c>
+    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+    </row>
+    <row r="191" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A191" s="9"/>
+      <c r="B191" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C191" s="24"/>
       <c r="D191" s="14"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -4257,14 +4277,12 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C192" s="24">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D192" s="14"/>
       <c r="E192" s="5"/>
@@ -4276,14 +4294,12 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C193" s="24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D193" s="14"/>
       <c r="E193" s="5"/>
@@ -4295,14 +4311,12 @@
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C194" s="24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D194" s="14"/>
       <c r="E194" s="5"/>
@@ -4314,14 +4328,12 @@
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C195" s="24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D195" s="14"/>
       <c r="E195" s="5"/>
@@ -4333,14 +4345,12 @@
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C196" s="24">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D196" s="14"/>
       <c r="E196" s="5"/>
@@ -4352,14 +4362,12 @@
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C197" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="5"/>
@@ -4372,8 +4380,12 @@
     </row>
     <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="24"/>
+      <c r="B198" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" s="24">
+        <v>100</v>
+      </c>
       <c r="D198" s="14"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -4383,12 +4395,31 @@
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
     </row>
-    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="9"/>
+      <c r="B199" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C199" s="24">
+        <v>20</v>
+      </c>
+      <c r="D199" s="14"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
-      <c r="B200" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C200" s="24"/>
+      <c r="B200" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C200" s="24">
+        <v>50</v>
+      </c>
       <c r="D200" s="14"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -4401,7 +4432,7 @@
     <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C201" s="24">
         <v>40</v>
@@ -4417,12 +4448,8 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C202" s="24">
-        <v>50</v>
-      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="24"/>
       <c r="D202" s="14"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -4434,12 +4461,8 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
-      <c r="B203" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C203" s="24">
-        <v>50</v>
-      </c>
+      <c r="B203" s="9"/>
+      <c r="C203" s="24"/>
       <c r="D203" s="14"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -4451,12 +4474,8 @@
     </row>
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
-      <c r="B204" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C204" s="24">
-        <v>50</v>
-      </c>
+      <c r="B204" s="9"/>
+      <c r="C204" s="24"/>
       <c r="D204" s="14"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -4468,12 +4487,8 @@
     </row>
     <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
-      <c r="B205" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C205" s="24">
-        <v>80</v>
-      </c>
+      <c r="B205" s="9"/>
+      <c r="C205" s="24"/>
       <c r="D205" s="14"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -4483,154 +4498,17 @@
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C206" s="24">
-        <v>30</v>
-      </c>
-      <c r="D206" s="14"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
-    </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C207" s="24">
-        <v>100</v>
-      </c>
-      <c r="D207" s="14"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-    </row>
-    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C208" s="24">
-        <v>20</v>
-      </c>
-      <c r="D208" s="14"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-    </row>
-    <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C209" s="24">
-        <v>50</v>
-      </c>
-      <c r="D209" s="14"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-    </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C210" s="24">
-        <v>40</v>
-      </c>
-      <c r="D210" s="14"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-    </row>
-    <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="24"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-    </row>
-    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-    </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-    </row>
-    <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C215" s="27">
-        <f>SUM(C2:C214)</f>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" s="27">
+        <f>SUM(C2:C205)</f>
         <v>1676</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:D45 D72:D99 D48:D55 D57:D69 D200:D204 D176:D188">
+  <conditionalFormatting sqref="D8:D45 D48:D55 D57:D69 D191:D195 D167:D179 D72:D90">
     <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
     </cfRule>
@@ -4641,92 +4519,92 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106:D115">
+  <conditionalFormatting sqref="D97:D106">
     <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D106)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D106)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="57" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D106)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D125">
+  <conditionalFormatting sqref="D107:D116">
     <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D107)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D107)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D107)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126:D135">
+  <conditionalFormatting sqref="D117:D126">
     <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D117)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D117)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D117)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136:D145">
+  <conditionalFormatting sqref="D127:D136">
     <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D127)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D127)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D127)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D155">
+  <conditionalFormatting sqref="D137:D146">
     <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D146)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D137)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D146)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D137)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D146)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D137)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156:D165">
+  <conditionalFormatting sqref="D147:D156">
     <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D166:D175">
+  <conditionalFormatting sqref="D157:D166">
     <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D166)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D157)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D166)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D157)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D166)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D157)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:D105">
+  <conditionalFormatting sqref="D91:D96">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
@@ -4740,15 +4618,15 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D189:D198">
+  <conditionalFormatting sqref="D180:D189">
     <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D180)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D180)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
@@ -4773,48 +4651,48 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D205">
+  <conditionalFormatting sqref="D196">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D205)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D196)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D205)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D196)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D205)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D196)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D206">
+  <conditionalFormatting sqref="D197">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D197)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D197)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D197)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D207">
+  <conditionalFormatting sqref="D198">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D198)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D198)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D198)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D208:D214">
+  <conditionalFormatting sqref="D199:D205">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D208)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D199)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D208)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D199)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D208)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D199)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -295,9 +295,6 @@
     <t>14.4 Consultar tablero de control Directivo: Representación gráfica del nivel de inasistencias de cursos (docentes)</t>
   </si>
   <si>
-    <t>14.5 Generar reporte de alumnos y de profesores según sus inasistencias.</t>
-  </si>
-  <si>
     <t>14.6 Generar reporte de rendimientos de profesores por periodo.</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>27- Actividades adicionales</t>
+  </si>
+  <si>
+    <t>14.5 Generar reporte de profesores según sus inasistencias.</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2598,9 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="C81" s="24"/>
       <c r="D81" s="14"/>
       <c r="E81" s="5"/>
@@ -2611,7 +2613,9 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="C82" s="24"/>
       <c r="D82" s="14"/>
       <c r="E82" s="5"/>
@@ -2757,7 +2761,7 @@
         <v>26</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C91" s="24">
         <v>20</v>
@@ -2776,7 +2780,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="24">
         <v>20</v>
@@ -2795,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="24">
         <v>20</v>
@@ -2814,7 +2818,7 @@
         <v>26</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="24">
         <v>20</v>
@@ -2833,7 +2837,7 @@
         <v>26</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="24">
         <v>20</v>
@@ -2865,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="12"/>
@@ -2882,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="24">
         <v>18</v>
@@ -2901,7 +2905,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="24">
         <v>14</v>
@@ -2920,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="24">
         <v>12</v>
@@ -3015,7 +3019,7 @@
     <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="12"/>
@@ -3032,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" s="24">
         <v>18</v>
@@ -3153,7 +3157,7 @@
     <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="12"/>
@@ -3170,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="24">
         <v>20</v>
@@ -3189,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="26">
         <v>26</v>
@@ -3208,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" s="24">
         <v>26</v>
@@ -3305,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C127" s="21"/>
       <c r="D127" s="12"/>
@@ -3322,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C128" s="24">
         <v>18</v>
@@ -3341,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C129" s="24">
         <v>18</v>
@@ -3360,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C130" s="24">
         <v>18</v>
@@ -3379,7 +3383,7 @@
         <v>44</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131" s="24">
         <v>18</v>
@@ -3398,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C132" s="24">
         <v>18</v>
@@ -3469,7 +3473,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="12"/>
@@ -3486,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C138" s="24">
         <v>24</v>
@@ -3505,7 +3509,7 @@
         <v>44</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C139" s="24">
         <v>24</v>
@@ -3524,7 +3528,7 @@
         <v>44</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C140" s="24">
         <v>30</v>
@@ -3621,7 +3625,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="12"/>
@@ -3636,7 +3640,7 @@
     <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="14"/>
@@ -3757,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="12"/>
@@ -3772,7 +3776,7 @@
     <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C158" s="24"/>
       <c r="D158" s="14"/>
@@ -3893,7 +3897,7 @@
         <v>22</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C167" s="21"/>
       <c r="D167" s="12"/>
@@ -3908,7 +3912,7 @@
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="14"/>
@@ -3964,7 +3968,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C172" s="21"/>
       <c r="D172" s="12"/>
@@ -3979,7 +3983,7 @@
     <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C173" s="24">
         <v>16</v>
@@ -3996,7 +4000,7 @@
     <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C174" s="24">
         <v>16</v>
@@ -4013,7 +4017,7 @@
     <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C175" s="24">
         <v>10</v>
@@ -4084,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C180" s="21"/>
       <c r="D180" s="12"/>
@@ -4101,7 +4105,7 @@
         <v>45</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C181" s="24">
         <v>12</v>
@@ -4120,7 +4124,7 @@
         <v>45</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C182" s="24">
         <v>12</v>
@@ -4139,7 +4143,7 @@
         <v>45</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C183" s="24">
         <v>12</v>
@@ -4158,7 +4162,7 @@
         <v>45</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C184" s="24">
         <v>12</v>
@@ -4177,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C185" s="24">
         <v>12</v>
@@ -4196,7 +4200,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C186" s="24">
         <v>12</v>
@@ -4215,7 +4219,7 @@
         <v>45</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C187" s="24">
         <v>12</v>
@@ -4234,7 +4238,7 @@
         <v>45</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C188" s="24">
         <v>12</v>
@@ -4264,7 +4268,7 @@
     <row r="191" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="14"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,38 +4,61 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="History" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc220775275" localSheetId="0">Sheet1!$B$9</definedName>
-    <definedName name="_Toc220775276" localSheetId="0">Sheet1!$B$15</definedName>
-    <definedName name="_Toc220775277" localSheetId="0">Sheet1!$B$24</definedName>
-    <definedName name="_Toc220775278" localSheetId="0">Sheet1!$B$30</definedName>
-    <definedName name="_Toc220775279" localSheetId="0">Sheet1!$B$36</definedName>
-    <definedName name="_Toc220775280" localSheetId="0">Sheet1!$B$41</definedName>
-    <definedName name="_Toc220775281" localSheetId="0">Sheet1!$B$48</definedName>
-    <definedName name="_Toc220775282" localSheetId="0">Sheet1!$B$55</definedName>
-    <definedName name="_Toc220775283" localSheetId="0">Sheet1!$B$60</definedName>
-    <definedName name="_Toc220775284" localSheetId="0">Sheet1!$B$66</definedName>
-    <definedName name="_Toc220775285" localSheetId="0">Sheet1!$B$74</definedName>
-    <definedName name="_Toc220775286" localSheetId="0">Sheet1!$B$80</definedName>
-    <definedName name="_Toc220775287" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_Toc220775288" localSheetId="0">Sheet1!$B$86</definedName>
-    <definedName name="_Toc220775289" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_Toc290939942" localSheetId="0">Sheet1!$A$2</definedName>
-    <definedName name="_Toc439994688" localSheetId="0">Sheet1!$B$2</definedName>
+    <definedName name="_Toc220775275" localSheetId="1">Sheet1!$B$9</definedName>
+    <definedName name="_Toc220775276" localSheetId="1">Sheet1!$B$15</definedName>
+    <definedName name="_Toc220775277" localSheetId="1">Sheet1!$B$24</definedName>
+    <definedName name="_Toc220775278" localSheetId="1">Sheet1!$B$30</definedName>
+    <definedName name="_Toc220775279" localSheetId="1">Sheet1!$B$36</definedName>
+    <definedName name="_Toc220775280" localSheetId="1">Sheet1!$B$41</definedName>
+    <definedName name="_Toc220775281" localSheetId="1">Sheet1!$B$48</definedName>
+    <definedName name="_Toc220775282" localSheetId="1">Sheet1!$B$55</definedName>
+    <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$60</definedName>
+    <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$66</definedName>
+    <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$74</definedName>
+    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$80</definedName>
+    <definedName name="_Toc220775287" localSheetId="1">Sheet1!#REF!</definedName>
+    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$86</definedName>
+    <definedName name="_Toc220775289" localSheetId="1">Sheet1!#REF!</definedName>
+    <definedName name="_Toc290939942" localSheetId="1">Sheet1!$A$2</definedName>
+    <definedName name="_Toc439994688" localSheetId="1">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Cocaro</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Date Format is, dd month, yyyy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -428,13 +451,56 @@
   </si>
   <si>
     <t>14.5 Generar reporte de profesores según sus inasistencias.</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>QIKRes</t>
+  </si>
+  <si>
+    <t>Application Name:</t>
+  </si>
+  <si>
+    <t>Etkt for infant</t>
+  </si>
+  <si>
+    <t>Amendment History - Document Status (e.g. Draft, Final, Release #):</t>
+  </si>
+  <si>
+    <t>Document Version #</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Modified By</t>
+  </si>
+  <si>
+    <t>Section, Page(s)and Text Revised</t>
+  </si>
+  <si>
+    <t>Matriz de Trazabilidad</t>
+  </si>
+  <si>
+    <t>1.0 Initial Version</t>
+  </si>
+  <si>
+    <t>Martin Herran</t>
+  </si>
+  <si>
+    <t>Version Inicial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,8 +538,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +596,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -566,11 +676,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="48"/>
+      </left>
+      <right style="thick">
+        <color indexed="18"/>
+      </right>
+      <top style="thick">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +788,51 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,6 +1491,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="40">
+        <v>40678</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K206"/>
   <sheetViews>
@@ -4704,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -4738,16 +5052,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$60</definedName>
     <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$66</definedName>
     <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$74</definedName>
-    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$80</definedName>
+    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$81</definedName>
     <definedName name="_Toc220775287" localSheetId="1">Sheet1!#REF!</definedName>
-    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$86</definedName>
+    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$87</definedName>
     <definedName name="_Toc220775289" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="_Toc290939942" localSheetId="1">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="1">Sheet1!$B$2</definedName>
@@ -48,6 +48,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Date Format is, dd month, yyyy</t>
         </r>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -333,21 +334,9 @@
     <t>15- Registrar plan anual de clases</t>
   </si>
   <si>
-    <t>15.1 Registrar planificación de clases</t>
-  </si>
-  <si>
-    <t>15.2 Consultar Planificación</t>
-  </si>
-  <si>
-    <t>15.3 Asignar fecha y hora de contenido</t>
-  </si>
-  <si>
     <t>16- Registrar temas desarrollados en clases</t>
   </si>
   <si>
-    <t>16.1 Registrar desarrollo real de clase.</t>
-  </si>
-  <si>
     <t>17- Gestionar temas desarrollados en clases versus temas planificados</t>
   </si>
   <si>
@@ -490,6 +479,69 @@
   </si>
   <si>
     <t>Version Inicial</t>
+  </si>
+  <si>
+    <t>15.1 Gestionar planificación de clases</t>
+  </si>
+  <si>
+    <t>16.1 Gestionar desarrollo real de clase.</t>
+  </si>
+  <si>
+    <t>1. Registrar planificación de clases.</t>
+  </si>
+  <si>
+    <t>2. Modificar planificacion de clases.</t>
+  </si>
+  <si>
+    <t>3. Consultar planificacion de clases.</t>
+  </si>
+  <si>
+    <t>4. Registrar contenido de clase dictada.</t>
+  </si>
+  <si>
+    <t>5. Modificar  contenido de clase dictada.</t>
+  </si>
+  <si>
+    <t>6. Consultar  contenido de clase dictada.</t>
+  </si>
+  <si>
+    <t>7. Emitir informe de advertencias sobre el desvío de lo estimado y lo real</t>
+  </si>
+  <si>
+    <t>8. Consultar tablero de control de docentes</t>
+  </si>
+  <si>
+    <t>11. Generar gráfica del nivel de calificaciones de alumnos</t>
+  </si>
+  <si>
+    <t>9. Consultar tablero de control de directivo</t>
+  </si>
+  <si>
+    <t>13. Generar gráfica del nivel de calificaciones de cursos</t>
+  </si>
+  <si>
+    <t>14. Generar gráfica del nivel de calificaciones de asignatura</t>
+  </si>
+  <si>
+    <t>15. Generar gráfica del nivel de inasistencias de alumnos por curso</t>
+  </si>
+  <si>
+    <t>16. Generar gráfica del nivel de inasistencias de docentes por curso</t>
+  </si>
+  <si>
+    <t>17. Generar gráfica del nivel de desvío de la planificación de clases por curso</t>
+  </si>
+  <si>
+    <t>12. Generar gráfica del desvío de la planificación de clases</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Pablo-Belen</t>
+  </si>
+  <si>
+    <t>Modulo de gestion de planificacion</t>
   </si>
 </sst>
 </file>
@@ -500,7 +552,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +627,13 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -723,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,19 +862,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -833,32 +883,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1494,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1516,18 +1557,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1539,66 +1580,74 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="B9" s="39">
+        <v>40678</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D9" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="40">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="39">
         <v>40678</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,10 +1657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="675" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2591,9 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="B57" s="9" t="s">
         <v>80</v>
       </c>
@@ -2823,7 +2875,9 @@
         <v>15</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -2832,103 +2886,105 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="19">
-        <v>22</v>
-      </c>
+      <c r="A76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
+      <c r="E76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C77" s="19">
         <v>22</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="19">
+        <v>22</v>
+      </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="22"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4" t="s">
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="18" t="s">
+      <c r="C81" s="21"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="14"/>
@@ -2941,8 +2997,12 @@
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="C83" s="24"/>
       <c r="D83" s="14"/>
       <c r="E83" s="5"/>
@@ -2979,52 +3039,48 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4" t="s">
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="26">
-        <v>12</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="24">
+      <c r="B88" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="26">
         <v>12</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3033,17 +3089,13 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="24">
-        <v>12</v>
-      </c>
+      <c r="A89" s="9"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -3056,13 +3108,15 @@
         <v>9</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="24">
         <v>12</v>
       </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3071,17 +3125,13 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="24">
-        <v>20</v>
-      </c>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="24"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3091,16 +3141,18 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C92" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3109,17 +3161,13 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="24">
-        <v>20</v>
-      </c>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="24"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -3129,16 +3177,18 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C94" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D94" s="14"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3147,17 +3197,13 @@
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="24">
-        <v>20</v>
-      </c>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="14"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -3166,9 +3212,15 @@
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="24"/>
+      <c r="A96" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="24">
+        <v>20</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -3178,32 +3230,34 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="24">
+        <v>20</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="5"/>
@@ -3216,13 +3270,13 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="5"/>
@@ -3235,13 +3289,13 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C100" s="24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="5"/>
@@ -3265,25 +3319,37 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="24"/>
+      <c r="A103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="24">
+        <v>18</v>
+      </c>
       <c r="D103" s="14"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="48" t="s">
+        <v>142</v>
+      </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -3296,7 +3362,9 @@
       <c r="B104" s="9"/>
       <c r="C104" s="24"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="48" t="s">
+        <v>143</v>
+      </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -3309,7 +3377,9 @@
       <c r="B105" s="9"/>
       <c r="C105" s="24"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="48" t="s">
+        <v>144</v>
+      </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -3322,7 +3392,6 @@
       <c r="B106" s="9"/>
       <c r="C106" s="24"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -3330,33 +3399,24 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="24">
-        <v>18</v>
-      </c>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="24"/>
       <c r="D108" s="14"/>
-      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -3390,25 +3450,35 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="24"/>
+      <c r="A112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="24">
+        <v>18</v>
+      </c>
       <c r="D112" s="14"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -3421,7 +3491,9 @@
       <c r="B113" s="9"/>
       <c r="C113" s="24"/>
       <c r="D113" s="14"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -3434,7 +3506,9 @@
       <c r="B114" s="9"/>
       <c r="C114" s="24"/>
       <c r="D114" s="14"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -3468,31 +3542,23 @@
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
+    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="24">
-        <v>20</v>
-      </c>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="24"/>
       <c r="D118" s="14"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -3503,15 +3569,9 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C119" s="26">
-        <v>26</v>
-      </c>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="14"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3522,15 +3582,9 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C120" s="24">
-        <v>26</v>
-      </c>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="24"/>
       <c r="D120" s="14"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3540,25 +3594,35 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="21"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="24"/>
+      <c r="A122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" s="24">
+        <v>20</v>
+      </c>
       <c r="D122" s="14"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -3567,11 +3631,19 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="24"/>
+      <c r="A123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="26">
+        <v>26</v>
+      </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -3581,10 +3653,12 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="24"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -3593,11 +3667,19 @@
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="24"/>
+      <c r="A125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="24">
+        <v>26</v>
+      </c>
       <c r="D125" s="14"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -3610,7 +3692,9 @@
       <c r="B126" s="9"/>
       <c r="C126" s="24"/>
       <c r="D126" s="14"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -3618,33 +3702,23 @@
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="21"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
+    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128" s="24">
-        <v>18</v>
-      </c>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="24"/>
       <c r="D128" s="14"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -3655,15 +3729,9 @@
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C129" s="24">
-        <v>18</v>
-      </c>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="24"/>
       <c r="D129" s="14"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -3674,15 +3742,9 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C130" s="24">
-        <v>18</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="24"/>
       <c r="D130" s="14"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -3693,15 +3755,9 @@
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C131" s="24">
-        <v>18</v>
-      </c>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="24"/>
       <c r="D131" s="14"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -3711,29 +3767,33 @@
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="21"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="24">
+      <c r="B133" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="24">
         <v>18</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="24"/>
       <c r="D133" s="14"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -3744,9 +3804,15 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="24"/>
+      <c r="A134" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="24">
+        <v>18</v>
+      </c>
       <c r="D134" s="14"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -3757,9 +3823,15 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="24"/>
+      <c r="A135" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="24">
+        <v>18</v>
+      </c>
       <c r="D135" s="14"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -3770,9 +3842,15 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="24"/>
+      <c r="A136" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="24">
+        <v>18</v>
+      </c>
       <c r="D136" s="14"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -3782,33 +3860,29 @@
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="21"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
+    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" s="24">
+        <v>18</v>
+      </c>
+      <c r="D137" s="14"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C138" s="24">
-        <v>24</v>
-      </c>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="24"/>
       <c r="D138" s="14"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -3819,15 +3893,9 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="24">
-        <v>24</v>
-      </c>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="24"/>
       <c r="D139" s="14"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -3838,15 +3906,9 @@
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="24">
-        <v>30</v>
-      </c>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="24"/>
       <c r="D140" s="14"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -3869,23 +3931,33 @@
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
+    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="24"/>
+      <c r="A143" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="24">
+        <v>24</v>
+      </c>
       <c r="D143" s="14"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -3896,9 +3968,15 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="24"/>
+      <c r="A144" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" s="24">
+        <v>24</v>
+      </c>
       <c r="D144" s="14"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -3909,9 +3987,15 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="24"/>
+      <c r="A145" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="24">
+        <v>30</v>
+      </c>
       <c r="D145" s="14"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -3934,28 +4018,22 @@
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
+    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
-      <c r="B148" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B148" s="9"/>
       <c r="C148" s="24"/>
       <c r="D148" s="14"/>
       <c r="E148" s="5"/>
@@ -4005,22 +4083,28 @@
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
+    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" s="21"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C153" s="24"/>
       <c r="D153" s="14"/>
       <c r="E153" s="5"/>
@@ -4070,28 +4154,22 @@
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
-      <c r="B158" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B158" s="9"/>
       <c r="C158" s="24"/>
       <c r="D158" s="14"/>
       <c r="E158" s="5"/>
@@ -4141,22 +4219,28 @@
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
+    <row r="162" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
+      <c r="B163" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C163" s="24"/>
       <c r="D163" s="14"/>
       <c r="E163" s="5"/>
@@ -4206,28 +4290,22 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
+    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
-      <c r="B168" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B168" s="9"/>
       <c r="C168" s="24"/>
       <c r="D168" s="14"/>
       <c r="E168" s="5"/>
@@ -4282,7 +4360,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C172" s="21"/>
       <c r="D172" s="12"/>
@@ -4297,11 +4375,9 @@
     <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C173" s="24">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C173" s="24"/>
       <c r="D173" s="14"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -4313,12 +4389,8 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
-      <c r="B174" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C174" s="24">
-        <v>16</v>
-      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="24"/>
       <c r="D174" s="14"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -4330,12 +4402,8 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
-      <c r="B175" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C175" s="24">
-        <v>10</v>
-      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="24"/>
       <c r="D175" s="14"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -4358,23 +4426,31 @@
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
+    <row r="177" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="21"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="24"/>
+      <c r="B178" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="24">
+        <v>16</v>
+      </c>
       <c r="D178" s="14"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -4386,8 +4462,12 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="24"/>
+      <c r="B179" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C179" s="24">
+        <v>16</v>
+      </c>
       <c r="D179" s="14"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -4397,33 +4477,27 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
+    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C180" s="24">
+        <v>10</v>
+      </c>
+      <c r="D180" s="14"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C181" s="24">
-        <v>12</v>
-      </c>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="24"/>
       <c r="D181" s="14"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -4434,15 +4508,9 @@
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C182" s="24">
-        <v>12</v>
-      </c>
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="24"/>
       <c r="D182" s="14"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -4453,15 +4521,9 @@
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C183" s="24">
-        <v>12</v>
-      </c>
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="24"/>
       <c r="D183" s="14"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -4472,15 +4534,9 @@
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C184" s="24">
-        <v>12</v>
-      </c>
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="24"/>
       <c r="D184" s="14"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -4490,31 +4546,29 @@
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C185" s="24">
-        <v>12</v>
-      </c>
-      <c r="D185" s="14"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
+    <row r="185" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="21"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C186" s="24">
         <v>12</v>
@@ -4533,7 +4587,7 @@
         <v>45</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C187" s="24">
         <v>12</v>
@@ -4552,7 +4606,7 @@
         <v>45</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C188" s="24">
         <v>12</v>
@@ -4567,9 +4621,15 @@
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="24"/>
+      <c r="A189" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C189" s="24">
+        <v>12</v>
+      </c>
       <c r="D189" s="14"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -4579,12 +4639,35 @@
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="191" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C191" s="24"/>
+    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="24">
+        <v>12</v>
+      </c>
+      <c r="D190" s="14"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" s="24">
+        <v>12</v>
+      </c>
       <c r="D191" s="14"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -4595,12 +4678,14 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
+      <c r="A192" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B192" s="9" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C192" s="24">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D192" s="14"/>
       <c r="E192" s="5"/>
@@ -4612,12 +4697,14 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
+      <c r="A193" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B193" s="9" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C193" s="24">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D193" s="14"/>
       <c r="E193" s="5"/>
@@ -4630,12 +4717,8 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
-      <c r="B194" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C194" s="24">
-        <v>50</v>
-      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="24"/>
       <c r="D194" s="14"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -4645,31 +4728,12 @@
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C195" s="24">
-        <v>50</v>
-      </c>
-      <c r="D195" s="14"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-    </row>
-    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
-      <c r="B196" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C196" s="24">
-        <v>80</v>
-      </c>
+      <c r="B196" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C196" s="24"/>
       <c r="D196" s="14"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -4682,10 +4746,10 @@
     <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C197" s="24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="5"/>
@@ -4699,10 +4763,10 @@
     <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C198" s="24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D198" s="14"/>
       <c r="E198" s="5"/>
@@ -4716,10 +4780,10 @@
     <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C199" s="24">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D199" s="14"/>
       <c r="E199" s="5"/>
@@ -4733,7 +4797,7 @@
     <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C200" s="24">
         <v>50</v>
@@ -4750,10 +4814,10 @@
     <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C201" s="24">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D201" s="14"/>
       <c r="E201" s="5"/>
@@ -4766,8 +4830,12 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="24"/>
+      <c r="B202" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="24">
+        <v>30</v>
+      </c>
       <c r="D202" s="14"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -4779,8 +4847,12 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="24"/>
+      <c r="B203" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="24">
+        <v>100</v>
+      </c>
       <c r="D203" s="14"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -4792,8 +4864,12 @@
     </row>
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="24"/>
+      <c r="B204" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C204" s="24">
+        <v>20</v>
+      </c>
       <c r="D204" s="14"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -4805,8 +4881,12 @@
     </row>
     <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="24"/>
+      <c r="B205" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="24">
+        <v>50</v>
+      </c>
       <c r="D205" s="14"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -4816,113 +4896,171 @@
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="28" t="s">
+    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="9"/>
+      <c r="B206" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="24">
+        <v>40</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="9"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C206" s="27">
-        <f>SUM(C2:C205)</f>
-        <v>1676</v>
+      <c r="C211" s="27">
+        <f>SUM(C2:C210)</f>
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:D45 D48:D55 D57:D69 D191:D195 D167:D179 D72:D90">
-    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="NO COMENZADO">
+  <conditionalFormatting sqref="D8:D45 D48:D55 D57:D69 D196:D200 D172:D184 D72:D95 D102:D110">
+    <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D106">
-    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D97)))</formula>
+  <conditionalFormatting sqref="D111:D120">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D97)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="57" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D97)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107:D116">
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D107)))</formula>
+  <conditionalFormatting sqref="D121:D131">
+    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D107)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D107)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D121)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D117:D126">
-    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D117)))</formula>
+  <conditionalFormatting sqref="D132:D141">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D117)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D117)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D132)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D127:D136">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D127)))</formula>
+  <conditionalFormatting sqref="D142:D151">
+    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D127)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D127)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D142)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D146">
-    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D137)))</formula>
+  <conditionalFormatting sqref="D152:D161">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D137)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D137)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D152)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D156">
-    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D147)))</formula>
+  <conditionalFormatting sqref="D162:D171">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D147)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D147)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157:D166">
-    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D157)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D96">
+  <conditionalFormatting sqref="D96:D101">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D91)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D96)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D91)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D96)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D91)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
@@ -4936,15 +5074,15 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D189">
+  <conditionalFormatting sqref="D185:D194">
     <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D185)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D185)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
@@ -4969,48 +5107,48 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D196">
+  <conditionalFormatting sqref="D201">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D196)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D201)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D196)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D201)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D196)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D201)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D197">
+  <conditionalFormatting sqref="D202">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D197)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D202)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D197)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D202)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D197)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D202)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D198">
+  <conditionalFormatting sqref="D203">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D198)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D203)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D198)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D203)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D198)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D203)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D199:D205">
+  <conditionalFormatting sqref="D204:D210">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D199)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D204)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D199)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D204)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D199)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -20,12 +20,12 @@
     <definedName name="_Toc220775280" localSheetId="1">Sheet1!$B$41</definedName>
     <definedName name="_Toc220775281" localSheetId="1">Sheet1!$B$48</definedName>
     <definedName name="_Toc220775282" localSheetId="1">Sheet1!$B$55</definedName>
-    <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$60</definedName>
-    <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$66</definedName>
-    <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$74</definedName>
-    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$81</definedName>
+    <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$63</definedName>
+    <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$69</definedName>
+    <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$77</definedName>
+    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$87</definedName>
     <definedName name="_Toc220775287" localSheetId="1">Sheet1!#REF!</definedName>
-    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$87</definedName>
+    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$95</definedName>
     <definedName name="_Toc220775289" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="_Toc290939942" localSheetId="1">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="1">Sheet1!$B$2</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -148,9 +148,6 @@
     <t>11.1 Generar mensaje.</t>
   </si>
   <si>
-    <t>12.3 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
-  </si>
-  <si>
     <t>Comunicación</t>
   </si>
   <si>
@@ -542,6 +539,51 @@
   </si>
   <si>
     <t>Modulo de gestion de planificacion</t>
+  </si>
+  <si>
+    <t>27. Generar reporte de notas de cada una de las materias en los que va del año de un alumno</t>
+  </si>
+  <si>
+    <t>28. Exportar a PDF</t>
+  </si>
+  <si>
+    <t>29. Imprimir reporte</t>
+  </si>
+  <si>
+    <t>26. Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores</t>
+  </si>
+  <si>
+    <t>24. Generar reporte estadístico sobre las encuestas de docente</t>
+  </si>
+  <si>
+    <t>25. Generar reporte estadístico sobre las encuestas de docente</t>
+  </si>
+  <si>
+    <t>19. Generar reporte de rendimiento de alumnos por periodo</t>
+  </si>
+  <si>
+    <t>26. Generar reporte estadístico sobre las encuestas de docente</t>
+  </si>
+  <si>
+    <t>18. Generar reporte de profesores según sus inasistencias</t>
+  </si>
+  <si>
+    <t>20. Generar reporte de rendimientos de profesores por periodo</t>
+  </si>
+  <si>
+    <t>21. Generar reporte de rendimiento por cursos</t>
+  </si>
+  <si>
+    <t>22. Generar reporte de rendimiento por asignatura y curso</t>
+  </si>
+  <si>
+    <t>23. Generar reporte estadístico de uso sobre la cantidad de accesos a la autogestión por mes</t>
+  </si>
+  <si>
+    <t>1.1a</t>
+  </si>
+  <si>
+    <t>Modulo de reportes</t>
   </si>
 </sst>
 </file>
@@ -662,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -778,11 +820,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,9 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -895,6 +947,13 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,7 +1595,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1608,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1557,18 +1616,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1580,65 +1639,73 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>137</v>
+      <c r="A9" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="B9" s="39">
         <v>40678</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>158</v>
+      <c r="A10" s="49" t="s">
+        <v>157</v>
       </c>
       <c r="B10" s="39">
         <v>40678</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="39">
+        <v>40678</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="40"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
@@ -1657,11 +1724,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="675" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="675" topLeftCell="A187" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1695,13 +1762,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -1730,10 +1797,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="19">
         <v>16</v>
@@ -1749,10 +1816,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="19">
         <v>12</v>
@@ -1768,10 +1835,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="19">
         <v>18</v>
@@ -1841,10 +1908,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="19">
         <v>10</v>
@@ -1860,10 +1927,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23">
         <v>16</v>
@@ -1933,10 +2000,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C16" s="19">
         <v>24</v>
@@ -1952,10 +2019,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19">
         <v>18</v>
@@ -1971,10 +2038,10 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19">
         <v>18</v>
@@ -1990,10 +2057,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="19">
         <v>18</v>
@@ -2009,10 +2076,10 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="19">
         <v>18</v>
@@ -2028,10 +2095,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="19">
         <v>14</v>
@@ -2088,10 +2155,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="24">
         <v>16</v>
@@ -2107,10 +2174,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="24">
         <v>12</v>
@@ -2183,13 +2250,15 @@
         <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="24">
         <v>20</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2202,7 +2271,9 @@
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2215,7 +2286,9 @@
       <c r="B33" s="9"/>
       <c r="C33" s="24"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2269,13 +2342,15 @@
         <v>26</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="25">
         <v>25</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2288,7 +2363,9 @@
       <c r="B38" s="9"/>
       <c r="C38" s="24"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2301,7 +2378,9 @@
       <c r="B39" s="9"/>
       <c r="C39" s="24"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2339,10 +2418,10 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="24">
         <v>40</v>
@@ -2358,10 +2437,10 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
@@ -2377,10 +2456,10 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="24">
         <v>20</v>
@@ -2396,10 +2475,10 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="24">
         <v>10</v>
@@ -2456,10 +2535,10 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="24">
         <v>40</v>
@@ -2475,10 +2554,10 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="24">
         <v>10</v>
@@ -2494,10 +2573,10 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="24">
         <v>20</v>
@@ -2513,10 +2592,10 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="24">
         <v>10</v>
@@ -2576,13 +2655,15 @@
         <v>26</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="24">
         <v>25</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -2591,15 +2672,13 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="A57" s="9"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="24"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2609,10 +2688,12 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="24"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2620,12 +2701,18 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="22"/>
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="24"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2633,33 +2720,29 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="24">
-        <v>20</v>
-      </c>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2667,16 +2750,10 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="24">
-        <v>20</v>
-      </c>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="14"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2686,23 +2763,31 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="24">
+        <v>20</v>
+      </c>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -2712,10 +2797,16 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="22"/>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="24">
+        <v>20</v>
+      </c>
       <c r="D65" s="14"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -2725,31 +2816,23 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="24">
-        <v>12</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2759,16 +2842,10 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="24">
-        <v>15</v>
-      </c>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2778,29 +2855,31 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="24">
-        <v>10</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="24"/>
+      <c r="A70" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="24">
+        <v>12</v>
+      </c>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2811,9 +2890,15 @@
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="24"/>
+      <c r="A71" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="24">
+        <v>15</v>
+      </c>
       <c r="D71" s="14"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2824,9 +2909,15 @@
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="24">
+        <v>10</v>
+      </c>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2836,10 +2927,10 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="22"/>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2849,35 +2940,25 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="23">
-        <v>15</v>
-      </c>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -2885,14 +2966,12 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="23"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -2900,37 +2979,35 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="19">
-        <v>22</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="19">
-        <v>22</v>
+      <c r="A78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="23">
+        <v>15</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -2939,73 +3016,85 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="22"/>
+      <c r="E79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="19">
+        <v>22</v>
+      </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+      <c r="E80" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="24"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="14"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="24"/>
+      <c r="B83" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="19">
+        <v>22</v>
+      </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3014,11 +3103,13 @@
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="24"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3027,22 +3118,24 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="24"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="24"/>
+      <c r="E85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="22"/>
       <c r="D86" s="14"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3055,7 +3148,7 @@
     <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C87" s="21"/>
       <c r="D87" s="12"/>
@@ -3068,18 +3161,16 @@
       <c r="K87" s="10"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="26">
-        <v>12</v>
-      </c>
+      <c r="A88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="24"/>
       <c r="D88" s="14"/>
       <c r="E88" s="5" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -3089,12 +3180,12 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="14"/>
       <c r="E89" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -3104,18 +3195,12 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="24">
-        <v>12</v>
-      </c>
+      <c r="A90" s="6"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="24"/>
       <c r="D90" s="14"/>
       <c r="E90" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -3125,12 +3210,16 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="C91" s="24"/>
       <c r="D91" s="14"/>
       <c r="E91" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3140,18 +3229,12 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="24">
-        <v>12</v>
-      </c>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="14"/>
       <c r="E92" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -3166,7 +3249,7 @@
       <c r="C93" s="24"/>
       <c r="D93" s="14"/>
       <c r="E93" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -3176,19 +3259,11 @@
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="24">
-        <v>12</v>
-      </c>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="24"/>
       <c r="D94" s="14"/>
-      <c r="E94" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3196,33 +3271,35 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="24">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="26">
+        <v>12</v>
       </c>
       <c r="D96" s="14"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3231,17 +3308,13 @@
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" s="24">
-        <v>20</v>
-      </c>
+      <c r="A97" s="9"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="14"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -3251,16 +3324,18 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C98" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D98" s="14"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -3269,17 +3344,13 @@
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="24">
-        <v>20</v>
-      </c>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -3289,16 +3360,18 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C100" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -3311,7 +3384,9 @@
       <c r="B101" s="9"/>
       <c r="C101" s="24"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -3319,36 +3394,34 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
+      <c r="B102" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="24">
+        <v>12</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C103" s="24">
-        <v>18</v>
-      </c>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="48" t="s">
-        <v>142</v>
+      <c r="E103" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -3358,12 +3431,18 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="24"/>
+      <c r="A104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="24">
+        <v>20</v>
+      </c>
       <c r="D104" s="14"/>
-      <c r="E104" s="48" t="s">
-        <v>143</v>
+      <c r="E104" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -3377,8 +3456,8 @@
       <c r="B105" s="9"/>
       <c r="C105" s="24"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="48" t="s">
-        <v>144</v>
+      <c r="E105" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -3392,6 +3471,9 @@
       <c r="B106" s="9"/>
       <c r="C106" s="24"/>
       <c r="D106" s="14"/>
+      <c r="E106" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -3400,11 +3482,19 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="24"/>
+      <c r="A107" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="24">
+        <v>20</v>
+      </c>
       <c r="D107" s="14"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -3417,6 +3507,9 @@
       <c r="B108" s="9"/>
       <c r="C108" s="24"/>
       <c r="D108" s="14"/>
+      <c r="E108" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -3429,7 +3522,9 @@
       <c r="B109" s="9"/>
       <c r="C109" s="24"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -3438,11 +3533,19 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="24"/>
+      <c r="A110" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="24">
+        <v>20</v>
+      </c>
       <c r="D110" s="14"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -3450,34 +3553,28 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="24">
-        <v>18</v>
-      </c>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="14"/>
       <c r="E112" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -3487,12 +3584,18 @@
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="24"/>
+      <c r="A113" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="24">
+        <v>20</v>
+      </c>
       <c r="D113" s="14"/>
       <c r="E113" s="5" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -3507,7 +3610,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="14"/>
       <c r="E114" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -3521,7 +3624,9 @@
       <c r="B115" s="9"/>
       <c r="C115" s="24"/>
       <c r="D115" s="14"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -3530,11 +3635,19 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="24"/>
+      <c r="A116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="24">
+        <v>20</v>
+      </c>
       <c r="D116" s="14"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -3547,7 +3660,9 @@
       <c r="B117" s="9"/>
       <c r="C117" s="24"/>
       <c r="D117" s="14"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -3560,7 +3675,9 @@
       <c r="B118" s="9"/>
       <c r="C118" s="24"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -3581,47 +3698,51 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="24">
+        <v>18</v>
+      </c>
+      <c r="D121" s="14"/>
+      <c r="E121" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="24">
-        <v>20</v>
-      </c>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="24"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="5" t="s">
-        <v>148</v>
+      <c r="E122" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -3631,18 +3752,12 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" s="26">
-        <v>26</v>
-      </c>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="24"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="5" t="s">
-        <v>149</v>
+      <c r="E123" s="52" t="s">
+        <v>143</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -3653,12 +3768,9 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="26"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -3667,19 +3779,11 @@
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" s="24">
-        <v>26</v>
-      </c>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -3692,9 +3796,6 @@
       <c r="B126" s="9"/>
       <c r="C126" s="24"/>
       <c r="D126" s="14"/>
-      <c r="E126" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -3728,25 +3829,35 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="21"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="24"/>
+      <c r="A130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="24">
+        <v>18</v>
+      </c>
       <c r="D130" s="14"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -3759,7 +3870,9 @@
       <c r="B131" s="9"/>
       <c r="C131" s="24"/>
       <c r="D131" s="14"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -3767,33 +3880,25 @@
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C132" s="21"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
+    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="24">
-        <v>18</v>
-      </c>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="24"/>
       <c r="D133" s="14"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -3804,15 +3909,9 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="24">
-        <v>18</v>
-      </c>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="24"/>
       <c r="D134" s="14"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -3823,15 +3922,9 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="24">
-        <v>18</v>
-      </c>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="24"/>
       <c r="D135" s="14"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -3842,15 +3935,9 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C136" s="24">
-        <v>18</v>
-      </c>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="24"/>
       <c r="D136" s="14"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -3861,15 +3948,9 @@
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137" s="24">
-        <v>18</v>
-      </c>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="24"/>
       <c r="D137" s="14"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -3892,25 +3973,35 @@
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
+    <row r="139" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="24"/>
+      <c r="A140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" s="24">
+        <v>20</v>
+      </c>
       <c r="D140" s="14"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -3919,11 +4010,19 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="24"/>
+      <c r="A141" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" s="26">
+        <v>26</v>
+      </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -3931,35 +4030,35 @@
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
+    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C143" s="24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -3968,17 +4067,13 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C144" s="24">
-        <v>24</v>
-      </c>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="24"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
@@ -3987,15 +4082,9 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C145" s="24">
-        <v>30</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="24"/>
       <c r="D145" s="14"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -4057,23 +4146,33 @@
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
+    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="21"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="24"/>
+      <c r="A151" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C151" s="24">
+        <v>18</v>
+      </c>
       <c r="D151" s="14"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -4083,29 +4182,35 @@
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
+    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="24">
+        <v>18</v>
+      </c>
+      <c r="D152" s="14"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B153" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C153" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="C153" s="24">
+        <v>18</v>
+      </c>
       <c r="D153" s="14"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -4116,9 +4221,15 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="24"/>
+      <c r="A154" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C154" s="24">
+        <v>18</v>
+      </c>
       <c r="D154" s="14"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -4129,9 +4240,15 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="24"/>
+      <c r="A155" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155" s="24">
+        <v>18</v>
+      </c>
       <c r="D155" s="14"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -4193,23 +4310,33 @@
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
+    <row r="160" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="24"/>
+      <c r="A161" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" s="24">
+        <v>24</v>
+      </c>
       <c r="D161" s="14"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -4219,29 +4346,35 @@
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
+    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="24">
+        <v>24</v>
+      </c>
+      <c r="D162" s="14"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
+      <c r="A163" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B163" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C163" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="C163" s="24">
+        <v>30</v>
+      </c>
       <c r="D163" s="14"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -4329,22 +4462,28 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
+    <row r="170" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="21"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
+      <c r="B171" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C171" s="24"/>
       <c r="D171" s="14"/>
       <c r="E171" s="5"/>
@@ -4355,28 +4494,22 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C172" s="21"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
+    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
-      <c r="B173" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B173" s="9"/>
       <c r="C173" s="24"/>
       <c r="D173" s="14"/>
       <c r="E173" s="5"/>
@@ -4426,31 +4559,23 @@
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C177" s="21"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
+    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
-      <c r="B178" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C178" s="24">
-        <v>16</v>
-      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="24"/>
       <c r="D178" s="14"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -4462,12 +4587,8 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
-      <c r="B179" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C179" s="24">
-        <v>16</v>
-      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="24"/>
       <c r="D179" s="14"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -4477,26 +4598,28 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C180" s="24">
-        <v>10</v>
-      </c>
-      <c r="D180" s="14"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
+    <row r="180" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C180" s="21"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="B181" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C181" s="24"/>
       <c r="D181" s="14"/>
       <c r="E181" s="5"/>
@@ -4546,33 +4669,23 @@
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C185" s="21"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10"/>
+    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C186" s="24">
-        <v>12</v>
-      </c>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="24"/>
       <c r="D186" s="14"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -4583,15 +4696,9 @@
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C187" s="24">
-        <v>12</v>
-      </c>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="24"/>
       <c r="D187" s="14"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -4602,15 +4709,9 @@
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C188" s="24">
-        <v>12</v>
-      </c>
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="24"/>
       <c r="D188" s="14"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -4621,15 +4722,9 @@
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C189" s="24">
-        <v>12</v>
-      </c>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="24"/>
       <c r="D189" s="14"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -4639,35 +4734,29 @@
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C190" s="24">
-        <v>12</v>
-      </c>
-      <c r="D190" s="14"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
+    <row r="190" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C191" s="24">
-        <v>12</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C191" s="24"/>
       <c r="D191" s="14"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -4678,15 +4767,9 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C192" s="24">
-        <v>12</v>
-      </c>
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="24"/>
       <c r="D192" s="14"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -4697,15 +4780,9 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C193" s="24">
-        <v>12</v>
-      </c>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="24"/>
       <c r="D193" s="14"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -4728,12 +4805,31 @@
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
     </row>
-    <row r="196" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
-      <c r="B196" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C196" s="24"/>
+      <c r="B196" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C196" s="24">
+        <v>16</v>
+      </c>
       <c r="D196" s="14"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -4746,10 +4842,10 @@
     <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C197" s="24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="5"/>
@@ -4763,10 +4859,10 @@
     <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C198" s="24">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D198" s="14"/>
       <c r="E198" s="5"/>
@@ -4779,12 +4875,8 @@
     </row>
     <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
-      <c r="B199" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C199" s="24">
-        <v>50</v>
-      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="24"/>
       <c r="D199" s="14"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -4796,12 +4888,8 @@
     </row>
     <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
-      <c r="B200" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C200" s="24">
-        <v>50</v>
-      </c>
+      <c r="B200" s="9"/>
+      <c r="C200" s="24"/>
       <c r="D200" s="14"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -4813,12 +4901,8 @@
     </row>
     <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
-      <c r="B201" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C201" s="24">
-        <v>80</v>
-      </c>
+      <c r="B201" s="9"/>
+      <c r="C201" s="24"/>
       <c r="D201" s="14"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -4830,12 +4914,8 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C202" s="24">
-        <v>30</v>
-      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="24"/>
       <c r="D202" s="14"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -4845,30 +4925,32 @@
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C203" s="24">
-        <v>100</v>
-      </c>
-      <c r="D203" s="14"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
+    <row r="203" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B204" s="9" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C204" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="5"/>
@@ -4880,12 +4962,14 @@
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
+      <c r="A205" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B205" s="9" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C205" s="24">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D205" s="14"/>
       <c r="E205" s="5"/>
@@ -4897,12 +4981,14 @@
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B206" s="9" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C206" s="24">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D206" s="14"/>
       <c r="E206" s="5"/>
@@ -4914,9 +5000,15 @@
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="24"/>
+      <c r="A207" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="24">
+        <v>12</v>
+      </c>
       <c r="D207" s="14"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -4927,9 +5019,15 @@
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="24"/>
+      <c r="A208" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C208" s="24">
+        <v>12</v>
+      </c>
       <c r="D208" s="14"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -4940,9 +5038,15 @@
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="24"/>
+      <c r="A209" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C209" s="24">
+        <v>12</v>
+      </c>
       <c r="D209" s="14"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -4953,9 +5057,15 @@
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="24"/>
+      <c r="A210" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="24">
+        <v>12</v>
+      </c>
       <c r="D210" s="14"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -4965,17 +5075,289 @@
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C211" s="27">
-        <f>SUM(C2:C210)</f>
+    <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" s="24">
+        <v>12</v>
+      </c>
+      <c r="D211" s="14"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="53"/>
+    </row>
+    <row r="214" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A214" s="9"/>
+      <c r="B214" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C214" s="24"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C215" s="24">
+        <v>40</v>
+      </c>
+      <c r="D215" s="14"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="9"/>
+      <c r="B216" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" s="24">
+        <v>50</v>
+      </c>
+      <c r="D216" s="14"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="9"/>
+      <c r="B217" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" s="24">
+        <v>50</v>
+      </c>
+      <c r="D217" s="14"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="9"/>
+      <c r="B218" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C218" s="24">
+        <v>50</v>
+      </c>
+      <c r="D218" s="14"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="9"/>
+      <c r="B219" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C219" s="24">
+        <v>80</v>
+      </c>
+      <c r="D219" s="14"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="9"/>
+      <c r="B220" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C220" s="24">
+        <v>30</v>
+      </c>
+      <c r="D220" s="14"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="9"/>
+      <c r="B221" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C221" s="24">
+        <v>100</v>
+      </c>
+      <c r="D221" s="14"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222" s="24">
+        <v>20</v>
+      </c>
+      <c r="D222" s="14"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C223" s="24">
+        <v>50</v>
+      </c>
+      <c r="D223" s="14"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="9"/>
+      <c r="B224" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C224" s="24">
+        <v>40</v>
+      </c>
+      <c r="D224" s="14"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B229" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C229" s="27">
+        <f>SUM(C2:C228)</f>
         <v>1650</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:D45 D48:D55 D57:D69 D196:D200 D172:D184 D72:D95 D102:D110">
+  <conditionalFormatting sqref="D8:D45 D48:D55 D59:D72 D214:D218 D190:D202 D75:D103 D120:D128">
     <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
     </cfRule>
@@ -4986,103 +5368,103 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D111:D120">
+  <conditionalFormatting sqref="D129:D138">
     <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D129)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121:D131">
+  <conditionalFormatting sqref="D139:D149">
     <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D121)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D139)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D121)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D139)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D121)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D139)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:D141">
+  <conditionalFormatting sqref="D150:D159">
     <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D150)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D150)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D150)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142:D151">
+  <conditionalFormatting sqref="D160:D169">
     <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D160)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D160)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152:D161">
+  <conditionalFormatting sqref="D170:D179">
     <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D170)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D170)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D170)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162:D171">
+  <conditionalFormatting sqref="D180:D189">
     <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D162)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D180)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D162)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D180)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D162)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D101">
+  <conditionalFormatting sqref="D104:D119">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D104)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D104)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D71">
+  <conditionalFormatting sqref="D73:D74">
     <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D185:D194">
+  <conditionalFormatting sqref="D203:D212">
     <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D185)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D203)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D185)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D203)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D185)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
@@ -5096,7 +5478,7 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D56:D58">
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D56)))</formula>
     </cfRule>
@@ -5107,48 +5489,48 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D201">
+  <conditionalFormatting sqref="D219">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D201)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D219)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D201)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D219)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D201)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D219)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D202">
+  <conditionalFormatting sqref="D220">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D202)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D220)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D202)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D220)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D202)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D220)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D203">
+  <conditionalFormatting sqref="D221">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D203)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D221)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D203)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D221)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D203)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D204:D210">
+  <conditionalFormatting sqref="D222:D228">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D222)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D222)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D222)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="3" r:id="rId1"/>
@@ -674,8 +674,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -950,10 +951,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,8 +1728,8 @@
   <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="675" topLeftCell="A187" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+      <pane ySplit="675" topLeftCell="A122" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,7 +3727,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="14"/>
-      <c r="E121" s="52" t="s">
+      <c r="E121" s="53" t="s">
         <v>141</v>
       </c>
       <c r="F121" s="5"/>
@@ -3741,7 +3742,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="24"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="52" t="s">
+      <c r="E122" s="53" t="s">
         <v>142</v>
       </c>
       <c r="F122" s="5"/>
@@ -3756,7 +3757,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="24"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="52" t="s">
+      <c r="E123" s="53" t="s">
         <v>143</v>
       </c>
       <c r="F123" s="5"/>
@@ -5108,7 +5109,7 @@
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
+      <c r="A213" s="52"/>
     </row>
     <row r="214" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="201">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -584,6 +584,84 @@
   </si>
   <si>
     <t>Modulo de reportes</t>
+  </si>
+  <si>
+    <t>1. Como docente necesito llevar un registro de la planificacion de clases asi puedo hacer un seguimiento eficiente del mismo.</t>
+  </si>
+  <si>
+    <t>2. Como docente es necesario que  tenga la capcidad de realizar modificaciones al registro de planificaciones con la idea de que se 7 puedan aceptar cambios antes de que sea aprobada.</t>
+  </si>
+  <si>
+    <t>3. Como docente del curso es necesario que pueda haces consultas sobre las planificaciones de clases registradas.F78</t>
+  </si>
+  <si>
+    <t>4.Como docente necesito disponer de un registro electronico sobre los temas que realmente han sido impartidos.</t>
+  </si>
+  <si>
+    <t>5. Como docente, es necesario que pueda modificar  el registro de los contenidos impartidos en clase, con la idea de que si se pueden agregar o nodificar inforamacion de las misma</t>
+  </si>
+  <si>
+    <t>6. Como docente necesito consultar temas e informacion especifica de una clase dada para una materia para un curso especifico.</t>
+  </si>
+  <si>
+    <t>7. Como docente del curso necesito recibir una adevertencia cunado exita una desviacion considerable entre lo que se ha planificado para la clase y lo que realmente se ha impartido.</t>
+  </si>
+  <si>
+    <t>8. Como docente del curso necesito poder tener a disposicion la informacion del curso de forma resumida y calculada, para que en una pantalla tener toda la informacion relevante.</t>
+  </si>
+  <si>
+    <t>9.  Como director del colegio, tengo la necesidad de poder tener informacion de valor sumarizada y controlada con respecto al desempeño academico de estudiantes y docentes para poder supervisar la labor educativa de forma eficiente,</t>
+  </si>
+  <si>
+    <t>12. Como director del colegio necesito disponer de una ventana donde figure la informacion resumida y procesada en cuanto a lo que se refiere a como se estan llevando las clases en los cursos de acuerdo a lo que se habia planificado.</t>
+  </si>
+  <si>
+    <t>11. Como docente del curso, necesito tener acceso a graficos donde se muestre el desempeño acadmico de los alumnos mostrando su calificacion promedio por materia.</t>
+  </si>
+  <si>
+    <t>14. Como directo del colegio, necesito disponer de una grafica que compare el nivel academico de las distintas asignaturas con el proposito de hacer un seguimiento del desempeño academico de alumnos y docentes que participan del mismo.</t>
+  </si>
+  <si>
+    <t>15. Como director del colegio necesito tener a disposicion un informe sobre como esta siendo en promedio la asintencia de los alumnos en los diferentes cursos.</t>
+  </si>
+  <si>
+    <t>16. Como director del colegio necesito tener a disposicion un informe sobre como esta siendo en promedio la asintencia de los docentes en los diferentes cursos.</t>
+  </si>
+  <si>
+    <t>17. Como director del colegio, necesito tener disponible de forma visual el nivel de desvio de lo planificado sobre lo realizado por curso para hacer una gestion y seguimiento eficiente de los cursos.</t>
+  </si>
+  <si>
+    <t>18. Como directos del colegio necesito tener un reporte donde figure las inasistencias de cada docente con el proposito de hacer un acompañamiento en la tarea educativa de los docentes.</t>
+  </si>
+  <si>
+    <t>19. Como docente del curso, necesito tener informacion del renidimiento de los alumnos por materia en un periodo de tiempo parametrizable.</t>
+  </si>
+  <si>
+    <t>20. como director del colegio, necesito tener un historico del rendimiento que tienen los alumnos para un determinado profesor.</t>
+  </si>
+  <si>
+    <t>21. Como director  del colegio necesito tener disponible un reporte de como va siendo el redimiento academico por curso desde comenzado el año o desde un punto especificado de tiempo (parametrizable).</t>
+  </si>
+  <si>
+    <t>22. Como director  del colegio necesito tener disponible un reporte de como va siendo el rendimiento academico por curso y asignatura desde el comienzo del año o desde un punto especificado de tiempo (parametrizable).</t>
+  </si>
+  <si>
+    <t>23. Como director del colegio, necesito tener a disposicion un reporte parametrizable sobre como esta siendo el acceso a la autogestion para saber si esta siendo una herramienta efectiva.</t>
+  </si>
+  <si>
+    <t>DESCRIBIR CASO DE USO</t>
+  </si>
+  <si>
+    <t>26. Como docente de la institucion necesito tener informacion disponible acerca del desempeño de un alumno particular en asignaturas de años anteriores, comparando con las actuales.</t>
+  </si>
+  <si>
+    <t>27. Como docente o parte interesada en la educacion de los jovenes, es necesario saber como esta siendo el renimiento academico del alumno para una meteria en particular.</t>
+  </si>
+  <si>
+    <t>28. Como usuario del sistema, debo poder exportar el reporte a formato PDF que es facil de compartir y usar.</t>
+  </si>
+  <si>
+    <t>29. Como usuario del sistema, es necesario poder imprimir los reportes del sistema con la idea de tener un respaldo en papel de los reportes para trabajar con los mismos.</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1727,9 +1805,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="675" topLeftCell="A122" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="675" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1817,8 @@
     <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="121.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2260,7 +2340,9 @@
       <c r="E31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2275,7 +2357,9 @@
       <c r="E32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2290,7 +2374,9 @@
       <c r="E33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2352,7 +2438,9 @@
       <c r="E37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2714,7 +2802,9 @@
       <c r="E59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3024,14 +3114,16 @@
       <c r="E79" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>26</v>
       </c>
@@ -3045,7 +3137,9 @@
       <c r="E80" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -3222,7 +3316,9 @@
       <c r="E91" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -3352,7 +3448,9 @@
       <c r="E99" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -3388,7 +3486,9 @@
       <c r="E101" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -3424,7 +3524,9 @@
       <c r="E103" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -3445,7 +3547,9 @@
       <c r="E104" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -3496,7 +3600,9 @@
       <c r="E107" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -3547,7 +3653,9 @@
       <c r="E110" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -3598,7 +3706,9 @@
       <c r="E113" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -3649,7 +3759,9 @@
       <c r="E116" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -3730,7 +3842,9 @@
       <c r="E121" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -3745,7 +3859,9 @@
       <c r="E122" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -3760,7 +3876,9 @@
       <c r="E123" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -3859,7 +3977,9 @@
       <c r="E130" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -3874,7 +3994,9 @@
       <c r="E131" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -3889,7 +4011,9 @@
       <c r="E132" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="F132" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4003,7 +4127,9 @@
       <c r="E140" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4024,7 +4150,9 @@
       <c r="E141" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4039,7 +4167,9 @@
       <c r="E142" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F142" s="5"/>
+      <c r="F142" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4060,7 +4190,9 @@
       <c r="E143" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4075,7 +4207,9 @@
       <c r="E144" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -662,6 +662,12 @@
   </si>
   <si>
     <t>29. Como usuario del sistema, es necesario poder imprimir los reportes del sistema con la idea de tener un respaldo en papel de los reportes para trabajar con los mismos.</t>
+  </si>
+  <si>
+    <t>1.1b</t>
+  </si>
+  <si>
+    <t>tracing de user stories</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,7 +1005,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1673,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1741,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="39">
@@ -1750,7 +1755,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="39">
@@ -1764,7 +1769,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="39">
@@ -1778,22 +1783,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="39">
+        <v>40678</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1805,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="675" topLeftCell="A93" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
       <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
@@ -3259,7 +3272,7 @@
       <c r="A88" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="24"/>
@@ -3276,7 +3289,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
-      <c r="B89" s="51"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="24"/>
       <c r="D89" s="14"/>
       <c r="E89" s="5" t="s">
@@ -3839,7 +3852,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="14"/>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="52" t="s">
         <v>141</v>
       </c>
       <c r="F121" s="5" t="s">
@@ -3856,7 +3869,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="24"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="52" t="s">
         <v>142</v>
       </c>
       <c r="F122" s="5" t="s">
@@ -3873,7 +3886,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="24"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="53" t="s">
+      <c r="E123" s="52" t="s">
         <v>143</v>
       </c>
       <c r="F123" s="5" t="s">
@@ -5243,7 +5256,7 @@
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="52"/>
+      <c r="A213" s="51"/>
     </row>
     <row r="214" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="3" r:id="rId1"/>
@@ -13,19 +13,19 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc220775275" localSheetId="1">Sheet1!$B$9</definedName>
-    <definedName name="_Toc220775276" localSheetId="1">Sheet1!$B$15</definedName>
-    <definedName name="_Toc220775277" localSheetId="1">Sheet1!$B$24</definedName>
-    <definedName name="_Toc220775278" localSheetId="1">Sheet1!$B$30</definedName>
-    <definedName name="_Toc220775279" localSheetId="1">Sheet1!$B$36</definedName>
-    <definedName name="_Toc220775280" localSheetId="1">Sheet1!$B$41</definedName>
-    <definedName name="_Toc220775281" localSheetId="1">Sheet1!$B$48</definedName>
-    <definedName name="_Toc220775282" localSheetId="1">Sheet1!$B$55</definedName>
-    <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$63</definedName>
-    <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$69</definedName>
-    <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$77</definedName>
-    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$87</definedName>
+    <definedName name="_Toc220775276" localSheetId="1">Sheet1!$B$21</definedName>
+    <definedName name="_Toc220775277" localSheetId="1">Sheet1!$B$41</definedName>
+    <definedName name="_Toc220775278" localSheetId="1">Sheet1!$B$47</definedName>
+    <definedName name="_Toc220775279" localSheetId="1">Sheet1!$B$53</definedName>
+    <definedName name="_Toc220775280" localSheetId="1">Sheet1!$B$58</definedName>
+    <definedName name="_Toc220775281" localSheetId="1">Sheet1!$B$65</definedName>
+    <definedName name="_Toc220775282" localSheetId="1">Sheet1!$B$72</definedName>
+    <definedName name="_Toc220775283" localSheetId="1">Sheet1!$B$80</definedName>
+    <definedName name="_Toc220775284" localSheetId="1">Sheet1!$B$86</definedName>
+    <definedName name="_Toc220775285" localSheetId="1">Sheet1!$B$94</definedName>
+    <definedName name="_Toc220775286" localSheetId="1">Sheet1!$B$104</definedName>
     <definedName name="_Toc220775287" localSheetId="1">Sheet1!#REF!</definedName>
-    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$95</definedName>
+    <definedName name="_Toc220775288" localSheetId="1">Sheet1!$B$112</definedName>
     <definedName name="_Toc220775289" localSheetId="1">Sheet1!#REF!</definedName>
     <definedName name="_Toc290939942" localSheetId="1">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="1">Sheet1!$B$2</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="232">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -172,9 +172,6 @@
     <t>3.2 Registrar actividades institucionales.</t>
   </si>
   <si>
-    <t>3.3 Registrar evento.</t>
-  </si>
-  <si>
     <t>3.4 Registrar citaciones.</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
     <t>6. Como docente necesito consultar temas e informacion especifica de una clase dada para una materia para un curso especifico.</t>
   </si>
   <si>
-    <t>7. Como docente del curso necesito recibir una adevertencia cunado exita una desviacion considerable entre lo que se ha planificado para la clase y lo que realmente se ha impartido.</t>
-  </si>
-  <si>
     <t>8. Como docente del curso necesito poder tener a disposicion la informacion del curso de forma resumida y calculada, para que en una pantalla tener toda la informacion relevante.</t>
   </si>
   <si>
@@ -668,6 +662,99 @@
   </si>
   <si>
     <t>tracing de user stories</t>
+  </si>
+  <si>
+    <t>7. Como docente del curso necesito recibir una advertencia cuando exista una desviacion considerable entre lo que se ha planificado para la clase y lo que realmente se ha impartido.</t>
+  </si>
+  <si>
+    <t>36. Listar foros disponibles</t>
+  </si>
+  <si>
+    <t>37. Acceder a un foro</t>
+  </si>
+  <si>
+    <t>38. Registrar post en foro</t>
+  </si>
+  <si>
+    <t>2.3 Administrar foros</t>
+  </si>
+  <si>
+    <t>39. Crear nuevo foro</t>
+  </si>
+  <si>
+    <t>40. Asignar moderador a foro</t>
+  </si>
+  <si>
+    <t>41. Eliminar foro</t>
+  </si>
+  <si>
+    <t>42. Eliminar post en foro</t>
+  </si>
+  <si>
+    <t>43. Agregar usuario a un foro</t>
+  </si>
+  <si>
+    <t>44. Eliminar usuario de un foro</t>
+  </si>
+  <si>
+    <t>3.7 Generar calendario académico</t>
+  </si>
+  <si>
+    <t>45. Registrar feriados y fechas especiales</t>
+  </si>
+  <si>
+    <t>47. Registrar fechas de evaluaciones</t>
+  </si>
+  <si>
+    <t>48. Registrar fechas de excursiones</t>
+  </si>
+  <si>
+    <t>46. Modificar feriados y fechas especiales</t>
+  </si>
+  <si>
+    <t>49. Modificar fechas de evaluaciones</t>
+  </si>
+  <si>
+    <t>50. Modificar fechas de excursiones</t>
+  </si>
+  <si>
+    <t>51. Registrar novedades institucionales</t>
+  </si>
+  <si>
+    <t>52. Registrar actividades extracurriculares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53. Modificar novedades institucionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54. Modificar actividades extracurriculares  </t>
+  </si>
+  <si>
+    <t>3.3 Registrar eventos sociales.</t>
+  </si>
+  <si>
+    <t>55. Registrar evento social</t>
+  </si>
+  <si>
+    <t>56. Modificar evento social</t>
+  </si>
+  <si>
+    <t>57. Registrar notificación de citación</t>
+  </si>
+  <si>
+    <t>58. Registrar reunión de padres</t>
+  </si>
+  <si>
+    <t>59. Registrar fechas de talleres docentes</t>
+  </si>
+  <si>
+    <t>60. Modificar reunión de padres</t>
+  </si>
+  <si>
+    <t>61. Modificar fechas de talleres docentes</t>
+  </si>
+  <si>
+    <t>62. Consultar calendario de actividades</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1700,18 +1787,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1723,77 +1810,77 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="39">
         <v>40678</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="39">
         <v>40678</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="39">
         <v>40678</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="39">
         <v>40678</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,12 +1903,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="675" topLeftCell="A93" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="675" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1856,13 +1943,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -1891,10 +1978,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="19">
         <v>16</v>
@@ -1910,10 +1997,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="19">
         <v>12</v>
@@ -1929,10 +2016,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="19">
         <v>18</v>
@@ -2002,7 +2089,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>32</v>
@@ -2011,7 +2098,9 @@
         <v>10</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2020,43 +2109,53 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C12" s="23">
         <v>16</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="19"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2064,12 +2163,14 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2077,52 +2178,44 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="19">
-        <v>24</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="E16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="19">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2131,17 +2224,13 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2150,16 +2239,10 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="19">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2168,17 +2251,11 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="19">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2187,110 +2264,116 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="19">
-        <v>14</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="19">
+        <v>24</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="24">
-        <v>16</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="24">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="19">
+        <v>18</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="E26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2300,10 +2383,12 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2311,12 +2396,14 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="22"/>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2324,38 +2411,36 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="19">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="24">
-        <v>20</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="14"/>
       <c r="E31" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>198</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2363,16 +2448,20 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="19">
+        <v>18</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2380,16 +2469,20 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="19">
+        <v>18</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>200</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2398,10 +2491,12 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2409,12 +2504,14 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="5"/>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2422,38 +2519,36 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="19">
         <v>14</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="25">
-        <v>25</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>197</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2461,12 +2556,16 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="C38" s="24"/>
       <c r="D38" s="14"/>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2481,7 +2580,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="14"/>
       <c r="E39" s="5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2506,7 +2605,7 @@
     <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="12"/>
@@ -2520,13 +2619,13 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="5"/>
@@ -2539,33 +2638,27 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="24">
-        <v>20</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="14"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2576,15 +2669,9 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="24">
-        <v>10</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="14"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2594,10 +2681,10 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="24"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="14"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2607,47 +2694,55 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="24">
+        <v>20</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="24">
-        <v>40</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2655,18 +2750,16 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="24">
-        <v>10</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2674,15 +2767,9 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="24">
-        <v>20</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="14"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2692,16 +2779,10 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="24">
-        <v>10</v>
-      </c>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="14"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2711,60 +2792,66 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="22"/>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="25">
+        <v>25</v>
+      </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="24">
-        <v>25</v>
-      </c>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="14"/>
       <c r="E56" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -2773,14 +2860,12 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="24"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2788,36 +2873,34 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="C59" s="24">
+        <v>40</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -2825,13 +2908,17 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="24">
+        <v>12</v>
+      </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -2840,13 +2927,17 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="24">
+        <v>20</v>
+      </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2854,10 +2945,16 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="22"/>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="24">
+        <v>10</v>
+      </c>
       <c r="D62" s="14"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2867,31 +2964,23 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="24">
-        <v>20</v>
-      </c>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -2901,29 +2990,31 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="24">
-        <v>20</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="24">
+        <v>40</v>
+      </c>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2934,9 +3025,15 @@
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="19"/>
+      <c r="A67" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="24">
+        <v>10</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2946,10 +3043,16 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="22"/>
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="24">
+        <v>20</v>
+      </c>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2959,31 +3062,29 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="24">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="24">
-        <v>12</v>
-      </c>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2993,16 +3094,10 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="24">
-        <v>15</v>
-      </c>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="14"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -3012,31 +3107,35 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="24">
-        <v>10</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="24">
+        <v>25</v>
+      </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3046,10 +3145,12 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="24"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3059,10 +3160,12 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="24"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3070,47 +3173,49 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="22"/>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="24"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="23">
-        <v>15</v>
-      </c>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="14"/>
       <c r="E78" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -3119,90 +3224,78 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="23"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="19">
-        <v>22</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="19"/>
+      <c r="A81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="24">
+        <v>20</v>
+      </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="19"/>
+      <c r="A82" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="24">
+        <v>20</v>
+      </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="19">
-        <v>22</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="14"/>
-      <c r="E83" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3215,9 +3308,7 @@
       <c r="B84" s="6"/>
       <c r="C84" s="19"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3225,61 +3316,65 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="19"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="24">
+        <v>12</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="24"/>
+      <c r="A88" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="24">
+        <v>15</v>
+      </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3288,13 +3383,17 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="24"/>
+      <c r="A89" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="24">
+        <v>10</v>
+      </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -3303,13 +3402,11 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="24"/>
       <c r="D90" s="14"/>
-      <c r="E90" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3318,20 +3415,12 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="24"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -3343,9 +3432,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="24"/>
       <c r="D92" s="14"/>
-      <c r="E92" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3353,14 +3440,12 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="24"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -3368,121 +3453,125 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="23">
+        <v>15</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="26">
-        <v>12</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="14"/>
       <c r="E96" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F96" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="26"/>
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="19">
+        <v>22</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="24">
-        <v>12</v>
-      </c>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="14"/>
       <c r="E98" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="24"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="14"/>
       <c r="E99" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="24">
-        <v>12</v>
+      <c r="A100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="19">
+        <v>22</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -3492,16 +3581,14 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="24"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="14"/>
       <c r="E101" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -3509,73 +3596,59 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="24">
-        <v>12</v>
-      </c>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="14"/>
       <c r="E102" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="24"/>
+        <v>161</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>188</v>
-      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="24">
-        <v>20</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="50" t="s">
+        <v>59</v>
+      </c>
       <c r="C105" s="24"/>
       <c r="D105" s="14"/>
       <c r="E105" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -3585,12 +3658,12 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="24"/>
       <c r="D106" s="14"/>
       <c r="E106" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -3600,22 +3673,14 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="24">
-        <v>20</v>
-      </c>
+      <c r="A107" s="6"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="24"/>
       <c r="D107" s="14"/>
       <c r="E107" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>192</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -3623,14 +3688,20 @@
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="C108" s="24"/>
       <c r="D108" s="14"/>
       <c r="E108" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F108" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -3643,7 +3714,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="14"/>
       <c r="E109" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -3653,22 +3724,14 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" s="24">
-        <v>20</v>
-      </c>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="14"/>
       <c r="E110" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -3680,9 +3743,7 @@
       <c r="B111" s="9"/>
       <c r="C111" s="24"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -3690,38 +3751,36 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C113" s="24">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="26">
+        <v>12</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -3730,11 +3789,11 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="24"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="26"/>
       <c r="D114" s="14"/>
       <c r="E114" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -3744,12 +3803,18 @@
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="24"/>
+      <c r="A115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="24">
+        <v>12</v>
+      </c>
       <c r="D115" s="14"/>
       <c r="E115" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -3759,21 +3824,15 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116" s="24">
-        <v>20</v>
-      </c>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="24"/>
       <c r="D116" s="14"/>
       <c r="E116" s="5" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -3782,12 +3841,18 @@
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="24"/>
+      <c r="A117" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="24">
+        <v>12</v>
+      </c>
       <c r="D117" s="14"/>
       <c r="E117" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -3802,9 +3867,11 @@
       <c r="C118" s="24"/>
       <c r="D118" s="14"/>
       <c r="E118" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F118" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -3812,11 +3879,19 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="24"/>
+      <c r="A119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="24">
+        <v>12</v>
+      </c>
       <c r="D119" s="14"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -3824,39 +3899,39 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
+    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C121" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D121" s="14"/>
-      <c r="E121" s="52" t="s">
-        <v>141</v>
+      <c r="E121" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -3869,12 +3944,10 @@
       <c r="B122" s="9"/>
       <c r="C122" s="24"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E122" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -3886,12 +3959,10 @@
       <c r="B123" s="9"/>
       <c r="C123" s="24"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="E123" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -3899,11 +3970,22 @@
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="24"/>
+      <c r="A124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="24">
+        <v>20</v>
+      </c>
       <c r="D124" s="14"/>
-      <c r="F124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -3915,7 +3997,9 @@
       <c r="B125" s="9"/>
       <c r="C125" s="24"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -3928,6 +4012,9 @@
       <c r="B126" s="9"/>
       <c r="C126" s="24"/>
       <c r="D126" s="14"/>
+      <c r="E126" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -3936,12 +4023,22 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="24"/>
+      <c r="A127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="24">
+        <v>20</v>
+      </c>
       <c r="D127" s="14"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -3953,7 +4050,9 @@
       <c r="B128" s="9"/>
       <c r="C128" s="24"/>
       <c r="D128" s="14"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -3961,37 +4060,37 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" s="21"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
+    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C130" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="5" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -4005,11 +4104,9 @@
       <c r="C131" s="24"/>
       <c r="D131" s="14"/>
       <c r="E131" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4022,11 +4119,9 @@
       <c r="C132" s="24"/>
       <c r="D132" s="14"/>
       <c r="E132" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4034,12 +4129,22 @@
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="24"/>
+      <c r="A133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="24">
+        <v>20</v>
+      </c>
       <c r="D133" s="14"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4051,7 +4156,9 @@
       <c r="B134" s="9"/>
       <c r="C134" s="24"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -4064,7 +4171,9 @@
       <c r="B135" s="9"/>
       <c r="C135" s="24"/>
       <c r="D135" s="14"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -4085,63 +4194,73 @@
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
+    <row r="137" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="24"/>
+      <c r="A138" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="24">
+        <v>18</v>
+      </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
+      <c r="E138" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C139" s="21"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
+    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C140" s="24">
-        <v>20</v>
-      </c>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="24"/>
       <c r="D140" s="14"/>
-      <c r="E140" s="5" t="s">
-        <v>147</v>
+      <c r="E140" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -4150,22 +4269,11 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" s="26">
-        <v>26</v>
-      </c>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="24"/>
       <c r="D141" s="14"/>
-      <c r="E141" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>182</v>
-      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4174,15 +4282,11 @@
     </row>
     <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="26"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="24"/>
       <c r="D142" s="14"/>
-      <c r="E142" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4190,22 +4294,11 @@
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" s="24">
-        <v>26</v>
-      </c>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="24"/>
       <c r="D143" s="14"/>
-      <c r="E143" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4217,12 +4310,8 @@
       <c r="B144" s="9"/>
       <c r="C144" s="24"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -4242,26 +4331,38 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
+    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="24"/>
+      <c r="A147" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="24">
+        <v>18</v>
+      </c>
       <c r="D147" s="14"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -4273,8 +4374,12 @@
       <c r="B148" s="9"/>
       <c r="C148" s="24"/>
       <c r="D148" s="14"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4286,41 +4391,35 @@
       <c r="B149" s="9"/>
       <c r="C149" s="24"/>
       <c r="D149" s="14"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" s="21"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C151" s="24">
-        <v>18</v>
-      </c>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="24"/>
       <c r="D151" s="14"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -4331,15 +4430,9 @@
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="24">
-        <v>18</v>
-      </c>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="24"/>
       <c r="D152" s="14"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -4350,15 +4443,9 @@
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C153" s="24">
-        <v>18</v>
-      </c>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="24"/>
       <c r="D153" s="14"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -4369,15 +4456,9 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C154" s="24">
-        <v>18</v>
-      </c>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="24"/>
       <c r="D154" s="14"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -4388,15 +4469,9 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C155" s="24">
-        <v>18</v>
-      </c>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="24"/>
       <c r="D155" s="14"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -4406,26 +4481,38 @@
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="24"/>
+      <c r="A157" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="24">
+        <v>20</v>
+      </c>
       <c r="D157" s="14"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -4433,12 +4520,22 @@
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="24"/>
+      <c r="A158" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="26">
+        <v>26</v>
+      </c>
       <c r="D158" s="14"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -4447,47 +4544,55 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="26"/>
       <c r="D159" s="14"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C160" s="21"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
+    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C160" s="24">
+        <v>26</v>
+      </c>
+      <c r="D160" s="14"/>
+      <c r="E160" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C161" s="24">
-        <v>24</v>
-      </c>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="24"/>
       <c r="D161" s="14"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -4495,15 +4600,9 @@
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C162" s="24">
-        <v>24</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="24"/>
       <c r="D162" s="14"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -4514,15 +4613,9 @@
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C163" s="24">
-        <v>30</v>
-      </c>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="24"/>
       <c r="D163" s="14"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -4571,23 +4664,33 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
+    <row r="167" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="24"/>
+      <c r="A168" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C168" s="24">
+        <v>18</v>
+      </c>
       <c r="D168" s="14"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -4598,9 +4701,15 @@
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="24"/>
+      <c r="A169" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="24">
+        <v>18</v>
+      </c>
       <c r="D169" s="14"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
@@ -4610,29 +4719,35 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C170" s="21"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
+    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="24">
+        <v>18</v>
+      </c>
+      <c r="D170" s="14"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B171" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C171" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="C171" s="24">
+        <v>18</v>
+      </c>
       <c r="D171" s="14"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
@@ -4643,9 +4758,15 @@
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="24"/>
+      <c r="A172" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" s="24">
+        <v>18</v>
+      </c>
       <c r="D172" s="14"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -4707,23 +4828,33 @@
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
+    <row r="177" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C177" s="21"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="24"/>
+      <c r="A178" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" s="24">
+        <v>24</v>
+      </c>
       <c r="D178" s="14"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -4734,9 +4865,15 @@
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="24"/>
+      <c r="A179" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C179" s="24">
+        <v>24</v>
+      </c>
       <c r="D179" s="14"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -4746,28 +4883,28 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
+    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C180" s="24">
+        <v>30</v>
+      </c>
+      <c r="D180" s="14"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
-      <c r="B181" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="B181" s="9"/>
       <c r="C181" s="24"/>
       <c r="D181" s="14"/>
       <c r="E181" s="5"/>
@@ -4843,22 +4980,28 @@
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
+    <row r="187" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" s="21"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C188" s="24"/>
       <c r="D188" s="14"/>
       <c r="E188" s="5"/>
@@ -4882,28 +5025,22 @@
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C190" s="21"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
+    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
-      <c r="B191" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B191" s="9"/>
       <c r="C191" s="24"/>
       <c r="D191" s="14"/>
       <c r="E191" s="5"/>
@@ -4953,31 +5090,23 @@
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
+    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
-      <c r="B196" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C196" s="24">
-        <v>16</v>
-      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="24"/>
       <c r="D196" s="14"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -4987,31 +5116,29 @@
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C197" s="24">
-        <v>16</v>
-      </c>
-      <c r="D197" s="14"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
+    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
     </row>
     <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C198" s="24">
-        <v>10</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C198" s="24"/>
       <c r="D198" s="14"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -5073,33 +5200,23 @@
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C203" s="21"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
+    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C204" s="24">
-        <v>12</v>
-      </c>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="24"/>
       <c r="D204" s="14"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -5110,15 +5227,9 @@
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C205" s="24">
-        <v>12</v>
-      </c>
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="24"/>
       <c r="D205" s="14"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -5129,15 +5240,9 @@
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C206" s="24">
-        <v>12</v>
-      </c>
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="24"/>
       <c r="D206" s="14"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -5147,35 +5252,29 @@
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C207" s="24">
-        <v>12</v>
-      </c>
-      <c r="D207" s="14"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
+    <row r="207" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C207" s="21"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
     </row>
     <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C208" s="24">
-        <v>12</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C208" s="24"/>
       <c r="D208" s="14"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -5186,15 +5285,9 @@
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C209" s="24">
-        <v>12</v>
-      </c>
+      <c r="A209" s="9"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="24"/>
       <c r="D209" s="14"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -5205,15 +5298,9 @@
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C210" s="24">
-        <v>12</v>
-      </c>
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="24"/>
       <c r="D210" s="14"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -5224,15 +5311,9 @@
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C211" s="24">
-        <v>12</v>
-      </c>
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="24"/>
       <c r="D211" s="14"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -5242,28 +5323,48 @@
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
-    </row>
-    <row r="214" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" s="21"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="9"/>
+      <c r="B213" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" s="24">
+        <v>16</v>
+      </c>
+      <c r="D213" s="14"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
-      <c r="B214" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C214" s="24"/>
+      <c r="B214" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C214" s="24">
+        <v>16</v>
+      </c>
       <c r="D214" s="14"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -5276,10 +5377,10 @@
     <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C215" s="24">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D215" s="14"/>
       <c r="E215" s="5"/>
@@ -5292,12 +5393,8 @@
     </row>
     <row r="216" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
-      <c r="B216" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C216" s="24">
-        <v>50</v>
-      </c>
+      <c r="B216" s="9"/>
+      <c r="C216" s="24"/>
       <c r="D216" s="14"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -5309,12 +5406,8 @@
     </row>
     <row r="217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
-      <c r="B217" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C217" s="24">
-        <v>50</v>
-      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="24"/>
       <c r="D217" s="14"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -5326,12 +5419,8 @@
     </row>
     <row r="218" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
-      <c r="B218" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C218" s="24">
-        <v>50</v>
-      </c>
+      <c r="B218" s="9"/>
+      <c r="C218" s="24"/>
       <c r="D218" s="14"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -5343,12 +5432,8 @@
     </row>
     <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
-      <c r="B219" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C219" s="24">
-        <v>80</v>
-      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="24"/>
       <c r="D219" s="14"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -5358,30 +5443,32 @@
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" s="24">
-        <v>30</v>
-      </c>
-      <c r="D220" s="14"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
+    <row r="220" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C220" s="21"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
     </row>
     <row r="221" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="9"/>
+      <c r="A221" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B221" s="9" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C221" s="24">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D221" s="14"/>
       <c r="E221" s="5"/>
@@ -5393,12 +5480,14 @@
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+      <c r="A222" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B222" s="9" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C222" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D222" s="14"/>
       <c r="E222" s="5"/>
@@ -5410,12 +5499,14 @@
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+      <c r="A223" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B223" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C223" s="24">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D223" s="14"/>
       <c r="E223" s="5"/>
@@ -5427,12 +5518,14 @@
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
+      <c r="A224" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B224" s="9" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C224" s="24">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="5"/>
@@ -5444,9 +5537,15 @@
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="24"/>
+      <c r="A225" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C225" s="24">
+        <v>12</v>
+      </c>
       <c r="D225" s="14"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -5457,9 +5556,15 @@
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="24"/>
+      <c r="A226" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C226" s="24">
+        <v>12</v>
+      </c>
       <c r="D226" s="14"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -5470,9 +5575,15 @@
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="24"/>
+      <c r="A227" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C227" s="24">
+        <v>12</v>
+      </c>
       <c r="D227" s="14"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5483,9 +5594,15 @@
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="24"/>
+      <c r="A228" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C228" s="24">
+        <v>12</v>
+      </c>
       <c r="D228" s="14"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -5495,17 +5612,270 @@
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C229" s="27">
-        <f>SUM(C2:C228)</f>
+    <row r="229" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="51"/>
+    </row>
+    <row r="231" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A231" s="9"/>
+      <c r="B231" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C231" s="24"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="9"/>
+      <c r="B232" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C232" s="24">
+        <v>40</v>
+      </c>
+      <c r="D232" s="14"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="9"/>
+      <c r="B233" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C233" s="24">
+        <v>50</v>
+      </c>
+      <c r="D233" s="14"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="9"/>
+      <c r="B234" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" s="24">
+        <v>50</v>
+      </c>
+      <c r="D234" s="14"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="9"/>
+      <c r="B235" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C235" s="24">
+        <v>50</v>
+      </c>
+      <c r="D235" s="14"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="9"/>
+      <c r="B236" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236" s="24">
+        <v>80</v>
+      </c>
+      <c r="D236" s="14"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="9"/>
+      <c r="B237" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C237" s="24">
+        <v>30</v>
+      </c>
+      <c r="D237" s="14"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="9"/>
+      <c r="B238" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C238" s="24">
+        <v>100</v>
+      </c>
+      <c r="D238" s="14"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+    </row>
+    <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="9"/>
+      <c r="B239" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C239" s="24">
+        <v>20</v>
+      </c>
+      <c r="D239" s="14"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="9"/>
+      <c r="B240" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C240" s="24">
+        <v>50</v>
+      </c>
+      <c r="D240" s="14"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+    </row>
+    <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="9"/>
+      <c r="B241" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C241" s="24">
+        <v>40</v>
+      </c>
+      <c r="D241" s="14"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="9"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="9"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="9"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C246" s="27">
+        <f>SUM(C2:C245)</f>
         <v>1650</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:D45 D48:D55 D59:D72 D214:D218 D190:D202 D75:D103 D120:D128">
+  <conditionalFormatting sqref="D65:D72 D76:D89 D231:D235 D207:D219 D92:D120 D137:D145 D8:D62">
     <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D8)))</formula>
     </cfRule>
@@ -5516,169 +5886,169 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129:D138">
+  <conditionalFormatting sqref="D146:D155">
     <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D146)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D146)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D146)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139:D149">
+  <conditionalFormatting sqref="D156:D166">
     <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D139)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D156)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D139)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D156)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D139)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150:D159">
+  <conditionalFormatting sqref="D167:D176">
     <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D150)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D167)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D150)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D167)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D150)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D167)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160:D169">
+  <conditionalFormatting sqref="D177:D186">
     <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D160)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D177)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D160)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D177)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D160)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D177)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D170:D179">
+  <conditionalFormatting sqref="D187:D196">
     <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D170)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D170)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D187)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D170)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D187)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D189">
+  <conditionalFormatting sqref="D197:D206">
     <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D197)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D197)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D197)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D119">
+  <conditionalFormatting sqref="D121:D136">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D121)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D121)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D121)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D74">
+  <conditionalFormatting sqref="D90:D91">
     <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D220:D229">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73:D75">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D203:D212">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D203)))</formula>
+  <conditionalFormatting sqref="D236">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D203)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D203)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D236)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D46)))</formula>
+  <conditionalFormatting sqref="D237">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D46)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D46)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D237)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D58">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D56)))</formula>
+  <conditionalFormatting sqref="D238">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D56)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D56)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D238)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D219">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D220">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D220)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D221">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D221)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D222:D228">
+  <conditionalFormatting sqref="D239:D245">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D239)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D239)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",D239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="234">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>62. Consultar calendario de actividades</t>
+  </si>
+  <si>
+    <t>34. Enviar notificación de sanciones e inasistencias a tutores por SMS</t>
+  </si>
+  <si>
+    <t>35. Enviar notificación de sanciones e inasistencias a tutores por email</t>
   </si>
 </sst>
 </file>
@@ -1906,9 +1912,9 @@
   <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="675" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="675" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3269,9 @@
         <v>20</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -3282,7 +3290,9 @@
         <v>20</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="236">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -145,18 +145,9 @@
     <t>12.2 Generar reporte de rendimiento de alumnos por periodo</t>
   </si>
   <si>
-    <t>11.1 Generar mensaje.</t>
-  </si>
-  <si>
     <t>Comunicación</t>
   </si>
   <si>
-    <t>11.2 Generar mensaje multiusuario</t>
-  </si>
-  <si>
-    <t>11.3 Consultar mensajes</t>
-  </si>
-  <si>
     <t>2.1 Consultar foro</t>
   </si>
   <si>
@@ -761,6 +752,21 @@
   </si>
   <si>
     <t>35. Enviar notificación de sanciones e inasistencias a tutores por email</t>
+  </si>
+  <si>
+    <t>11.1 Gestión de servicio de mensajería.</t>
+  </si>
+  <si>
+    <t>30. Enviar mensaje</t>
+  </si>
+  <si>
+    <t>31. Listar mensajes</t>
+  </si>
+  <si>
+    <t>32. Leer un mensaje</t>
+  </si>
+  <si>
+    <t>33. Eliminar mensaje</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1791,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1793,18 +1799,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1816,77 +1822,77 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="39">
         <v>40678</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="39">
         <v>40678</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B11" s="39">
         <v>40678</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B12" s="39">
         <v>40678</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,9 +1918,9 @@
   <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="675" topLeftCell="A75" activePane="bottomLeft"/>
+      <pane ySplit="675" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1949,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -1984,10 +1990,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="19">
         <v>16</v>
@@ -2003,10 +2009,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="19">
         <v>12</v>
@@ -2022,10 +2028,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="19">
         <v>18</v>
@@ -2095,17 +2101,17 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19">
         <v>10</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2120,7 +2126,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="13"/>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2131,17 +2137,17 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23">
         <v>16</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2152,15 +2158,15 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="13"/>
       <c r="E13" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2175,7 +2181,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="13"/>
       <c r="E14" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2190,7 +2196,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="13"/>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2205,7 +2211,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="13"/>
       <c r="E16" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2220,7 +2226,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="13"/>
       <c r="E17" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2235,7 +2241,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="13"/>
       <c r="E18" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2287,17 +2293,17 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="19">
         <v>24</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -2312,7 +2318,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -2327,7 +2333,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="13"/>
       <c r="E24" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -2342,7 +2348,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="13"/>
       <c r="E25" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -2353,17 +2359,17 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="19">
         <v>18</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2378,7 +2384,7 @@
       <c r="C27" s="19"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2393,7 +2399,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2408,7 +2414,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2419,17 +2425,17 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C30" s="19">
         <v>18</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2444,7 +2450,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="14"/>
       <c r="E31" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2455,17 +2461,17 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C32" s="19">
         <v>18</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2476,17 +2482,17 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="19">
         <v>18</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -2501,7 +2507,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="13"/>
       <c r="E34" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2516,7 +2522,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="13"/>
       <c r="E35" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2531,7 +2537,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="13"/>
       <c r="E36" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2542,17 +2548,17 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37" s="19">
         <v>14</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2563,15 +2569,15 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="14"/>
       <c r="E38" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2586,7 +2592,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="14"/>
       <c r="E39" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2625,10 +2631,10 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="24">
         <v>16</v>
@@ -2644,10 +2650,10 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
@@ -2720,17 +2726,17 @@
         <v>26</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" s="24">
         <v>20</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2744,10 +2750,10 @@
       <c r="C49" s="24"/>
       <c r="D49" s="14"/>
       <c r="E49" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -2761,10 +2767,10 @@
       <c r="C50" s="24"/>
       <c r="D50" s="14"/>
       <c r="E50" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2818,17 +2824,17 @@
         <v>26</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="25">
         <v>25</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2842,7 +2848,7 @@
       <c r="C55" s="24"/>
       <c r="D55" s="14"/>
       <c r="E55" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -2857,7 +2863,7 @@
       <c r="C56" s="24"/>
       <c r="D56" s="14"/>
       <c r="E56" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -2896,10 +2902,10 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C59" s="24">
         <v>40</v>
@@ -2915,10 +2921,10 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C60" s="24">
         <v>12</v>
@@ -2934,10 +2940,10 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C61" s="24">
         <v>20</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="C62" s="24">
         <v>10</v>
@@ -3013,10 +3019,10 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C66" s="24">
         <v>40</v>
@@ -3032,10 +3038,10 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C67" s="24">
         <v>10</v>
@@ -3051,10 +3057,10 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C68" s="24">
         <v>20</v>
@@ -3070,10 +3076,10 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C69" s="24">
         <v>10</v>
@@ -3133,14 +3139,14 @@
         <v>26</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" s="24">
         <v>25</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3155,7 +3161,7 @@
       <c r="C74" s="24"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -3170,7 +3176,7 @@
       <c r="C75" s="24"/>
       <c r="D75" s="14"/>
       <c r="E75" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -3184,15 +3190,15 @@
         <v>26</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3206,7 +3212,7 @@
       <c r="C77" s="24"/>
       <c r="D77" s="14"/>
       <c r="E77" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -3221,7 +3227,7 @@
       <c r="C78" s="24"/>
       <c r="D78" s="14"/>
       <c r="E78" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -3260,17 +3266,17 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C81" s="24">
         <v>20</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -3281,17 +3287,17 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C82" s="24">
         <v>20</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -3356,16 +3362,18 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="C87" s="24">
         <v>12</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -3374,17 +3382,13 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="24">
-        <v>15</v>
-      </c>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="14"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3393,17 +3397,13 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="24">
-        <v>10</v>
-      </c>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -3416,7 +3416,9 @@
       <c r="B90" s="9"/>
       <c r="C90" s="24"/>
       <c r="D90" s="14"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3490,7 +3492,7 @@
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -3505,10 +3507,10 @@
       <c r="C96" s="23"/>
       <c r="D96" s="14"/>
       <c r="E96" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3528,10 +3530,10 @@
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -3545,7 +3547,7 @@
       <c r="C98" s="19"/>
       <c r="D98" s="14"/>
       <c r="E98" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -3560,7 +3562,7 @@
       <c r="C99" s="19"/>
       <c r="D99" s="14"/>
       <c r="E99" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -3574,14 +3576,14 @@
         <v>26</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C100" s="19">
         <v>22</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -3596,7 +3598,7 @@
       <c r="C101" s="19"/>
       <c r="D101" s="14"/>
       <c r="E101" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -3611,7 +3613,7 @@
       <c r="C102" s="19"/>
       <c r="D102" s="14"/>
       <c r="E102" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
@@ -3653,12 +3655,12 @@
         <v>26</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="14"/>
       <c r="E105" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -3673,7 +3675,7 @@
       <c r="C106" s="24"/>
       <c r="D106" s="14"/>
       <c r="E106" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -3688,7 +3690,7 @@
       <c r="C107" s="24"/>
       <c r="D107" s="14"/>
       <c r="E107" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -3702,15 +3704,15 @@
         <v>26</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="14"/>
       <c r="E108" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -3724,7 +3726,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="14"/>
       <c r="E109" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -3739,7 +3741,7 @@
       <c r="C110" s="24"/>
       <c r="D110" s="14"/>
       <c r="E110" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -3764,7 +3766,7 @@
     <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="12"/>
@@ -3781,14 +3783,14 @@
         <v>9</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C113" s="26">
         <v>12</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -3803,7 +3805,7 @@
       <c r="C114" s="26"/>
       <c r="D114" s="14"/>
       <c r="E114" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -3817,14 +3819,14 @@
         <v>9</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C115" s="24">
         <v>12</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -3839,10 +3841,10 @@
       <c r="C116" s="24"/>
       <c r="D116" s="14"/>
       <c r="E116" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -3855,14 +3857,14 @@
         <v>9</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C117" s="24">
         <v>12</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -3877,10 +3879,10 @@
       <c r="C118" s="24"/>
       <c r="D118" s="14"/>
       <c r="E118" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -3893,14 +3895,14 @@
         <v>9</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C119" s="24">
         <v>12</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -3915,10 +3917,10 @@
       <c r="C120" s="24"/>
       <c r="D120" s="14"/>
       <c r="E120" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -3931,17 +3933,17 @@
         <v>26</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C121" s="24">
         <v>20</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -3955,7 +3957,7 @@
       <c r="C122" s="24"/>
       <c r="D122" s="14"/>
       <c r="E122" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -3970,7 +3972,7 @@
       <c r="C123" s="24"/>
       <c r="D123" s="14"/>
       <c r="E123" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -3984,17 +3986,17 @@
         <v>26</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C124" s="24">
         <v>20</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -4008,7 +4010,7 @@
       <c r="C125" s="24"/>
       <c r="D125" s="14"/>
       <c r="E125" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -4023,7 +4025,7 @@
       <c r="C126" s="24"/>
       <c r="D126" s="14"/>
       <c r="E126" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -4037,17 +4039,17 @@
         <v>26</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C127" s="24">
         <v>20</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -4061,7 +4063,7 @@
       <c r="C128" s="24"/>
       <c r="D128" s="14"/>
       <c r="E128" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -4076,7 +4078,7 @@
       <c r="C129" s="24"/>
       <c r="D129" s="14"/>
       <c r="E129" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -4090,17 +4092,17 @@
         <v>26</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C130" s="24">
         <v>20</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -4114,7 +4116,7 @@
       <c r="C131" s="24"/>
       <c r="D131" s="14"/>
       <c r="E131" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -4129,7 +4131,7 @@
       <c r="C132" s="24"/>
       <c r="D132" s="14"/>
       <c r="E132" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -4143,17 +4145,17 @@
         <v>26</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C133" s="24">
         <v>20</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -4167,7 +4169,7 @@
       <c r="C134" s="24"/>
       <c r="D134" s="14"/>
       <c r="E134" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -4182,7 +4184,7 @@
       <c r="C135" s="24"/>
       <c r="D135" s="14"/>
       <c r="E135" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -4209,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="12"/>
@@ -4226,17 +4228,17 @@
         <v>9</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C138" s="24">
         <v>18</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -4250,10 +4252,10 @@
       <c r="C139" s="24"/>
       <c r="D139" s="14"/>
       <c r="E139" s="52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -4267,10 +4269,10 @@
       <c r="C140" s="24"/>
       <c r="D140" s="14"/>
       <c r="E140" s="52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -4344,7 +4346,7 @@
     <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C146" s="21"/>
       <c r="D146" s="12"/>
@@ -4361,17 +4363,17 @@
         <v>9</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C147" s="24">
         <v>18</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -4385,10 +4387,10 @@
       <c r="C148" s="24"/>
       <c r="D148" s="14"/>
       <c r="E148" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -4402,10 +4404,10 @@
       <c r="C149" s="24"/>
       <c r="D149" s="14"/>
       <c r="E149" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -4494,7 +4496,7 @@
     <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="12"/>
@@ -4511,17 +4513,17 @@
         <v>9</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C157" s="24">
         <v>20</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -4534,17 +4536,17 @@
         <v>9</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C158" s="26">
         <v>26</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -4558,10 +4560,10 @@
       <c r="C159" s="26"/>
       <c r="D159" s="14"/>
       <c r="E159" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -4574,17 +4576,17 @@
         <v>9</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C160" s="24">
         <v>26</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
@@ -4598,10 +4600,10 @@
       <c r="C161" s="24"/>
       <c r="D161" s="14"/>
       <c r="E161" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -4679,7 +4681,7 @@
         <v>22</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C167" s="21"/>
       <c r="D167" s="12"/>
@@ -4693,10 +4695,10 @@
     </row>
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C168" s="24">
         <v>18</v>
@@ -4712,10 +4714,10 @@
     </row>
     <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C169" s="24">
         <v>18</v>
@@ -4731,10 +4733,10 @@
     </row>
     <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C170" s="24">
         <v>18</v>
@@ -4750,10 +4752,10 @@
     </row>
     <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C171" s="24">
         <v>18</v>
@@ -4769,10 +4771,10 @@
     </row>
     <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C172" s="24">
         <v>18</v>
@@ -4843,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C177" s="21"/>
       <c r="D177" s="12"/>
@@ -4857,10 +4859,10 @@
     </row>
     <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C178" s="24">
         <v>24</v>
@@ -4876,10 +4878,10 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C179" s="24">
         <v>24</v>
@@ -4895,10 +4897,10 @@
     </row>
     <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C180" s="24">
         <v>30</v>
@@ -4995,7 +4997,7 @@
         <v>22</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="12"/>
@@ -5010,7 +5012,7 @@
     <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="14"/>
@@ -5131,7 +5133,7 @@
         <v>22</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C197" s="21"/>
       <c r="D197" s="12"/>
@@ -5146,7 +5148,7 @@
     <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="14"/>
@@ -5267,7 +5269,7 @@
         <v>22</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="12"/>
@@ -5282,7 +5284,7 @@
     <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="14"/>
@@ -5338,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="12"/>
@@ -5353,7 +5355,7 @@
     <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C213" s="24">
         <v>16</v>
@@ -5370,7 +5372,7 @@
     <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C214" s="24">
         <v>16</v>
@@ -5387,7 +5389,7 @@
     <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C215" s="24">
         <v>10</v>
@@ -5458,7 +5460,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="12"/>
@@ -5472,10 +5474,10 @@
     </row>
     <row r="221" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C221" s="24">
         <v>12</v>
@@ -5491,10 +5493,10 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C222" s="24">
         <v>12</v>
@@ -5510,10 +5512,10 @@
     </row>
     <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C223" s="24">
         <v>12</v>
@@ -5529,10 +5531,10 @@
     </row>
     <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C224" s="24">
         <v>12</v>
@@ -5548,10 +5550,10 @@
     </row>
     <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C225" s="24">
         <v>12</v>
@@ -5567,10 +5569,10 @@
     </row>
     <row r="226" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C226" s="24">
         <v>12</v>
@@ -5586,10 +5588,10 @@
     </row>
     <row r="227" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C227" s="24">
         <v>12</v>
@@ -5605,10 +5607,10 @@
     </row>
     <row r="228" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C228" s="24">
         <v>12</v>
@@ -5641,7 +5643,7 @@
     <row r="231" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="14"/>
@@ -5656,7 +5658,7 @@
     <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C232" s="24">
         <v>40</v>
@@ -5673,7 +5675,7 @@
     <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C233" s="24">
         <v>50</v>
@@ -5690,7 +5692,7 @@
     <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C234" s="24">
         <v>50</v>
@@ -5707,7 +5709,7 @@
     <row r="235" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C235" s="24">
         <v>50</v>
@@ -5724,7 +5726,7 @@
     <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C236" s="24">
         <v>80</v>
@@ -5741,7 +5743,7 @@
     <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C237" s="24">
         <v>30</v>
@@ -5758,7 +5760,7 @@
     <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C238" s="24">
         <v>100</v>
@@ -5775,7 +5777,7 @@
     <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C239" s="24">
         <v>20</v>
@@ -5792,7 +5794,7 @@
     <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C240" s="24">
         <v>50</v>
@@ -5809,7 +5811,7 @@
     <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C241" s="24">
         <v>40</v>
@@ -5877,11 +5879,11 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B246" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C246" s="27">
         <f>SUM(C2:C245)</f>
-        <v>1650</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -13,22 +13,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Sheet1!$A$1:$K$102</definedName>
+    <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$283</definedName>
+    <definedName name="_Toc220775275">Sheet1!$B$9</definedName>
+    <definedName name="_Toc220775276">Sheet1!$B$22</definedName>
+    <definedName name="_Toc220775277">Sheet1!$B$42</definedName>
+    <definedName name="_Toc220775278">Sheet1!$B$48</definedName>
+    <definedName name="_Toc220775279">Sheet1!$B$55</definedName>
     <definedName name="_Toc220775280">Sheet1!$B$60</definedName>
     <definedName name="_Toc220775281">Sheet1!$B$71</definedName>
     <definedName name="_Toc220775282">Sheet1!$B$82</definedName>
     <definedName name="_Toc220775283">Sheet1!$B$90</definedName>
-    <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$283</definedName>
+    <definedName name="_Toc220775284">Sheet1!$B$97</definedName>
+    <definedName name="_Toc220775285">Sheet1!$B$110</definedName>
+    <definedName name="_Toc220775286">Sheet1!$B$120</definedName>
+    <definedName name="_Toc220775288">Sheet1!$B$128</definedName>
+    <definedName name="_Toc290939942">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688">Sheet1!$B$2</definedName>
-    <definedName name="_Toc220775276">Sheet1!$B$22</definedName>
-    <definedName name="_Toc220775288">Sheet1!$B$128</definedName>
-    <definedName name="_Toc220775275">Sheet1!$B$9</definedName>
-    <definedName name="_Toc220775278">Sheet1!$B$48</definedName>
-    <definedName name="_Toc220775277">Sheet1!$B$42</definedName>
-    <definedName name="_Toc220775286">Sheet1!$B$120</definedName>
-    <definedName name="_Toc290939942">Sheet1!$A$2</definedName>
-    <definedName name="_Toc220775285">Sheet1!$B$110</definedName>
-    <definedName name="_Toc220775279">Sheet1!$B$55</definedName>
-    <definedName name="_Toc220775284">Sheet1!$B$97</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -43,6 +43,11 @@
     <comment ref="B8" authorId="0">
       <text>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t>Date Format is, dd month, yyyy</t>
         </r>
       </text>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="456">
   <si>
     <t>24. Generar T C de Alumnos con notas de Aplazo en mas de 3 Asignaturas.</t>
   </si>
@@ -1255,9 +1260,6 @@
     <t xml:space="preserve">68. Modificar novedades institucionales </t>
   </si>
   <si>
-    <t>34. Como notificador necesito poder enviar mensaje de texto a los tutores sobre inasistencias y sanciones para que los mismos esten notificados</t>
-  </si>
-  <si>
     <t>113. Como Encuestado necesito que una vez que termine de contestar la encuesta, el SI registre las respuestas que he brindado con el proposito de que se disponga de informacion valiosa para la sumarizacion de las encuestas.</t>
   </si>
   <si>
@@ -1421,17 +1423,24 @@
   </si>
   <si>
     <t>23.2 Modificar administrador de foro.</t>
+  </si>
+  <si>
+    <t>34. Como notificador necesito poder enviar mensaje de texto a los tutores sobre inasistencias para que los mismos esten notificados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d/mmm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="d/mmm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1440,76 +1449,81 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000080"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1562,235 +1576,269 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="64">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma[0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
     <cellStyle name="Currency[0]" xfId="3"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
@@ -1800,33 +1848,12 @@
     <dxf>
       <font>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1900,11 +1927,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1950,7 +1982,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -1978,13 +2010,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -2012,6 +2045,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2046,16 +2080,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2063,7 +2101,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2078,7 +2116,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2088,16 +2126,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2106,22 +2144,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2133,27 +2171,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2183,55 +2218,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.0" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.570312" style="0" customWidth="1"/>
-    <col min="2" max="2" width="29.710938" style="0" customWidth="1"/>
-    <col min="3" max="3" width="19.0" style="0" customWidth="1"/>
-    <col min="4" max="4" width="34.0" style="0" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="0" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1"/>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>85</v>
       </c>
@@ -2239,7 +2271,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>213</v>
       </c>
@@ -2247,19 +2279,19 @@
         <v>113</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>302</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>40678.0</v>
+      <c r="B9" s="10">
+        <v>40678</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>173</v>
@@ -2269,12 +2301,12 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>40678.0</v>
+      <c r="B10" s="10">
+        <v>40678</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>177</v>
@@ -2284,12 +2316,12 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>40678.0</v>
+      <c r="B11" s="10">
+        <v>40678</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>177</v>
@@ -2299,12 +2331,12 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>40678.0</v>
+      <c r="B12" s="10">
+        <v>40678</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>173</v>
@@ -2314,59 +2346,51 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" ht="15" customHeight="1"/>
-    <row r="16" ht="15" customHeight="1"/>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.0" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.710938" style="0" customWidth="1"/>
-    <col min="2" max="2" width="45.570312" style="0" customWidth="1"/>
-    <col min="3" max="3" width="5.4257812" style="0" customWidth="1"/>
-    <col min="4" max="4" width="4.8554688" style="0" customWidth="1"/>
-    <col min="5" max="5" width="40.42578" style="0" customWidth="1"/>
-    <col min="6" max="6" width="84.0" style="0" customWidth="1"/>
-    <col min="7" max="7" width="6.0" style="0" customWidth="1"/>
-    <col min="8" max="8" width="7.8554688" style="0" customWidth="1"/>
-    <col min="9" max="9" width="2.8554688" style="0" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="0" customWidth="1"/>
-    <col min="11" max="11" width="16.570312" style="0" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="84" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="150">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>123</v>
@@ -2398,35 +2422,35 @@
         <v>398</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" ht="330">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="20" t="n">
-        <v>20.0</v>
+      <c r="C2" s="20">
+        <v>20</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="21" t="n">
-        <v>4.0</v>
+      <c r="H2" s="21">
+        <v>4</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" ht="300">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
@@ -2440,22 +2464,22 @@
         <v>60</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="21" t="n">
-        <v>4.0</v>
+      <c r="H3" s="21">
+        <v>4</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="345">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="20" t="n">
-        <v>20.0</v>
+      <c r="C4" s="20">
+        <v>20</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="13" t="s">
@@ -2465,8 +2489,8 @@
         <v>159</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="21" t="n">
-        <v>4.0</v>
+      <c r="H4" s="21">
+        <v>4</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
@@ -2476,7 +2500,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" ht="409.5">
+    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>103</v>
       </c>
@@ -2492,8 +2516,8 @@
         <v>178</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="21" t="n">
-        <v>4.0</v>
+      <c r="H5" s="21">
+        <v>4</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
@@ -2503,7 +2527,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" ht="409.5">
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>103</v>
       </c>
@@ -2519,8 +2543,8 @@
         <v>178</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="21" t="n">
-        <v>4.0</v>
+      <c r="H6" s="21">
+        <v>4</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
@@ -2530,7 +2554,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="409.5">
+    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
@@ -2544,8 +2568,8 @@
         <v>44</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="21" t="n">
-        <v>4.0</v>
+      <c r="H7" s="21">
+        <v>4</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
@@ -2555,7 +2579,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" ht="409.5">
+    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>103</v>
       </c>
@@ -2571,8 +2595,8 @@
         <v>234</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="21" t="n">
-        <v>4.0</v>
+      <c r="H8" s="21">
+        <v>4</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
@@ -2582,7 +2606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" ht="409.5">
+    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
@@ -2598,8 +2622,8 @@
         <v>234</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="21" t="n">
-        <v>4.0</v>
+      <c r="H9" s="21">
+        <v>4</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
@@ -2609,7 +2633,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" ht="225">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>103</v>
       </c>
@@ -2623,8 +2647,8 @@
         <v>345</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="21" t="n">
-        <v>4.0</v>
+      <c r="H10" s="21">
+        <v>4</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
@@ -2634,7 +2658,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" ht="255">
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
@@ -2648,8 +2672,8 @@
         <v>384</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="21" t="n">
-        <v>4.0</v>
+      <c r="H11" s="21">
+        <v>4</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -2659,7 +2683,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" ht="409.5">
+    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>103</v>
       </c>
@@ -2675,8 +2699,8 @@
         <v>84</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="21" t="n">
-        <v>4.0</v>
+      <c r="H12" s="21">
+        <v>4</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
@@ -2686,7 +2710,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" ht="409.5">
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>103</v>
       </c>
@@ -2702,8 +2726,8 @@
         <v>84</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="21" t="n">
-        <v>4.0</v>
+      <c r="H13" s="21">
+        <v>4</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
@@ -2713,7 +2737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" ht="409.5">
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>103</v>
       </c>
@@ -2729,8 +2753,8 @@
         <v>84</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="21" t="n">
-        <v>4.0</v>
+      <c r="H14" s="21">
+        <v>4</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
@@ -2740,15 +2764,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" ht="173.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="20" t="n">
-        <v>50.0</v>
+      <c r="C15" s="20">
+        <v>50</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="13"/>
@@ -2756,22 +2780,22 @@
         <v>339</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="21" t="n">
-        <v>4.0</v>
+      <c r="H15" s="21">
+        <v>4</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" ht="173.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C16" s="20" t="n">
-        <v>50.0</v>
+      <c r="C16" s="20">
+        <v>50</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="13"/>
@@ -2779,33 +2803,33 @@
         <v>341</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="21" t="n">
-        <v>4.0</v>
+      <c r="H16" s="21">
+        <v>4</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" ht="409.5">
+    <row r="17" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="23" t="n">
-        <v>24.0</v>
+      <c r="C17" s="23">
+        <v>24</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>376</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="21" t="n">
-        <v>3.0</v>
+      <c r="H17" s="21">
+        <v>3</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24" t="s">
@@ -2815,7 +2839,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" ht="409.5">
+    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>274</v>
       </c>
@@ -2831,8 +2855,8 @@
         <v>55</v>
       </c>
       <c r="G18" s="24"/>
-      <c r="H18" s="21" t="n">
-        <v>3.0</v>
+      <c r="H18" s="21">
+        <v>3</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24" t="s">
@@ -2842,7 +2866,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" ht="409.5">
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>274</v>
       </c>
@@ -2858,14 +2882,14 @@
         <v>259</v>
       </c>
       <c r="G19" s="24"/>
-      <c r="H19" s="21" t="n">
-        <v>3.0</v>
+      <c r="H19" s="21">
+        <v>3</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" ht="409.5">
+    <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>274</v>
       </c>
@@ -2875,28 +2899,28 @@
       <c r="C20" s="23"/>
       <c r="D20" s="21"/>
       <c r="E20" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>353</v>
       </c>
       <c r="G20" s="24"/>
-      <c r="H20" s="21" t="n">
-        <v>3.0</v>
+      <c r="H20" s="21">
+        <v>3</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" ht="409.5">
+    <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>18.0</v>
+        <v>452</v>
+      </c>
+      <c r="C21" s="23">
+        <v>18</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="24" t="s">
@@ -2906,19 +2930,19 @@
         <v>73</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="21" t="n">
-        <v>3.0</v>
+      <c r="H21" s="21">
+        <v>3</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" ht="409.5">
+    <row r="22" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="21"/>
@@ -2929,19 +2953,19 @@
         <v>223</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="21" t="n">
-        <v>3.0</v>
+      <c r="H22" s="21">
+        <v>3</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" ht="409.5">
+    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="21"/>
@@ -2952,19 +2976,19 @@
         <v>88</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="21" t="n">
-        <v>3.0</v>
+      <c r="H23" s="21">
+        <v>3</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" ht="409.5">
+    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="21"/>
@@ -2975,22 +2999,22 @@
         <v>130</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="21" t="n">
-        <v>3.0</v>
+      <c r="H24" s="21">
+        <v>3</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" ht="409.5">
+    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="23" t="n">
-        <v>18.0</v>
+      <c r="C25" s="23">
+        <v>18</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="13" t="s">
@@ -3000,14 +3024,14 @@
         <v>151</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="21" t="n">
-        <v>3.0</v>
+      <c r="H25" s="21">
+        <v>3</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" ht="409.5">
+    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>274</v>
       </c>
@@ -3023,64 +3047,64 @@
         <v>295</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="21" t="n">
-        <v>3.0</v>
+      <c r="H26" s="21">
+        <v>3</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" ht="409.5">
+    <row r="27" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>18.0</v>
+        <v>402</v>
+      </c>
+      <c r="C27" s="23">
+        <v>18</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>188</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="21" t="n">
-        <v>3.0</v>
+      <c r="H27" s="21">
+        <v>3</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" ht="409.5">
+    <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="23" t="n">
-        <v>18.0</v>
+      <c r="C28" s="23">
+        <v>18</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="21" t="n">
-        <v>3.0</v>
+      <c r="H28" s="21">
+        <v>3</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" ht="390">
+    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>274</v>
       </c>
@@ -3096,14 +3120,14 @@
         <v>306</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="21" t="n">
-        <v>3.0</v>
+      <c r="H29" s="21">
+        <v>3</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" ht="409.5">
+    <row r="30" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>274</v>
       </c>
@@ -3113,20 +3137,20 @@
       <c r="C30" s="23"/>
       <c r="D30" s="21"/>
       <c r="E30" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>294</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="21" t="n">
-        <v>3.0</v>
+      <c r="H30" s="21">
+        <v>3</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" ht="409.5">
+    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>274</v>
       </c>
@@ -3142,39 +3166,39 @@
         <v>93</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="21" t="n">
-        <v>3.0</v>
+      <c r="H31" s="21">
+        <v>3</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" ht="409.5">
+    <row r="32" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="23" t="n">
-        <v>14.0</v>
+      <c r="C32" s="23">
+        <v>14</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>209</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="21" t="n">
-        <v>3.0</v>
+      <c r="H32" s="21">
+        <v>3</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" ht="409.5">
+    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>274</v>
       </c>
@@ -3187,17 +3211,17 @@
         <v>333</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="21" t="n">
-        <v>3.0</v>
+      <c r="H33" s="21">
+        <v>3</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" ht="409.5">
+    <row r="34" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>274</v>
       </c>
@@ -3213,22 +3237,22 @@
         <v>300</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="21" t="n">
-        <v>3.0</v>
+      <c r="H34" s="21">
+        <v>3</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" ht="409.5">
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="20" t="n">
-        <v>20.0</v>
+      <c r="C35" s="20">
+        <v>20</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="13" t="s">
@@ -3238,8 +3262,8 @@
         <v>240</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="21" t="n">
-        <v>2.0</v>
+      <c r="H35" s="21">
+        <v>2</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
@@ -3249,15 +3273,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" ht="409.5">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="20" t="n">
-        <v>20.0</v>
+      <c r="C36" s="20">
+        <v>20</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="13" t="s">
@@ -3267,8 +3291,8 @@
         <v>240</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="21" t="n">
-        <v>2.0</v>
+      <c r="H36" s="21">
+        <v>2</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
@@ -3278,7 +3302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" ht="330">
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>245</v>
       </c>
@@ -3292,8 +3316,8 @@
         <v>367</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="21" t="n">
-        <v>2.0</v>
+      <c r="H37" s="21">
+        <v>2</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
@@ -3301,7 +3325,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" ht="375">
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>245</v>
       </c>
@@ -3315,8 +3339,8 @@
         <v>149</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="21" t="n">
-        <v>2.0</v>
+      <c r="H38" s="21">
+        <v>2</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
@@ -3324,15 +3348,15 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" ht="409.5">
+    <row r="39" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="27" t="n">
-        <v>25.0</v>
+      <c r="C39" s="27">
+        <v>25</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="13" t="s">
@@ -3342,8 +3366,8 @@
         <v>66</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="21" t="n">
-        <v>2.0</v>
+      <c r="H39" s="21">
+        <v>2</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
@@ -3351,7 +3375,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" ht="330.75">
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>245</v>
       </c>
@@ -3365,8 +3389,8 @@
         <v>367</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="21" t="n">
-        <v>2.0</v>
+      <c r="H40" s="21">
+        <v>2</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
@@ -3374,7 +3398,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" ht="375">
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>245</v>
       </c>
@@ -3388,8 +3412,8 @@
         <v>149</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="21" t="n">
-        <v>2.0</v>
+      <c r="H41" s="21">
+        <v>2</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
@@ -3397,7 +3421,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" ht="409.5">
+    <row r="42" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>245</v>
       </c>
@@ -3406,15 +3430,15 @@
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="29" t="n">
-        <v>44.0</v>
+      <c r="E42" s="29">
+        <v>44</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>359</v>
       </c>
       <c r="G42" s="30"/>
-      <c r="H42" s="28" t="n">
-        <v>2.0</v>
+      <c r="H42" s="28">
+        <v>2</v>
       </c>
       <c r="I42" s="28"/>
       <c r="J42" s="28" t="s">
@@ -3422,7 +3446,7 @@
       </c>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" ht="409.5">
+    <row r="43" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>245</v>
       </c>
@@ -3436,8 +3460,8 @@
         <v>17</v>
       </c>
       <c r="G43" s="30"/>
-      <c r="H43" s="28" t="n">
-        <v>2.0</v>
+      <c r="H43" s="28">
+        <v>2</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="28" t="s">
@@ -3445,7 +3469,7 @@
       </c>
       <c r="K43" s="28"/>
     </row>
-    <row r="44" ht="360">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>245</v>
       </c>
@@ -3459,8 +3483,8 @@
         <v>270</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="21" t="n">
-        <v>2.0</v>
+      <c r="H44" s="21">
+        <v>2</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
@@ -3468,7 +3492,7 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" ht="409.5">
+    <row r="45" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>245</v>
       </c>
@@ -3478,14 +3502,14 @@
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="21" t="n">
-        <v>2.0</v>
+      <c r="H45" s="21">
+        <v>2</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
@@ -3493,7 +3517,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" ht="409.5">
+    <row r="46" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>245</v>
       </c>
@@ -3507,8 +3531,8 @@
         <v>314</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="21" t="n">
-        <v>2.0</v>
+      <c r="H46" s="21">
+        <v>2</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
@@ -3516,22 +3540,22 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" ht="409.5">
+    <row r="47" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>245</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="29" t="n">
-        <v>49.0</v>
+      <c r="E47" s="29">
+        <v>49</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="21" t="n">
-        <v>2.0</v>
+      <c r="H47" s="21">
+        <v>2</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
@@ -3539,26 +3563,26 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" ht="409.5">
+    <row r="48" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="20" t="n">
-        <v>18.0</v>
+      <c r="C48" s="20">
+        <v>18</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="13" t="s">
         <v>138</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="21" t="n">
-        <v>2.0</v>
+      <c r="H48" s="21">
+        <v>2</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
@@ -3566,9 +3590,9 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" ht="409.5">
+    <row r="49" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
@@ -3580,8 +3604,8 @@
         <v>381</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="21" t="n">
-        <v>2.0</v>
+      <c r="H49" s="21">
+        <v>2</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
@@ -3589,22 +3613,22 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" ht="270">
+    <row r="50" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>347</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="21" t="n">
-        <v>2.0</v>
+      <c r="H50" s="21">
+        <v>2</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
@@ -3614,15 +3638,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" ht="409.5">
+    <row r="51" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="20" t="n">
-        <v>18.0</v>
+      <c r="C51" s="20">
+        <v>18</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="13" t="s">
@@ -3632,8 +3656,8 @@
         <v>95</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="21" t="n">
-        <v>2.0</v>
+      <c r="H51" s="21">
+        <v>2</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
@@ -3643,15 +3667,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" ht="409.5">
+    <row r="52" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="20" t="n">
-        <v>18.0</v>
+      <c r="C52" s="20">
+        <v>18</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="13" t="s">
@@ -3661,8 +3685,8 @@
         <v>95</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="21" t="n">
-        <v>2.0</v>
+      <c r="H52" s="21">
+        <v>2</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
@@ -3672,9 +3696,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" ht="409.5">
+    <row r="53" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
@@ -3683,11 +3707,11 @@
         <v>265</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="21" t="n">
-        <v>2.0</v>
+      <c r="H53" s="21">
+        <v>2</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
@@ -3697,9 +3721,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" ht="409.5">
+    <row r="54" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -3708,11 +3732,11 @@
         <v>265</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="21" t="n">
-        <v>2.0</v>
+      <c r="H54" s="21">
+        <v>2</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
@@ -3722,9 +3746,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" ht="409.5">
+    <row r="55" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -3733,11 +3757,11 @@
         <v>265</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="21" t="n">
-        <v>2.0</v>
+      <c r="H55" s="21">
+        <v>2</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
@@ -3747,9 +3771,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" ht="225">
+    <row r="56" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
@@ -3761,8 +3785,8 @@
         <v>285</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="21" t="n">
-        <v>2.0</v>
+      <c r="H56" s="21">
+        <v>2</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
@@ -3772,9 +3796,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" ht="225">
+    <row r="57" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
@@ -3786,8 +3810,8 @@
         <v>285</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="21" t="n">
-        <v>2.0</v>
+      <c r="H57" s="21">
+        <v>2</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
@@ -3797,9 +3821,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" ht="409.5">
+    <row r="58" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
@@ -3811,8 +3835,8 @@
         <v>72</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="21" t="n">
-        <v>2.0</v>
+      <c r="H58" s="21">
+        <v>2</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
@@ -3820,22 +3844,22 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" ht="409.5">
+    <row r="59" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>206</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="21" t="n">
-        <v>2.0</v>
+      <c r="H59" s="21">
+        <v>2</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
@@ -3843,9 +3867,9 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" ht="315">
+    <row r="60" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -3857,8 +3881,8 @@
         <v>29</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="21" t="n">
-        <v>2.0</v>
+      <c r="H60" s="21">
+        <v>2</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
@@ -3866,15 +3890,15 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" ht="409.5">
+    <row r="61" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="20" t="n">
-        <v>18.0</v>
+      <c r="C61" s="20">
+        <v>18</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="13" t="s">
@@ -3884,8 +3908,8 @@
         <v>65</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="21" t="n">
-        <v>2.0</v>
+      <c r="H61" s="21">
+        <v>2</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
@@ -3895,15 +3919,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" ht="409.5">
+    <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="20" t="n">
-        <v>18.0</v>
+      <c r="C62" s="20">
+        <v>18</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="13" t="s">
@@ -3913,8 +3937,8 @@
         <v>65</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="21" t="n">
-        <v>2.0</v>
+      <c r="H62" s="21">
+        <v>2</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
@@ -3924,13 +3948,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" ht="409.5">
+    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="19"/>
-      <c r="C63" s="20" t="n">
-        <v>18.0</v>
+      <c r="C63" s="20">
+        <v>18</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="13" t="s">
@@ -3940,8 +3964,8 @@
         <v>378</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="21" t="n">
-        <v>2.0</v>
+      <c r="H63" s="21">
+        <v>2</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4" t="s">
@@ -3951,13 +3975,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" ht="409.5">
+    <row r="64" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="19"/>
-      <c r="C64" s="20" t="n">
-        <v>18.0</v>
+      <c r="C64" s="20">
+        <v>18</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="13" t="s">
@@ -3967,8 +3991,8 @@
         <v>378</v>
       </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="21" t="n">
-        <v>2.0</v>
+      <c r="H64" s="21">
+        <v>2</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4" t="s">
@@ -3978,22 +4002,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" ht="409.5">
+    <row r="65" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>137</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="21" t="n">
-        <v>2.0</v>
+      <c r="H65" s="21">
+        <v>2</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4" t="s">
@@ -4003,22 +4027,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" ht="409.5">
+    <row r="66" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
       <c r="E66" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>137</v>
       </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="21" t="n">
-        <v>2.0</v>
+      <c r="H66" s="21">
+        <v>2</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
@@ -4026,9 +4050,9 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" ht="330">
+    <row r="67" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
@@ -4040,8 +4064,8 @@
         <v>46</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="21" t="n">
-        <v>2.0</v>
+      <c r="H67" s="21">
+        <v>2</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
@@ -4051,15 +4075,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" ht="409.5">
+    <row r="68" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="20" t="n">
-        <v>24.0</v>
+      <c r="C68" s="20">
+        <v>24</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="13" t="s">
@@ -4069,8 +4093,8 @@
         <v>23</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="21" t="n">
-        <v>2.0</v>
+      <c r="H68" s="21">
+        <v>2</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
@@ -4078,15 +4102,15 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" ht="409.5">
+    <row r="69" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C69" s="20" t="n">
-        <v>24.0</v>
+      <c r="C69" s="20">
+        <v>24</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="13" t="s">
@@ -4096,8 +4120,8 @@
         <v>263</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="21" t="n">
-        <v>2.0</v>
+      <c r="H69" s="21">
+        <v>2</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
@@ -4107,15 +4131,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" ht="409.5">
+    <row r="70" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C70" s="20" t="n">
-        <v>24.0</v>
+      <c r="C70" s="20">
+        <v>24</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="13" t="s">
@@ -4125,8 +4149,8 @@
         <v>263</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="21" t="n">
-        <v>2.0</v>
+      <c r="H70" s="21">
+        <v>2</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="s">
@@ -4136,15 +4160,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" ht="409.5">
+    <row r="71" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="20" t="n">
-        <v>30.0</v>
+      <c r="C71" s="20">
+        <v>30</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="13" t="s">
@@ -4154,8 +4178,8 @@
         <v>316</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="21" t="n">
-        <v>2.0</v>
+      <c r="H71" s="21">
+        <v>2</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
@@ -4163,15 +4187,15 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" ht="409.5">
+    <row r="72" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="20" t="n">
-        <v>12.0</v>
+      <c r="C72" s="20">
+        <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="32" t="s">
@@ -4181,8 +4205,8 @@
         <v>210</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="21" t="n">
-        <v>1.0</v>
+      <c r="H72" s="21">
+        <v>1</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="s">
@@ -4190,15 +4214,15 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" ht="405">
+    <row r="73" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="20" t="n">
-        <v>12.0</v>
+      <c r="C73" s="20">
+        <v>12</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="32" t="s">
@@ -4208,8 +4232,8 @@
         <v>98</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="21" t="n">
-        <v>1.0</v>
+      <c r="H73" s="21">
+        <v>1</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="s">
@@ -4217,15 +4241,15 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" ht="409.5">
+    <row r="74" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="20" t="n">
-        <v>12.0</v>
+      <c r="C74" s="20">
+        <v>12</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="32" t="s">
@@ -4235,8 +4259,8 @@
         <v>388</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="21" t="n">
-        <v>1.0</v>
+      <c r="H74" s="21">
+        <v>1</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
@@ -4244,15 +4268,15 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" ht="409.5">
+    <row r="75" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="C75" s="20" t="n">
-        <v>12.0</v>
+      <c r="C75" s="20">
+        <v>12</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="32" t="s">
@@ -4262,8 +4286,8 @@
         <v>25</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="21" t="n">
-        <v>1.0</v>
+      <c r="H75" s="21">
+        <v>1</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
@@ -4271,15 +4295,15 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" ht="409.5">
+    <row r="76" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="20" t="n">
-        <v>12.0</v>
+      <c r="C76" s="20">
+        <v>12</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="32" t="s">
@@ -4289,8 +4313,8 @@
         <v>59</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="21" t="n">
-        <v>1.0</v>
+      <c r="H76" s="21">
+        <v>1</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
@@ -4298,26 +4322,26 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" ht="390">
+    <row r="77" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="C77" s="20" t="n">
-        <v>12.0</v>
+      <c r="C77" s="20">
+        <v>12</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>297</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="21" t="n">
-        <v>1.0</v>
+      <c r="H77" s="21">
+        <v>1</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
@@ -4325,26 +4349,26 @@
       </c>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" ht="409.5">
+    <row r="78" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="20" t="n">
-        <v>12.0</v>
+      <c r="C78" s="20">
+        <v>12</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="32" t="s">
         <v>342</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="21" t="n">
-        <v>1.0</v>
+      <c r="H78" s="21">
+        <v>1</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
@@ -4352,15 +4376,15 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" ht="180">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="20" t="n">
-        <v>12.0</v>
+      <c r="C79" s="20">
+        <v>12</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="32" t="s">
@@ -4370,8 +4394,8 @@
         <v>114</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="21" t="n">
-        <v>1.0</v>
+      <c r="H79" s="21">
+        <v>1</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
@@ -4379,26 +4403,26 @@
       </c>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" ht="225">
+    <row r="80" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="33" t="n">
-        <v>15.0</v>
+      <c r="C80" s="33">
+        <v>15</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="F80" s="29" t="n">
-        <v>122.0</v>
+      <c r="F80" s="29">
+        <v>122</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="21" t="n">
-        <v>3.0</v>
+      <c r="H80" s="21">
+        <v>3</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -4406,9 +4430,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" ht="225">
+    <row r="81" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>219</v>
@@ -4418,20 +4442,20 @@
       <c r="E81" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F81" s="29" t="n">
-        <v>123.0</v>
+      <c r="F81" s="29">
+        <v>123</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="21" t="n">
-        <v>3.0</v>
+      <c r="H81" s="21">
+        <v>3</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" ht="330">
+    <row r="82" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>219</v>
@@ -4441,20 +4465,20 @@
       <c r="E82" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F82" s="29" t="n">
-        <v>128.0</v>
+      <c r="F82" s="29">
+        <v>128</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="21" t="n">
-        <v>3.0</v>
+      <c r="H82" s="21">
+        <v>3</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" ht="330">
+    <row r="83" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="23"/>
@@ -4462,24 +4486,24 @@
       <c r="E83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="29" t="n">
-        <v>129.0</v>
+      <c r="F83" s="29">
+        <v>129</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="21" t="n">
-        <v>3.0</v>
+      <c r="H83" s="21">
+        <v>3</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
     </row>
-    <row r="84" ht="409.5">
+    <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="19"/>
-      <c r="C84" s="20" t="n">
-        <v>12.0</v>
+      <c r="C84" s="20">
+        <v>12</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="13" t="s">
@@ -4489,8 +4513,8 @@
         <v>387</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="21" t="n">
-        <v>3.0</v>
+      <c r="H84" s="21">
+        <v>3</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4" t="s">
@@ -4498,15 +4522,15 @@
       </c>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" ht="409.5">
+    <row r="85" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="C85" s="20" t="n">
-        <v>20.0</v>
+        <v>443</v>
+      </c>
+      <c r="C85" s="20">
+        <v>20</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="13" t="s">
@@ -4516,16 +4540,16 @@
         <v>375</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="21" t="n">
-        <v>3.0</v>
+      <c r="H85" s="21">
+        <v>3</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" ht="405">
+    <row r="86" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -4537,41 +4561,41 @@
         <v>80</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="21" t="n">
-        <v>3.0</v>
+      <c r="H86" s="21">
+        <v>3</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" ht="360">
+    <row r="87" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>270</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="21" t="n">
-        <v>3.0</v>
+      <c r="H87" s="21">
+        <v>3</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" ht="409.5">
+    <row r="88" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" s="19"/>
-      <c r="C88" s="20" t="n">
-        <v>20.0</v>
+      <c r="C88" s="20">
+        <v>20</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="13" t="s">
@@ -4581,16 +4605,16 @@
         <v>207</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="21" t="n">
-        <v>3.0</v>
+      <c r="H88" s="21">
+        <v>3</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" ht="409.5">
+    <row r="89" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
@@ -4602,16 +4626,16 @@
         <v>363</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="21" t="n">
-        <v>3.0</v>
+      <c r="H89" s="21">
+        <v>3</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" ht="409.5">
+    <row r="90" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
@@ -4620,25 +4644,25 @@
         <v>284</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="21" t="n">
-        <v>3.0</v>
+      <c r="H90" s="21">
+        <v>3</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" ht="409.5">
+    <row r="91" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="C91" s="20" t="n">
-        <v>20.0</v>
+        <v>401</v>
+      </c>
+      <c r="C91" s="20">
+        <v>20</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="13" t="s">
@@ -4648,16 +4672,16 @@
         <v>129</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="21" t="n">
-        <v>3.0</v>
+      <c r="H91" s="21">
+        <v>3</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" ht="405">
+    <row r="92" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
@@ -4669,41 +4693,41 @@
         <v>320</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="21" t="n">
-        <v>3.0</v>
+      <c r="H92" s="21">
+        <v>3</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" ht="409.5">
+    <row r="93" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="21" t="n">
-        <v>3.0</v>
+      <c r="H93" s="21">
+        <v>3</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" ht="409.5">
+    <row r="94" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B94" s="19"/>
-      <c r="C94" s="20" t="n">
-        <v>20.0</v>
+      <c r="C94" s="20">
+        <v>20</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="13" t="s">
@@ -4713,37 +4737,37 @@
         <v>131</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="21" t="n">
-        <v>3.0</v>
+      <c r="H94" s="21">
+        <v>3</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" ht="409.5">
+    <row r="95" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>251</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="21" t="n">
-        <v>3.0</v>
+      <c r="H95" s="21">
+        <v>3</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" ht="409.5">
+    <row r="96" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
@@ -4755,22 +4779,22 @@
         <v>365</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="21" t="n">
-        <v>3.0</v>
+      <c r="H96" s="21">
+        <v>3</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" ht="409.5">
+    <row r="97" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="23" t="n">
-        <v>16.0</v>
+      <c r="C97" s="23">
+        <v>16</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="29" t="s">
@@ -4780,22 +4804,22 @@
         <v>293</v>
       </c>
       <c r="G97" s="32"/>
-      <c r="H97" s="32" t="n">
-        <v>2.0</v>
+      <c r="H97" s="32">
+        <v>2</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32"/>
     </row>
-    <row r="98" ht="409.5">
+    <row r="98" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="23" t="n">
-        <v>12.0</v>
+      <c r="C98" s="23">
+        <v>12</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="29" t="s">
@@ -4805,39 +4829,39 @@
         <v>7</v>
       </c>
       <c r="G98" s="32"/>
-      <c r="H98" s="32" t="n">
-        <v>2.0</v>
+      <c r="H98" s="32">
+        <v>2</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32"/>
     </row>
-    <row r="99" ht="126">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B99" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C99" s="23" t="n">
-        <v>18.0</v>
+      <c r="C99" s="23">
+        <v>18</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="F99" s="29" t="n">
-        <v>68.0</v>
+        <v>423</v>
+      </c>
+      <c r="F99" s="29">
+        <v>68</v>
       </c>
       <c r="G99" s="32"/>
-      <c r="H99" s="32" t="n">
-        <v>2.0</v>
+      <c r="H99" s="32">
+        <v>2</v>
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32"/>
     </row>
-    <row r="100" ht="126">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>71</v>
       </c>
@@ -4849,26 +4873,26 @@
       <c r="E100" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F100" s="29" t="n">
-        <v>70.0</v>
+      <c r="F100" s="29">
+        <v>70</v>
       </c>
       <c r="G100" s="32"/>
-      <c r="H100" s="32" t="n">
-        <v>2.0</v>
+      <c r="H100" s="32">
+        <v>2</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32"/>
     </row>
-    <row r="101" ht="330.75">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C101" s="20" t="n">
-        <v>40.0</v>
+      <c r="C101" s="20">
+        <v>40</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="13"/>
@@ -4876,14 +4900,14 @@
         <v>176</v>
       </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="21" t="n">
-        <v>2.0</v>
+      <c r="H101" s="21">
+        <v>2</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" ht="18.75">
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
       <c r="B102" s="34" t="s">
         <v>14</v>
@@ -4898,7 +4922,7 @@
       <c r="J102" s="37"/>
       <c r="K102" s="37"/>
     </row>
-    <row r="103" ht="15.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -4911,7 +4935,7 @@
       <c r="J103" s="32"/>
       <c r="K103" s="32"/>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="39"/>
@@ -4924,7 +4948,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" ht="18.75">
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
       <c r="B105" s="34" t="s">
         <v>107</v>
@@ -4939,19 +4963,19 @@
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
     </row>
-    <row r="106" ht="409.5">
+    <row r="106" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C106" s="23" t="n">
-        <v>10.0</v>
+      <c r="C106" s="23">
+        <v>10</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>217</v>
@@ -4962,7 +4986,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" ht="409.5">
+    <row r="107" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>126</v>
       </c>
@@ -4983,22 +5007,22 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" ht="405">
+    <row r="108" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C108" s="33" t="n">
-        <v>16.0</v>
+      <c r="C108" s="33">
+        <v>16</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="13" t="s">
         <v>268</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G108" s="13"/>
       <c r="H108" s="21"/>
@@ -5006,7 +5030,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" ht="409.5">
+    <row r="109" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>126</v>
       </c>
@@ -5019,7 +5043,7 @@
         <v>174</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="21"/>
@@ -5027,7 +5051,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" ht="409.5">
+    <row r="110" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>126</v>
       </c>
@@ -5046,7 +5070,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" ht="409.5">
+    <row r="111" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
         <v>126</v>
       </c>
@@ -5065,7 +5089,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" ht="409.5">
+    <row r="112" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
         <v>126</v>
       </c>
@@ -5086,7 +5110,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" ht="360">
+    <row r="113" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>126</v>
       </c>
@@ -5107,7 +5131,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" ht="285">
+    <row r="114" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>126</v>
       </c>
@@ -5128,7 +5152,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" ht="409.5">
+    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
         <v>126</v>
       </c>
@@ -5149,7 +5173,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" ht="15.75">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -5162,7 +5186,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="39"/>
@@ -5175,7 +5199,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" ht="18.75">
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="34"/>
       <c r="B118" s="34" t="s">
         <v>50</v>
@@ -5190,7 +5214,7 @@
       <c r="J118" s="37"/>
       <c r="K118" s="37"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="39"/>
@@ -5203,7 +5227,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" ht="18.75">
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="34" t="s">
         <v>57</v>
@@ -5218,15 +5242,15 @@
       <c r="J120" s="37"/>
       <c r="K120" s="37"/>
     </row>
-    <row r="121" ht="345">
+    <row r="121" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="20" t="n">
-        <v>16.0</v>
+      <c r="C121" s="20">
+        <v>16</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="4" t="s">
@@ -5241,15 +5265,15 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" ht="409.5">
+    <row r="122" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="20" t="n">
-        <v>12.0</v>
+      <c r="C122" s="20">
+        <v>12</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="13" t="s">
@@ -5264,7 +5288,7 @@
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
     </row>
-    <row r="123" ht="15.75">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="20"/>
@@ -5277,7 +5301,7 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" ht="15.75">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="20"/>
@@ -5290,7 +5314,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="39"/>
@@ -5303,7 +5327,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" ht="18.75">
+    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="34" t="s">
         <v>193</v>
@@ -5318,7 +5342,7 @@
       <c r="J126" s="37"/>
       <c r="K126" s="37"/>
     </row>
-    <row r="127" ht="15.75">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="20"/>
@@ -5331,7 +5355,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="39"/>
@@ -5344,10 +5368,10 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" ht="18.75">
+    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
       <c r="B129" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C129" s="35"/>
       <c r="D129" s="36"/>
@@ -5359,7 +5383,7 @@
       <c r="J129" s="37"/>
       <c r="K129" s="37"/>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="39"/>
@@ -5372,7 +5396,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" ht="18.75">
+    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="34" t="s">
         <v>340</v>
@@ -5387,15 +5411,15 @@
       <c r="J131" s="37"/>
       <c r="K131" s="37"/>
     </row>
-    <row r="132" ht="300">
+    <row r="132" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="20" t="n">
-        <v>40.0</v>
+      <c r="C132" s="20">
+        <v>40</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="4" t="s">
@@ -5410,7 +5434,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" ht="409.5">
+    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>379</v>
       </c>
@@ -5431,7 +5455,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" ht="409.5">
+    <row r="134" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>379</v>
       </c>
@@ -5452,7 +5476,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" ht="15.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="20"/>
@@ -5465,19 +5489,19 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" ht="360">
+    <row r="136" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="20" t="n">
-        <v>12.0</v>
+      <c r="C136" s="20">
+        <v>12</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>162</v>
@@ -5488,7 +5512,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" ht="360">
+    <row r="137" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>379</v>
       </c>
@@ -5498,7 +5522,7 @@
       <c r="C137" s="20"/>
       <c r="D137" s="21"/>
       <c r="E137" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>128</v>
@@ -5509,7 +5533,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" ht="15.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="20"/>
@@ -5522,7 +5546,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" ht="390">
+    <row r="139" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>379</v>
       </c>
@@ -5543,7 +5567,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" ht="405">
+    <row r="140" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>379</v>
       </c>
@@ -5564,7 +5588,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" ht="409.5">
+    <row r="141" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>379</v>
       </c>
@@ -5577,7 +5601,7 @@
         <v>122</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="21"/>
@@ -5585,7 +5609,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" ht="18.75">
+    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="34" t="s">
         <v>157</v>
@@ -5600,19 +5624,19 @@
       <c r="J142" s="37"/>
       <c r="K142" s="37"/>
     </row>
-    <row r="143" ht="375">
+    <row r="143" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C143" s="20" t="n">
-        <v>40.0</v>
+      <c r="C143" s="20">
+        <v>40</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F143" s="13" t="s">
         <v>392</v>
@@ -5623,7 +5647,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" ht="409.5">
+    <row r="144" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>379</v>
       </c>
@@ -5633,7 +5657,7 @@
       <c r="C144" s="20"/>
       <c r="D144" s="21"/>
       <c r="E144" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F144" s="13" t="s">
         <v>165</v>
@@ -5644,7 +5668,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" ht="409.5">
+    <row r="145" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>379</v>
       </c>
@@ -5665,7 +5689,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" ht="15.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="20"/>
@@ -5678,22 +5702,22 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" ht="15.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C147" s="20" t="n">
-        <v>12.0</v>
+      <c r="C147" s="20">
+        <v>12</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>109.0</v>
+        <v>403</v>
+      </c>
+      <c r="F147" s="13">
+        <v>109</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="21"/>
@@ -5701,7 +5725,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" ht="15.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>379</v>
       </c>
@@ -5711,10 +5735,10 @@
       <c r="C148" s="20"/>
       <c r="D148" s="21"/>
       <c r="E148" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F148" s="13" t="n">
-        <v>110.0</v>
+        <v>432</v>
+      </c>
+      <c r="F148" s="13">
+        <v>110</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="21"/>
@@ -5722,7 +5746,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" ht="15.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="30"/>
       <c r="B149" s="18"/>
       <c r="C149" s="20"/>
@@ -5735,20 +5759,20 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" ht="57">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="21"/>
       <c r="E150" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F150" s="13" t="n">
-        <v>111.0</v>
+      <c r="F150" s="13">
+        <v>111</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="21"/>
@@ -5756,20 +5780,20 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" ht="57">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C151" s="40"/>
       <c r="D151" s="21"/>
       <c r="E151" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="13" t="n">
-        <v>112.0</v>
+      <c r="F151" s="13">
+        <v>112</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="21"/>
@@ -5777,7 +5801,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" ht="409.5">
+    <row r="152" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>379</v>
       </c>
@@ -5798,7 +5822,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" ht="18.75">
+    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="34" t="s">
         <v>186</v>
@@ -5813,15 +5837,15 @@
       <c r="J153" s="37"/>
       <c r="K153" s="37"/>
     </row>
-    <row r="154" ht="409.5">
+    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C154" s="20" t="n">
-        <v>25.0</v>
+      <c r="C154" s="20">
+        <v>25</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="4" t="s">
@@ -5836,9 +5860,9 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" ht="330">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>346</v>
@@ -5855,9 +5879,9 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" ht="375">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>346</v>
@@ -5874,9 +5898,9 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" ht="409.5">
+    <row r="157" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>253</v>
@@ -5895,9 +5919,9 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" ht="330">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>253</v>
@@ -5914,9 +5938,9 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" ht="375">
+    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>253</v>
@@ -5933,7 +5957,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="39"/>
@@ -5946,7 +5970,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" ht="18.75">
+    <row r="161" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="34"/>
       <c r="B161" s="34" t="s">
         <v>349</v>
@@ -5961,7 +5985,7 @@
       <c r="J161" s="37"/>
       <c r="K161" s="37"/>
     </row>
-    <row r="162" ht="330">
+    <row r="162" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A162" s="22"/>
       <c r="B162" s="18" t="s">
         <v>324</v>
@@ -5978,7 +6002,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" ht="15.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
@@ -5991,7 +6015,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="39"/>
@@ -6004,7 +6028,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" ht="18.75">
+    <row r="165" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="34"/>
       <c r="B165" s="34" t="s">
         <v>76</v>
@@ -6019,7 +6043,7 @@
       <c r="J165" s="37"/>
       <c r="K165" s="37"/>
     </row>
-    <row r="166" ht="15.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="20"/>
@@ -6032,7 +6056,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="39"/>
@@ -6045,10 +6069,10 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" ht="18.75">
+    <row r="168" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="34"/>
       <c r="B168" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C168" s="35"/>
       <c r="D168" s="36"/>
@@ -6060,7 +6084,7 @@
       <c r="J168" s="37"/>
       <c r="K168" s="37"/>
     </row>
-    <row r="169" ht="15.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
@@ -6073,7 +6097,7 @@
       <c r="J169" s="13"/>
       <c r="K169" s="13"/>
     </row>
-    <row r="170" ht="15.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="22"/>
       <c r="B170" s="41"/>
       <c r="C170" s="23"/>
@@ -6086,7 +6110,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" ht="15.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
@@ -6099,7 +6123,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" ht="15.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -6112,7 +6136,7 @@
       <c r="J172" s="13"/>
       <c r="K172" s="13"/>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="39"/>
@@ -6125,7 +6149,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" ht="18.75">
+    <row r="174" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="34"/>
       <c r="B174" s="34" t="s">
         <v>281</v>
@@ -6140,9 +6164,9 @@
       <c r="J174" s="37"/>
       <c r="K174" s="37"/>
     </row>
-    <row r="175" ht="409.5">
+    <row r="175" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A175" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B175" s="41" t="s">
         <v>190</v>
@@ -6161,9 +6185,9 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" ht="360">
+    <row r="176" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A176" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B176" s="41"/>
       <c r="C176" s="20"/>
@@ -6180,9 +6204,9 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" ht="405">
+    <row r="177" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A177" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B177" s="28"/>
       <c r="C177" s="20"/>
@@ -6199,9 +6223,9 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" ht="409.5">
+    <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="20"/>
@@ -6218,9 +6242,9 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" ht="360">
+    <row r="179" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A179" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B179" s="18"/>
       <c r="C179" s="20"/>
@@ -6237,9 +6261,9 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" ht="405">
+    <row r="180" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A180" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B180" s="18"/>
       <c r="C180" s="20"/>
@@ -6256,9 +6280,9 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" ht="409.5">
+    <row r="181" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A181" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B181" s="18"/>
       <c r="C181" s="20"/>
@@ -6275,9 +6299,9 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" ht="409.5">
+    <row r="182" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B182" s="42" t="s">
         <v>310</v>
@@ -6296,13 +6320,13 @@
       <c r="J182" s="37"/>
       <c r="K182" s="37"/>
     </row>
-    <row r="183" ht="255">
+    <row r="183" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A183" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B183" s="19"/>
-      <c r="C183" s="43" t="n">
-        <v>12.0</v>
+      <c r="C183" s="43">
+        <v>12</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="4" t="s">
@@ -6317,9 +6341,9 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" ht="240">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" s="44" t="s">
         <v>351</v>
@@ -6336,12 +6360,12 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" ht="409.5">
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A185" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C185" s="43"/>
       <c r="D185" s="21"/>
@@ -6357,9 +6381,9 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" ht="390">
+    <row r="186" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B186" s="19"/>
       <c r="C186" s="43"/>
@@ -6376,9 +6400,9 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" ht="409.5">
+    <row r="187" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A187" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="43"/>
@@ -6395,9 +6419,9 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" ht="409.5">
+    <row r="188" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A188" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B188" s="18"/>
       <c r="C188" s="20"/>
@@ -6406,7 +6430,7 @@
         <v>313</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="21"/>
@@ -6414,9 +6438,9 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" ht="375">
+    <row r="189" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A189" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B189" s="18"/>
       <c r="C189" s="20"/>
@@ -6433,9 +6457,9 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" ht="409.5">
+    <row r="190" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A190" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="20"/>
@@ -6452,9 +6476,9 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" ht="409.5">
+    <row r="191" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A191" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B191" s="18"/>
       <c r="C191" s="20"/>
@@ -6471,9 +6495,9 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" ht="409.5">
+    <row r="192" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>34</v>
@@ -6492,11 +6516,11 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" ht="15.75">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="20" t="n">
-        <v>20.0</v>
+      <c r="C193" s="20">
+        <v>20</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="4"/>
@@ -6507,7 +6531,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" ht="15.75">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="20"/>
@@ -6520,7 +6544,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" ht="15.75">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
       <c r="C195" s="20"/>
@@ -6533,7 +6557,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" ht="15.75">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
       <c r="C196" s="20"/>
@@ -6546,7 +6570,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" ht="18.75">
+    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
         <v>250</v>
       </c>
@@ -6563,15 +6587,15 @@
       <c r="J197" s="37"/>
       <c r="K197" s="37"/>
     </row>
-    <row r="198" ht="405">
+    <row r="198" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C198" s="20" t="n">
-        <v>18.0</v>
+      <c r="C198" s="20">
+        <v>18</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="45" t="s">
@@ -6586,7 +6610,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" ht="409.5">
+    <row r="199" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
         <v>250</v>
       </c>
@@ -6607,7 +6631,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" ht="300">
+    <row r="200" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
         <v>250</v>
       </c>
@@ -6628,7 +6652,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" ht="171">
+    <row r="201" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
         <v>250</v>
       </c>
@@ -6638,7 +6662,7 @@
       <c r="C201" s="20"/>
       <c r="D201" s="21"/>
       <c r="E201" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="4"/>
@@ -6647,7 +6671,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" ht="15.75">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="20"/>
@@ -6660,7 +6684,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" ht="409.5">
+    <row r="203" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
         <v>250</v>
       </c>
@@ -6681,7 +6705,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" ht="15.75">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="20"/>
@@ -6694,7 +6718,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" ht="409.5">
+    <row r="205" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
         <v>250</v>
       </c>
@@ -6713,7 +6737,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" ht="18.75">
+    <row r="206" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>250</v>
       </c>
@@ -6730,7 +6754,7 @@
       <c r="J206" s="37"/>
       <c r="K206" s="37"/>
     </row>
-    <row r="207" ht="15.75">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="20"/>
@@ -6743,15 +6767,15 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" ht="285">
+    <row r="208" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C208" s="20" t="n">
-        <v>18.0</v>
+      <c r="C208" s="20">
+        <v>18</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="4" t="s">
@@ -6766,7 +6790,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" ht="409.5">
+    <row r="209" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
         <v>250</v>
       </c>
@@ -6777,7 +6801,7 @@
         <v>231</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="21"/>
@@ -6785,7 +6809,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" ht="360">
+    <row r="210" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
         <v>250</v>
       </c>
@@ -6804,7 +6828,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" ht="15.75">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="20"/>
@@ -6817,15 +6841,15 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" ht="409.5">
+    <row r="212" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B212" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C212" s="20" t="n">
-        <v>20.0</v>
+      <c r="C212" s="20">
+        <v>20</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="4" t="s">
@@ -6840,15 +6864,15 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" ht="409.5">
+    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C213" s="43" t="n">
-        <v>26.0</v>
+      <c r="C213" s="43">
+        <v>26</v>
       </c>
       <c r="D213" s="21"/>
       <c r="E213" s="4" t="s">
@@ -6863,7 +6887,7 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" ht="15.75">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
         <v>250</v>
       </c>
@@ -6880,7 +6904,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" ht="409.5">
+    <row r="215" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A215" s="18" t="s">
         <v>250</v>
       </c>
@@ -6897,15 +6921,15 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" ht="409.5">
+    <row r="216" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A216" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B216" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C216" s="20" t="n">
-        <v>26.0</v>
+      <c r="C216" s="20">
+        <v>26</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="28"/>
@@ -6918,7 +6942,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" ht="409.5">
+    <row r="217" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A217" s="18" t="s">
         <v>250</v>
       </c>
@@ -6937,7 +6961,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" ht="18.75">
+    <row r="218" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="48"/>
       <c r="B218" s="49" t="s">
         <v>92</v>
@@ -6945,8 +6969,8 @@
       <c r="C218" s="50"/>
       <c r="D218" s="51"/>
       <c r="E218" s="52"/>
-      <c r="F218" s="53" t="n">
-        <v>52.0</v>
+      <c r="F218" s="53">
+        <v>52</v>
       </c>
       <c r="G218" s="54"/>
       <c r="H218" s="51"/>
@@ -6954,7 +6978,7 @@
       <c r="J218" s="54"/>
       <c r="K218" s="54"/>
     </row>
-    <row r="219" ht="18.75">
+    <row r="219" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
       <c r="B219" s="55"/>
       <c r="C219" s="20"/>
@@ -6967,7 +6991,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" ht="15.75">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
       <c r="C220" s="20"/>
@@ -6980,7 +7004,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" ht="15.75">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="20"/>
@@ -6993,7 +7017,7 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" ht="18.75">
+    <row r="222" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
       <c r="B222" s="55"/>
       <c r="C222" s="20"/>
@@ -7006,7 +7030,7 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" ht="15.75">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
       <c r="C223" s="20"/>
@@ -7019,7 +7043,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" ht="18.75">
+    <row r="224" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="34" t="s">
         <v>220</v>
       </c>
@@ -7036,7 +7060,7 @@
       <c r="J224" s="37"/>
       <c r="K224" s="37"/>
     </row>
-    <row r="225" ht="15.75">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
       <c r="C225" s="20"/>
@@ -7049,7 +7073,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" ht="15.75">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="18"/>
       <c r="B226" s="18"/>
       <c r="C226" s="20"/>
@@ -7062,7 +7086,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" ht="18.75">
+    <row r="227" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="34" t="s">
         <v>220</v>
       </c>
@@ -7079,7 +7103,7 @@
       <c r="J227" s="37"/>
       <c r="K227" s="37"/>
     </row>
-    <row r="228" ht="15.75">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
       <c r="C228" s="20"/>
@@ -7092,7 +7116,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" ht="15.75">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
       <c r="C229" s="20"/>
@@ -7105,7 +7129,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" ht="15.75">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="20"/>
@@ -7118,7 +7142,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" ht="15.75">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
       <c r="C231" s="20"/>
@@ -7131,7 +7155,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" ht="15.75">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
       <c r="C232" s="20"/>
@@ -7144,7 +7168,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" ht="15.75">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="20"/>
@@ -7157,7 +7181,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" ht="18.75">
+    <row r="234" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
         <v>220</v>
       </c>
@@ -7174,7 +7198,7 @@
       <c r="J234" s="37"/>
       <c r="K234" s="37"/>
     </row>
-    <row r="235" ht="15.75">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="18"/>
       <c r="B235" s="18" t="s">
         <v>194</v>
@@ -7189,7 +7213,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" ht="15.75">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
       <c r="C236" s="20"/>
@@ -7202,7 +7226,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" ht="15.75">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
       <c r="C237" s="20"/>
@@ -7215,7 +7239,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" ht="15.75">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="20"/>
@@ -7228,7 +7252,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" ht="15.75">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
       <c r="C239" s="20"/>
@@ -7241,7 +7265,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" ht="15.75">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
       <c r="C240" s="20"/>
@@ -7254,7 +7278,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" ht="15.75">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="20"/>
@@ -7267,7 +7291,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" ht="15.75">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="20"/>
@@ -7280,7 +7304,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" ht="15.75">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="20"/>
@@ -7293,7 +7317,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" ht="18.75">
+    <row r="244" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
         <v>220</v>
       </c>
@@ -7310,7 +7334,7 @@
       <c r="J244" s="37"/>
       <c r="K244" s="37"/>
     </row>
-    <row r="245" ht="15.75">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
       <c r="B245" s="18" t="s">
         <v>247</v>
@@ -7325,7 +7349,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" ht="15.75">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
       <c r="C246" s="20"/>
@@ -7338,7 +7362,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" ht="15.75">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="18"/>
       <c r="B247" s="18"/>
       <c r="C247" s="20"/>
@@ -7351,7 +7375,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" ht="15.75">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="18"/>
       <c r="B248" s="18"/>
       <c r="C248" s="20"/>
@@ -7364,7 +7388,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" ht="15.75">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
       <c r="C249" s="20"/>
@@ -7377,7 +7401,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" ht="15.75">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
       <c r="C250" s="20"/>
@@ -7390,7 +7414,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" ht="15.75">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
       <c r="C251" s="20"/>
@@ -7403,7 +7427,7 @@
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
     </row>
-    <row r="252" ht="15.75">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="20"/>
@@ -7416,7 +7440,7 @@
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" ht="15.75">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="18"/>
       <c r="B253" s="18"/>
       <c r="C253" s="20"/>
@@ -7429,7 +7453,7 @@
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" ht="18.75">
+    <row r="254" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="34" t="s">
         <v>220</v>
       </c>
@@ -7446,7 +7470,7 @@
       <c r="J254" s="37"/>
       <c r="K254" s="37"/>
     </row>
-    <row r="255" ht="15.75">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="18"/>
       <c r="B255" s="18" t="s">
         <v>331</v>
@@ -7461,7 +7485,7 @@
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
     </row>
-    <row r="256" ht="15.75">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="20"/>
@@ -7474,7 +7498,7 @@
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" ht="15.75">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
       <c r="C257" s="20"/>
@@ -7487,7 +7511,7 @@
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
     </row>
-    <row r="258" ht="15.75">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="20"/>
@@ -7500,7 +7524,7 @@
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
     </row>
-    <row r="259" ht="18.75">
+    <row r="259" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
         <v>220</v>
       </c>
@@ -7517,15 +7541,15 @@
       <c r="J259" s="37"/>
       <c r="K259" s="37"/>
     </row>
-    <row r="260" ht="15.75">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B260" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C260" s="20" t="n">
-        <v>16.0</v>
+      <c r="C260" s="20">
+        <v>16</v>
       </c>
       <c r="D260" s="21"/>
       <c r="E260" s="32"/>
@@ -7536,15 +7560,15 @@
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
     </row>
-    <row r="261" ht="15.75">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C261" s="20" t="n">
-        <v>16.0</v>
+        <v>454</v>
+      </c>
+      <c r="C261" s="20">
+        <v>16</v>
       </c>
       <c r="D261" s="21"/>
       <c r="E261" s="32"/>
@@ -7555,22 +7579,22 @@
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" ht="15.75">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C262" s="20" t="n">
-        <v>10.0</v>
+      <c r="C262" s="20">
+        <v>10</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F262" s="13" t="n">
-        <v>83.0</v>
+      <c r="F262" s="13">
+        <v>83</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="21"/>
@@ -7578,20 +7602,20 @@
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
     </row>
-    <row r="263" ht="15.75">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C263" s="20"/>
       <c r="D263" s="21"/>
       <c r="E263" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F263" s="13" t="n">
-        <v>84.0</v>
+      <c r="F263" s="13">
+        <v>84</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="21"/>
@@ -7599,7 +7623,7 @@
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
     </row>
-    <row r="264" ht="15.75">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="22" t="s">
         <v>126</v>
       </c>
@@ -7609,8 +7633,8 @@
       <c r="E264" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F264" s="13" t="n">
-        <v>85.0</v>
+      <c r="F264" s="13">
+        <v>85</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="21"/>
@@ -7618,7 +7642,7 @@
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
     </row>
-    <row r="265" ht="15.75">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="22" t="s">
         <v>126</v>
       </c>
@@ -7630,8 +7654,8 @@
       <c r="E265" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F265" s="13" t="n">
-        <v>79.0</v>
+      <c r="F265" s="13">
+        <v>79</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="21"/>
@@ -7639,7 +7663,7 @@
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
     </row>
-    <row r="266" ht="15.75">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
       <c r="B266" s="18"/>
       <c r="C266" s="20"/>
@@ -7647,8 +7671,8 @@
       <c r="E266" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="F266" s="13" t="n">
-        <v>82.0</v>
+      <c r="F266" s="13">
+        <v>82</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="21"/>
@@ -7656,7 +7680,7 @@
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
     </row>
-    <row r="267" ht="15" customHeight="1">
+    <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="56"/>
       <c r="B267" s="30"/>
       <c r="C267" s="40"/>
@@ -7669,7 +7693,7 @@
       <c r="J267" s="60"/>
       <c r="K267" s="60"/>
     </row>
-    <row r="268" ht="18.75">
+    <row r="268" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
         <v>220</v>
       </c>
@@ -7686,7 +7710,7 @@
       <c r="J268" s="37"/>
       <c r="K268" s="37"/>
     </row>
-    <row r="269" ht="409.5">
+    <row r="269" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="20"/>
@@ -7703,7 +7727,7 @@
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
     </row>
-    <row r="270" ht="15.75">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="18"/>
       <c r="C270" s="20"/>
@@ -7716,7 +7740,7 @@
       <c r="J270" s="28"/>
       <c r="K270" s="28"/>
     </row>
-    <row r="271" ht="18.75">
+    <row r="271" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
       <c r="B271" s="34" t="s">
         <v>344</v>
@@ -7731,15 +7755,15 @@
       <c r="J271" s="37"/>
       <c r="K271" s="37"/>
     </row>
-    <row r="272" ht="157.5">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C272" s="20" t="n">
-        <v>50.0</v>
+        <v>444</v>
+      </c>
+      <c r="C272" s="20">
+        <v>50</v>
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="4"/>
@@ -7752,15 +7776,15 @@
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
     </row>
-    <row r="273" ht="141.75">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B273" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C273" s="20" t="n">
-        <v>80.0</v>
+      <c r="C273" s="20">
+        <v>80</v>
       </c>
       <c r="D273" s="21"/>
       <c r="E273" s="4"/>
@@ -7773,18 +7797,18 @@
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
     </row>
-    <row r="274" ht="94.5">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="18"/>
       <c r="B274" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C274" s="20" t="n">
-        <v>30.0</v>
+      <c r="C274" s="20">
+        <v>30</v>
       </c>
       <c r="D274" s="21"/>
       <c r="E274" s="4"/>
       <c r="F274" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="21"/>
@@ -7792,13 +7816,13 @@
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
     </row>
-    <row r="275" ht="110.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="18"/>
       <c r="B275" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C275" s="20" t="n">
-        <v>100.0</v>
+      <c r="C275" s="20">
+        <v>100</v>
       </c>
       <c r="D275" s="21"/>
       <c r="E275" s="4"/>
@@ -7811,18 +7835,18 @@
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
     </row>
-    <row r="276" ht="94.5">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="18"/>
       <c r="B276" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="20" t="n">
-        <v>20.0</v>
+      <c r="C276" s="20">
+        <v>20</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="4"/>
       <c r="F276" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="21"/>
@@ -7830,18 +7854,18 @@
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
     </row>
-    <row r="277" ht="110.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="18"/>
       <c r="B277" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C277" s="20" t="n">
-        <v>50.0</v>
+      <c r="C277" s="20">
+        <v>50</v>
       </c>
       <c r="D277" s="21"/>
       <c r="E277" s="4"/>
       <c r="F277" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="21"/>
@@ -7849,13 +7873,13 @@
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
     </row>
-    <row r="278" ht="15.75">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="18"/>
       <c r="B278" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C278" s="20" t="n">
-        <v>40.0</v>
+      <c r="C278" s="20">
+        <v>40</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="4"/>
@@ -7866,7 +7890,7 @@
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
     </row>
-    <row r="279" ht="15.75">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="18"/>
       <c r="B279" s="18"/>
       <c r="C279" s="20"/>
@@ -7879,7 +7903,7 @@
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
     </row>
-    <row r="280" ht="15.75">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
       <c r="C280" s="20"/>
@@ -7892,7 +7916,7 @@
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
     </row>
-    <row r="281" ht="15.75">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
       <c r="C281" s="20"/>
@@ -7905,7 +7929,7 @@
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
     </row>
-    <row r="282" ht="15.75">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
       <c r="C282" s="20"/>
@@ -7918,13 +7942,13 @@
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="C283" s="62" t="n">
-        <v>1469.0</v>
+      <c r="C283" s="62">
+        <v>1469</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
@@ -7938,75 +7962,55 @@
   </sheetData>
   <autoFilter ref="A1:K102"/>
   <conditionalFormatting sqref="D2:D41 H2:H41 D44:D96 H44:H96 E72:F79 D101 H101 D104:D282 H104:H282 E260:E266 E269:F269">
-    <cfRule type="containsText" priority="1" dxfId="1" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" dxfId="3" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" dxfId="5" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.0" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.285156" style="0" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="0" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1"/>
-    <row r="6" ht="15" customHeight="1"/>
-    <row r="7" ht="15" customHeight="1"/>
-    <row r="8" ht="15" customHeight="1"/>
-    <row r="9" ht="15" customHeight="1"/>
-    <row r="10" ht="15" customHeight="1"/>
-    <row r="11" ht="15" customHeight="1"/>
-    <row r="12" ht="15" customHeight="1"/>
-    <row r="13" ht="15" customHeight="1"/>
-    <row r="14" ht="15" customHeight="1"/>
-    <row r="15" ht="15" customHeight="1"/>
-    <row r="16" ht="15" customHeight="1"/>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -2370,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6605,7 +6605,9 @@
         <v>242</v>
       </c>
       <c r="G198" s="4"/>
-      <c r="H198" s="21"/>
+      <c r="H198" s="21">
+        <v>7</v>
+      </c>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
@@ -6626,7 +6628,9 @@
         <v>216</v>
       </c>
       <c r="G199" s="4"/>
-      <c r="H199" s="21"/>
+      <c r="H199" s="21">
+        <v>7</v>
+      </c>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
@@ -6647,7 +6651,9 @@
         <v>121</v>
       </c>
       <c r="G200" s="4"/>
-      <c r="H200" s="21"/>
+      <c r="H200" s="21">
+        <v>7</v>
+      </c>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
@@ -6700,7 +6706,9 @@
         <v>63</v>
       </c>
       <c r="G203" s="4"/>
-      <c r="H203" s="21"/>
+      <c r="H203" s="21">
+        <v>7</v>
+      </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -6732,7 +6740,9 @@
         <v>236</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="21"/>
+      <c r="H205" s="21">
+        <v>7</v>
+      </c>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
@@ -6785,7 +6795,9 @@
         <v>369</v>
       </c>
       <c r="G208" s="4"/>
-      <c r="H208" s="21"/>
+      <c r="H208" s="21">
+        <v>7</v>
+      </c>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
@@ -6804,7 +6816,9 @@
         <v>425</v>
       </c>
       <c r="G209" s="4"/>
-      <c r="H209" s="21"/>
+      <c r="H209" s="21">
+        <v>7</v>
+      </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
@@ -6823,7 +6837,9 @@
         <v>120</v>
       </c>
       <c r="G210" s="4"/>
-      <c r="H210" s="21"/>
+      <c r="H210" s="21">
+        <v>7</v>
+      </c>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
@@ -6859,7 +6875,9 @@
         <v>326</v>
       </c>
       <c r="G212" s="4"/>
-      <c r="H212" s="21"/>
+      <c r="H212" s="21">
+        <v>7</v>
+      </c>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -6882,7 +6900,9 @@
         <v>172</v>
       </c>
       <c r="G213" s="4"/>
-      <c r="H213" s="21"/>
+      <c r="H213" s="21">
+        <v>7</v>
+      </c>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
@@ -6899,7 +6919,9 @@
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="21"/>
+      <c r="H214" s="21">
+        <v>7</v>
+      </c>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
@@ -6916,7 +6938,9 @@
         <v>68</v>
       </c>
       <c r="G215" s="4"/>
-      <c r="H215" s="21"/>
+      <c r="H215" s="21">
+        <v>7</v>
+      </c>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
@@ -6937,7 +6961,9 @@
         <v>117</v>
       </c>
       <c r="G216" s="4"/>
-      <c r="H216" s="21"/>
+      <c r="H216" s="21">
+        <v>7</v>
+      </c>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -6956,7 +6982,9 @@
         <v>70</v>
       </c>
       <c r="G217" s="4"/>
-      <c r="H217" s="21"/>
+      <c r="H217" s="21">
+        <v>7</v>
+      </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -7849,7 +7877,9 @@
         <v>429</v>
       </c>
       <c r="G276" s="4"/>
-      <c r="H276" s="21"/>
+      <c r="H276" s="21">
+        <v>5</v>
+      </c>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
@@ -7868,7 +7898,9 @@
         <v>450</v>
       </c>
       <c r="G277" s="4"/>
-      <c r="H277" s="21"/>
+      <c r="H277" s="21">
+        <v>5</v>
+      </c>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Sheet1!$A$1:$K$102</definedName>
-    <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$283</definedName>
+    <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$235</definedName>
     <definedName name="_Toc220775275">Sheet1!$B$9</definedName>
     <definedName name="_Toc220775276">Sheet1!$B$22</definedName>
     <definedName name="_Toc220775277">Sheet1!$B$42</definedName>
@@ -24,9 +24,9 @@
     <definedName name="_Toc220775282">Sheet1!$B$82</definedName>
     <definedName name="_Toc220775283">Sheet1!$B$90</definedName>
     <definedName name="_Toc220775284">Sheet1!$B$97</definedName>
-    <definedName name="_Toc220775285">Sheet1!$B$110</definedName>
-    <definedName name="_Toc220775286">Sheet1!$B$120</definedName>
-    <definedName name="_Toc220775288">Sheet1!$B$128</definedName>
+    <definedName name="_Toc220775285">Sheet1!$B$109</definedName>
+    <definedName name="_Toc220775286">Sheet1!$B$117</definedName>
+    <definedName name="_Toc220775288">Sheet1!$B$121</definedName>
     <definedName name="_Toc290939942">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688">Sheet1!$B$2</definedName>
   </definedNames>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="457">
   <si>
     <t>24. Generar T C de Alumnos con notas de Aplazo en mas de 3 Asignaturas.</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>34. Como notificador necesito poder enviar mensaje de texto a los tutores sobre inasistencias para que los mismos esten notificados</t>
+  </si>
+  <si>
+    <t>Comunicacion</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1504,12 +1507,6 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1656,23 +1653,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,9 +1745,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1763,9 +1757,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1781,9 +1772,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1794,23 +1782,44 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -2368,11 +2377,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F209" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2382,7 +2391,7 @@
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="84" customWidth="1"/>
+    <col min="6" max="6" width="84" style="67" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" customWidth="1"/>
@@ -2406,7 +2415,7 @@
       <c r="E1" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="59" t="s">
         <v>123</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -2439,12 +2448,12 @@
       <c r="E2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="29" t="s">
         <v>455</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2460,12 +2469,12 @@
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="29" t="s">
         <v>60</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2485,7 +2494,7 @@
       <c r="E4" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="29" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="4"/>
@@ -2512,7 +2521,7 @@
       <c r="E5" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="29" t="s">
         <v>178</v>
       </c>
       <c r="G5" s="4"/>
@@ -2539,7 +2548,7 @@
       <c r="E6" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="29" t="s">
         <v>178</v>
       </c>
       <c r="G6" s="4"/>
@@ -2564,7 +2573,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="29" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="4"/>
@@ -2591,7 +2600,7 @@
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="29" t="s">
         <v>234</v>
       </c>
       <c r="G8" s="4"/>
@@ -2618,7 +2627,7 @@
       <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="29" t="s">
         <v>234</v>
       </c>
       <c r="G9" s="4"/>
@@ -2643,7 +2652,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="29" t="s">
         <v>345</v>
       </c>
       <c r="G10" s="4"/>
@@ -2668,7 +2677,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="29" t="s">
         <v>384</v>
       </c>
       <c r="G11" s="4"/>
@@ -2695,7 +2704,7 @@
       <c r="E12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="29" t="s">
         <v>84</v>
       </c>
       <c r="G12" s="4"/>
@@ -2722,7 +2731,7 @@
       <c r="E13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="29" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="4"/>
@@ -2749,7 +2758,7 @@
       <c r="E14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="29" t="s">
         <v>84</v>
       </c>
       <c r="G14" s="4"/>
@@ -2776,7 +2785,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="25" t="s">
         <v>339</v>
       </c>
       <c r="G15" s="4"/>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="25" t="s">
         <v>341</v>
       </c>
       <c r="G16" s="4"/>
@@ -2824,7 +2833,7 @@
       <c r="E17" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="60" t="s">
         <v>376</v>
       </c>
       <c r="G17" s="24"/>
@@ -2851,7 +2860,7 @@
       <c r="E18" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="60" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="24"/>
@@ -2878,7 +2887,7 @@
       <c r="E19" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="29" t="s">
         <v>259</v>
       </c>
       <c r="G19" s="24"/>
@@ -2901,7 +2910,7 @@
       <c r="E20" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="29" t="s">
         <v>353</v>
       </c>
       <c r="G20" s="24"/>
@@ -2926,7 +2935,7 @@
       <c r="E21" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="29" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="4"/>
@@ -2949,7 +2958,7 @@
       <c r="E22" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="29" t="s">
         <v>223</v>
       </c>
       <c r="G22" s="4"/>
@@ -2972,7 +2981,7 @@
       <c r="E23" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="29" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="4"/>
@@ -2995,7 +3004,7 @@
       <c r="E24" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G24" s="4"/>
@@ -3020,7 +3029,7 @@
       <c r="E25" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="29" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="4"/>
@@ -3043,7 +3052,7 @@
       <c r="E26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="29" t="s">
         <v>295</v>
       </c>
       <c r="G26" s="4"/>
@@ -3068,7 +3077,7 @@
       <c r="E27" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="29" t="s">
         <v>188</v>
       </c>
       <c r="G27" s="4"/>
@@ -3093,7 +3102,7 @@
       <c r="E28" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="29" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="4"/>
@@ -3116,7 +3125,7 @@
       <c r="E29" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="29" t="s">
         <v>306</v>
       </c>
       <c r="G29" s="4"/>
@@ -3139,7 +3148,7 @@
       <c r="E30" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="29" t="s">
         <v>294</v>
       </c>
       <c r="G30" s="4"/>
@@ -3162,7 +3171,7 @@
       <c r="E31" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="29" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="4"/>
@@ -3187,7 +3196,7 @@
       <c r="E32" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="29" t="s">
         <v>209</v>
       </c>
       <c r="G32" s="4"/>
@@ -3210,7 +3219,7 @@
       <c r="E33" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="29" t="s">
         <v>410</v>
       </c>
       <c r="G33" s="4"/>
@@ -3233,7 +3242,7 @@
       <c r="E34" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="29" t="s">
         <v>300</v>
       </c>
       <c r="G34" s="4"/>
@@ -3258,7 +3267,7 @@
       <c r="E35" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="29" t="s">
         <v>240</v>
       </c>
       <c r="G35" s="4"/>
@@ -3287,7 +3296,7 @@
       <c r="E36" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="29" t="s">
         <v>240</v>
       </c>
       <c r="G36" s="4"/>
@@ -3312,7 +3321,7 @@
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="29" t="s">
         <v>367</v>
       </c>
       <c r="G37" s="4"/>
@@ -3335,7 +3344,7 @@
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="29" t="s">
         <v>149</v>
       </c>
       <c r="G38" s="4"/>
@@ -3362,7 +3371,7 @@
       <c r="E39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="4"/>
@@ -3385,7 +3394,7 @@
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="29" t="s">
         <v>367</v>
       </c>
       <c r="G40" s="4"/>
@@ -3408,7 +3417,7 @@
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="29" t="s">
         <v>149</v>
       </c>
       <c r="G41" s="4"/>
@@ -3433,7 +3442,7 @@
       <c r="E42" s="29">
         <v>44</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="29" t="s">
         <v>359</v>
       </c>
       <c r="G42" s="30"/>
@@ -3456,7 +3465,7 @@
       <c r="E43" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="30"/>
@@ -3479,7 +3488,7 @@
       <c r="E44" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="29" t="s">
         <v>270</v>
       </c>
       <c r="G44" s="4"/>
@@ -3504,7 +3513,7 @@
       <c r="E45" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="29" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="4"/>
@@ -3527,7 +3536,7 @@
       <c r="E46" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="29" t="s">
         <v>314</v>
       </c>
       <c r="G46" s="4"/>
@@ -3550,7 +3559,7 @@
       <c r="E47" s="29">
         <v>49</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="29" t="s">
         <v>435</v>
       </c>
       <c r="G47" s="4"/>
@@ -3577,7 +3586,7 @@
       <c r="E48" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="29" t="s">
         <v>426</v>
       </c>
       <c r="G48" s="4"/>
@@ -3600,7 +3609,7 @@
       <c r="E49" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="29" t="s">
         <v>381</v>
       </c>
       <c r="G49" s="4"/>
@@ -3623,7 +3632,7 @@
       <c r="E50" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="29" t="s">
         <v>347</v>
       </c>
       <c r="G50" s="4"/>
@@ -3652,7 +3661,7 @@
       <c r="E51" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="29" t="s">
         <v>95</v>
       </c>
       <c r="G51" s="4"/>
@@ -3681,7 +3690,7 @@
       <c r="E52" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="29" t="s">
         <v>95</v>
       </c>
       <c r="G52" s="4"/>
@@ -3706,7 +3715,7 @@
       <c r="E53" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="29" t="s">
         <v>404</v>
       </c>
       <c r="G53" s="4"/>
@@ -3731,7 +3740,7 @@
       <c r="E54" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="29" t="s">
         <v>404</v>
       </c>
       <c r="G54" s="4"/>
@@ -3756,7 +3765,7 @@
       <c r="E55" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="29" t="s">
         <v>404</v>
       </c>
       <c r="G55" s="4"/>
@@ -3781,7 +3790,7 @@
       <c r="E56" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="61" t="s">
         <v>285</v>
       </c>
       <c r="G56" s="4"/>
@@ -3806,7 +3815,7 @@
       <c r="E57" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="61" t="s">
         <v>285</v>
       </c>
       <c r="G57" s="4"/>
@@ -3831,7 +3840,7 @@
       <c r="E58" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="29" t="s">
         <v>72</v>
       </c>
       <c r="G58" s="4"/>
@@ -3854,7 +3863,7 @@
       <c r="E59" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="29" t="s">
         <v>206</v>
       </c>
       <c r="G59" s="4"/>
@@ -3877,7 +3886,7 @@
       <c r="E60" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G60" s="4"/>
@@ -3904,7 +3913,7 @@
       <c r="E61" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="4"/>
@@ -3933,7 +3942,7 @@
       <c r="E62" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="4"/>
@@ -3960,7 +3969,7 @@
       <c r="E63" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="29" t="s">
         <v>378</v>
       </c>
       <c r="G63" s="4"/>
@@ -3987,7 +3996,7 @@
       <c r="E64" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="29" t="s">
         <v>378</v>
       </c>
       <c r="G64" s="4"/>
@@ -4012,7 +4021,7 @@
       <c r="E65" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="29" t="s">
         <v>137</v>
       </c>
       <c r="G65" s="4"/>
@@ -4037,7 +4046,7 @@
       <c r="E66" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="29" t="s">
         <v>137</v>
       </c>
       <c r="G66" s="4"/>
@@ -4060,7 +4069,7 @@
       <c r="E67" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="29" t="s">
         <v>46</v>
       </c>
       <c r="G67" s="4"/>
@@ -4089,7 +4098,7 @@
       <c r="E68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="29" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="4"/>
@@ -4116,7 +4125,7 @@
       <c r="E69" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="29" t="s">
         <v>263</v>
       </c>
       <c r="G69" s="4"/>
@@ -4145,7 +4154,7 @@
       <c r="E70" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="29" t="s">
         <v>263</v>
       </c>
       <c r="G70" s="4"/>
@@ -4174,7 +4183,7 @@
       <c r="E71" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G71" s="4"/>
@@ -4198,7 +4207,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="21"/>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="31" t="s">
         <v>135</v>
       </c>
       <c r="F72" s="29" t="s">
@@ -4225,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="21"/>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="29" t="s">
@@ -4252,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="21"/>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="31" t="s">
         <v>348</v>
       </c>
       <c r="F74" s="29" t="s">
@@ -4279,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="21"/>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="31" t="s">
         <v>291</v>
       </c>
       <c r="F75" s="29" t="s">
@@ -4306,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="21"/>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="31" t="s">
         <v>228</v>
       </c>
       <c r="F76" s="29" t="s">
@@ -4333,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="21"/>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="31" t="s">
         <v>439</v>
       </c>
       <c r="F77" s="29" t="s">
@@ -4360,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="21"/>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="31" t="s">
         <v>342</v>
       </c>
       <c r="F78" s="29" t="s">
@@ -4387,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="21"/>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F79" s="29" t="s">
@@ -4410,7 +4419,7 @@
       <c r="B80" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="32">
         <v>15</v>
       </c>
       <c r="D80" s="21"/>
@@ -4437,7 +4446,7 @@
       <c r="B81" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="21"/>
       <c r="E81" s="13" t="s">
         <v>87</v>
@@ -4509,7 +4518,7 @@
       <c r="E84" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="29" t="s">
         <v>387</v>
       </c>
       <c r="G84" s="4"/>
@@ -4536,7 +4545,7 @@
       <c r="E85" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="29" t="s">
         <v>375</v>
       </c>
       <c r="G85" s="4"/>
@@ -4557,7 +4566,7 @@
       <c r="E86" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G86" s="4"/>
@@ -4578,7 +4587,7 @@
       <c r="E87" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="29" t="s">
         <v>270</v>
       </c>
       <c r="G87" s="4"/>
@@ -4601,7 +4610,7 @@
       <c r="E88" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="29" t="s">
         <v>207</v>
       </c>
       <c r="G88" s="4"/>
@@ -4622,7 +4631,7 @@
       <c r="E89" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="29" t="s">
         <v>363</v>
       </c>
       <c r="G89" s="4"/>
@@ -4643,7 +4652,7 @@
       <c r="E90" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="29" t="s">
         <v>412</v>
       </c>
       <c r="G90" s="4"/>
@@ -4668,7 +4677,7 @@
       <c r="E91" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="29" t="s">
         <v>129</v>
       </c>
       <c r="G91" s="4"/>
@@ -4689,7 +4698,7 @@
       <c r="E92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="29" t="s">
         <v>320</v>
       </c>
       <c r="G92" s="4"/>
@@ -4710,7 +4719,7 @@
       <c r="E93" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="29" t="s">
         <v>448</v>
       </c>
       <c r="G93" s="4"/>
@@ -4733,7 +4742,7 @@
       <c r="E94" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="29" t="s">
         <v>131</v>
       </c>
       <c r="G94" s="4"/>
@@ -4754,7 +4763,7 @@
       <c r="E95" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="29" t="s">
         <v>251</v>
       </c>
       <c r="G95" s="4"/>
@@ -4775,7 +4784,7 @@
       <c r="E96" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="29" t="s">
         <v>365</v>
       </c>
       <c r="G96" s="4"/>
@@ -4796,20 +4805,20 @@
       <c r="C97" s="23">
         <v>16</v>
       </c>
-      <c r="D97" s="32"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F97" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32">
+      <c r="G97" s="31"/>
+      <c r="H97" s="31">
         <v>2</v>
       </c>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
     </row>
     <row r="98" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
@@ -4821,20 +4830,20 @@
       <c r="C98" s="23">
         <v>12</v>
       </c>
-      <c r="D98" s="32"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="29" t="s">
         <v>296</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32">
+      <c r="G98" s="31"/>
+      <c r="H98" s="31">
         <v>2</v>
       </c>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
@@ -4846,20 +4855,20 @@
       <c r="C99" s="23">
         <v>18</v>
       </c>
-      <c r="D99" s="32"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="29" t="s">
         <v>423</v>
       </c>
       <c r="F99" s="29">
         <v>68</v>
       </c>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32">
+      <c r="G99" s="31"/>
+      <c r="H99" s="31">
         <v>2</v>
       </c>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
@@ -4869,20 +4878,20 @@
         <v>355</v>
       </c>
       <c r="C100" s="23"/>
-      <c r="D100" s="32"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="29" t="s">
         <v>167</v>
       </c>
       <c r="F100" s="29">
         <v>70</v>
       </c>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32">
+      <c r="G100" s="31"/>
+      <c r="H100" s="31">
         <v>2</v>
       </c>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
@@ -4896,7 +4905,7 @@
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="25" t="s">
         <v>176</v>
       </c>
       <c r="G101" s="4"/>
@@ -4908,80 +4917,92 @@
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34" t="s">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="4"/>
       <c r="F103" s="29"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-    </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-    </row>
-    <row r="106" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="22" t="s">
+      <c r="C104" s="34"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" s="23">
+        <v>10</v>
+      </c>
+      <c r="D105" s="21"/>
+      <c r="E105" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="21">
+        <v>8</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C106" s="23">
-        <v>10</v>
-      </c>
+      <c r="C106" s="23"/>
       <c r="D106" s="21"/>
       <c r="E106" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>217</v>
+        <v>40</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="21"/>
+      <c r="H106" s="21">
+        <v>8</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -4990,45 +5011,49 @@
       <c r="A107" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107" s="23"/>
+      <c r="B107" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C107" s="32">
+        <v>16</v>
+      </c>
       <c r="D107" s="21"/>
-      <c r="E107" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-    </row>
-    <row r="108" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E107" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="21">
+        <v>8</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C108" s="33">
-        <v>16</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C108" s="23"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
+      <c r="E108" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="21">
+        <v>8</v>
+      </c>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
@@ -5039,14 +5064,14 @@
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>449</v>
+      <c r="E109" s="4"/>
+      <c r="F109" s="29" t="s">
+        <v>357</v>
       </c>
       <c r="G109" s="4"/>
-      <c r="H109" s="21"/>
+      <c r="H109" s="21">
+        <v>8</v>
+      </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -5061,11 +5086,13 @@
       <c r="C110" s="23"/>
       <c r="D110" s="21"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="13" t="s">
-        <v>357</v>
+      <c r="F110" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="21"/>
+      <c r="H110" s="21">
+        <v>8</v>
+      </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -5079,17 +5106,21 @@
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="21"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="13" t="s">
-        <v>152</v>
+      <c r="E111" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>271</v>
       </c>
       <c r="G111" s="4"/>
-      <c r="H111" s="21"/>
+      <c r="H111" s="21">
+        <v>8</v>
+      </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
         <v>126</v>
       </c>
@@ -5099,13 +5130,15 @@
       <c r="C112" s="23"/>
       <c r="D112" s="21"/>
       <c r="E112" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>271</v>
+        <v>86</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>393</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="21"/>
+      <c r="H112" s="21">
+        <v>8</v>
+      </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -5120,18 +5153,20 @@
       <c r="C113" s="23"/>
       <c r="D113" s="21"/>
       <c r="E113" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>393</v>
+        <v>185</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>370</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="21"/>
+      <c r="H113" s="21">
+        <v>8</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>126</v>
       </c>
@@ -5141,449 +5176,547 @@
       <c r="C114" s="23"/>
       <c r="D114" s="21"/>
       <c r="E114" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>370</v>
+        <v>11</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="21"/>
+      <c r="H114" s="21">
+        <v>8</v>
+      </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+    </row>
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="21"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="13"/>
+      <c r="F116" s="29"/>
       <c r="G116" s="4"/>
       <c r="H116" s="21"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-    </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="39"/>
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="20">
+        <v>16</v>
+      </c>
+      <c r="D118" s="21"/>
+      <c r="E118" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="21">
+        <v>7</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="20">
+        <v>12</v>
+      </c>
       <c r="D119" s="21"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
+      <c r="E119" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="21">
+        <v>7</v>
+      </c>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
     </row>
     <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="35"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-    </row>
-    <row r="121" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="20">
-        <v>16</v>
-      </c>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="34"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+    </row>
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="37"/>
       <c r="D121" s="21"/>
-      <c r="E121" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>380</v>
-      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="29"/>
       <c r="G121" s="4"/>
       <c r="H121" s="21"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="20">
-        <v>12</v>
-      </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="20"/>
+    <row r="122" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="21"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="13"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="4"/>
       <c r="H123" s="21"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-    </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="39"/>
+    <row r="124" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="34"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="20">
+        <v>40</v>
+      </c>
       <c r="D125" s="21"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="13"/>
+      <c r="E125" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="21"/>
+      <c r="H125" s="21">
+        <v>9</v>
+      </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
+    <row r="126" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="21">
+        <v>9</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="C127" s="20"/>
       <c r="D127" s="21"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="13"/>
+      <c r="E127" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>315</v>
+      </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="21"/>
+      <c r="H127" s="21">
+        <v>9</v>
+      </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="39"/>
+    <row r="128" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="20">
+        <v>12</v>
+      </c>
       <c r="D128" s="21"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="13"/>
+      <c r="E128" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="21"/>
+      <c r="H128" s="21">
+        <v>9</v>
+      </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="37"/>
-    </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="39"/>
+    <row r="129" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" s="20"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="21">
+        <v>9</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="20"/>
       <c r="D130" s="21"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="13"/>
+      <c r="E130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="21"/>
+      <c r="H130" s="21">
+        <v>9</v>
+      </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C131" s="35"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="37"/>
-    </row>
-    <row r="132" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="21">
+        <v>9</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="20">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C132" s="20"/>
       <c r="D132" s="21"/>
       <c r="E132" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>161</v>
+        <v>122</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="21"/>
+      <c r="H132" s="21">
+        <v>9</v>
+      </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+    </row>
+    <row r="134" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C134" s="20"/>
+        <v>276</v>
+      </c>
+      <c r="C134" s="20">
+        <v>40</v>
+      </c>
       <c r="D134" s="21"/>
       <c r="E134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>315</v>
+        <v>408</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>392</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="21"/>
+      <c r="H134" s="21">
+        <v>9</v>
+      </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
+    <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="C135" s="20"/>
       <c r="D135" s="21"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="13"/>
+      <c r="E135" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="21"/>
+      <c r="H135" s="21">
+        <v>9</v>
+      </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="20">
-        <v>12</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C136" s="20"/>
       <c r="D136" s="21"/>
       <c r="E136" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>162</v>
+        <v>229</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="21"/>
+      <c r="H136" s="21">
+        <v>9</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C137" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="C137" s="20">
+        <v>12</v>
+      </c>
       <c r="D137" s="21"/>
       <c r="E137" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>128</v>
+        <v>403</v>
+      </c>
+      <c r="F137" s="29">
+        <v>109</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="21"/>
+      <c r="H137" s="21">
+        <v>9</v>
+      </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="C138" s="20"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="13"/>
+      <c r="E138" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F138" s="29">
+        <v>110</v>
+      </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="21"/>
+      <c r="H138" s="21">
+        <v>9</v>
+      </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>153</v>
+        <v>434</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="21"/>
       <c r="E139" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>75</v>
+      <c r="F139" s="29">
+        <v>111</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="21"/>
+      <c r="H139" s="21">
+        <v>9</v>
+      </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>379</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="20"/>
+        <v>434</v>
+      </c>
+      <c r="C140" s="38"/>
       <c r="D140" s="21"/>
       <c r="E140" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>215</v>
+      <c r="F140" s="29">
+        <v>112</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="21"/>
+      <c r="H140" s="21">
+        <v>9</v>
+      </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -5593,687 +5726,801 @@
         <v>379</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C141" s="20"/>
+        <v>329</v>
+      </c>
+      <c r="C141" s="37"/>
       <c r="D141" s="21"/>
       <c r="E141" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>400</v>
+        <v>160</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>264</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="21"/>
+      <c r="H141" s="21">
+        <v>9</v>
+      </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
     <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="37"/>
-    </row>
-    <row r="143" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="33"/>
+      <c r="B142" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="34"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>276</v>
+        <v>428</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="C143" s="20">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>392</v>
+        <v>248</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="21"/>
+      <c r="H143" s="21">
+        <v>3</v>
+      </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>276</v>
+        <v>428</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="21"/>
-      <c r="E144" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>165</v>
+      <c r="E144" s="4"/>
+      <c r="F144" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="21"/>
+      <c r="H144" s="21">
+        <v>3</v>
+      </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>276</v>
+        <v>428</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="21"/>
-      <c r="E145" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>91</v>
+      <c r="E145" s="4"/>
+      <c r="F145" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="21"/>
+      <c r="H145" s="21">
+        <v>3</v>
+      </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
+    <row r="146" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="C146" s="20"/>
       <c r="D146" s="21"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="13"/>
+      <c r="E146" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>132</v>
+      </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="21"/>
+      <c r="H146" s="21">
+        <v>3</v>
+      </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="20">
-        <v>12</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="20"/>
       <c r="D147" s="21"/>
-      <c r="E147" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F147" s="13">
-        <v>109</v>
+      <c r="E147" s="4"/>
+      <c r="F147" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="21"/>
+      <c r="H147" s="21">
+        <v>3</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>61</v>
+        <v>428</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="21"/>
-      <c r="E148" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F148" s="13">
-        <v>110</v>
+      <c r="E148" s="4"/>
+      <c r="F148" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="G148" s="4"/>
-      <c r="H148" s="21"/>
+      <c r="H148" s="21">
+        <v>3</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="30"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B150" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="C150" s="20"/>
+    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149" s="33"/>
+      <c r="B149" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="34"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+    </row>
+    <row r="150" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" s="23"/>
       <c r="D150" s="21"/>
-      <c r="E150" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F150" s="13">
-        <v>111</v>
+      <c r="E150" s="4"/>
+      <c r="F150" s="29" t="s">
+        <v>317</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="21"/>
+      <c r="H150" s="21">
+        <v>4</v>
+      </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="C151" s="40"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" s="13">
-        <v>112</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-    </row>
-    <row r="152" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="33"/>
+      <c r="B151" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="62"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C152" s="39"/>
+        <v>456</v>
+      </c>
+      <c r="B152" s="18"/>
+      <c r="C152" s="20"/>
       <c r="D152" s="21"/>
-      <c r="E152" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>264</v>
-      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="29"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="21"/>
+      <c r="H152" s="21">
+        <v>4</v>
+      </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C153" s="35"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="37"/>
-    </row>
-    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C154" s="20">
-        <v>25</v>
-      </c>
-      <c r="D154" s="21"/>
-      <c r="E154" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-    </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A155" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C155" s="20"/>
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="33"/>
+      <c r="B154" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="23"/>
       <c r="D155" s="21"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-    </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A156" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C156" s="20"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G156" s="4"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-    </row>
-    <row r="157" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>253</v>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="21">
+        <v>3</v>
+      </c>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+    </row>
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="33"/>
+      <c r="B156" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C156" s="34"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
+    </row>
+    <row r="157" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B157" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="C157" s="20"/>
       <c r="D157" s="21"/>
       <c r="E157" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>132</v>
+        <v>343</v>
+      </c>
+      <c r="F157" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="21"/>
+      <c r="H157" s="21">
+        <v>3</v>
+      </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>253</v>
-      </c>
+    <row r="158" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="39"/>
       <c r="C158" s="20"/>
       <c r="D158" s="21"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="13" t="s">
-        <v>367</v>
+      <c r="E158" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="21"/>
+      <c r="H158" s="21">
+        <v>3</v>
+      </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A159" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>253</v>
-      </c>
+    <row r="159" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B159" s="28"/>
       <c r="C159" s="20"/>
       <c r="D159" s="21"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="13" t="s">
-        <v>149</v>
+      <c r="E159" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="G159" s="4"/>
-      <c r="H159" s="21"/>
+      <c r="H159" s="21">
+        <v>3</v>
+      </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="39"/>
+    <row r="160" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B160" s="18"/>
+      <c r="C160" s="20"/>
       <c r="D160" s="21"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="13"/>
+      <c r="E160" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>332</v>
+      </c>
       <c r="G160" s="4"/>
-      <c r="H160" s="21"/>
+      <c r="H160" s="21">
+        <v>3</v>
+      </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C161" s="35"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="38"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="37"/>
+    <row r="161" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" s="18"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="21">
+        <v>3</v>
+      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="22"/>
-      <c r="B162" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C162" s="23"/>
+      <c r="A162" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B162" s="18"/>
+      <c r="C162" s="20"/>
       <c r="D162" s="21"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="13" t="s">
-        <v>317</v>
+      <c r="E162" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="G162" s="4"/>
-      <c r="H162" s="21"/>
+      <c r="H162" s="21">
+        <v>3</v>
+      </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="23"/>
+    <row r="163" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B163" s="18"/>
+      <c r="C163" s="20"/>
       <c r="D163" s="21"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="13"/>
+      <c r="E163" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>394</v>
+      </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="21"/>
+      <c r="H163" s="21">
+        <v>10</v>
+      </c>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-    </row>
-    <row r="165" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="36"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="20"/>
+    <row r="164" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B164" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="34"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G164" s="36"/>
+      <c r="H164" s="35">
+        <v>10</v>
+      </c>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+    </row>
+    <row r="165" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B165" s="19"/>
+      <c r="C165" s="41">
+        <v>12</v>
+      </c>
+      <c r="D165" s="21"/>
+      <c r="E165" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G165" s="4"/>
+      <c r="H165" s="21">
+        <v>10</v>
+      </c>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A166" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B166" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" s="41"/>
       <c r="D166" s="21"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="13"/>
+      <c r="F166" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="G166" s="4"/>
-      <c r="H166" s="21"/>
+      <c r="H166" s="21">
+        <v>10</v>
+      </c>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="39"/>
+    <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A167" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C167" s="41"/>
       <c r="D167" s="21"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="13"/>
+      <c r="E167" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="21"/>
+      <c r="H167" s="21">
+        <v>10</v>
+      </c>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="C168" s="35"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="22"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="23"/>
+    <row r="168" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B168" s="19"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="4"/>
+      <c r="H168" s="21">
+        <v>10</v>
+      </c>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B169" s="19"/>
+      <c r="C169" s="41"/>
       <c r="D169" s="21"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="22"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="23"/>
+      <c r="E169" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="21">
+        <v>10</v>
+      </c>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B170" s="18"/>
+      <c r="C170" s="20"/>
       <c r="D170" s="21"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="13"/>
+      <c r="E170" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>441</v>
+      </c>
       <c r="G170" s="4"/>
-      <c r="H170" s="21"/>
+      <c r="H170" s="21">
+        <v>10</v>
+      </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="22"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="23"/>
+    <row r="171" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B171" s="18"/>
+      <c r="C171" s="20"/>
       <c r="D171" s="21"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="13"/>
+      <c r="E171" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G171" s="4"/>
-      <c r="H171" s="21"/>
+      <c r="H171" s="21">
+        <v>10</v>
+      </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
+    <row r="172" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B172" s="18"/>
+      <c r="C172" s="20"/>
       <c r="D172" s="21"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="13"/>
-      <c r="K172" s="13"/>
-    </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="39"/>
+      <c r="E172" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="21">
+        <v>10</v>
+      </c>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="C173" s="20"/>
       <c r="D173" s="21"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="13"/>
+      <c r="E173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" s="29" t="s">
+        <v>335</v>
+      </c>
       <c r="G173" s="4"/>
-      <c r="H173" s="21"/>
+      <c r="H173" s="21">
+        <v>10</v>
+      </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C174" s="35"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="37"/>
-    </row>
-    <row r="175" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="22" t="s">
+    <row r="174" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="B175" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C175" s="20"/>
+      <c r="B174" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="20"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="21">
+        <v>10</v>
+      </c>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="20">
+        <v>20</v>
+      </c>
       <c r="D175" s="21"/>
-      <c r="E175" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F175" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="29"/>
       <c r="G175" s="4"/>
       <c r="H175" s="21"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B176" s="41"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G176" s="4"/>
-      <c r="H176" s="21"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="20"/>
+    <row r="176" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" s="34"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+    </row>
+    <row r="177" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="20">
+        <v>18</v>
+      </c>
       <c r="D177" s="21"/>
-      <c r="E177" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>202</v>
+      <c r="E177" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="21"/>
+      <c r="H177" s="21">
+        <v>7</v>
+      </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
     <row r="178" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B178" s="18"/>
+      <c r="A178" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="C178" s="20"/>
       <c r="D178" s="21"/>
-      <c r="E178" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>332</v>
+      <c r="E178" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="F178" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="21"/>
+      <c r="H178" s="21">
+        <v>7</v>
+      </c>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B179" s="18"/>
+      <c r="A179" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="C179" s="20"/>
       <c r="D179" s="21"/>
-      <c r="E179" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>266</v>
+      <c r="E179" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="21"/>
+      <c r="H179" s="21">
+        <v>7</v>
+      </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B180" s="18"/>
+    <row r="180" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="C180" s="20"/>
       <c r="D180" s="21"/>
-      <c r="E180" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>202</v>
-      </c>
+      <c r="E180" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="F180" s="29"/>
       <c r="G180" s="4"/>
       <c r="H180" s="21"/>
       <c r="I180" s="4"/>
@@ -6281,281 +6528,311 @@
       <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B181" s="18"/>
+      <c r="A181" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="C181" s="20"/>
       <c r="D181" s="21"/>
-      <c r="E181" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>394</v>
+      <c r="E181" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="21"/>
+      <c r="H181" s="21">
+        <v>7</v>
+      </c>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="B182" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G182" s="37"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="37"/>
-      <c r="K182" s="37"/>
-    </row>
-    <row r="183" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B183" s="19"/>
-      <c r="C183" s="43">
-        <v>12</v>
-      </c>
-      <c r="D183" s="21"/>
-      <c r="E183" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G183" s="4"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A184" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B184" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C184" s="43"/>
+    <row r="182" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" s="18"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="21">
+        <v>7</v>
+      </c>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A183" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B183" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="34"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="62"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="20">
+        <v>18</v>
+      </c>
       <c r="D184" s="21"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="13" t="s">
-        <v>62</v>
+      <c r="E184" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="21"/>
+      <c r="H184" s="21">
+        <v>7</v>
+      </c>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A185" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="C185" s="43"/>
+    <row r="185" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="18"/>
+      <c r="C185" s="20"/>
       <c r="D185" s="21"/>
       <c r="E185" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F185" s="13" t="s">
-        <v>199</v>
+        <v>231</v>
+      </c>
+      <c r="F185" s="29" t="s">
+        <v>425</v>
       </c>
       <c r="G185" s="4"/>
-      <c r="H185" s="21"/>
+      <c r="H185" s="21">
+        <v>7</v>
+      </c>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
     <row r="186" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="43"/>
+      <c r="A186" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="21"/>
       <c r="E186" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F186" s="13" t="s">
-        <v>15</v>
+        <v>311</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="21"/>
+      <c r="H186" s="21">
+        <v>7</v>
+      </c>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
     <row r="187" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B187" s="19"/>
-      <c r="C187" s="43"/>
+      <c r="A187" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C187" s="20">
+        <v>20</v>
+      </c>
       <c r="D187" s="21"/>
       <c r="E187" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>366</v>
+        <v>197</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>326</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="21"/>
+      <c r="H187" s="21">
+        <v>7</v>
+      </c>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B188" s="18"/>
-      <c r="C188" s="20"/>
+    <row r="188" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A188" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C188" s="41">
+        <v>26</v>
+      </c>
       <c r="D188" s="21"/>
       <c r="E188" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F188" s="13" t="s">
-        <v>441</v>
+        <v>312</v>
+      </c>
+      <c r="F188" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="G188" s="4"/>
-      <c r="H188" s="21"/>
+      <c r="H188" s="21">
+        <v>7</v>
+      </c>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="20"/>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B189" s="19"/>
+      <c r="C189" s="41"/>
       <c r="D189" s="21"/>
       <c r="E189" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>145</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F189" s="29"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="21"/>
+      <c r="H189" s="21">
+        <v>7</v>
+      </c>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
     <row r="190" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="20"/>
+      <c r="A190" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B190" s="19"/>
+      <c r="C190" s="41"/>
       <c r="D190" s="21"/>
-      <c r="E190" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>309</v>
+      <c r="E190" s="4"/>
+      <c r="F190" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="21"/>
+      <c r="H190" s="21">
+        <v>7</v>
+      </c>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
     <row r="191" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B191" s="18"/>
-      <c r="C191" s="20"/>
+      <c r="A191" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C191" s="20">
+        <v>26</v>
+      </c>
       <c r="D191" s="21"/>
-      <c r="E191" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F191" s="13" t="s">
-        <v>335</v>
+      <c r="E191" s="28"/>
+      <c r="F191" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="G191" s="4"/>
-      <c r="H191" s="21"/>
+      <c r="H191" s="21">
+        <v>7</v>
+      </c>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>34</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B192" s="18"/>
       <c r="C192" s="20"/>
       <c r="D192" s="21"/>
       <c r="E192" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F192" s="13" t="s">
-        <v>109</v>
+        <v>8</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="G192" s="4"/>
-      <c r="H192" s="21"/>
+      <c r="H192" s="21">
+        <v>7</v>
+      </c>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="20">
-        <v>20</v>
-      </c>
-      <c r="D193" s="21"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A193" s="45"/>
+      <c r="B193" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" s="47"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="64">
+        <v>52</v>
+      </c>
+      <c r="G193" s="50"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="50"/>
+      <c r="J193" s="50"/>
+      <c r="K193" s="50"/>
+    </row>
+    <row r="194" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="51"/>
       <c r="C194" s="20"/>
       <c r="D194" s="21"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="13"/>
+      <c r="F194" s="29"/>
       <c r="G194" s="4"/>
       <c r="H194" s="21"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="21"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
+    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C195" s="34"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="62"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
@@ -6563,152 +6840,110 @@
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="13"/>
+      <c r="F196" s="29"/>
       <c r="G196" s="4"/>
       <c r="H196" s="21"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A197" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B197" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C197" s="35"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="37"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="37"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="37"/>
-      <c r="J197" s="37"/>
-      <c r="K197" s="37"/>
-    </row>
-    <row r="198" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B198" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C198" s="20">
-        <v>18</v>
-      </c>
-      <c r="D198" s="21"/>
-      <c r="E198" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G198" s="4"/>
-      <c r="H198" s="21">
-        <v>7</v>
-      </c>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-    </row>
-    <row r="199" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B199" s="18" t="s">
-        <v>350</v>
-      </c>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A198" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C198" s="34"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="62"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="18"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="20"/>
       <c r="D199" s="21"/>
-      <c r="E199" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="F199" s="13" t="s">
-        <v>216</v>
-      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="29"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="21">
-        <v>7</v>
-      </c>
+      <c r="H199" s="21"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>350</v>
-      </c>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="18"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="20"/>
       <c r="D200" s="21"/>
-      <c r="E200" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="29"/>
       <c r="G200" s="4"/>
-      <c r="H200" s="21">
-        <v>7</v>
-      </c>
+      <c r="H200" s="21"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C201" s="20"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="F201" s="13"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
+    <row r="201" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A201" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="34"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="62"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="C202" s="20"/>
       <c r="D202" s="21"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="46"/>
+      <c r="F202" s="29"/>
       <c r="G202" s="4"/>
       <c r="H202" s="21"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B203" s="18" t="s">
-        <v>119</v>
-      </c>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="18"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="20"/>
       <c r="D203" s="21"/>
-      <c r="E203" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F203" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="29"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="21">
-        <v>7</v>
-      </c>
+      <c r="H203" s="21"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -6719,50 +6954,44 @@
       <c r="C204" s="20"/>
       <c r="D204" s="21"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="13"/>
+      <c r="F204" s="29"/>
       <c r="G204" s="4"/>
       <c r="H204" s="21"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B205" s="18"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F205" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G205" s="4"/>
-      <c r="H205" s="21">
-        <v>7</v>
-      </c>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-    </row>
-    <row r="206" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A206" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="B206" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="C206" s="35"/>
-      <c r="D206" s="36"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="36"/>
-      <c r="I206" s="37"/>
-      <c r="J206" s="37"/>
-      <c r="K206" s="37"/>
+    <row r="205" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A205" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C205" s="34"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="62"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" s="18"/>
+      <c r="B206" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C206" s="20"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="18"/>
@@ -6770,400 +6999,442 @@
       <c r="C207" s="20"/>
       <c r="D207" s="21"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="13"/>
+      <c r="F207" s="29"/>
       <c r="G207" s="4"/>
       <c r="H207" s="21"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C208" s="20">
-        <v>18</v>
-      </c>
-      <c r="D208" s="21"/>
-      <c r="E208" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F208" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="G208" s="4"/>
-      <c r="H208" s="21">
-        <v>7</v>
-      </c>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-    </row>
-    <row r="209" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B209" s="18"/>
+    <row r="208" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A208" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="34"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="36"/>
+      <c r="F208" s="62"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" s="18"/>
+      <c r="B209" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="C209" s="20"/>
       <c r="D209" s="21"/>
-      <c r="E209" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>425</v>
-      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="29"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="21">
-        <v>7</v>
-      </c>
+      <c r="H209" s="21"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="18" t="s">
-        <v>250</v>
-      </c>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="20"/>
       <c r="D210" s="21"/>
-      <c r="E210" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F210" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="29"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="21">
-        <v>7</v>
-      </c>
+      <c r="H210" s="21"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
-    </row>
-    <row r="212" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="18" t="s">
-        <v>250</v>
+    <row r="211" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A211" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="36"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="36"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="C212" s="20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D212" s="21"/>
-      <c r="E212" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F212" s="13" t="s">
-        <v>326</v>
-      </c>
+      <c r="E212" s="31"/>
+      <c r="F212" s="29"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="21">
-        <v>7</v>
-      </c>
+      <c r="H212" s="21"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A213" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B213" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C213" s="43">
-        <v>26</v>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C213" s="20">
+        <v>16</v>
       </c>
       <c r="D213" s="21"/>
-      <c r="E213" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F213" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="E213" s="31"/>
+      <c r="F213" s="29"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="21">
-        <v>7</v>
-      </c>
+      <c r="H213" s="21"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B214" s="19"/>
-      <c r="C214" s="43"/>
+      <c r="A214" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C214" s="20">
+        <v>10</v>
+      </c>
       <c r="D214" s="21"/>
-      <c r="E214" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F214" s="13"/>
+      <c r="E214" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F214" s="29">
+        <v>83</v>
+      </c>
       <c r="G214" s="4"/>
       <c r="H214" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B215" s="19"/>
-      <c r="C215" s="43"/>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C215" s="20"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="13" t="s">
-        <v>68</v>
+      <c r="E215" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F215" s="29">
+        <v>84</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B216" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C216" s="20">
-        <v>26</v>
-      </c>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" s="18"/>
+      <c r="C216" s="20"/>
       <c r="D216" s="21"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="13" t="s">
-        <v>117</v>
+      <c r="E216" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="29">
+        <v>85</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A217" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B217" s="18"/>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="C217" s="20"/>
       <c r="D217" s="21"/>
-      <c r="E217" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" s="13" t="s">
-        <v>70</v>
+      <c r="E217" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F217" s="29">
+        <v>79</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
-      <c r="B218" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C218" s="50"/>
-      <c r="D218" s="51"/>
-      <c r="E218" s="52"/>
-      <c r="F218" s="53">
-        <v>52</v>
-      </c>
-      <c r="G218" s="54"/>
-      <c r="H218" s="51"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="54"/>
-    </row>
-    <row r="219" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A219" s="18"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="20"/>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" s="18"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F218" s="29">
+        <v>82</v>
+      </c>
+      <c r="G218" s="4"/>
+      <c r="H218" s="21">
+        <v>8</v>
+      </c>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+    </row>
+    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="52"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="38"/>
       <c r="D219" s="21"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="4"/>
+      <c r="E219" s="53"/>
+      <c r="F219" s="65"/>
+      <c r="G219" s="54"/>
       <c r="H219" s="21"/>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="18"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="21"/>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="19"/>
-      <c r="B221" s="19"/>
+      <c r="I219" s="53"/>
+      <c r="J219" s="55"/>
+      <c r="K219" s="55"/>
+    </row>
+    <row r="220" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A220" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C220" s="34"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="62"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="36"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
+    </row>
+    <row r="221" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="18"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="20"/>
       <c r="D221" s="21"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="13"/>
+      <c r="E221" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F221" s="29" t="s">
+        <v>328</v>
+      </c>
       <c r="G221" s="4"/>
-      <c r="H221" s="21"/>
+      <c r="H221" s="21">
+        <v>1</v>
+      </c>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A222" s="18"/>
-      <c r="B222" s="55"/>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="20"/>
       <c r="D222" s="21"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="4"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="63"/>
+      <c r="G222" s="28"/>
       <c r="H222" s="21"/>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I222" s="28"/>
+      <c r="J222" s="28"/>
+      <c r="K222" s="28"/>
+    </row>
+    <row r="223" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-    </row>
-    <row r="224" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A224" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B224" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="C224" s="35"/>
-      <c r="D224" s="36"/>
-      <c r="E224" s="37"/>
-      <c r="F224" s="38"/>
-      <c r="G224" s="37"/>
-      <c r="H224" s="36"/>
-      <c r="I224" s="37"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="37"/>
+      <c r="B223" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C223" s="34"/>
+      <c r="D223" s="35"/>
+      <c r="E223" s="36"/>
+      <c r="F223" s="62"/>
+      <c r="G223" s="36"/>
+      <c r="H223" s="35"/>
+      <c r="I223" s="36"/>
+      <c r="J223" s="36"/>
+      <c r="K223" s="36"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" s="20">
+        <v>50</v>
+      </c>
+      <c r="D224" s="21"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G224" s="4"/>
+      <c r="H224" s="21">
+        <v>8</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="18"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="20"/>
+      <c r="A225" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C225" s="20">
+        <v>80</v>
+      </c>
       <c r="D225" s="21"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="13"/>
+      <c r="F225" s="25" t="s">
+        <v>338</v>
+      </c>
       <c r="G225" s="4"/>
-      <c r="H225" s="21"/>
+      <c r="H225" s="21">
+        <v>9</v>
+      </c>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="18"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="20"/>
+      <c r="B226" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C226" s="20">
+        <v>30</v>
+      </c>
       <c r="D226" s="21"/>
       <c r="E226" s="4"/>
-      <c r="F226" s="13"/>
+      <c r="F226" s="25" t="s">
+        <v>418</v>
+      </c>
       <c r="G226" s="4"/>
-      <c r="H226" s="21"/>
+      <c r="H226" s="21">
+        <v>1</v>
+      </c>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A227" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C227" s="35"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="37"/>
-      <c r="F227" s="38"/>
-      <c r="G227" s="37"/>
-      <c r="H227" s="36"/>
-      <c r="I227" s="37"/>
-      <c r="J227" s="37"/>
-      <c r="K227" s="37"/>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="18"/>
+      <c r="B227" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="20">
+        <v>100</v>
+      </c>
+      <c r="D227" s="21"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="4"/>
+      <c r="H227" s="21">
+        <v>1</v>
+      </c>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="18"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="20"/>
+      <c r="B228" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="20">
+        <v>20</v>
+      </c>
       <c r="D228" s="21"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="13"/>
+      <c r="F228" s="25" t="s">
+        <v>429</v>
+      </c>
       <c r="G228" s="4"/>
-      <c r="H228" s="21"/>
+      <c r="H228" s="21">
+        <v>10</v>
+      </c>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="20"/>
+      <c r="B229" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C229" s="20">
+        <v>50</v>
+      </c>
       <c r="D229" s="21"/>
       <c r="E229" s="4"/>
-      <c r="F229" s="13"/>
+      <c r="F229" s="25" t="s">
+        <v>450</v>
+      </c>
       <c r="G229" s="4"/>
-      <c r="H229" s="21"/>
+      <c r="H229" s="21">
+        <v>10</v>
+      </c>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="18"/>
-      <c r="B230" s="18"/>
-      <c r="C230" s="20"/>
+      <c r="B230" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C230" s="20">
+        <v>40</v>
+      </c>
       <c r="D230" s="21"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="13"/>
+      <c r="F230" s="25"/>
       <c r="G230" s="4"/>
       <c r="H230" s="21"/>
       <c r="I230" s="4"/>
@@ -7176,7 +7447,7 @@
       <c r="C231" s="20"/>
       <c r="D231" s="21"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="13"/>
+      <c r="F231" s="29"/>
       <c r="G231" s="4"/>
       <c r="H231" s="21"/>
       <c r="I231" s="4"/>
@@ -7189,7 +7460,7 @@
       <c r="C232" s="20"/>
       <c r="D232" s="21"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="13"/>
+      <c r="F232" s="29"/>
       <c r="G232" s="4"/>
       <c r="H232" s="21"/>
       <c r="I232" s="4"/>
@@ -7202,798 +7473,46 @@
       <c r="C233" s="20"/>
       <c r="D233" s="21"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="13"/>
+      <c r="F233" s="29"/>
       <c r="G233" s="4"/>
       <c r="H233" s="21"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A234" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B234" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C234" s="35"/>
-      <c r="D234" s="36"/>
-      <c r="E234" s="37"/>
-      <c r="F234" s="38"/>
-      <c r="G234" s="37"/>
-      <c r="H234" s="36"/>
-      <c r="I234" s="37"/>
-      <c r="J234" s="37"/>
-      <c r="K234" s="37"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="18"/>
-      <c r="B235" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C235" s="20"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="13"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="4"/>
-      <c r="J235" s="4"/>
-      <c r="K235" s="4"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="18"/>
-      <c r="B236" s="18"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="13"/>
-      <c r="G236" s="4"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="4"/>
-      <c r="J236" s="4"/>
-      <c r="K236" s="4"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="18"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="13"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="18"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="13"/>
-      <c r="G238" s="4"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="4"/>
-      <c r="J238" s="4"/>
-      <c r="K238" s="4"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="18"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="13"/>
-      <c r="G239" s="4"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="4"/>
-      <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="21"/>
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="18"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="4"/>
-      <c r="H241" s="21"/>
-      <c r="I241" s="4"/>
-      <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="18"/>
-      <c r="B242" s="18"/>
-      <c r="C242" s="20"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="4"/>
-      <c r="H242" s="21"/>
-      <c r="I242" s="4"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="18"/>
-      <c r="B243" s="18"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="4"/>
-      <c r="H243" s="21"/>
-      <c r="I243" s="4"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
-    </row>
-    <row r="244" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A244" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B244" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C244" s="35"/>
-      <c r="D244" s="36"/>
-      <c r="E244" s="37"/>
-      <c r="F244" s="38"/>
-      <c r="G244" s="37"/>
-      <c r="H244" s="36"/>
-      <c r="I244" s="37"/>
-      <c r="J244" s="37"/>
-      <c r="K244" s="37"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="18"/>
-      <c r="B245" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" s="20"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="13"/>
-      <c r="G245" s="4"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="4"/>
-      <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="20"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="4"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="4"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="13"/>
-      <c r="G247" s="4"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="4"/>
-      <c r="J247" s="4"/>
-      <c r="K247" s="4"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="18"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="4"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="4"/>
-      <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="18"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="4"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="4"/>
-      <c r="J249" s="4"/>
-      <c r="K249" s="4"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="4"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="4"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="4"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="18"/>
-      <c r="B251" s="18"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="4"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="4"/>
-      <c r="J251" s="4"/>
-      <c r="K251" s="4"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="18"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="13"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="18"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="13"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
-    </row>
-    <row r="254" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A254" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B254" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C254" s="35"/>
-      <c r="D254" s="36"/>
-      <c r="E254" s="37"/>
-      <c r="F254" s="38"/>
-      <c r="G254" s="37"/>
-      <c r="H254" s="36"/>
-      <c r="I254" s="37"/>
-      <c r="J254" s="37"/>
-      <c r="K254" s="37"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="18"/>
-      <c r="B255" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C255" s="20"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="18"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="13"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="18"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="13"/>
-      <c r="G257" s="4"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="18"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="13"/>
-      <c r="G258" s="4"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="4"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
-    </row>
-    <row r="259" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A259" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B259" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="C259" s="35"/>
-      <c r="D259" s="36"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="38"/>
-      <c r="G259" s="37"/>
-      <c r="H259" s="36"/>
-      <c r="I259" s="37"/>
-      <c r="J259" s="37"/>
-      <c r="K259" s="37"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C260" s="20">
-        <v>16</v>
-      </c>
-      <c r="D260" s="21"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="13"/>
-      <c r="G260" s="4"/>
-      <c r="H260" s="21"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
-      <c r="K260" s="4"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B261" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C261" s="20">
-        <v>16</v>
-      </c>
-      <c r="D261" s="21"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="4"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="4"/>
-      <c r="J261" s="4"/>
-      <c r="K261" s="4"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B262" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C262" s="20">
-        <v>10</v>
-      </c>
-      <c r="D262" s="21"/>
-      <c r="E262" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F262" s="13">
-        <v>83</v>
-      </c>
-      <c r="G262" s="4"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="4"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B263" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C263" s="20"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F263" s="13">
-        <v>84</v>
-      </c>
-      <c r="G263" s="4"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="4"/>
-      <c r="J263" s="4"/>
-      <c r="K263" s="4"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B264" s="18"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F264" s="13">
-        <v>85</v>
-      </c>
-      <c r="G264" s="4"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="4"/>
-      <c r="J264" s="4"/>
-      <c r="K264" s="4"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B265" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C265" s="20"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F265" s="13">
-        <v>79</v>
-      </c>
-      <c r="G265" s="4"/>
-      <c r="H265" s="21"/>
-      <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
-      <c r="K265" s="4"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="18"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="20"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F266" s="13">
-        <v>82</v>
-      </c>
-      <c r="G266" s="4"/>
-      <c r="H266" s="21"/>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
-    </row>
-    <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="56"/>
-      <c r="B267" s="30"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="57"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="59"/>
-      <c r="H267" s="21"/>
-      <c r="I267" s="57"/>
-      <c r="J267" s="60"/>
-      <c r="K267" s="60"/>
-    </row>
-    <row r="268" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A268" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B268" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="C268" s="35"/>
-      <c r="D268" s="36"/>
-      <c r="E268" s="37"/>
-      <c r="F268" s="38"/>
-      <c r="G268" s="37"/>
-      <c r="H268" s="36"/>
-      <c r="I268" s="37"/>
-      <c r="J268" s="37"/>
-      <c r="K268" s="37"/>
-    </row>
-    <row r="269" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F269" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="G269" s="4"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="4"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="28"/>
-      <c r="F270" s="28"/>
-      <c r="G270" s="28"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="28"/>
-      <c r="J270" s="28"/>
-      <c r="K270" s="28"/>
-    </row>
-    <row r="271" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A271" s="18"/>
-      <c r="B271" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C271" s="35"/>
-      <c r="D271" s="36"/>
-      <c r="E271" s="37"/>
-      <c r="F271" s="38"/>
-      <c r="G271" s="37"/>
-      <c r="H271" s="36"/>
-      <c r="I271" s="37"/>
-      <c r="J271" s="37"/>
-      <c r="K271" s="37"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C272" s="20">
-        <v>50</v>
-      </c>
-      <c r="D272" s="21"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G272" s="4"/>
-      <c r="H272" s="21"/>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C273" s="20">
-        <v>80</v>
-      </c>
-      <c r="D273" s="21"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="G273" s="4"/>
-      <c r="H273" s="21"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C274" s="20">
-        <v>30</v>
-      </c>
-      <c r="D274" s="21"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="G274" s="4"/>
-      <c r="H274" s="21"/>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C275" s="20">
-        <v>100</v>
-      </c>
-      <c r="D275" s="21"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G275" s="4"/>
-      <c r="H275" s="21"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C276" s="20">
-        <v>20</v>
-      </c>
-      <c r="D276" s="21"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="G276" s="4"/>
-      <c r="H276" s="21">
-        <v>5</v>
-      </c>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="18"/>
-      <c r="B277" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C277" s="20">
-        <v>50</v>
-      </c>
-      <c r="D277" s="21"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="G277" s="4"/>
-      <c r="H277" s="21">
-        <v>5</v>
-      </c>
-      <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="18"/>
-      <c r="B278" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C278" s="20">
-        <v>40</v>
-      </c>
-      <c r="D278" s="21"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="21"/>
-      <c r="I278" s="4"/>
-      <c r="J278" s="4"/>
-      <c r="K278" s="4"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="18"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="13"/>
-      <c r="G279" s="4"/>
-      <c r="H279" s="21"/>
-      <c r="I279" s="4"/>
-      <c r="J279" s="4"/>
-      <c r="K279" s="4"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="18"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="20"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="13"/>
-      <c r="G280" s="4"/>
-      <c r="H280" s="21"/>
-      <c r="I280" s="4"/>
-      <c r="J280" s="4"/>
-      <c r="K280" s="4"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="18"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="13"/>
-      <c r="G281" s="4"/>
-      <c r="H281" s="21"/>
-      <c r="I281" s="4"/>
-      <c r="J281" s="4"/>
-      <c r="K281" s="4"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="18"/>
-      <c r="B282" s="18"/>
-      <c r="C282" s="20"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="13"/>
-      <c r="G282" s="4"/>
-      <c r="H282" s="21"/>
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="4"/>
-    </row>
-    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
-      <c r="B283" s="61" t="s">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="18"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="29"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+    </row>
+    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6"/>
+      <c r="B235" s="56" t="s">
         <v>389</v>
       </c>
-      <c r="C283" s="62">
+      <c r="C235" s="57">
         <v>1469</v>
       </c>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="66"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K102"/>
-  <conditionalFormatting sqref="D2:D41 H2:H41 D44:D96 H44:H96 E72:F79 D101 H101 D104:D282 H104:H282 E260:E266 E269:F269">
+  <conditionalFormatting sqref="D2:D41 H2:H41 D44:D96 H44:H96 E72:F79 D101 H101 E212:E218 E221:F221 D103:D234 H103:H234">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",D2)))</formula>
     </cfRule>
@@ -8022,22 +7541,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="58" t="s">
         <v>218</v>
       </c>
     </row>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$H$1:$H$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$262</definedName>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$262</definedName>
     <definedName name="_Toc220775275">Sheet1!$B$9</definedName>
     <definedName name="_Toc220775276">Sheet1!$B$22</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="458">
   <si>
     <t>Matriz de Trazabilidad</t>
   </si>
@@ -1230,9 +1230,6 @@
     <t>3. Consultar planificacion de clases.</t>
   </si>
   <si>
-    <t>3. Como docente del curso es necesario que pueda hacer consultas sobre las planificaciones de clases registradas.F78</t>
-  </si>
-  <si>
     <t>15.2 Brindar una estimacion de hora catedra de item de contenido en base al historico.</t>
   </si>
   <si>
@@ -1293,9 +1290,6 @@
     <t>15. Generar reporte de comparacion, con desvios, de lo planificado con lo real.</t>
   </si>
   <si>
-    <t>8. Como docente del curso necesito poder tener a disposicion la informacion del curso de forma resumida y calculada, para que en una pantalla tener toda la informacion relevante.</t>
-  </si>
-  <si>
     <t>16. Generar gráfica lineal del desvío de la planificación de clases comparando con el dictado real.</t>
   </si>
   <si>
@@ -1429,6 +1423,15 @@
   </si>
   <si>
     <t>Belen</t>
+  </si>
+  <si>
+    <t>____________________________________</t>
+  </si>
+  <si>
+    <t>3. Como docente del curso es necesario que pueda hacer consultas sobre las planificaciones de clases registradas.</t>
+  </si>
+  <si>
+    <t>8. Como  docente del curso necesito poder tener a disposicion la informacion del curso de forma resumida y calculada, para que en una pantalla tener toda la informacion relevante.</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1906,6 +1909,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -3074,7 +3083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3232,6 +3241,53 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3393,6 +3449,150 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -3834,7 +4034,7 @@
         <v>41228</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="51"/>
@@ -3854,11 +4054,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3867,10 +4068,10 @@
     <col min="2" max="2" width="81.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
     <col min="6" max="6" width="83.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="81" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
@@ -3898,7 +4099,7 @@
       <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="75" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -4002,7 +4203,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="58"/>
-      <c r="H5" s="33">
+      <c r="H5" s="76">
         <v>4</v>
       </c>
       <c r="I5" s="58"/>
@@ -4029,7 +4230,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="58"/>
-      <c r="H6" s="33">
+      <c r="H6" s="76">
         <v>4</v>
       </c>
       <c r="I6" s="58"/>
@@ -4296,7 +4497,7 @@
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
@@ -4314,7 +4515,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="33">
+      <c r="H17" s="76">
         <v>3</v>
       </c>
       <c r="I17" s="7"/>
@@ -4325,7 +4526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
@@ -4341,7 +4542,7 @@
         <v>70</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="33">
+      <c r="H18" s="76">
         <v>3</v>
       </c>
       <c r="I18" s="7"/>
@@ -4352,7 +4553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>63</v>
       </c>
@@ -4368,14 +4569,14 @@
         <v>73</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="33">
+      <c r="H19" s="76">
         <v>3</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>63</v>
       </c>
@@ -4391,14 +4592,14 @@
         <v>75</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="33">
+      <c r="H20" s="76">
         <v>3</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
@@ -4423,7 +4624,7 @@
       <c r="J21" s="58"/>
       <c r="K21" s="58"/>
     </row>
-    <row r="22" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -4446,7 +4647,7 @@
       <c r="J22" s="58"/>
       <c r="K22" s="58"/>
     </row>
-    <row r="23" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
@@ -4469,7 +4670,7 @@
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
     </row>
-    <row r="24" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
@@ -4492,7 +4693,7 @@
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
     </row>
-    <row r="25" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
@@ -4517,7 +4718,7 @@
       <c r="J25" s="58"/>
       <c r="K25" s="58"/>
     </row>
-    <row r="26" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>63</v>
       </c>
@@ -4540,7 +4741,7 @@
       <c r="J26" s="58"/>
       <c r="K26" s="58"/>
     </row>
-    <row r="27" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>63</v>
       </c>
@@ -4565,7 +4766,7 @@
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
     </row>
-    <row r="28" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>63</v>
       </c>
@@ -4590,7 +4791,7 @@
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
     </row>
-    <row r="29" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>63</v>
       </c>
@@ -4606,14 +4807,14 @@
         <v>97</v>
       </c>
       <c r="G29" s="58"/>
-      <c r="H29" s="33">
+      <c r="H29" s="76">
         <v>3</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
     </row>
-    <row r="30" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
@@ -4636,7 +4837,7 @@
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
     </row>
-    <row r="31" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>63</v>
       </c>
@@ -4659,7 +4860,7 @@
       <c r="J31" s="58"/>
       <c r="K31" s="58"/>
     </row>
-    <row r="32" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
@@ -4684,7 +4885,7 @@
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
     </row>
-    <row r="33" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>63</v>
       </c>
@@ -4707,7 +4908,7 @@
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
     </row>
-    <row r="34" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
@@ -4730,7 +4931,7 @@
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
     </row>
-    <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>110</v>
       </c>
@@ -4759,7 +4960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>110</v>
       </c>
@@ -4788,7 +4989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>110</v>
       </c>
@@ -4802,7 +5003,7 @@
         <v>116</v>
       </c>
       <c r="G37" s="58"/>
-      <c r="H37" s="33">
+      <c r="H37" s="76">
         <v>2</v>
       </c>
       <c r="I37" s="58"/>
@@ -4811,7 +5012,7 @@
       </c>
       <c r="K37" s="58"/>
     </row>
-    <row r="38" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -4834,7 +5035,7 @@
       </c>
       <c r="K38" s="58"/>
     </row>
-    <row r="39" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>110</v>
       </c>
@@ -4861,7 +5062,7 @@
       </c>
       <c r="K39" s="58"/>
     </row>
-    <row r="40" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>110</v>
       </c>
@@ -4875,7 +5076,7 @@
         <v>116</v>
       </c>
       <c r="G40" s="58"/>
-      <c r="H40" s="33">
+      <c r="H40" s="76">
         <v>2</v>
       </c>
       <c r="I40" s="58"/>
@@ -4884,7 +5085,7 @@
       </c>
       <c r="K40" s="58"/>
     </row>
-    <row r="41" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>110</v>
       </c>
@@ -4907,7 +5108,7 @@
       </c>
       <c r="K41" s="58"/>
     </row>
-    <row r="42" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
         <v>110</v>
       </c>
@@ -4932,7 +5133,7 @@
       </c>
       <c r="K42" s="34"/>
     </row>
-    <row r="43" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
         <v>110</v>
       </c>
@@ -4955,7 +5156,7 @@
       </c>
       <c r="K43" s="34"/>
     </row>
-    <row r="44" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
         <v>110</v>
       </c>
@@ -4978,7 +5179,7 @@
       </c>
       <c r="K44" s="58"/>
     </row>
-    <row r="45" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>110</v>
       </c>
@@ -5003,7 +5204,7 @@
       </c>
       <c r="K45" s="58"/>
     </row>
-    <row r="46" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
         <v>110</v>
       </c>
@@ -5026,7 +5227,7 @@
       </c>
       <c r="K46" s="58"/>
     </row>
-    <row r="47" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34" t="s">
         <v>110</v>
       </c>
@@ -5049,7 +5250,7 @@
       </c>
       <c r="K47" s="58"/>
     </row>
-    <row r="48" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>141</v>
       </c>
@@ -5076,7 +5277,7 @@
       </c>
       <c r="K48" s="58"/>
     </row>
-    <row r="49" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>141</v>
       </c>
@@ -5090,7 +5291,7 @@
         <v>146</v>
       </c>
       <c r="G49" s="58"/>
-      <c r="H49" s="33">
+      <c r="H49" s="76">
         <v>2</v>
       </c>
       <c r="I49" s="58"/>
@@ -5099,7 +5300,7 @@
       </c>
       <c r="K49" s="58"/>
     </row>
-    <row r="50" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>141</v>
       </c>
@@ -5124,7 +5325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>141</v>
       </c>
@@ -5153,7 +5354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>141</v>
       </c>
@@ -5182,7 +5383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>141</v>
       </c>
@@ -5207,7 +5408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>141</v>
       </c>
@@ -5232,7 +5433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>141</v>
       </c>
@@ -5257,7 +5458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>141</v>
       </c>
@@ -5282,7 +5483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>141</v>
       </c>
@@ -5307,7 +5508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>141</v>
       </c>
@@ -5330,7 +5531,7 @@
       </c>
       <c r="K58" s="58"/>
     </row>
-    <row r="59" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>141</v>
       </c>
@@ -5353,7 +5554,7 @@
       </c>
       <c r="K59" s="58"/>
     </row>
-    <row r="60" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>141</v>
       </c>
@@ -5376,7 +5577,7 @@
       </c>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>141</v>
       </c>
@@ -5405,7 +5606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>141</v>
       </c>
@@ -5434,7 +5635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>141</v>
       </c>
@@ -5461,7 +5662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>141</v>
       </c>
@@ -5488,7 +5689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
         <v>141</v>
       </c>
@@ -5502,7 +5703,7 @@
         <v>180</v>
       </c>
       <c r="G65" s="58"/>
-      <c r="H65" s="33">
+      <c r="H65" s="76">
         <v>2</v>
       </c>
       <c r="I65" s="58"/>
@@ -5513,7 +5714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>141</v>
       </c>
@@ -5527,7 +5728,7 @@
         <v>180</v>
       </c>
       <c r="G66" s="58"/>
-      <c r="H66" s="33">
+      <c r="H66" s="76">
         <v>2</v>
       </c>
       <c r="I66" s="58"/>
@@ -5536,7 +5737,7 @@
       </c>
       <c r="K66" s="58"/>
     </row>
-    <row r="67" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>141</v>
       </c>
@@ -5561,7 +5762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>141</v>
       </c>
@@ -5588,7 +5789,7 @@
       </c>
       <c r="K68" s="58"/>
     </row>
-    <row r="69" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>141</v>
       </c>
@@ -5617,7 +5818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>141</v>
       </c>
@@ -5646,7 +5847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>141</v>
       </c>
@@ -5673,7 +5874,7 @@
       </c>
       <c r="K71" s="58"/>
     </row>
-    <row r="72" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>197</v>
       </c>
@@ -5700,7 +5901,7 @@
       </c>
       <c r="K72" s="58"/>
     </row>
-    <row r="73" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>197</v>
       </c>
@@ -5727,7 +5928,7 @@
       </c>
       <c r="K73" s="58"/>
     </row>
-    <row r="74" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>197</v>
       </c>
@@ -5754,7 +5955,7 @@
       </c>
       <c r="K74" s="58"/>
     </row>
-    <row r="75" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>197</v>
       </c>
@@ -5781,7 +5982,7 @@
       </c>
       <c r="K75" s="58"/>
     </row>
-    <row r="76" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>197</v>
       </c>
@@ -5808,7 +6009,7 @@
       </c>
       <c r="K76" s="58"/>
     </row>
-    <row r="77" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>197</v>
       </c>
@@ -5835,7 +6036,7 @@
       </c>
       <c r="K77" s="58"/>
     </row>
-    <row r="78" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>197</v>
       </c>
@@ -5862,7 +6063,7 @@
       </c>
       <c r="K78" s="58"/>
     </row>
-    <row r="79" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>197</v>
       </c>
@@ -5889,7 +6090,7 @@
       </c>
       <c r="K79" s="58"/>
     </row>
-    <row r="80" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>230</v>
       </c>
@@ -5916,7 +6117,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>230</v>
       </c>
@@ -5939,7 +6140,7 @@
       <c r="J81" s="58"/>
       <c r="K81" s="58"/>
     </row>
-    <row r="82" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>230</v>
       </c>
@@ -5955,14 +6156,14 @@
         <v>128</v>
       </c>
       <c r="G82" s="8"/>
-      <c r="H82" s="33">
+      <c r="H82" s="76">
         <v>3</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>230</v>
       </c>
@@ -5983,7 +6184,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>230</v>
       </c>
@@ -6008,7 +6209,7 @@
       </c>
       <c r="K84" s="58"/>
     </row>
-    <row r="85" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>230</v>
       </c>
@@ -6033,7 +6234,7 @@
       <c r="J85" s="58"/>
       <c r="K85" s="58"/>
     </row>
-    <row r="86" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>230</v>
       </c>
@@ -6054,7 +6255,7 @@
       <c r="J86" s="58"/>
       <c r="K86" s="58"/>
     </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>230</v>
       </c>
@@ -6075,7 +6276,7 @@
       <c r="J87" s="58"/>
       <c r="K87" s="58"/>
     </row>
-    <row r="88" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>230</v>
       </c>
@@ -6098,7 +6299,7 @@
       <c r="J88" s="58"/>
       <c r="K88" s="58"/>
     </row>
-    <row r="89" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>230</v>
       </c>
@@ -6119,7 +6320,7 @@
       <c r="J89" s="58"/>
       <c r="K89" s="58"/>
     </row>
-    <row r="90" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>230</v>
       </c>
@@ -6140,7 +6341,7 @@
       <c r="J90" s="58"/>
       <c r="K90" s="58"/>
     </row>
-    <row r="91" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>230</v>
       </c>
@@ -6158,14 +6359,14 @@
         <v>251</v>
       </c>
       <c r="G91" s="58"/>
-      <c r="H91" s="33">
+      <c r="H91" s="76">
         <v>3</v>
       </c>
       <c r="I91" s="58"/>
       <c r="J91" s="58"/>
       <c r="K91" s="58"/>
     </row>
-    <row r="92" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>230</v>
       </c>
@@ -6186,7 +6387,7 @@
       <c r="J92" s="58"/>
       <c r="K92" s="58"/>
     </row>
-    <row r="93" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>230</v>
       </c>
@@ -6207,7 +6408,7 @@
       <c r="J93" s="58"/>
       <c r="K93" s="58"/>
     </row>
-    <row r="94" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>230</v>
       </c>
@@ -6230,7 +6431,7 @@
       <c r="J94" s="58"/>
       <c r="K94" s="58"/>
     </row>
-    <row r="95" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>230</v>
       </c>
@@ -6251,7 +6452,7 @@
       <c r="J95" s="58"/>
       <c r="K95" s="58"/>
     </row>
-    <row r="96" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>230</v>
       </c>
@@ -6272,7 +6473,7 @@
       <c r="J96" s="58"/>
       <c r="K96" s="58"/>
     </row>
-    <row r="97" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>261</v>
       </c>
@@ -6297,7 +6498,7 @@
       <c r="J97" s="37"/>
       <c r="K97" s="37"/>
     </row>
-    <row r="98" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>261</v>
       </c>
@@ -6322,7 +6523,7 @@
       <c r="J98" s="37"/>
       <c r="K98" s="37"/>
     </row>
-    <row r="99" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>261</v>
       </c>
@@ -6340,14 +6541,14 @@
         <v>68</v>
       </c>
       <c r="G99" s="37"/>
-      <c r="H99" s="37">
+      <c r="H99" s="77">
         <v>2</v>
       </c>
       <c r="I99" s="37"/>
       <c r="J99" s="37"/>
       <c r="K99" s="37"/>
     </row>
-    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>261</v>
       </c>
@@ -6370,7 +6571,7 @@
       <c r="J100" s="37"/>
       <c r="K100" s="37"/>
     </row>
-    <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>261</v>
       </c>
@@ -6393,7 +6594,7 @@
       <c r="J101" s="58"/>
       <c r="K101" s="58"/>
     </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50"/>
       <c r="B102" s="50" t="s">
         <v>271</v>
@@ -6410,7 +6611,7 @@
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="60"/>
       <c r="B103" s="60"/>
       <c r="C103" s="69"/>
@@ -6418,12 +6619,12 @@
       <c r="E103" s="37"/>
       <c r="F103" s="44"/>
       <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="H103" s="77"/>
       <c r="I103" s="37"/>
       <c r="J103" s="37"/>
       <c r="K103" s="37"/>
     </row>
-    <row r="104" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="58"/>
       <c r="B104" s="58"/>
       <c r="C104" s="1"/>
@@ -6431,12 +6632,12 @@
       <c r="E104" s="58"/>
       <c r="F104" s="8"/>
       <c r="G104" s="58"/>
-      <c r="H104" s="33"/>
+      <c r="H104" s="76"/>
       <c r="I104" s="58"/>
       <c r="J104" s="58"/>
       <c r="K104" s="58"/>
     </row>
-    <row r="105" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50"/>
       <c r="B105" s="50" t="s">
         <v>272</v>
@@ -6446,14 +6647,14 @@
       <c r="E105" s="29"/>
       <c r="F105" s="49"/>
       <c r="G105" s="29"/>
-      <c r="H105" s="55">
+      <c r="H105" s="78">
         <v>8</v>
       </c>
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
     </row>
-    <row r="106" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="60" t="s">
         <v>273</v>
       </c>
@@ -6471,14 +6672,14 @@
         <v>276</v>
       </c>
       <c r="G106" s="58"/>
-      <c r="H106" s="33">
+      <c r="H106" s="76">
         <v>8</v>
       </c>
       <c r="I106" s="58"/>
       <c r="J106" s="58"/>
       <c r="K106" s="58"/>
     </row>
-    <row r="107" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>273</v>
       </c>
@@ -6494,14 +6695,14 @@
         <v>278</v>
       </c>
       <c r="G107" s="58"/>
-      <c r="H107" s="33">
+      <c r="H107" s="76">
         <v>8</v>
       </c>
       <c r="I107" s="58"/>
       <c r="J107" s="58"/>
       <c r="K107" s="58"/>
     </row>
-    <row r="108" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>273</v>
       </c>
@@ -6519,14 +6720,14 @@
         <v>281</v>
       </c>
       <c r="G108" s="8"/>
-      <c r="H108" s="33">
+      <c r="H108" s="76">
         <v>8</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>273</v>
       </c>
@@ -6542,14 +6743,14 @@
         <v>284</v>
       </c>
       <c r="G109" s="58"/>
-      <c r="H109" s="33">
+      <c r="H109" s="76">
         <v>8</v>
       </c>
       <c r="I109" s="58"/>
       <c r="J109" s="58"/>
       <c r="K109" s="58"/>
     </row>
-    <row r="110" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>273</v>
       </c>
@@ -6563,14 +6764,14 @@
         <v>285</v>
       </c>
       <c r="G110" s="58"/>
-      <c r="H110" s="33">
+      <c r="H110" s="76">
         <v>8</v>
       </c>
       <c r="I110" s="58"/>
       <c r="J110" s="58"/>
       <c r="K110" s="58"/>
     </row>
-    <row r="111" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>273</v>
       </c>
@@ -6584,14 +6785,14 @@
         <v>286</v>
       </c>
       <c r="G111" s="58"/>
-      <c r="H111" s="33">
+      <c r="H111" s="76">
         <v>8</v>
       </c>
       <c r="I111" s="58"/>
       <c r="J111" s="58"/>
       <c r="K111" s="58"/>
     </row>
-    <row r="112" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>273</v>
       </c>
@@ -6607,14 +6808,14 @@
         <v>288</v>
       </c>
       <c r="G112" s="58"/>
-      <c r="H112" s="33">
+      <c r="H112" s="76">
         <v>8</v>
       </c>
       <c r="I112" s="58"/>
       <c r="J112" s="58"/>
       <c r="K112" s="58"/>
     </row>
-    <row r="113" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>273</v>
       </c>
@@ -6630,14 +6831,14 @@
         <v>290</v>
       </c>
       <c r="G113" s="58"/>
-      <c r="H113" s="33">
+      <c r="H113" s="76">
         <v>8</v>
       </c>
       <c r="I113" s="58"/>
       <c r="J113" s="58"/>
       <c r="K113" s="58"/>
     </row>
-    <row r="114" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>273</v>
       </c>
@@ -6653,14 +6854,14 @@
         <v>292</v>
       </c>
       <c r="G114" s="58"/>
-      <c r="H114" s="33">
+      <c r="H114" s="76">
         <v>8</v>
       </c>
       <c r="I114" s="58"/>
       <c r="J114" s="58"/>
       <c r="K114" s="58"/>
     </row>
-    <row r="115" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>273</v>
       </c>
@@ -6676,14 +6877,14 @@
         <v>294</v>
       </c>
       <c r="G115" s="58"/>
-      <c r="H115" s="33">
+      <c r="H115" s="76">
         <v>8</v>
       </c>
       <c r="I115" s="58"/>
       <c r="J115" s="58"/>
       <c r="K115" s="58"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="60"/>
       <c r="B116" s="60"/>
       <c r="C116" s="69"/>
@@ -6691,12 +6892,12 @@
       <c r="E116" s="58"/>
       <c r="F116" s="8"/>
       <c r="G116" s="58"/>
-      <c r="H116" s="33"/>
+      <c r="H116" s="76"/>
       <c r="I116" s="58"/>
       <c r="J116" s="58"/>
       <c r="K116" s="58"/>
     </row>
-    <row r="117" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="58"/>
       <c r="B117" s="58"/>
       <c r="C117" s="1"/>
@@ -6704,12 +6905,12 @@
       <c r="E117" s="58"/>
       <c r="F117" s="8"/>
       <c r="G117" s="58"/>
-      <c r="H117" s="33"/>
+      <c r="H117" s="76"/>
       <c r="I117" s="58"/>
       <c r="J117" s="58"/>
       <c r="K117" s="58"/>
     </row>
-    <row r="118" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="50"/>
       <c r="B118" s="50" t="s">
         <v>295</v>
@@ -6719,14 +6920,14 @@
       <c r="E118" s="29"/>
       <c r="F118" s="49"/>
       <c r="G118" s="29"/>
-      <c r="H118" s="55">
+      <c r="H118" s="78">
         <v>3</v>
       </c>
       <c r="I118" s="29"/>
       <c r="J118" s="29"/>
       <c r="K118" s="29"/>
     </row>
-    <row r="119" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="58"/>
       <c r="B119" s="58"/>
       <c r="C119" s="1"/>
@@ -6734,12 +6935,12 @@
       <c r="E119" s="58"/>
       <c r="F119" s="8"/>
       <c r="G119" s="58"/>
-      <c r="H119" s="33"/>
+      <c r="H119" s="76"/>
       <c r="I119" s="58"/>
       <c r="J119" s="58"/>
       <c r="K119" s="58"/>
     </row>
-    <row r="120" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="50"/>
       <c r="B120" s="50" t="s">
         <v>296</v>
@@ -6749,14 +6950,14 @@
       <c r="E120" s="29"/>
       <c r="F120" s="49"/>
       <c r="G120" s="29"/>
-      <c r="H120" s="55">
+      <c r="H120" s="78">
         <v>6</v>
       </c>
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
     </row>
-    <row r="121" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>297</v>
       </c>
@@ -6774,14 +6975,14 @@
         <v>300</v>
       </c>
       <c r="G121" s="58"/>
-      <c r="H121" s="33">
+      <c r="H121" s="76">
         <v>8</v>
       </c>
       <c r="I121" s="58"/>
       <c r="J121" s="58"/>
       <c r="K121" s="58"/>
     </row>
-    <row r="122" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>297</v>
       </c>
@@ -6799,14 +7000,14 @@
         <v>303</v>
       </c>
       <c r="G122" s="8"/>
-      <c r="H122" s="33">
+      <c r="H122" s="76">
         <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="5"/>
@@ -6814,12 +7015,12 @@
       <c r="E123" s="58"/>
       <c r="F123" s="8"/>
       <c r="G123" s="58"/>
-      <c r="H123" s="33"/>
+      <c r="H123" s="76"/>
       <c r="I123" s="58"/>
       <c r="J123" s="58"/>
       <c r="K123" s="58"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="5"/>
@@ -6827,12 +7028,12 @@
       <c r="E124" s="58"/>
       <c r="F124" s="8"/>
       <c r="G124" s="58"/>
-      <c r="H124" s="33"/>
+      <c r="H124" s="76"/>
       <c r="I124" s="58"/>
       <c r="J124" s="58"/>
       <c r="K124" s="58"/>
     </row>
-    <row r="125" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="58"/>
       <c r="B125" s="58"/>
       <c r="C125" s="1"/>
@@ -6840,12 +7041,12 @@
       <c r="E125" s="58"/>
       <c r="F125" s="8"/>
       <c r="G125" s="58"/>
-      <c r="H125" s="33"/>
+      <c r="H125" s="76"/>
       <c r="I125" s="58"/>
       <c r="J125" s="58"/>
       <c r="K125" s="58"/>
     </row>
-    <row r="126" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="50"/>
       <c r="B126" s="50" t="s">
         <v>304</v>
@@ -6855,14 +7056,14 @@
       <c r="E126" s="29"/>
       <c r="F126" s="49"/>
       <c r="G126" s="29"/>
-      <c r="H126" s="55">
+      <c r="H126" s="78">
         <v>3</v>
       </c>
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
       <c r="K126" s="29"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="5"/>
@@ -6870,12 +7071,12 @@
       <c r="E127" s="58"/>
       <c r="F127" s="8"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="33"/>
+      <c r="H127" s="76"/>
       <c r="I127" s="58"/>
       <c r="J127" s="58"/>
       <c r="K127" s="58"/>
     </row>
-    <row r="128" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="58"/>
       <c r="B128" s="58"/>
       <c r="C128" s="1"/>
@@ -6883,12 +7084,12 @@
       <c r="E128" s="58"/>
       <c r="F128" s="8"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="33"/>
+      <c r="H128" s="76"/>
       <c r="I128" s="58"/>
       <c r="J128" s="58"/>
       <c r="K128" s="58"/>
     </row>
-    <row r="129" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="50"/>
       <c r="B129" s="50" t="s">
         <v>305</v>
@@ -6898,14 +7099,14 @@
       <c r="E129" s="29"/>
       <c r="F129" s="49"/>
       <c r="G129" s="29"/>
-      <c r="H129" s="55">
+      <c r="H129" s="78">
         <v>3</v>
       </c>
       <c r="I129" s="29"/>
       <c r="J129" s="29"/>
       <c r="K129" s="29"/>
     </row>
-    <row r="130" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="58"/>
       <c r="B130" s="58"/>
       <c r="C130" s="1"/>
@@ -6913,12 +7114,12 @@
       <c r="E130" s="58"/>
       <c r="F130" s="8"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="33"/>
+      <c r="H130" s="76"/>
       <c r="I130" s="58"/>
       <c r="J130" s="58"/>
       <c r="K130" s="58"/>
     </row>
-    <row r="131" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="50"/>
       <c r="B131" s="50" t="s">
         <v>306</v>
@@ -6928,14 +7129,14 @@
       <c r="E131" s="29"/>
       <c r="F131" s="49"/>
       <c r="G131" s="29"/>
-      <c r="H131" s="55">
+      <c r="H131" s="78">
         <v>9</v>
       </c>
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
       <c r="K131" s="29"/>
     </row>
-    <row r="132" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>307</v>
       </c>
@@ -6953,14 +7154,14 @@
         <v>310</v>
       </c>
       <c r="G132" s="58"/>
-      <c r="H132" s="33">
+      <c r="H132" s="76">
         <v>9</v>
       </c>
       <c r="I132" s="58"/>
       <c r="J132" s="58"/>
       <c r="K132" s="58"/>
     </row>
-    <row r="133" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>307</v>
       </c>
@@ -6976,14 +7177,14 @@
         <v>312</v>
       </c>
       <c r="G133" s="58"/>
-      <c r="H133" s="33">
+      <c r="H133" s="76">
         <v>9</v>
       </c>
       <c r="I133" s="58"/>
       <c r="J133" s="58"/>
       <c r="K133" s="58"/>
     </row>
-    <row r="134" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>307</v>
       </c>
@@ -6999,14 +7200,14 @@
         <v>314</v>
       </c>
       <c r="G134" s="58"/>
-      <c r="H134" s="33">
+      <c r="H134" s="76">
         <v>9</v>
       </c>
       <c r="I134" s="58"/>
       <c r="J134" s="58"/>
       <c r="K134" s="58"/>
     </row>
-    <row r="135" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>307</v>
       </c>
@@ -7024,14 +7225,14 @@
         <v>317</v>
       </c>
       <c r="G135" s="58"/>
-      <c r="H135" s="33">
+      <c r="H135" s="76">
         <v>9</v>
       </c>
       <c r="I135" s="58"/>
       <c r="J135" s="58"/>
       <c r="K135" s="58"/>
     </row>
-    <row r="136" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>307</v>
       </c>
@@ -7047,14 +7248,14 @@
         <v>319</v>
       </c>
       <c r="G136" s="58"/>
-      <c r="H136" s="33">
+      <c r="H136" s="76">
         <v>9</v>
       </c>
       <c r="I136" s="58"/>
       <c r="J136" s="58"/>
       <c r="K136" s="58"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="5"/>
@@ -7062,14 +7263,14 @@
       <c r="E137" s="58"/>
       <c r="F137" s="8"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="33">
+      <c r="H137" s="76">
         <v>9</v>
       </c>
       <c r="I137" s="58"/>
       <c r="J137" s="58"/>
       <c r="K137" s="58"/>
     </row>
-    <row r="138" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>307</v>
       </c>
@@ -7085,14 +7286,14 @@
         <v>322</v>
       </c>
       <c r="G138" s="58"/>
-      <c r="H138" s="33">
+      <c r="H138" s="76">
         <v>9</v>
       </c>
       <c r="I138" s="58"/>
       <c r="J138" s="58"/>
       <c r="K138" s="58"/>
     </row>
-    <row r="139" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>307</v>
       </c>
@@ -7108,14 +7309,14 @@
         <v>324</v>
       </c>
       <c r="G139" s="58"/>
-      <c r="H139" s="33">
+      <c r="H139" s="76">
         <v>9</v>
       </c>
       <c r="I139" s="58"/>
       <c r="J139" s="58"/>
       <c r="K139" s="58"/>
     </row>
-    <row r="140" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>307</v>
       </c>
@@ -7131,14 +7332,14 @@
         <v>327</v>
       </c>
       <c r="G140" s="58"/>
-      <c r="H140" s="33">
+      <c r="H140" s="76">
         <v>9</v>
       </c>
       <c r="I140" s="58"/>
       <c r="J140" s="58"/>
       <c r="K140" s="58"/>
     </row>
-    <row r="141" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="50"/>
       <c r="B141" s="50" t="s">
         <v>328</v>
@@ -7148,14 +7349,14 @@
       <c r="E141" s="29"/>
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="55">
+      <c r="H141" s="78">
         <v>9</v>
       </c>
       <c r="I141" s="29"/>
       <c r="J141" s="29"/>
       <c r="K141" s="29"/>
     </row>
-    <row r="142" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>307</v>
       </c>
@@ -7173,14 +7374,14 @@
         <v>331</v>
       </c>
       <c r="G142" s="58"/>
-      <c r="H142" s="33">
+      <c r="H142" s="76">
         <v>9</v>
       </c>
       <c r="I142" s="58"/>
       <c r="J142" s="58"/>
       <c r="K142" s="58"/>
     </row>
-    <row r="143" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>307</v>
       </c>
@@ -7196,14 +7397,14 @@
         <v>333</v>
       </c>
       <c r="G143" s="58"/>
-      <c r="H143" s="33">
+      <c r="H143" s="76">
         <v>9</v>
       </c>
       <c r="I143" s="58"/>
       <c r="J143" s="58"/>
       <c r="K143" s="58"/>
     </row>
-    <row r="144" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>307</v>
       </c>
@@ -7219,14 +7420,14 @@
         <v>335</v>
       </c>
       <c r="G144" s="58"/>
-      <c r="H144" s="33">
+      <c r="H144" s="76">
         <v>9</v>
       </c>
       <c r="I144" s="58"/>
       <c r="J144" s="58"/>
       <c r="K144" s="58"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="5"/>
@@ -7234,14 +7435,14 @@
       <c r="E145" s="58"/>
       <c r="F145" s="8"/>
       <c r="G145" s="58"/>
-      <c r="H145" s="33">
+      <c r="H145" s="76">
         <v>9</v>
       </c>
       <c r="I145" s="58"/>
       <c r="J145" s="58"/>
       <c r="K145" s="58"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>307</v>
       </c>
@@ -7259,14 +7460,14 @@
         <v>109</v>
       </c>
       <c r="G146" s="58"/>
-      <c r="H146" s="33">
+      <c r="H146" s="76">
         <v>9</v>
       </c>
       <c r="I146" s="58"/>
       <c r="J146" s="58"/>
       <c r="K146" s="58"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>307</v>
       </c>
@@ -7282,14 +7483,14 @@
         <v>110</v>
       </c>
       <c r="G147" s="58"/>
-      <c r="H147" s="33">
+      <c r="H147" s="76">
         <v>9</v>
       </c>
       <c r="I147" s="58"/>
       <c r="J147" s="58"/>
       <c r="K147" s="58"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
       <c r="B148" s="12"/>
       <c r="C148" s="5"/>
@@ -7297,14 +7498,14 @@
       <c r="E148" s="58"/>
       <c r="F148" s="8"/>
       <c r="G148" s="58"/>
-      <c r="H148" s="33">
+      <c r="H148" s="76">
         <v>9</v>
       </c>
       <c r="I148" s="58"/>
       <c r="J148" s="58"/>
       <c r="K148" s="58"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
         <v>307</v>
       </c>
@@ -7320,14 +7521,14 @@
         <v>111</v>
       </c>
       <c r="G149" s="58"/>
-      <c r="H149" s="33">
+      <c r="H149" s="76">
         <v>9</v>
       </c>
       <c r="I149" s="58"/>
       <c r="J149" s="58"/>
       <c r="K149" s="58"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>307</v>
       </c>
@@ -7343,14 +7544,14 @@
         <v>112</v>
       </c>
       <c r="G150" s="58"/>
-      <c r="H150" s="33">
+      <c r="H150" s="76">
         <v>9</v>
       </c>
       <c r="I150" s="58"/>
       <c r="J150" s="58"/>
       <c r="K150" s="58"/>
     </row>
-    <row r="151" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>307</v>
       </c>
@@ -7366,14 +7567,14 @@
         <v>340</v>
       </c>
       <c r="G151" s="58"/>
-      <c r="H151" s="33">
+      <c r="H151" s="76">
         <v>9</v>
       </c>
       <c r="I151" s="58"/>
       <c r="J151" s="58"/>
       <c r="K151" s="58"/>
     </row>
-    <row r="152" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="50"/>
       <c r="B152" s="50" t="s">
         <v>341</v>
@@ -7383,14 +7584,14 @@
       <c r="E152" s="29"/>
       <c r="F152" s="49"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="55">
+      <c r="H152" s="78">
         <v>9</v>
       </c>
       <c r="I152" s="29"/>
       <c r="J152" s="29"/>
       <c r="K152" s="29"/>
     </row>
-    <row r="153" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>230</v>
       </c>
@@ -7408,14 +7609,14 @@
         <v>344</v>
       </c>
       <c r="G153" s="58"/>
-      <c r="H153" s="33">
+      <c r="H153" s="76">
         <v>3</v>
       </c>
       <c r="I153" s="58"/>
       <c r="J153" s="58"/>
       <c r="K153" s="58"/>
     </row>
-    <row r="154" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>230</v>
       </c>
@@ -7429,14 +7630,14 @@
         <v>116</v>
       </c>
       <c r="G154" s="58"/>
-      <c r="H154" s="33">
+      <c r="H154" s="76">
         <v>3</v>
       </c>
       <c r="I154" s="58"/>
       <c r="J154" s="58"/>
       <c r="K154" s="58"/>
     </row>
-    <row r="155" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>230</v>
       </c>
@@ -7450,14 +7651,14 @@
         <v>118</v>
       </c>
       <c r="G155" s="58"/>
-      <c r="H155" s="33">
+      <c r="H155" s="76">
         <v>3</v>
       </c>
       <c r="I155" s="58"/>
       <c r="J155" s="58"/>
       <c r="K155" s="58"/>
     </row>
-    <row r="156" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>230</v>
       </c>
@@ -7473,14 +7674,14 @@
         <v>347</v>
       </c>
       <c r="G156" s="58"/>
-      <c r="H156" s="33">
+      <c r="H156" s="76">
         <v>3</v>
       </c>
       <c r="I156" s="58"/>
       <c r="J156" s="58"/>
       <c r="K156" s="58"/>
     </row>
-    <row r="157" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
         <v>230</v>
       </c>
@@ -7494,14 +7695,14 @@
         <v>116</v>
       </c>
       <c r="G157" s="58"/>
-      <c r="H157" s="33">
+      <c r="H157" s="76">
         <v>3</v>
       </c>
       <c r="I157" s="58"/>
       <c r="J157" s="58"/>
       <c r="K157" s="58"/>
     </row>
-    <row r="158" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>230</v>
       </c>
@@ -7515,14 +7716,14 @@
         <v>118</v>
       </c>
       <c r="G158" s="58"/>
-      <c r="H158" s="33">
+      <c r="H158" s="76">
         <v>3</v>
       </c>
       <c r="I158" s="58"/>
       <c r="J158" s="58"/>
       <c r="K158" s="58"/>
     </row>
-    <row r="159" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="58"/>
       <c r="B159" s="58"/>
       <c r="C159" s="1"/>
@@ -7530,12 +7731,12 @@
       <c r="E159" s="34"/>
       <c r="F159" s="8"/>
       <c r="G159" s="58"/>
-      <c r="H159" s="33"/>
+      <c r="H159" s="76"/>
       <c r="I159" s="58"/>
       <c r="J159" s="58"/>
       <c r="K159" s="58"/>
     </row>
-    <row r="160" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="50"/>
       <c r="B160" s="50" t="s">
         <v>348</v>
@@ -7545,14 +7746,14 @@
       <c r="E160" s="49"/>
       <c r="F160" s="49"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="55">
+      <c r="H160" s="78">
         <v>10</v>
       </c>
       <c r="I160" s="29"/>
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
     </row>
-    <row r="161" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="60"/>
       <c r="B161" s="12" t="s">
         <v>34</v>
@@ -7564,14 +7765,14 @@
         <v>349</v>
       </c>
       <c r="G161" s="58"/>
-      <c r="H161" s="33">
+      <c r="H161" s="76">
         <v>4</v>
       </c>
       <c r="I161" s="58"/>
       <c r="J161" s="58"/>
       <c r="K161" s="58"/>
     </row>
-    <row r="162" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="50"/>
       <c r="B162" s="50" t="s">
         <v>350</v>
@@ -7581,14 +7782,14 @@
       <c r="E162" s="29"/>
       <c r="F162" s="49"/>
       <c r="G162" s="29"/>
-      <c r="H162" s="55">
+      <c r="H162" s="78">
         <v>4</v>
       </c>
       <c r="I162" s="29"/>
       <c r="J162" s="29"/>
       <c r="K162" s="29"/>
     </row>
-    <row r="163" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="50"/>
       <c r="B163" s="50" t="s">
         <v>351</v>
@@ -7598,14 +7799,14 @@
       <c r="E163" s="29"/>
       <c r="F163" s="49"/>
       <c r="G163" s="29"/>
-      <c r="H163" s="55">
+      <c r="H163" s="78">
         <v>4</v>
       </c>
       <c r="I163" s="29"/>
       <c r="J163" s="29"/>
       <c r="K163" s="29"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="60"/>
       <c r="B164" s="60"/>
       <c r="C164" s="69"/>
@@ -7613,12 +7814,12 @@
       <c r="E164" s="58"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="33"/>
+      <c r="H164" s="76"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
     </row>
-    <row r="165" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="58"/>
       <c r="B165" s="58"/>
       <c r="C165" s="1"/>
@@ -7626,12 +7827,12 @@
       <c r="E165" s="58"/>
       <c r="F165" s="8"/>
       <c r="G165" s="58"/>
-      <c r="H165" s="33"/>
+      <c r="H165" s="76"/>
       <c r="I165" s="58"/>
       <c r="J165" s="58"/>
       <c r="K165" s="58"/>
     </row>
-    <row r="166" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="50"/>
       <c r="B166" s="50" t="s">
         <v>352</v>
@@ -7641,14 +7842,14 @@
       <c r="E166" s="29"/>
       <c r="F166" s="49"/>
       <c r="G166" s="29"/>
-      <c r="H166" s="55">
+      <c r="H166" s="78">
         <v>3</v>
       </c>
       <c r="I166" s="29"/>
       <c r="J166" s="29"/>
       <c r="K166" s="29"/>
     </row>
-    <row r="167" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="60" t="s">
         <v>353</v>
       </c>
@@ -7664,14 +7865,14 @@
         <v>356</v>
       </c>
       <c r="G167" s="58"/>
-      <c r="H167" s="33">
+      <c r="H167" s="76">
         <v>9</v>
       </c>
       <c r="I167" s="58"/>
       <c r="J167" s="58"/>
       <c r="K167" s="58"/>
     </row>
-    <row r="168" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="60" t="s">
         <v>353</v>
       </c>
@@ -7685,14 +7886,14 @@
         <v>358</v>
       </c>
       <c r="G168" s="58"/>
-      <c r="H168" s="33">
+      <c r="H168" s="76">
         <v>9</v>
       </c>
       <c r="I168" s="58"/>
       <c r="J168" s="58"/>
       <c r="K168" s="58"/>
     </row>
-    <row r="169" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="60" t="s">
         <v>353</v>
       </c>
@@ -7706,14 +7907,14 @@
         <v>360</v>
       </c>
       <c r="G169" s="58"/>
-      <c r="H169" s="33">
+      <c r="H169" s="76">
         <v>9</v>
       </c>
       <c r="I169" s="58"/>
       <c r="J169" s="58"/>
       <c r="K169" s="58"/>
     </row>
-    <row r="170" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="60" t="s">
         <v>353</v>
       </c>
@@ -7727,14 +7928,14 @@
         <v>344</v>
       </c>
       <c r="G170" s="58"/>
-      <c r="H170" s="33">
+      <c r="H170" s="76">
         <v>9</v>
       </c>
       <c r="I170" s="58"/>
       <c r="J170" s="58"/>
       <c r="K170" s="58"/>
     </row>
-    <row r="171" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="60" t="s">
         <v>353</v>
       </c>
@@ -7748,14 +7949,14 @@
         <v>358</v>
       </c>
       <c r="G171" s="58"/>
-      <c r="H171" s="33">
+      <c r="H171" s="76">
         <v>9</v>
       </c>
       <c r="I171" s="58"/>
       <c r="J171" s="58"/>
       <c r="K171" s="58"/>
     </row>
-    <row r="172" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="60" t="s">
         <v>353</v>
       </c>
@@ -7769,14 +7970,14 @@
         <v>360</v>
       </c>
       <c r="G172" s="58"/>
-      <c r="H172" s="33">
+      <c r="H172" s="76">
         <v>9</v>
       </c>
       <c r="I172" s="58"/>
       <c r="J172" s="58"/>
       <c r="K172" s="58"/>
     </row>
-    <row r="173" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="60" t="s">
         <v>353</v>
       </c>
@@ -7790,14 +7991,14 @@
         <v>365</v>
       </c>
       <c r="G173" s="58"/>
-      <c r="H173" s="33">
+      <c r="H173" s="76">
         <v>9</v>
       </c>
       <c r="I173" s="58"/>
       <c r="J173" s="58"/>
       <c r="K173" s="58"/>
     </row>
-    <row r="174" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="50" t="s">
         <v>353</v>
       </c>
@@ -7813,14 +8014,14 @@
         <v>368</v>
       </c>
       <c r="G174" s="29"/>
-      <c r="H174" s="55">
+      <c r="H174" s="78">
         <v>9</v>
       </c>
       <c r="I174" s="29"/>
       <c r="J174" s="29"/>
       <c r="K174" s="29"/>
     </row>
-    <row r="175" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="60" t="s">
         <v>353</v>
       </c>
@@ -7836,14 +8037,14 @@
         <v>369</v>
       </c>
       <c r="G175" s="58"/>
-      <c r="H175" s="33">
+      <c r="H175" s="76">
         <v>9</v>
       </c>
       <c r="I175" s="58"/>
       <c r="J175" s="58"/>
       <c r="K175" s="58"/>
     </row>
-    <row r="176" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="60" t="s">
         <v>353</v>
       </c>
@@ -7857,14 +8058,14 @@
         <v>371</v>
       </c>
       <c r="G176" s="58"/>
-      <c r="H176" s="33">
+      <c r="H176" s="76">
         <v>9</v>
       </c>
       <c r="I176" s="58"/>
       <c r="J176" s="58"/>
       <c r="K176" s="58"/>
     </row>
-    <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="60" t="s">
         <v>353</v>
       </c>
@@ -7880,14 +8081,14 @@
         <v>373</v>
       </c>
       <c r="G177" s="58"/>
-      <c r="H177" s="33">
+      <c r="H177" s="76">
         <v>9</v>
       </c>
       <c r="I177" s="58"/>
       <c r="J177" s="58"/>
       <c r="K177" s="58"/>
     </row>
-    <row r="178" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="60" t="s">
         <v>353</v>
       </c>
@@ -7901,14 +8102,14 @@
         <v>374</v>
       </c>
       <c r="G178" s="58"/>
-      <c r="H178" s="33">
+      <c r="H178" s="76">
         <v>9</v>
       </c>
       <c r="I178" s="58"/>
       <c r="J178" s="58"/>
       <c r="K178" s="58"/>
     </row>
-    <row r="179" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="60" t="s">
         <v>353</v>
       </c>
@@ -7922,14 +8123,14 @@
         <v>375</v>
       </c>
       <c r="G179" s="58"/>
-      <c r="H179" s="33">
+      <c r="H179" s="76">
         <v>9</v>
       </c>
       <c r="I179" s="58"/>
       <c r="J179" s="58"/>
       <c r="K179" s="58"/>
     </row>
-    <row r="180" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="60" t="s">
         <v>353</v>
       </c>
@@ -7943,14 +8144,14 @@
         <v>376</v>
       </c>
       <c r="G180" s="58"/>
-      <c r="H180" s="33">
+      <c r="H180" s="76">
         <v>9</v>
       </c>
       <c r="I180" s="58"/>
       <c r="J180" s="58"/>
       <c r="K180" s="58"/>
     </row>
-    <row r="181" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="60" t="s">
         <v>353</v>
       </c>
@@ -7964,14 +8165,14 @@
         <v>377</v>
       </c>
       <c r="G181" s="58"/>
-      <c r="H181" s="33">
+      <c r="H181" s="76">
         <v>9</v>
       </c>
       <c r="I181" s="58"/>
       <c r="J181" s="58"/>
       <c r="K181" s="58"/>
     </row>
-    <row r="182" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="60" t="s">
         <v>353</v>
       </c>
@@ -7985,14 +8186,14 @@
         <v>378</v>
       </c>
       <c r="G182" s="58"/>
-      <c r="H182" s="33">
+      <c r="H182" s="76">
         <v>9</v>
       </c>
       <c r="I182" s="58"/>
       <c r="J182" s="58"/>
       <c r="K182" s="58"/>
     </row>
-    <row r="183" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="60" t="s">
         <v>353</v>
       </c>
@@ -8006,14 +8207,14 @@
         <v>379</v>
       </c>
       <c r="G183" s="58"/>
-      <c r="H183" s="33">
+      <c r="H183" s="76">
         <v>9</v>
       </c>
       <c r="I183" s="58"/>
       <c r="J183" s="58"/>
       <c r="K183" s="58"/>
     </row>
-    <row r="184" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
         <v>353</v>
       </c>
@@ -8029,14 +8230,14 @@
         <v>381</v>
       </c>
       <c r="G184" s="58"/>
-      <c r="H184" s="33">
+      <c r="H184" s="76">
         <v>9</v>
       </c>
       <c r="I184" s="58"/>
       <c r="J184" s="58"/>
       <c r="K184" s="58"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="5">
@@ -8046,12 +8247,12 @@
       <c r="E185" s="58"/>
       <c r="F185" s="8"/>
       <c r="G185" s="58"/>
-      <c r="H185" s="33"/>
+      <c r="H185" s="76"/>
       <c r="I185" s="58"/>
       <c r="J185" s="58"/>
       <c r="K185" s="58"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="5"/>
@@ -8059,12 +8260,12 @@
       <c r="E186" s="58"/>
       <c r="F186" s="8"/>
       <c r="G186" s="58"/>
-      <c r="H186" s="33"/>
+      <c r="H186" s="76"/>
       <c r="I186" s="58"/>
       <c r="J186" s="58"/>
       <c r="K186" s="58"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="5"/>
@@ -8072,12 +8273,12 @@
       <c r="E187" s="58"/>
       <c r="F187" s="8"/>
       <c r="G187" s="58"/>
-      <c r="H187" s="33"/>
+      <c r="H187" s="76"/>
       <c r="I187" s="58"/>
       <c r="J187" s="58"/>
       <c r="K187" s="58"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="5"/>
@@ -8085,12 +8286,12 @@
       <c r="E188" s="58"/>
       <c r="F188" s="8"/>
       <c r="G188" s="58"/>
-      <c r="H188" s="33"/>
+      <c r="H188" s="76"/>
       <c r="I188" s="58"/>
       <c r="J188" s="58"/>
       <c r="K188" s="58"/>
     </row>
-    <row r="189" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="50" t="s">
         <v>382</v>
       </c>
@@ -8102,14 +8303,14 @@
       <c r="E189" s="29"/>
       <c r="F189" s="49"/>
       <c r="G189" s="29"/>
-      <c r="H189" s="55">
+      <c r="H189" s="78">
         <v>7</v>
       </c>
       <c r="I189" s="29"/>
       <c r="J189" s="29"/>
       <c r="K189" s="29"/>
     </row>
-    <row r="190" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
         <v>382</v>
       </c>
@@ -8127,14 +8328,14 @@
         <v>386</v>
       </c>
       <c r="G190" s="58"/>
-      <c r="H190" s="33">
+      <c r="H190" s="76">
         <v>7</v>
       </c>
       <c r="I190" s="58"/>
       <c r="J190" s="58"/>
       <c r="K190" s="58"/>
     </row>
-    <row r="191" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
         <v>382</v>
       </c>
@@ -8143,21 +8344,21 @@
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="33"/>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="74" t="s">
         <v>387</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>388</v>
       </c>
       <c r="G191" s="58"/>
-      <c r="H191" s="33">
+      <c r="H191" s="76">
         <v>7</v>
       </c>
       <c r="I191" s="58"/>
       <c r="J191" s="58"/>
       <c r="K191" s="58"/>
     </row>
-    <row r="192" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
         <v>382</v>
       </c>
@@ -8166,42 +8367,44 @@
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="33"/>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="F192" s="8" t="s">
-        <v>390</v>
+      <c r="F192" s="73" t="s">
+        <v>456</v>
       </c>
       <c r="G192" s="58"/>
-      <c r="H192" s="33">
+      <c r="H192" s="76">
         <v>7</v>
       </c>
       <c r="I192" s="58"/>
       <c r="J192" s="58"/>
       <c r="K192" s="58"/>
     </row>
-    <row r="193" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="33"/>
       <c r="E193" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="F193" s="8"/>
+        <v>391</v>
+      </c>
+      <c r="F193" s="73" t="s">
+        <v>455</v>
+      </c>
       <c r="G193" s="58"/>
-      <c r="H193" s="33">
+      <c r="H193" s="76">
         <v>7</v>
       </c>
       <c r="I193" s="58"/>
       <c r="J193" s="58"/>
       <c r="K193" s="58"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="5"/>
@@ -8209,37 +8412,37 @@
       <c r="E194" s="58"/>
       <c r="F194" s="27"/>
       <c r="G194" s="58"/>
-      <c r="H194" s="33">
+      <c r="H194" s="76">
         <v>7</v>
       </c>
       <c r="I194" s="58"/>
       <c r="J194" s="58"/>
       <c r="K194" s="58"/>
     </row>
-    <row r="195" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="33"/>
       <c r="E195" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F195" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="F195" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="G195" s="58"/>
-      <c r="H195" s="33">
+      <c r="H195" s="76">
         <v>7</v>
       </c>
       <c r="I195" s="58"/>
       <c r="J195" s="58"/>
       <c r="K195" s="58"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="5"/>
@@ -8247,14 +8450,14 @@
       <c r="E196" s="58"/>
       <c r="F196" s="8"/>
       <c r="G196" s="58"/>
-      <c r="H196" s="33">
+      <c r="H196" s="76">
         <v>7</v>
       </c>
       <c r="I196" s="58"/>
       <c r="J196" s="58"/>
       <c r="K196" s="58"/>
     </row>
-    <row r="197" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
         <v>382</v>
       </c>
@@ -8262,39 +8465,39 @@
       <c r="C197" s="5"/>
       <c r="D197" s="33"/>
       <c r="E197" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F197" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F197" s="8" t="s">
-        <v>397</v>
-      </c>
       <c r="G197" s="58"/>
-      <c r="H197" s="33">
+      <c r="H197" s="76">
         <v>7</v>
       </c>
       <c r="I197" s="58"/>
       <c r="J197" s="58"/>
       <c r="K197" s="58"/>
     </row>
-    <row r="198" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
         <v>382</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="55"/>
       <c r="E198" s="29"/>
       <c r="F198" s="49"/>
       <c r="G198" s="29"/>
-      <c r="H198" s="55">
+      <c r="H198" s="78">
         <v>7</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
       <c r="K198" s="29"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="5"/>
@@ -8302,81 +8505,81 @@
       <c r="E199" s="58"/>
       <c r="F199" s="8"/>
       <c r="G199" s="58"/>
-      <c r="H199" s="33">
+      <c r="H199" s="76">
         <v>7</v>
       </c>
       <c r="I199" s="58"/>
       <c r="J199" s="58"/>
       <c r="K199" s="58"/>
     </row>
-    <row r="200" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C200" s="5">
         <v>18</v>
       </c>
       <c r="D200" s="33"/>
-      <c r="E200" s="58" t="s">
+      <c r="E200" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="F200" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F200" s="8" t="s">
-        <v>401</v>
-      </c>
       <c r="G200" s="58"/>
-      <c r="H200" s="33">
+      <c r="H200" s="76">
         <v>7</v>
       </c>
       <c r="I200" s="58"/>
       <c r="J200" s="58"/>
       <c r="K200" s="58"/>
     </row>
-    <row r="201" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="5"/>
       <c r="D201" s="33"/>
-      <c r="E201" s="58" t="s">
+      <c r="E201" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="F201" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="F201" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="G201" s="58"/>
-      <c r="H201" s="33">
+      <c r="H201" s="76">
         <v>7</v>
       </c>
       <c r="I201" s="58"/>
       <c r="J201" s="58"/>
       <c r="K201" s="58"/>
     </row>
-    <row r="202" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="5"/>
       <c r="D202" s="33"/>
-      <c r="E202" s="58" t="s">
+      <c r="E202" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F202" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F202" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="G202" s="58"/>
-      <c r="H202" s="33">
+      <c r="H202" s="76">
         <v>7</v>
       </c>
       <c r="I202" s="58"/>
       <c r="J202" s="58"/>
       <c r="K202" s="58"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="5"/>
@@ -8384,83 +8587,85 @@
       <c r="E203" s="58"/>
       <c r="F203" s="8"/>
       <c r="G203" s="58"/>
-      <c r="H203" s="33">
+      <c r="H203" s="76">
         <v>7</v>
       </c>
       <c r="I203" s="58"/>
       <c r="J203" s="58"/>
       <c r="K203" s="58"/>
     </row>
-    <row r="204" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C204" s="5">
         <v>20</v>
       </c>
       <c r="D204" s="33"/>
-      <c r="E204" s="58" t="s">
+      <c r="E204" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F204" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="G204" s="58"/>
-      <c r="H204" s="33">
+      <c r="H204" s="76">
         <v>7</v>
       </c>
       <c r="I204" s="58"/>
       <c r="J204" s="58"/>
       <c r="K204" s="58"/>
     </row>
-    <row r="205" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
+    <row r="205" spans="1:11" s="87" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="82" t="s">
         <v>382</v>
       </c>
-      <c r="B205" s="25" t="s">
+      <c r="B205" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205" s="84">
+        <v>26</v>
+      </c>
+      <c r="D205" s="85"/>
+      <c r="E205" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="C205" s="30">
-        <v>26</v>
-      </c>
-      <c r="D205" s="33"/>
-      <c r="E205" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G205" s="58"/>
-      <c r="H205" s="33">
+      <c r="F205" s="89" t="s">
+        <v>457</v>
+      </c>
+      <c r="G205" s="86"/>
+      <c r="H205" s="85">
         <v>7</v>
       </c>
-      <c r="I205" s="58"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="58"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I205" s="86"/>
+      <c r="J205" s="86"/>
+      <c r="K205" s="86"/>
+    </row>
+    <row r="206" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B206" s="25"/>
       <c r="C206" s="30"/>
       <c r="D206" s="33"/>
-      <c r="E206" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="F206" s="8"/>
+      <c r="E206" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" s="91" t="s">
+        <v>411</v>
+      </c>
       <c r="G206" s="58"/>
-      <c r="H206" s="33">
+      <c r="H206" s="76">
         <v>7</v>
       </c>
       <c r="I206" s="58"/>
       <c r="J206" s="58"/>
       <c r="K206" s="58"/>
     </row>
-    <row r="207" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
         <v>382</v>
       </c>
@@ -8468,23 +8673,20 @@
       <c r="C207" s="30"/>
       <c r="D207" s="33"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="8" t="s">
-        <v>413</v>
-      </c>
       <c r="G207" s="58"/>
-      <c r="H207" s="33">
+      <c r="H207" s="76">
         <v>7</v>
       </c>
       <c r="I207" s="58"/>
       <c r="J207" s="58"/>
       <c r="K207" s="58"/>
     </row>
-    <row r="208" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C208" s="5">
         <v>26</v>
@@ -8492,41 +8694,41 @@
       <c r="D208" s="33"/>
       <c r="E208" s="34"/>
       <c r="F208" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G208" s="58"/>
-      <c r="H208" s="33">
+      <c r="H208" s="76">
         <v>7</v>
       </c>
       <c r="I208" s="58"/>
       <c r="J208" s="58"/>
       <c r="K208" s="58"/>
     </row>
-    <row r="209" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="5"/>
       <c r="D209" s="33"/>
-      <c r="E209" s="58" t="s">
-        <v>416</v>
+      <c r="E209" s="72" t="s">
+        <v>414</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G209" s="58"/>
-      <c r="H209" s="33">
+      <c r="H209" s="76">
         <v>7</v>
       </c>
       <c r="I209" s="58"/>
       <c r="J209" s="58"/>
       <c r="K209" s="58"/>
     </row>
-    <row r="210" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="48"/>
       <c r="B210" s="28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="59"/>
@@ -8535,14 +8737,14 @@
         <v>52</v>
       </c>
       <c r="G210" s="56"/>
-      <c r="H210" s="59">
+      <c r="H210" s="79">
         <v>2</v>
       </c>
       <c r="I210" s="56"/>
       <c r="J210" s="56"/>
       <c r="K210" s="56"/>
     </row>
-    <row r="211" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="2"/>
       <c r="C211" s="5"/>
@@ -8550,12 +8752,12 @@
       <c r="E211" s="58"/>
       <c r="F211" s="8"/>
       <c r="G211" s="58"/>
-      <c r="H211" s="33"/>
+      <c r="H211" s="76"/>
       <c r="I211" s="58"/>
       <c r="J211" s="58"/>
       <c r="K211" s="58"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="5"/>
@@ -8563,12 +8765,12 @@
       <c r="E212" s="58"/>
       <c r="F212" s="8"/>
       <c r="G212" s="58"/>
-      <c r="H212" s="33"/>
+      <c r="H212" s="76"/>
       <c r="I212" s="58"/>
       <c r="J212" s="58"/>
       <c r="K212" s="58"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="25"/>
       <c r="B213" s="25"/>
       <c r="C213" s="5"/>
@@ -8576,12 +8778,12 @@
       <c r="E213" s="58"/>
       <c r="F213" s="8"/>
       <c r="G213" s="58"/>
-      <c r="H213" s="33"/>
+      <c r="H213" s="76"/>
       <c r="I213" s="58"/>
       <c r="J213" s="58"/>
       <c r="K213" s="58"/>
     </row>
-    <row r="214" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="2"/>
       <c r="C214" s="5"/>
@@ -8589,12 +8791,12 @@
       <c r="E214" s="58"/>
       <c r="F214" s="8"/>
       <c r="G214" s="58"/>
-      <c r="H214" s="33"/>
+      <c r="H214" s="76"/>
       <c r="I214" s="58"/>
       <c r="J214" s="58"/>
       <c r="K214" s="58"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="5"/>
@@ -8602,29 +8804,29 @@
       <c r="E215" s="58"/>
       <c r="F215" s="8"/>
       <c r="G215" s="58"/>
-      <c r="H215" s="33"/>
+      <c r="H215" s="76"/>
       <c r="I215" s="58"/>
       <c r="J215" s="58"/>
       <c r="K215" s="58"/>
     </row>
-    <row r="216" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B216" s="50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C216" s="15"/>
       <c r="D216" s="55"/>
       <c r="E216" s="29"/>
       <c r="F216" s="49"/>
       <c r="G216" s="29"/>
-      <c r="H216" s="55"/>
+      <c r="H216" s="78"/>
       <c r="I216" s="29"/>
       <c r="J216" s="29"/>
       <c r="K216" s="29"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="5"/>
@@ -8632,12 +8834,12 @@
       <c r="E217" s="58"/>
       <c r="F217" s="8"/>
       <c r="G217" s="58"/>
-      <c r="H217" s="33"/>
+      <c r="H217" s="76"/>
       <c r="I217" s="58"/>
       <c r="J217" s="58"/>
       <c r="K217" s="58"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="5"/>
@@ -8645,29 +8847,29 @@
       <c r="E218" s="58"/>
       <c r="F218" s="8"/>
       <c r="G218" s="58"/>
-      <c r="H218" s="33"/>
+      <c r="H218" s="76"/>
       <c r="I218" s="58"/>
       <c r="J218" s="58"/>
       <c r="K218" s="58"/>
     </row>
-    <row r="219" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B219" s="50" t="s">
         <v>419</v>
-      </c>
-      <c r="B219" s="50" t="s">
-        <v>421</v>
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="55"/>
       <c r="E219" s="29"/>
       <c r="F219" s="49"/>
       <c r="G219" s="29"/>
-      <c r="H219" s="55"/>
+      <c r="H219" s="78"/>
       <c r="I219" s="29"/>
       <c r="J219" s="29"/>
       <c r="K219" s="29"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="5"/>
@@ -8675,12 +8877,12 @@
       <c r="E220" s="58"/>
       <c r="F220" s="8"/>
       <c r="G220" s="58"/>
-      <c r="H220" s="33"/>
+      <c r="H220" s="76"/>
       <c r="I220" s="58"/>
       <c r="J220" s="58"/>
       <c r="K220" s="58"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="5"/>
@@ -8688,12 +8890,12 @@
       <c r="E221" s="58"/>
       <c r="F221" s="8"/>
       <c r="G221" s="58"/>
-      <c r="H221" s="33"/>
+      <c r="H221" s="76"/>
       <c r="I221" s="58"/>
       <c r="J221" s="58"/>
       <c r="K221" s="58"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="5"/>
@@ -8701,12 +8903,12 @@
       <c r="E222" s="58"/>
       <c r="F222" s="8"/>
       <c r="G222" s="58"/>
-      <c r="H222" s="33"/>
+      <c r="H222" s="76"/>
       <c r="I222" s="58"/>
       <c r="J222" s="58"/>
       <c r="K222" s="58"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="5"/>
@@ -8714,12 +8916,12 @@
       <c r="E223" s="58"/>
       <c r="F223" s="8"/>
       <c r="G223" s="58"/>
-      <c r="H223" s="33"/>
+      <c r="H223" s="76"/>
       <c r="I223" s="58"/>
       <c r="J223" s="58"/>
       <c r="K223" s="58"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="5"/>
@@ -8727,12 +8929,12 @@
       <c r="E224" s="58"/>
       <c r="F224" s="8"/>
       <c r="G224" s="58"/>
-      <c r="H224" s="33"/>
+      <c r="H224" s="76"/>
       <c r="I224" s="58"/>
       <c r="J224" s="58"/>
       <c r="K224" s="58"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="5"/>
@@ -8740,44 +8942,44 @@
       <c r="E225" s="58"/>
       <c r="F225" s="8"/>
       <c r="G225" s="58"/>
-      <c r="H225" s="33"/>
+      <c r="H225" s="76"/>
       <c r="I225" s="58"/>
       <c r="J225" s="58"/>
       <c r="K225" s="58"/>
     </row>
-    <row r="226" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B226" s="50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C226" s="15"/>
       <c r="D226" s="55"/>
       <c r="E226" s="29"/>
       <c r="F226" s="49"/>
       <c r="G226" s="29"/>
-      <c r="H226" s="55"/>
+      <c r="H226" s="78"/>
       <c r="I226" s="29"/>
       <c r="J226" s="29"/>
       <c r="K226" s="29"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="33"/>
       <c r="E227" s="58"/>
       <c r="F227" s="8"/>
       <c r="G227" s="58"/>
-      <c r="H227" s="33"/>
+      <c r="H227" s="76"/>
       <c r="I227" s="58"/>
       <c r="J227" s="58"/>
       <c r="K227" s="58"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="5"/>
@@ -8785,12 +8987,12 @@
       <c r="E228" s="58"/>
       <c r="F228" s="8"/>
       <c r="G228" s="58"/>
-      <c r="H228" s="33"/>
+      <c r="H228" s="76"/>
       <c r="I228" s="58"/>
       <c r="J228" s="58"/>
       <c r="K228" s="58"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="5"/>
@@ -8798,44 +9000,44 @@
       <c r="E229" s="58"/>
       <c r="F229" s="8"/>
       <c r="G229" s="58"/>
-      <c r="H229" s="33"/>
+      <c r="H229" s="76"/>
       <c r="I229" s="58"/>
       <c r="J229" s="58"/>
       <c r="K229" s="58"/>
     </row>
-    <row r="230" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B230" s="50" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C230" s="15"/>
       <c r="D230" s="55"/>
       <c r="E230" s="29"/>
       <c r="F230" s="49"/>
       <c r="G230" s="29"/>
-      <c r="H230" s="55"/>
+      <c r="H230" s="78"/>
       <c r="I230" s="29"/>
       <c r="J230" s="29"/>
       <c r="K230" s="29"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="33"/>
       <c r="E231" s="58"/>
       <c r="F231" s="8"/>
       <c r="G231" s="58"/>
-      <c r="H231" s="33"/>
+      <c r="H231" s="76"/>
       <c r="I231" s="58"/>
       <c r="J231" s="58"/>
       <c r="K231" s="58"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="5"/>
@@ -8843,44 +9045,44 @@
       <c r="E232" s="58"/>
       <c r="F232" s="8"/>
       <c r="G232" s="58"/>
-      <c r="H232" s="33"/>
+      <c r="H232" s="76"/>
       <c r="I232" s="58"/>
       <c r="J232" s="58"/>
       <c r="K232" s="58"/>
     </row>
-    <row r="233" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B233" s="50" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C233" s="15"/>
       <c r="D233" s="55"/>
       <c r="E233" s="29"/>
       <c r="F233" s="49"/>
       <c r="G233" s="29"/>
-      <c r="H233" s="55"/>
+      <c r="H233" s="78"/>
       <c r="I233" s="29"/>
       <c r="J233" s="29"/>
       <c r="K233" s="29"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="33"/>
       <c r="E234" s="58"/>
       <c r="F234" s="8"/>
       <c r="G234" s="58"/>
-      <c r="H234" s="33"/>
+      <c r="H234" s="76"/>
       <c r="I234" s="58"/>
       <c r="J234" s="58"/>
       <c r="K234" s="58"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="5"/>
@@ -8888,12 +9090,12 @@
       <c r="E235" s="58"/>
       <c r="F235" s="8"/>
       <c r="G235" s="58"/>
-      <c r="H235" s="33"/>
+      <c r="H235" s="76"/>
       <c r="I235" s="58"/>
       <c r="J235" s="58"/>
       <c r="K235" s="58"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="5"/>
@@ -8901,12 +9103,12 @@
       <c r="E236" s="58"/>
       <c r="F236" s="8"/>
       <c r="G236" s="58"/>
-      <c r="H236" s="33"/>
+      <c r="H236" s="76"/>
       <c r="I236" s="58"/>
       <c r="J236" s="58"/>
       <c r="K236" s="58"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="5"/>
@@ -8914,34 +9116,34 @@
       <c r="E237" s="58"/>
       <c r="F237" s="8"/>
       <c r="G237" s="58"/>
-      <c r="H237" s="33"/>
+      <c r="H237" s="76"/>
       <c r="I237" s="58"/>
       <c r="J237" s="58"/>
       <c r="K237" s="58"/>
     </row>
-    <row r="238" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B238" s="50" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C238" s="15"/>
       <c r="D238" s="55"/>
       <c r="E238" s="29"/>
       <c r="F238" s="49"/>
       <c r="G238" s="29"/>
-      <c r="H238" s="55"/>
+      <c r="H238" s="78"/>
       <c r="I238" s="29"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C239" s="5">
         <v>16</v>
@@ -8950,19 +9152,19 @@
       <c r="E239" s="37"/>
       <c r="F239" s="8"/>
       <c r="G239" s="58"/>
-      <c r="H239" s="33">
+      <c r="H239" s="76">
         <v>8</v>
       </c>
       <c r="I239" s="58"/>
       <c r="J239" s="58"/>
       <c r="K239" s="58"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C240" s="5">
         <v>16</v>
@@ -8971,19 +9173,19 @@
       <c r="E240" s="37"/>
       <c r="F240" s="8"/>
       <c r="G240" s="58"/>
-      <c r="H240" s="33">
+      <c r="H240" s="76">
         <v>8</v>
       </c>
       <c r="I240" s="58"/>
       <c r="J240" s="58"/>
       <c r="K240" s="58"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C241" s="5">
         <v>10</v>
@@ -8996,19 +9198,19 @@
         <v>83</v>
       </c>
       <c r="G241" s="58"/>
-      <c r="H241" s="33">
+      <c r="H241" s="76">
         <v>8</v>
       </c>
       <c r="I241" s="58"/>
       <c r="J241" s="58"/>
       <c r="K241" s="58"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="33"/>
@@ -9019,14 +9221,14 @@
         <v>84</v>
       </c>
       <c r="G242" s="58"/>
-      <c r="H242" s="33">
+      <c r="H242" s="76">
         <v>8</v>
       </c>
       <c r="I242" s="58"/>
       <c r="J242" s="58"/>
       <c r="K242" s="58"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="60" t="s">
         <v>273</v>
       </c>
@@ -9040,19 +9242,19 @@
         <v>85</v>
       </c>
       <c r="G243" s="58"/>
-      <c r="H243" s="33">
+      <c r="H243" s="76">
         <v>8</v>
       </c>
       <c r="I243" s="58"/>
       <c r="J243" s="58"/>
       <c r="K243" s="58"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="33"/>
@@ -9063,14 +9265,14 @@
         <v>79</v>
       </c>
       <c r="G244" s="58"/>
-      <c r="H244" s="33">
+      <c r="H244" s="76">
         <v>8</v>
       </c>
       <c r="I244" s="58"/>
       <c r="J244" s="58"/>
       <c r="K244" s="58"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="5"/>
@@ -9082,14 +9284,14 @@
         <v>82</v>
       </c>
       <c r="G245" s="58"/>
-      <c r="H245" s="33">
+      <c r="H245" s="76">
         <v>8</v>
       </c>
       <c r="I245" s="58"/>
       <c r="J245" s="58"/>
       <c r="K245" s="58"/>
     </row>
-    <row r="246" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="65"/>
       <c r="B246" s="20"/>
       <c r="C246" s="66"/>
@@ -9097,46 +9299,46 @@
       <c r="E246" s="43"/>
       <c r="F246" s="31"/>
       <c r="G246" s="4"/>
-      <c r="H246" s="33"/>
+      <c r="H246" s="76"/>
       <c r="I246" s="43"/>
       <c r="J246" s="42"/>
       <c r="K246" s="42"/>
     </row>
-    <row r="247" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B247" s="50" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C247" s="15"/>
       <c r="D247" s="55"/>
       <c r="E247" s="29"/>
       <c r="F247" s="49"/>
       <c r="G247" s="29"/>
-      <c r="H247" s="55"/>
+      <c r="H247" s="78"/>
       <c r="I247" s="29"/>
       <c r="J247" s="29"/>
       <c r="K247" s="29"/>
     </row>
-    <row r="248" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="5"/>
       <c r="D248" s="33"/>
       <c r="E248" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F248" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G248" s="58"/>
-      <c r="H248" s="33"/>
+      <c r="H248" s="76"/>
       <c r="I248" s="58"/>
       <c r="J248" s="58"/>
       <c r="K248" s="58"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="58"/>
       <c r="B249" s="12"/>
       <c r="C249" s="5"/>
@@ -9144,32 +9346,32 @@
       <c r="E249" s="34"/>
       <c r="F249" s="34"/>
       <c r="G249" s="34"/>
-      <c r="H249" s="33"/>
+      <c r="H249" s="76"/>
       <c r="I249" s="34"/>
       <c r="J249" s="34"/>
       <c r="K249" s="34"/>
     </row>
-    <row r="250" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C250" s="15"/>
       <c r="D250" s="55"/>
       <c r="E250" s="29"/>
       <c r="F250" s="49"/>
       <c r="G250" s="29"/>
-      <c r="H250" s="55"/>
+      <c r="H250" s="78"/>
       <c r="I250" s="29"/>
       <c r="J250" s="29"/>
       <c r="K250" s="29"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C251" s="5">
         <v>50</v>
@@ -9177,22 +9379,22 @@
       <c r="D251" s="33"/>
       <c r="E251" s="58"/>
       <c r="F251" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G251" s="58"/>
-      <c r="H251" s="33">
+      <c r="H251" s="76">
         <v>8</v>
       </c>
       <c r="I251" s="58"/>
       <c r="J251" s="58"/>
       <c r="K251" s="58"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="60" t="s">
         <v>353</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C252" s="5">
         <v>80</v>
@@ -9200,20 +9402,20 @@
       <c r="D252" s="33"/>
       <c r="E252" s="58"/>
       <c r="F252" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G252" s="58"/>
-      <c r="H252" s="33">
+      <c r="H252" s="76">
         <v>9</v>
       </c>
       <c r="I252" s="58"/>
       <c r="J252" s="58"/>
       <c r="K252" s="58"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C253" s="5">
         <v>30</v>
@@ -9221,20 +9423,20 @@
       <c r="D253" s="33"/>
       <c r="E253" s="58"/>
       <c r="F253" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G253" s="58"/>
-      <c r="H253" s="33">
+      <c r="H253" s="76">
         <v>1</v>
       </c>
       <c r="I253" s="58"/>
       <c r="J253" s="58"/>
       <c r="K253" s="58"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C254" s="5">
         <v>100</v>
@@ -9242,20 +9444,20 @@
       <c r="D254" s="33"/>
       <c r="E254" s="58"/>
       <c r="F254" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G254" s="58"/>
-      <c r="H254" s="33">
+      <c r="H254" s="76">
         <v>1</v>
       </c>
       <c r="I254" s="58"/>
       <c r="J254" s="58"/>
       <c r="K254" s="58"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C255" s="5">
         <v>20</v>
@@ -9263,20 +9465,20 @@
       <c r="D255" s="33"/>
       <c r="E255" s="58"/>
       <c r="F255" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G255" s="58"/>
-      <c r="H255" s="33">
+      <c r="H255" s="76">
         <v>5</v>
       </c>
       <c r="I255" s="58"/>
       <c r="J255" s="58"/>
       <c r="K255" s="58"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C256" s="5">
         <v>50</v>
@@ -9284,20 +9486,20 @@
       <c r="D256" s="33"/>
       <c r="E256" s="58"/>
       <c r="F256" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G256" s="58"/>
-      <c r="H256" s="33">
+      <c r="H256" s="76">
         <v>9</v>
       </c>
       <c r="I256" s="58"/>
       <c r="J256" s="58"/>
       <c r="K256" s="58"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C257" s="5">
         <v>40</v>
@@ -9306,12 +9508,12 @@
       <c r="E257" s="58"/>
       <c r="F257" s="25"/>
       <c r="G257" s="58"/>
-      <c r="H257" s="33"/>
+      <c r="H257" s="76"/>
       <c r="I257" s="58"/>
       <c r="J257" s="58"/>
       <c r="K257" s="58"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="5"/>
@@ -9319,12 +9521,12 @@
       <c r="E258" s="58"/>
       <c r="F258" s="8"/>
       <c r="G258" s="58"/>
-      <c r="H258" s="33"/>
+      <c r="H258" s="76"/>
       <c r="I258" s="58"/>
       <c r="J258" s="58"/>
       <c r="K258" s="58"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="5"/>
@@ -9332,12 +9534,12 @@
       <c r="E259" s="58"/>
       <c r="F259" s="8"/>
       <c r="G259" s="58"/>
-      <c r="H259" s="33"/>
+      <c r="H259" s="76"/>
       <c r="I259" s="58"/>
       <c r="J259" s="58"/>
       <c r="K259" s="58"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="5"/>
@@ -9345,12 +9547,12 @@
       <c r="E260" s="58"/>
       <c r="F260" s="8"/>
       <c r="G260" s="58"/>
-      <c r="H260" s="33"/>
+      <c r="H260" s="76"/>
       <c r="I260" s="58"/>
       <c r="J260" s="58"/>
       <c r="K260" s="58"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="5"/>
@@ -9358,15 +9560,15 @@
       <c r="E261" s="58"/>
       <c r="F261" s="8"/>
       <c r="G261" s="58"/>
-      <c r="H261" s="33"/>
+      <c r="H261" s="76"/>
       <c r="I261" s="58"/>
       <c r="J261" s="58"/>
       <c r="K261" s="58"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C262" s="57">
         <v>1469</v>
@@ -9375,13 +9577,19 @@
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
       <c r="G262" s="23"/>
-      <c r="H262" s="23"/>
+      <c r="H262" s="80"/>
       <c r="I262" s="23"/>
       <c r="J262" s="23"/>
       <c r="K262" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H262"/>
+  <autoFilter ref="A1:A262">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Comunicación"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D2:D41 H2:H41 E72:F79 D44:D96 H44:H96 D101 H101 E239:E245 E248:F248 D104:D261 H104:H261">
     <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO", D2)))</formula>
@@ -9410,22 +9618,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
+++ b/Docs/04-Requerimientos/Proyecto_Final_Status.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="604">
   <si>
     <t>Project Name:</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Belen</t>
+  </si>
+  <si>
+    <t>Modulo</t>
   </si>
   <si>
     <t>REQUERIMIENTO / ALCANCES</t>
@@ -1400,7 +1403,7 @@
     <t>2- Desarrollar Plataforma para Foro de discusión</t>
   </si>
   <si>
-    <t>150- Implrementar Plataforma para Foro de discusión</t>
+    <t>150- Implementar Plataforma para Foro de discusión</t>
   </si>
   <si>
     <t>2.1 Consultar foro</t>
@@ -1517,52 +1520,58 @@
     <t>7.1 Diseñar nueva encuestas</t>
   </si>
   <si>
+    <t>106. Registrar nuevo diseño de encuesta.</t>
+  </si>
+  <si>
+    <t>106. Como Diseñador de encuesta, necesito poder Registrar una encuesta diseñada  para obtener la perspectiva  de alumnos de cómo ha sido dictada la asignatura.</t>
+  </si>
+  <si>
+    <t>Menú &gt; Encuestas &gt; Administrar</t>
+  </si>
+  <si>
+    <t>/EDUAR_UI/Private/Encuestas/ManageContenidoEncuestas.aspx</t>
+  </si>
+  <si>
+    <t>159. Como diseñador de encuesta, necesito poder registrar preguntas con respuesta posibles para que el encuestado seleccione una respuesta acorde a la pregunta.</t>
+  </si>
+  <si>
+    <t>No se encuentra US</t>
+  </si>
+  <si>
+    <t>108. Eliminar encuesta de ámbito asignatura.</t>
+  </si>
+  <si>
+    <t>108. Como Diseñador de Encuesta necesito poder eliminar encuestas con el Propósito de no mantener en el sistema aquellas diseñadas, no utilizadas y que quedaron relegadas en el tiempo.</t>
+  </si>
+  <si>
+    <t>Menú &gt; Encuestas &gt; Administrar &gt;  Acción "Eliminar Encuesta"</t>
+  </si>
+  <si>
+    <t>111. Como Diseñador de Encuesta necesito registrar el peso de las preguntas para la encuesta con el objeto de priorizar y dar importancia a cada pregunta  de mi encuesta.</t>
+  </si>
+  <si>
+    <t>Menú &gt; Encuestas &gt; Administrar &gt;  Acción "Ver Preguntas"</t>
+  </si>
+  <si>
+    <t>/EDUAR_UI/Private/Encuestas/ContenidoEncuestas.aspx</t>
+  </si>
+  <si>
+    <t>107. Modificar encuesta ya creada.</t>
+  </si>
+  <si>
+    <t>112. Como Diseñador de Encuesta necesito poder modificar preguntas de una encuesta que no haya sido publicada con el objeto de mantener actualizada y acorde al objetivo de la encuesta.</t>
+  </si>
+  <si>
     <t>106. Registrar nueva diseño de encuesta.</t>
   </si>
   <si>
-    <t>106. Como Diseñador de encuesta, necesito poder Registrar una encuesta diseñada  para obtener la perspectiva  de alumnos de cómo ha sido dictada la asignatura.</t>
-  </si>
-  <si>
-    <t>Menú &gt; Encuestas &gt; Administrar</t>
-  </si>
-  <si>
-    <t>/EDUAR_UI/Private/Encuestas/ManageContenidoEncuestas.aspx</t>
-  </si>
-  <si>
-    <t>159. Como diseñador de encuesta, necesito poder registrar preguntas con respuesta posibles para que el encuestado seleccione una respuesta acorde a la pregunta.</t>
-  </si>
-  <si>
-    <t>108. Eliminar encuesta de ambito asignatura.</t>
-  </si>
-  <si>
-    <t>108. Como Diseñador de Encuesta necesito poder eliminar encuestas con el Propósito de no mantener en el sistema aquellas diseñadas, no utilizadas y que quedaron relegadas en el tiempo.</t>
-  </si>
-  <si>
-    <t>Menú &gt; Encuestas &gt; Administrar &gt;  Acción "Eliminar Encuesta"</t>
-  </si>
-  <si>
-    <t>111. Como Diseñador de Encuesta necesito registrar el peso de las preguntas para la encuesta con el objeto de priorizar y dar importancia a cada pregunta  de mi encuesta.</t>
-  </si>
-  <si>
-    <t>Menú &gt; Encuestas &gt; Administrar &gt;  Acción "Ver Preguntas"</t>
-  </si>
-  <si>
-    <t>/EDUAR_UI/Private/Encuestas/ContenidoEncuestas.aspx</t>
-  </si>
-  <si>
-    <t>107. Modificar encuesta ya creada.</t>
-  </si>
-  <si>
-    <t>112. Como Diseñador de Encuesta necesito poder modificar preguntas de una encuesta que no haya sido publicada con el objeto de mantener actualizada y acorde al objetivo de la encuesta.</t>
-  </si>
-  <si>
-    <t>114. Como Diseñador de Encuesta necesito poder Registrar una  encuesta diseñada con el objeto de obtener información de general (infraestructura/seguridad/nivel) de la institución.</t>
+    <t>114. Como Diseñador de Encuesta necesito poder lanzar una  encuesta diseñada con el objeto de obtener información de general (infraestructura/seguridad/nivel) de la institución.</t>
   </si>
   <si>
     <t>7.2 Completar Encuesta de ámbito institución y asignatura.</t>
   </si>
   <si>
-    <t>113. Registrar encuesta realizada por alumnos</t>
+    <t>113. Registrar encuesta realizada por alumnos y tutores</t>
   </si>
   <si>
     <t>113. Como Encuestado necesito que una vez que termine de contestar la encuesta, el SI registre las respuestas que he brindado con el proposito de que se disponga de informacion valiosa para la sumarizacion de las encuestas.</t>
@@ -1584,6 +1593,9 @@
   </si>
   <si>
     <t>160. Como diseñador de encuesta, necesito registrar Categorías de pregunta para cuando diseñe mi encuesta pueda categorizar las encuesta según un criterio.</t>
+  </si>
+  <si>
+    <t>Done / Falta USER STORY!</t>
   </si>
   <si>
     <t>Menú &gt; Encuestas &gt; Categorías de Preguntas</t>
@@ -1888,7 +1900,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="98" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2264,13 +2276,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2531,7 +2536,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2684,12 +2689,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2761,7 +2760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -3650,21 +3649,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -4167,7 +4151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4316,102 +4300,99 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="25" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="29" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="30" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="31" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="32" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="33" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="83" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="86" fillId="34" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="35" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="30" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="31" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="32" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="82" fillId="33" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="36" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="91" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="34" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="35" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="36" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="92" fillId="38" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4794,9 +4775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4808,91 +4787,91 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="35"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="35"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>40678</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -4902,13 +4881,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="35"/>
-      <c r="F9" s="65"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>40678</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -4918,13 +4897,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>40678</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -4934,13 +4913,13 @@
         <v>16</v>
       </c>
       <c r="E11" s="35"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>40678</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -4950,13 +4929,13 @@
         <v>18</v>
       </c>
       <c r="E12" s="35"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <v>2</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>41228</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -4964,63 +4943,63 @@
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="65"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5055,287 +5034,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="90" t="s">
         <v>23</v>
       </c>
+      <c r="E1" s="89" t="s">
+        <v>24</v>
+      </c>
       <c r="F1" s="38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="90" t="s">
         <v>29</v>
       </c>
+      <c r="K1" s="89" t="s">
+        <v>30</v>
+      </c>
       <c r="L1" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
+      <c r="C2" s="62" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="88">
+        <v>36</v>
+      </c>
+      <c r="F2" s="87">
         <v>1</v>
       </c>
-      <c r="G2" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>37</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>38</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="70" t="s">
         <v>39</v>
       </c>
+      <c r="K2" s="69" t="s">
+        <v>40</v>
+      </c>
       <c r="L2" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="63" t="s">
         <v>42</v>
       </c>
+      <c r="C3" s="62" t="s">
+        <v>43</v>
+      </c>
       <c r="D3" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="88">
+      <c r="F3" s="87">
         <v>1</v>
       </c>
-      <c r="G3" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="97" t="s">
-        <v>44</v>
+      <c r="G3" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="63" t="s">
         <v>47</v>
       </c>
+      <c r="C4" s="62" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="88">
+      <c r="F4" s="87">
         <v>1</v>
       </c>
-      <c r="G4" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>49</v>
+      <c r="G4" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="63" t="s">
         <v>52</v>
       </c>
+      <c r="C5" s="62" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="88">
+      <c r="F5" s="87">
         <v>1</v>
       </c>
-      <c r="G5" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>49</v>
+      <c r="G5" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>50</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="63" t="s">
         <v>56</v>
       </c>
+      <c r="C6" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="88">
+      <c r="F6" s="87">
         <v>1</v>
       </c>
-      <c r="G6" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>58</v>
+      <c r="G6" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="63" t="s">
         <v>61</v>
       </c>
+      <c r="C7" s="62" t="s">
+        <v>62</v>
+      </c>
       <c r="D7" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="88">
+      <c r="F7" s="87">
         <v>1</v>
       </c>
-      <c r="G7" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="97" t="s">
-        <v>63</v>
+      <c r="G7" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="70" t="s">
         <v>65</v>
       </c>
+      <c r="K7" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="L7" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="63" t="s">
         <v>68</v>
       </c>
+      <c r="C8" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="88">
+      <c r="F8" s="87">
         <v>1</v>
       </c>
-      <c r="G8" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>70</v>
+      <c r="G8" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>71</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="13"/>
@@ -5352,10 +5333,10 @@
     </row>
     <row r="10" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="13"/>
@@ -5371,11 +5352,11 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>74</v>
+      <c r="A11" s="81" t="s">
+        <v>75</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="13"/>
@@ -5393,53 +5374,53 @@
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="62" t="s">
         <v>78</v>
       </c>
+      <c r="D12" s="66" t="s">
+        <v>79</v>
+      </c>
       <c r="E12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="88">
+        <v>80</v>
+      </c>
+      <c r="F12" s="87">
         <v>1</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="70" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="88">
+      <c r="F13" s="87">
         <v>1</v>
       </c>
-      <c r="G13" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="97" t="s">
-        <v>36</v>
+      <c r="G13" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -5449,21 +5430,21 @@
     <row r="14" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="88">
+      <c r="F14" s="87">
         <v>1</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>36</v>
+      <c r="G14" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -5473,18 +5454,18 @@
     <row r="15" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="63" t="s">
-        <v>86</v>
+      <c r="C15" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="88">
+      <c r="F15" s="87">
         <v>1</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -5492,890 +5473,890 @@
     </row>
     <row r="16" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="33">
         <v>2</v>
       </c>
-      <c r="G16" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="97" t="s">
+      <c r="G16" s="96" t="s">
         <v>93</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="96" t="s">
         <v>95</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="33">
         <v>2</v>
       </c>
-      <c r="G17" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="97" t="s">
+      <c r="G17" s="96" t="s">
         <v>99</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="96"/>
+        <v>101</v>
+      </c>
+      <c r="K17" s="95"/>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="33">
         <v>2</v>
       </c>
-      <c r="G18" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="97" t="s">
+      <c r="G18" s="96" t="s">
         <v>104</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>105</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="K18" s="95"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="33">
         <v>2</v>
       </c>
-      <c r="G19" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="97" t="s">
+      <c r="G19" s="96" t="s">
         <v>104</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>105</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="K19" s="95"/>
       <c r="L19" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="33">
         <v>2</v>
       </c>
-      <c r="G20" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>109</v>
+      <c r="G20" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="96"/>
+        <v>111</v>
+      </c>
+      <c r="K20" s="95"/>
       <c r="L20" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="33">
         <v>2</v>
       </c>
-      <c r="G21" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="97" t="s">
-        <v>112</v>
+      <c r="G21" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="96"/>
+        <v>114</v>
+      </c>
+      <c r="K21" s="95"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>115</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="33">
         <v>2</v>
       </c>
-      <c r="G22" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="97" t="s">
-        <v>109</v>
+      <c r="G22" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="96"/>
+        <v>111</v>
+      </c>
+      <c r="K22" s="95"/>
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>115</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="33">
         <v>2</v>
       </c>
-      <c r="G23" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>112</v>
+      <c r="G23" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="96"/>
+        <v>114</v>
+      </c>
+      <c r="K23" s="95"/>
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="99" t="s">
         <v>117</v>
       </c>
+      <c r="B24" s="98" t="s">
+        <v>118</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="33">
         <v>2</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="96" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="K24" s="95" t="s">
+        <v>122</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" s="33">
         <v>2</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="96" t="s">
         <v>127</v>
       </c>
+      <c r="K25" s="95" t="s">
+        <v>128</v>
+      </c>
       <c r="L25" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="33">
         <v>2</v>
       </c>
-      <c r="G26" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="97" t="s">
+      <c r="G26" s="96" t="s">
         <v>132</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>133</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26" s="96" t="s">
         <v>127</v>
       </c>
+      <c r="K26" s="95" t="s">
+        <v>128</v>
+      </c>
       <c r="L26" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>116</v>
+      <c r="A27" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="33">
         <v>2</v>
       </c>
-      <c r="G27" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="97" t="s">
+      <c r="G27" s="96" t="s">
         <v>137</v>
+      </c>
+      <c r="H27" s="96" t="s">
+        <v>138</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27" s="96"/>
+        <v>139</v>
+      </c>
+      <c r="K27" s="95"/>
       <c r="L27" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="33">
         <v>2</v>
       </c>
-      <c r="G28" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="97" t="s">
-        <v>142</v>
+      <c r="G28" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>143</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="96"/>
+        <v>144</v>
+      </c>
+      <c r="K28" s="95"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" s="33">
         <v>2</v>
       </c>
-      <c r="G29" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="97" t="s">
+      <c r="G29" s="96" t="s">
         <v>148</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>149</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="96"/>
+        <v>150</v>
+      </c>
+      <c r="K29" s="95"/>
       <c r="L29" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="33">
         <v>2</v>
       </c>
-      <c r="G30" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="97" t="s">
+      <c r="G30" s="96" t="s">
         <v>148</v>
+      </c>
+      <c r="H30" s="96" t="s">
+        <v>149</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K30" s="96"/>
+        <v>144</v>
+      </c>
+      <c r="K30" s="95"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="99"/>
+        <v>117</v>
+      </c>
+      <c r="B31" s="98"/>
       <c r="C31" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="33">
         <v>2</v>
       </c>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K31" s="96" t="s">
         <v>157</v>
       </c>
+      <c r="K31" s="95" t="s">
+        <v>158</v>
+      </c>
       <c r="L31" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="99"/>
+        <v>117</v>
+      </c>
+      <c r="B32" s="98"/>
       <c r="C32" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="33">
         <v>2</v>
       </c>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="96" t="s">
         <v>163</v>
       </c>
+      <c r="K32" s="95" t="s">
+        <v>164</v>
+      </c>
       <c r="L32" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="s">
-        <v>116</v>
+      <c r="A33" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="33">
         <v>2</v>
       </c>
-      <c r="G33" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="97" t="s">
+      <c r="G33" s="96" t="s">
         <v>168</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>169</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K33" s="96" t="s">
-        <v>39</v>
+        <v>170</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>40</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="72" t="s">
-        <v>116</v>
+      <c r="A34" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" s="33">
         <v>2</v>
       </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="96" t="s">
         <v>173</v>
       </c>
+      <c r="K34" s="95" t="s">
+        <v>174</v>
+      </c>
       <c r="L34" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="s">
-        <v>116</v>
+      <c r="A35" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="33">
         <v>2</v>
       </c>
-      <c r="G35" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="97" t="s">
-        <v>168</v>
+      <c r="G35" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>169</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="96" t="s">
         <v>173</v>
       </c>
+      <c r="K35" s="95" t="s">
+        <v>174</v>
+      </c>
       <c r="L35" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72" t="s">
-        <v>116</v>
+      <c r="A36" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" s="33">
         <v>2</v>
       </c>
-      <c r="G36" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="97" t="s">
-        <v>168</v>
+      <c r="G36" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>169</v>
       </c>
       <c r="I36" s="14"/>
-      <c r="J36" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="96"/>
+      <c r="J36" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="95"/>
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72" t="s">
-        <v>116</v>
+      <c r="A37" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" s="33">
         <v>2</v>
       </c>
-      <c r="G37" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="97" t="s">
-        <v>168</v>
+      <c r="G37" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="96" t="s">
+        <v>169</v>
       </c>
       <c r="I37" s="14"/>
-      <c r="J37" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="96"/>
+      <c r="J37" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="95"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="72" t="s">
-        <v>116</v>
+      <c r="A38" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="33">
         <v>2</v>
       </c>
-      <c r="G38" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="97" t="s">
+      <c r="G38" s="96" t="s">
         <v>184</v>
+      </c>
+      <c r="H38" s="96" t="s">
+        <v>185</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" s="96" t="s">
         <v>186</v>
       </c>
+      <c r="K38" s="95" t="s">
+        <v>187</v>
+      </c>
       <c r="L38" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="s">
-        <v>116</v>
+      <c r="A39" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="33">
         <v>2</v>
       </c>
-      <c r="G39" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" s="97" t="s">
+      <c r="G39" s="96" t="s">
         <v>191</v>
+      </c>
+      <c r="H39" s="96" t="s">
+        <v>192</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K39" s="96" t="s">
         <v>193</v>
       </c>
+      <c r="K39" s="95" t="s">
+        <v>194</v>
+      </c>
       <c r="L39" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="33">
         <v>2</v>
       </c>
-      <c r="G40" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="97" t="s">
+      <c r="G40" s="96" t="s">
         <v>197</v>
+      </c>
+      <c r="H40" s="96" t="s">
+        <v>198</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="K40" s="96" t="s">
         <v>199</v>
       </c>
+      <c r="K40" s="95" t="s">
+        <v>200</v>
+      </c>
       <c r="L40" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="70"/>
+      <c r="K41" s="69"/>
       <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="44">
         <v>24</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" s="33">
         <v>2</v>
       </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="70"/>
+      <c r="K42" s="69"/>
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" s="33">
         <v>2</v>
       </c>
-      <c r="G43" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="97" t="s">
-        <v>207</v>
+      <c r="G43" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="96" t="s">
+        <v>208</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -6384,131 +6365,131 @@
     </row>
     <row r="44" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" s="33">
         <v>2</v>
       </c>
-      <c r="G44" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="97" t="s">
+      <c r="G44" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
+      <c r="H44" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
     </row>
     <row r="45" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>35</v>
+        <v>216</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>36</v>
       </c>
       <c r="F45" s="33">
         <v>2</v>
       </c>
-      <c r="G45" s="97" t="s">
-        <v>216</v>
-      </c>
-      <c r="H45" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
+      <c r="G45" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
     </row>
     <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" s="31">
         <v>68</v>
       </c>
-      <c r="E46" s="63" t="s">
-        <v>35</v>
+      <c r="E46" s="62" t="s">
+        <v>36</v>
       </c>
       <c r="F46" s="33">
         <v>2</v>
       </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
     </row>
     <row r="47" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D47" s="31">
         <v>70</v>
       </c>
-      <c r="E47" s="63" t="s">
-        <v>35</v>
+      <c r="E47" s="62" t="s">
+        <v>36</v>
       </c>
       <c r="F47" s="33">
         <v>2</v>
       </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
     </row>
     <row r="48" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="94" t="s">
-        <v>218</v>
+      <c r="B48" s="93" t="s">
+        <v>219</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="24">
         <v>52</v>
       </c>
       <c r="E48" s="53"/>
-      <c r="F48" s="85">
+      <c r="F48" s="84">
         <v>2</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="53"/>
@@ -6520,11 +6501,11 @@
       <c r="C49" s="14"/>
       <c r="D49" s="36"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="88">
+      <c r="F49" s="87">
         <v>3</v>
       </c>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
@@ -6532,10 +6513,10 @@
     </row>
     <row r="50" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="13"/>
@@ -6552,96 +6533,96 @@
     </row>
     <row r="51" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="88">
+        <v>225</v>
+      </c>
+      <c r="F51" s="87">
         <v>3</v>
       </c>
       <c r="G51" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K51" s="56"/>
       <c r="L51" s="56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="B52" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="88">
+        <v>36</v>
+      </c>
+      <c r="F52" s="87">
         <v>3</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I52" s="36"/>
       <c r="J52" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K52" s="56"/>
       <c r="L52" s="56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="88">
+        <v>36</v>
+      </c>
+      <c r="F53" s="87">
         <v>3</v>
       </c>
       <c r="G53" s="54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="56"/>
@@ -6650,28 +6631,28 @@
     </row>
     <row r="54" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="C54" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="87">
+        <v>3</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" s="54" t="s">
         <v>236</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="88">
-        <v>3</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="H54" s="54" t="s">
-        <v>235</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="56"/>
@@ -6680,28 +6661,28 @@
     </row>
     <row r="55" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>239</v>
+        <v>220</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>240</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="88">
+        <v>36</v>
+      </c>
+      <c r="F55" s="87">
         <v>3</v>
       </c>
-      <c r="G55" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="H55" s="97" t="s">
+      <c r="G55" s="96" t="s">
         <v>212</v>
+      </c>
+      <c r="H55" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -6710,28 +6691,28 @@
     </row>
     <row r="56" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>239</v>
+        <v>220</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>240</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" s="88">
+        <v>245</v>
+      </c>
+      <c r="F56" s="87">
         <v>3</v>
       </c>
-      <c r="G56" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" s="97" t="s">
+      <c r="G56" s="96" t="s">
         <v>212</v>
+      </c>
+      <c r="H56" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -6740,28 +6721,28 @@
     </row>
     <row r="57" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>239</v>
+        <v>220</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>240</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="88">
+        <v>36</v>
+      </c>
+      <c r="F57" s="87">
         <v>3</v>
       </c>
-      <c r="G57" s="97" t="s">
-        <v>216</v>
-      </c>
-      <c r="H57" s="97" t="s">
-        <v>212</v>
+      <c r="G57" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -6770,28 +6751,28 @@
     </row>
     <row r="58" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="87">
+        <v>3</v>
+      </c>
+      <c r="G58" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="88">
-        <v>3</v>
-      </c>
-      <c r="G58" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="H58" s="97" t="s">
-        <v>235</v>
+      <c r="H58" s="96" t="s">
+        <v>236</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -6800,28 +6781,28 @@
     </row>
     <row r="59" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" s="72" t="s">
-        <v>249</v>
+        <v>220</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>250</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="88">
+        <v>36</v>
+      </c>
+      <c r="F59" s="87">
         <v>3</v>
       </c>
-      <c r="G59" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="97" t="s">
+      <c r="G59" s="96" t="s">
         <v>212</v>
+      </c>
+      <c r="H59" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -6830,28 +6811,28 @@
     </row>
     <row r="60" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>249</v>
+        <v>220</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>250</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="88">
+        <v>36</v>
+      </c>
+      <c r="F60" s="87">
         <v>3</v>
       </c>
-      <c r="G60" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="H60" s="97" t="s">
+      <c r="G60" s="96" t="s">
         <v>212</v>
+      </c>
+      <c r="H60" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -6860,31 +6841,31 @@
     </row>
     <row r="61" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="72" t="s">
-        <v>254</v>
+        <v>220</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>255</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="88">
+        <v>36</v>
+      </c>
+      <c r="F61" s="87">
         <v>3</v>
       </c>
-      <c r="G61" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="H61" s="97" t="s">
+      <c r="G61" s="96" t="s">
         <v>258</v>
       </c>
+      <c r="H61" s="96" t="s">
+        <v>259</v>
+      </c>
       <c r="I61" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -6892,28 +6873,28 @@
     </row>
     <row r="62" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="72" t="s">
-        <v>260</v>
+        <v>220</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F62" s="88">
+        <v>264</v>
+      </c>
+      <c r="F62" s="87">
         <v>3</v>
       </c>
-      <c r="G62" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="H62" s="97" t="s">
+      <c r="G62" s="96" t="s">
         <v>265</v>
+      </c>
+      <c r="H62" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -6922,28 +6903,28 @@
     </row>
     <row r="63" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="72" t="s">
-        <v>260</v>
+        <v>220</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="F63" s="88">
+      <c r="E63" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="87">
         <v>3</v>
       </c>
-      <c r="G63" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="H63" s="97" t="s">
+      <c r="G63" s="96" t="s">
         <v>270</v>
+      </c>
+      <c r="H63" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -6952,28 +6933,28 @@
     </row>
     <row r="64" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="72" t="s">
-        <v>260</v>
+        <v>220</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="88">
+        <v>36</v>
+      </c>
+      <c r="F64" s="87">
         <v>3</v>
       </c>
-      <c r="G64" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="H64" s="97" t="s">
-        <v>265</v>
+      <c r="G64" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -6982,28 +6963,28 @@
     </row>
     <row r="65" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>260</v>
+        <v>220</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="88">
+        <v>36</v>
+      </c>
+      <c r="F65" s="87">
         <v>3</v>
       </c>
-      <c r="G65" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="H65" s="97" t="s">
-        <v>270</v>
+      <c r="G65" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="H65" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -7012,25 +6993,25 @@
     </row>
     <row r="66" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="72" t="s">
-        <v>277</v>
+        <v>220</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>278</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="88">
+        <v>36</v>
+      </c>
+      <c r="F66" s="87">
         <v>3</v>
       </c>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -7038,60 +7019,60 @@
     </row>
     <row r="67" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="F67" s="88">
+      <c r="E67" s="90" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" s="87">
         <v>3</v>
       </c>
-      <c r="G67" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="H67" s="97" t="s">
+      <c r="G67" s="96" t="s">
         <v>270</v>
       </c>
+      <c r="H67" s="96" t="s">
+        <v>271</v>
+      </c>
       <c r="I67" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
     </row>
     <row r="68" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
-        <v>219</v>
+      <c r="A68" s="71" t="s">
+        <v>220</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F68" s="88">
+        <v>288</v>
+      </c>
+      <c r="F68" s="87">
         <v>3</v>
       </c>
-      <c r="G68" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="H68" s="97" t="s">
-        <v>270</v>
+      <c r="G68" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -7100,177 +7081,177 @@
     </row>
     <row r="69" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="68">
+        <v>36</v>
+      </c>
+      <c r="F69" s="67">
         <v>3</v>
       </c>
       <c r="G69" s="54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63" t="s">
+        <v>144</v>
       </c>
       <c r="K69" s="54"/>
-      <c r="L69" s="64"/>
+      <c r="L69" s="63"/>
     </row>
     <row r="70" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="E70" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="F70" s="68">
+      <c r="E70" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="67">
         <v>3</v>
       </c>
       <c r="G70" s="54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H70" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64" t="s">
         <v>295</v>
       </c>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63" t="s">
+        <v>296</v>
+      </c>
       <c r="K70" s="54"/>
-      <c r="L70" s="64"/>
+      <c r="L70" s="63"/>
     </row>
     <row r="71" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="88">
+        <v>36</v>
+      </c>
+      <c r="F71" s="87">
         <v>3</v>
       </c>
-      <c r="G71" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" s="97" t="s">
+      <c r="G71" s="96" t="s">
         <v>93</v>
+      </c>
+      <c r="H71" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K71" s="96"/>
+        <v>299</v>
+      </c>
+      <c r="K71" s="95"/>
       <c r="L71" s="14"/>
     </row>
     <row r="72" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="92" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>115</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E72" s="14"/>
-      <c r="F72" s="88">
+      <c r="F72" s="87">
         <v>3</v>
       </c>
-      <c r="G72" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="H72" s="97" t="s">
+      <c r="G72" s="96" t="s">
         <v>302</v>
+      </c>
+      <c r="H72" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="96"/>
+      <c r="K72" s="95"/>
       <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D73" s="31">
         <v>122</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="88">
+        <v>36</v>
+      </c>
+      <c r="F73" s="87">
         <v>3</v>
       </c>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D74" s="31">
         <v>123</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="88">
+        <v>36</v>
+      </c>
+      <c r="F74" s="87">
         <v>3</v>
       </c>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -7278,21 +7259,21 @@
     </row>
     <row r="75" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D75" s="31">
         <v>128</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="88">
+        <v>36</v>
+      </c>
+      <c r="F75" s="87">
         <v>3</v>
       </c>
       <c r="G75" s="54"/>
@@ -7304,28 +7285,28 @@
     </row>
     <row r="76" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="87">
+        <v>3</v>
+      </c>
+      <c r="G76" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="96" t="s">
         <v>303</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F76" s="88">
-        <v>3</v>
-      </c>
-      <c r="G76" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="H76" s="97" t="s">
-        <v>302</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -7334,28 +7315,28 @@
     </row>
     <row r="77" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="88">
+        <v>36</v>
+      </c>
+      <c r="F77" s="87">
         <v>3</v>
       </c>
-      <c r="G77" s="97" t="s">
-        <v>293</v>
-      </c>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="96" t="s">
         <v>294</v>
+      </c>
+      <c r="H77" s="96" t="s">
+        <v>295</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -7364,19 +7345,19 @@
     </row>
     <row r="78" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D78" s="31">
         <v>129</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" s="88">
+        <v>36</v>
+      </c>
+      <c r="F78" s="87">
         <v>3</v>
       </c>
       <c r="G78" s="54"/>
@@ -7387,81 +7368,81 @@
       <c r="L78" s="36"/>
     </row>
     <row r="79" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B79" s="99"/>
+      <c r="A79" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="98"/>
       <c r="C79" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="88">
+      <c r="E79" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="87">
         <v>3</v>
       </c>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="88">
+        <v>36</v>
+      </c>
+      <c r="F80" s="87">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H80" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="I80" s="98"/>
+      <c r="H80" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="I80" s="97"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B81" s="44"/>
       <c r="C81" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="88">
+        <v>36</v>
+      </c>
+      <c r="F81" s="87">
         <v>3</v>
       </c>
-      <c r="G81" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="H81" s="97" t="s">
+      <c r="G81" s="96" t="s">
         <v>302</v>
+      </c>
+      <c r="H81" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -7470,26 +7451,26 @@
     </row>
     <row r="82" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B82" s="44"/>
       <c r="C82" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="88">
+        <v>36</v>
+      </c>
+      <c r="F82" s="87">
         <v>3</v>
       </c>
-      <c r="G82" s="97" t="s">
-        <v>324</v>
-      </c>
-      <c r="H82" s="97" t="s">
-        <v>93</v>
+      <c r="G82" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -7498,26 +7479,26 @@
     </row>
     <row r="83" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B83" s="44"/>
       <c r="C83" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="88">
+        <v>36</v>
+      </c>
+      <c r="F83" s="87">
         <v>3</v>
       </c>
-      <c r="G83" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="H83" s="97" t="s">
-        <v>99</v>
+      <c r="G83" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="H83" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -7526,26 +7507,26 @@
     </row>
     <row r="84" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B84" s="44"/>
       <c r="C84" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="87">
+        <v>3</v>
+      </c>
+      <c r="G84" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="88">
-        <v>3</v>
-      </c>
-      <c r="G84" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="H84" s="97" t="s">
-        <v>99</v>
+      <c r="H84" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -7554,26 +7535,26 @@
     </row>
     <row r="85" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B85" s="44"/>
       <c r="C85" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="88">
+        <v>36</v>
+      </c>
+      <c r="F85" s="87">
         <v>3</v>
       </c>
-      <c r="G85" s="97" t="s">
-        <v>293</v>
-      </c>
-      <c r="H85" s="97" t="s">
+      <c r="G85" s="96" t="s">
         <v>294</v>
+      </c>
+      <c r="H85" s="96" t="s">
+        <v>295</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -7581,48 +7562,48 @@
       <c r="L85" s="14"/>
     </row>
     <row r="86" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B86" s="99"/>
+      <c r="A86" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="98"/>
       <c r="C86" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F86" s="88">
+        <v>334</v>
+      </c>
+      <c r="F86" s="87">
         <v>3</v>
       </c>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B87" s="99"/>
+      <c r="A87" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="98"/>
       <c r="C87" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F87" s="88">
+      <c r="F87" s="87">
         <v>3</v>
       </c>
-      <c r="G87" s="97"/>
-      <c r="H87" s="97"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
@@ -7630,26 +7611,26 @@
     </row>
     <row r="88" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B88" s="44"/>
       <c r="C88" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="88">
+        <v>36</v>
+      </c>
+      <c r="F88" s="87">
         <v>3</v>
       </c>
-      <c r="G88" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="H88" s="97" t="s">
+      <c r="G88" s="96" t="s">
         <v>302</v>
+      </c>
+      <c r="H88" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -7658,26 +7639,26 @@
     </row>
     <row r="89" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B89" s="44"/>
       <c r="C89" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="88">
+        <v>36</v>
+      </c>
+      <c r="F89" s="87">
         <v>3</v>
       </c>
-      <c r="G89" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="H89" s="97" t="s">
+      <c r="G89" s="96" t="s">
         <v>302</v>
+      </c>
+      <c r="H89" s="96" t="s">
+        <v>303</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -7687,7 +7668,7 @@
     <row r="90" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="13"/>
@@ -7703,29 +7684,29 @@
       <c r="L90" s="19"/>
     </row>
     <row r="91" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="76" t="s">
-        <v>341</v>
+      <c r="A91" s="75" t="s">
+        <v>342</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E91" s="59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" s="50">
         <v>4</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
@@ -7733,27 +7714,27 @@
       <c r="L91" s="59"/>
     </row>
     <row r="92" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="76" t="s">
-        <v>341</v>
+      <c r="A92" s="75" t="s">
+        <v>342</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C92" s="58"/>
       <c r="D92" s="58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E92" s="59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" s="50">
         <v>4</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
@@ -7762,272 +7743,272 @@
     </row>
     <row r="93" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" s="33">
         <v>4</v>
       </c>
-      <c r="G93" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="97" t="s">
-        <v>350</v>
+      <c r="G93" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="96" t="s">
+        <v>351</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" s="33">
         <v>4</v>
       </c>
-      <c r="G94" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="H94" s="97" t="s">
+      <c r="G94" s="96" t="s">
         <v>356</v>
+      </c>
+      <c r="H94" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" s="33">
         <v>4</v>
       </c>
-      <c r="G95" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="H95" s="97" t="s">
+      <c r="G95" s="96" t="s">
         <v>359</v>
+      </c>
+      <c r="H95" s="96" t="s">
+        <v>360</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K95" s="14"/>
       <c r="L95" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C96" s="36"/>
       <c r="D96" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E96" s="78" t="s">
-        <v>35</v>
+        <v>362</v>
+      </c>
+      <c r="E96" s="77" t="s">
+        <v>36</v>
       </c>
       <c r="F96" s="33">
         <v>4</v>
       </c>
-      <c r="G96" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="H96" s="97" t="s">
+      <c r="G96" s="96" t="s">
         <v>359</v>
+      </c>
+      <c r="H96" s="96" t="s">
+        <v>360</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K96" s="14"/>
       <c r="L96" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F97" s="33">
         <v>4</v>
       </c>
-      <c r="G97" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="H97" s="97" t="s">
+      <c r="G97" s="96" t="s">
         <v>356</v>
+      </c>
+      <c r="H97" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F98" s="33">
         <v>4</v>
       </c>
-      <c r="G98" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="H98" s="97" t="s">
+      <c r="G98" s="96" t="s">
         <v>356</v>
+      </c>
+      <c r="H98" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F99" s="33">
         <v>4</v>
       </c>
-      <c r="G99" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="H99" s="97" t="s">
+      <c r="G99" s="96" t="s">
         <v>356</v>
+      </c>
+      <c r="H99" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K99" s="14"/>
       <c r="L99" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F100" s="33">
         <v>4</v>
       </c>
-      <c r="G100" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="H100" s="97" t="s">
+      <c r="G100" s="96" t="s">
         <v>359</v>
+      </c>
+      <c r="H100" s="96" t="s">
+        <v>360</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8035,14 +8016,14 @@
       <c r="B101" s="44"/>
       <c r="C101" s="36"/>
       <c r="D101" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F101" s="33"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="97"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
@@ -8050,128 +8031,128 @@
     </row>
     <row r="102" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" s="33">
         <v>4</v>
       </c>
-      <c r="G102" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="H102" s="97" t="s">
-        <v>356</v>
+      <c r="G102" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="H102" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K102" s="14"/>
       <c r="L102" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" s="33">
         <v>4</v>
       </c>
-      <c r="G103" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="H103" s="97" t="s">
-        <v>356</v>
+      <c r="G103" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="H103" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K103" s="14"/>
       <c r="L103" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F104" s="33">
         <v>4</v>
       </c>
-      <c r="G104" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="H104" s="97" t="s">
-        <v>356</v>
+      <c r="G104" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="H104" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K104" s="14"/>
       <c r="L104" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C105" s="36"/>
       <c r="D105" s="44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" s="33">
         <v>4</v>
       </c>
-      <c r="G105" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H105" s="97" t="s">
-        <v>36</v>
+      <c r="G105" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -8180,26 +8161,26 @@
     </row>
     <row r="106" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F106" s="33">
         <v>4</v>
       </c>
-      <c r="G106" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" s="97" t="s">
-        <v>36</v>
+      <c r="G106" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -8208,28 +8189,28 @@
     </row>
     <row r="107" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" s="33">
         <v>4</v>
       </c>
-      <c r="G107" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" s="97" t="s">
-        <v>385</v>
+      <c r="G107" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="96" t="s">
+        <v>386</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -8238,15 +8219,15 @@
     </row>
     <row r="108" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="13"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="73">
+      <c r="F108" s="72">
         <v>4</v>
       </c>
       <c r="G108" s="41"/>
@@ -8258,15 +8239,15 @@
     </row>
     <row r="109" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="13"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="73">
+      <c r="F109" s="72">
         <v>4</v>
       </c>
       <c r="G109" s="41"/>
@@ -8281,14 +8262,14 @@
       <c r="B110" s="30"/>
       <c r="C110" s="14"/>
       <c r="D110" s="44" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E110" s="14"/>
-      <c r="F110" s="88">
+      <c r="F110" s="87">
         <v>5</v>
       </c>
-      <c r="G110" s="97"/>
-      <c r="H110" s="97"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
@@ -8296,10 +8277,10 @@
     </row>
     <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="13"/>
@@ -8316,10 +8297,10 @@
     </row>
     <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="13"/>
@@ -8335,29 +8316,29 @@
       <c r="L112" s="19"/>
     </row>
     <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="101" t="s">
-        <v>219</v>
+      <c r="A113" s="100" t="s">
+        <v>220</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F113" s="88">
+        <v>36</v>
+      </c>
+      <c r="F113" s="87">
         <v>7</v>
       </c>
-      <c r="G113" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="H113" s="97" t="s">
-        <v>270</v>
+      <c r="G113" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="H113" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
@@ -8366,26 +8347,26 @@
     </row>
     <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B114" s="30"/>
       <c r="C114" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="87">
+        <v>7</v>
+      </c>
+      <c r="G114" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="D114" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F114" s="88">
-        <v>7</v>
-      </c>
-      <c r="G114" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="H114" s="97" t="s">
-        <v>270</v>
+      <c r="H114" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -8393,25 +8374,25 @@
       <c r="L114" s="14"/>
     </row>
     <row r="115" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="101" t="s">
-        <v>219</v>
+      <c r="A115" s="100" t="s">
+        <v>220</v>
       </c>
       <c r="B115" s="30"/>
       <c r="C115" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E115" s="14"/>
-      <c r="F115" s="88">
+      <c r="F115" s="87">
         <v>7</v>
       </c>
-      <c r="G115" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="H115" s="97" t="s">
-        <v>270</v>
+      <c r="G115" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="H115" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -8420,10 +8401,10 @@
     </row>
     <row r="116" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="13"/>
@@ -8439,29 +8420,29 @@
       <c r="L116" s="19"/>
     </row>
     <row r="117" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="72" t="s">
-        <v>400</v>
+      <c r="A117" s="71" t="s">
+        <v>401</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="88">
+        <v>36</v>
+      </c>
+      <c r="F117" s="87">
         <v>7</v>
       </c>
-      <c r="G117" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="H117" s="97" t="s">
+      <c r="G117" s="96" t="s">
         <v>406</v>
+      </c>
+      <c r="H117" s="96" t="s">
+        <v>407</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -8469,29 +8450,29 @@
       <c r="L117" s="14"/>
     </row>
     <row r="118" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="101" t="s">
-        <v>400</v>
+      <c r="A118" s="100" t="s">
+        <v>401</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C118" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="87">
+        <v>7</v>
+      </c>
+      <c r="G118" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="H118" s="96" t="s">
         <v>407</v>
-      </c>
-      <c r="D118" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F118" s="88">
-        <v>7</v>
-      </c>
-      <c r="G118" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="H118" s="97" t="s">
-        <v>406</v>
       </c>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
@@ -8500,28 +8481,28 @@
     </row>
     <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F119" s="88">
+        <v>36</v>
+      </c>
+      <c r="F119" s="87">
         <v>7</v>
       </c>
-      <c r="G119" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="H119" s="97" t="s">
+      <c r="G119" s="96" t="s">
         <v>406</v>
+      </c>
+      <c r="H119" s="96" t="s">
+        <v>407</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -8529,24 +8510,24 @@
       <c r="L119" s="14"/>
     </row>
     <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="101" t="s">
-        <v>400</v>
-      </c>
-      <c r="B120" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C120" s="80" t="s">
+      <c r="A120" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="B120" s="81" t="s">
         <v>412</v>
       </c>
+      <c r="C120" s="79" t="s">
+        <v>413</v>
+      </c>
       <c r="D120" s="36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E120" s="14"/>
-      <c r="F120" s="88">
+      <c r="F120" s="87">
         <v>7</v>
       </c>
-      <c r="G120" s="97"/>
-      <c r="H120" s="97"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
@@ -8554,28 +8535,28 @@
     </row>
     <row r="121" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="C121" s="64" t="s">
         <v>415</v>
       </c>
+      <c r="C121" s="63" t="s">
+        <v>416</v>
+      </c>
       <c r="D121" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="E121" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="F121" s="88">
+      <c r="E121" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="F121" s="87">
         <v>7</v>
       </c>
-      <c r="G121" s="97" t="s">
-        <v>418</v>
-      </c>
-      <c r="H121" s="97" t="s">
+      <c r="G121" s="96" t="s">
         <v>419</v>
+      </c>
+      <c r="H121" s="96" t="s">
+        <v>420</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -8584,28 +8565,28 @@
     </row>
     <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F122" s="88">
+        <v>36</v>
+      </c>
+      <c r="F122" s="87">
         <v>7</v>
       </c>
-      <c r="G122" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="H122" s="97" t="s">
-        <v>270</v>
+      <c r="G122" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="H122" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -8614,17 +8595,17 @@
     </row>
     <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B123" s="30"/>
       <c r="C123" s="14"/>
       <c r="D123" s="46"/>
       <c r="E123" s="14"/>
-      <c r="F123" s="88">
+      <c r="F123" s="87">
         <v>7</v>
       </c>
-      <c r="G123" s="97"/>
-      <c r="H123" s="97"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
@@ -8632,44 +8613,44 @@
     </row>
     <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B124" s="30"/>
       <c r="C124" s="14"/>
       <c r="D124" s="36"/>
       <c r="E124" s="14"/>
-      <c r="F124" s="88">
+      <c r="F124" s="87">
         <v>7</v>
       </c>
-      <c r="G124" s="97"/>
-      <c r="H124" s="97"/>
+      <c r="G124" s="96"/>
+      <c r="H124" s="96"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
     </row>
     <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="101" t="s">
-        <v>400</v>
+      <c r="A125" s="100" t="s">
+        <v>401</v>
       </c>
       <c r="B125" s="30"/>
       <c r="C125" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F125" s="88">
+        <v>36</v>
+      </c>
+      <c r="F125" s="87">
         <v>7</v>
       </c>
-      <c r="G125" s="97" t="s">
-        <v>418</v>
-      </c>
-      <c r="H125" s="97" t="s">
+      <c r="G125" s="96" t="s">
         <v>419</v>
+      </c>
+      <c r="H125" s="96" t="s">
+        <v>420</v>
       </c>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
@@ -8678,58 +8659,58 @@
     </row>
     <row r="126" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="C126" s="64" t="s">
         <v>427</v>
       </c>
+      <c r="C126" s="63" t="s">
+        <v>428</v>
+      </c>
       <c r="D126" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F126" s="88">
+        <v>36</v>
+      </c>
+      <c r="F126" s="87">
         <v>7</v>
       </c>
-      <c r="G126" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="H126" s="97" t="s">
+      <c r="G126" s="96" t="s">
         <v>430</v>
       </c>
+      <c r="H126" s="96" t="s">
+        <v>431</v>
+      </c>
       <c r="I126" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
     </row>
     <row r="127" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="101" t="s">
-        <v>425</v>
+      <c r="A127" s="100" t="s">
+        <v>426</v>
       </c>
       <c r="B127" s="30"/>
       <c r="C127" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F127" s="88">
+        <v>36</v>
+      </c>
+      <c r="F127" s="87">
         <v>7</v>
       </c>
-      <c r="G127" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="H127" s="97" t="s">
+      <c r="G127" s="96" t="s">
         <v>430</v>
+      </c>
+      <c r="H127" s="96" t="s">
+        <v>431</v>
       </c>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
@@ -8738,25 +8719,25 @@
     </row>
     <row r="128" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
-      <c r="B128" s="99" t="s">
-        <v>433</v>
-      </c>
-      <c r="C128" s="100" t="s">
+      <c r="B128" s="98" t="s">
         <v>434</v>
       </c>
+      <c r="C128" s="99" t="s">
+        <v>435</v>
+      </c>
       <c r="D128" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E128" s="100"/>
+        <v>436</v>
+      </c>
+      <c r="E128" s="99"/>
       <c r="F128" s="52">
         <v>7</v>
       </c>
-      <c r="G128" s="97"/>
-      <c r="H128" s="97"/>
+      <c r="G128" s="96"/>
+      <c r="H128" s="96"/>
       <c r="I128" s="14"/>
-      <c r="J128" s="100"/>
-      <c r="K128" s="100"/>
-      <c r="L128" s="100"/>
+      <c r="J128" s="99"/>
+      <c r="K128" s="99"/>
+      <c r="L128" s="99"/>
     </row>
     <row r="129" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
@@ -8764,11 +8745,11 @@
       <c r="C129" s="14"/>
       <c r="D129" s="36"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="88">
+      <c r="F129" s="87">
         <v>7</v>
       </c>
-      <c r="G129" s="97"/>
-      <c r="H129" s="97"/>
+      <c r="G129" s="96"/>
+      <c r="H129" s="96"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
@@ -8777,60 +8758,60 @@
     <row r="130" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
       <c r="B130" s="44"/>
-      <c r="C130" s="100" t="s">
-        <v>436</v>
+      <c r="C130" s="99" t="s">
+        <v>437</v>
       </c>
       <c r="D130" s="36"/>
       <c r="E130" s="14"/>
-      <c r="F130" s="88">
+      <c r="F130" s="87">
         <v>7</v>
       </c>
-      <c r="G130" s="97"/>
-      <c r="H130" s="97"/>
+      <c r="G130" s="96"/>
+      <c r="H130" s="96"/>
       <c r="I130" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
     </row>
     <row r="131" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="101"/>
+      <c r="A131" s="100"/>
       <c r="B131" s="44"/>
       <c r="C131" s="14"/>
       <c r="D131" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E131" s="14"/>
-      <c r="F131" s="88">
+      <c r="F131" s="87">
         <v>7</v>
       </c>
-      <c r="G131" s="97"/>
-      <c r="H131" s="97"/>
+      <c r="G131" s="96"/>
+      <c r="H131" s="96"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
     </row>
     <row r="132" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="101" t="s">
-        <v>439</v>
+      <c r="A132" s="100" t="s">
+        <v>440</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" s="88">
+        <v>36</v>
+      </c>
+      <c r="F132" s="87">
         <v>8</v>
       </c>
-      <c r="G132" s="97"/>
-      <c r="H132" s="97"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="96"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
@@ -8838,25 +8819,25 @@
     </row>
     <row r="133" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="B133" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="B133" s="71" t="s">
+        <v>443</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D133" s="36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F133" s="88">
+        <v>36</v>
+      </c>
+      <c r="F133" s="87">
         <v>8</v>
       </c>
-      <c r="G133" s="97"/>
-      <c r="H133" s="97"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
@@ -8864,25 +8845,25 @@
     </row>
     <row r="134" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="B134" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="B134" s="71" t="s">
+        <v>443</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F134" s="88">
+        <v>36</v>
+      </c>
+      <c r="F134" s="87">
         <v>8</v>
       </c>
-      <c r="G134" s="97"/>
-      <c r="H134" s="97"/>
+      <c r="G134" s="96"/>
+      <c r="H134" s="96"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
@@ -8890,21 +8871,21 @@
     </row>
     <row r="135" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F135" s="88">
+        <v>36</v>
+      </c>
+      <c r="F135" s="87">
         <v>8</v>
       </c>
       <c r="G135" s="54"/>
@@ -8916,25 +8897,25 @@
     </row>
     <row r="136" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F136" s="88">
+        <v>36</v>
+      </c>
+      <c r="F136" s="87">
         <v>8</v>
       </c>
-      <c r="G136" s="97"/>
-      <c r="H136" s="97"/>
+      <c r="G136" s="96"/>
+      <c r="H136" s="96"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
@@ -8942,23 +8923,23 @@
     </row>
     <row r="137" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="36" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F137" s="88">
+        <v>36</v>
+      </c>
+      <c r="F137" s="87">
         <v>8</v>
       </c>
-      <c r="G137" s="97"/>
-      <c r="H137" s="97"/>
+      <c r="G137" s="96"/>
+      <c r="H137" s="96"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
@@ -8966,23 +8947,23 @@
     </row>
     <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="36" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F138" s="88">
+        <v>36</v>
+      </c>
+      <c r="F138" s="87">
         <v>8</v>
       </c>
-      <c r="G138" s="97"/>
-      <c r="H138" s="97"/>
+      <c r="G138" s="96"/>
+      <c r="H138" s="96"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
@@ -8990,25 +8971,25 @@
     </row>
     <row r="139" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F139" s="88">
+        <v>36</v>
+      </c>
+      <c r="F139" s="87">
         <v>8</v>
       </c>
-      <c r="G139" s="97"/>
-      <c r="H139" s="97"/>
+      <c r="G139" s="96"/>
+      <c r="H139" s="96"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
       <c r="K139" s="14"/>
@@ -9016,25 +8997,25 @@
     </row>
     <row r="140" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F140" s="88">
+        <v>36</v>
+      </c>
+      <c r="F140" s="87">
         <v>8</v>
       </c>
-      <c r="G140" s="97"/>
-      <c r="H140" s="97"/>
+      <c r="G140" s="96"/>
+      <c r="H140" s="96"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
@@ -9042,25 +9023,25 @@
     </row>
     <row r="141" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" s="88">
+        <v>36</v>
+      </c>
+      <c r="F141" s="87">
         <v>8</v>
       </c>
-      <c r="G141" s="97"/>
-      <c r="H141" s="97"/>
+      <c r="G141" s="96"/>
+      <c r="H141" s="96"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
@@ -9068,25 +9049,25 @@
     </row>
     <row r="142" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F142" s="88">
+        <v>36</v>
+      </c>
+      <c r="F142" s="87">
         <v>8</v>
       </c>
-      <c r="G142" s="97"/>
-      <c r="H142" s="97"/>
+      <c r="G142" s="96"/>
+      <c r="H142" s="96"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
@@ -9094,19 +9075,19 @@
     </row>
     <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="C143" s="63"/>
+        <v>464</v>
+      </c>
+      <c r="C143" s="62"/>
       <c r="D143" s="36"/>
       <c r="E143" s="14"/>
-      <c r="F143" s="88">
+      <c r="F143" s="87">
         <v>8</v>
       </c>
-      <c r="G143" s="97"/>
-      <c r="H143" s="97"/>
+      <c r="G143" s="96"/>
+      <c r="H143" s="96"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
       <c r="K143" s="14"/>
@@ -9114,19 +9095,19 @@
     </row>
     <row r="144" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="C144" s="63"/>
+        <v>465</v>
+      </c>
+      <c r="C144" s="62"/>
       <c r="D144" s="36"/>
       <c r="E144" s="14"/>
-      <c r="F144" s="88">
+      <c r="F144" s="87">
         <v>8</v>
       </c>
-      <c r="G144" s="97"/>
-      <c r="H144" s="97"/>
+      <c r="G144" s="96"/>
+      <c r="H144" s="96"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
       <c r="K144" s="14"/>
@@ -9134,23 +9115,23 @@
     </row>
     <row r="145" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="C145" s="63" t="s">
-        <v>457</v>
+        <v>466</v>
+      </c>
+      <c r="C145" s="62" t="s">
+        <v>458</v>
       </c>
       <c r="D145" s="36">
         <v>83</v>
       </c>
       <c r="E145" s="14"/>
-      <c r="F145" s="88">
+      <c r="F145" s="87">
         <v>8</v>
       </c>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="96"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
@@ -9158,23 +9139,23 @@
     </row>
     <row r="146" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="C146" s="63" t="s">
-        <v>459</v>
+        <v>467</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>460</v>
       </c>
       <c r="D146" s="36">
         <v>84</v>
       </c>
       <c r="E146" s="14"/>
-      <c r="F146" s="88">
+      <c r="F146" s="87">
         <v>8</v>
       </c>
-      <c r="G146" s="97"/>
-      <c r="H146" s="97"/>
+      <c r="G146" s="96"/>
+      <c r="H146" s="96"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
@@ -9182,23 +9163,23 @@
     </row>
     <row r="147" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="C147" s="63" t="s">
-        <v>451</v>
+        <v>468</v>
+      </c>
+      <c r="C147" s="62" t="s">
+        <v>452</v>
       </c>
       <c r="D147" s="36">
         <v>79</v>
       </c>
       <c r="E147" s="14"/>
-      <c r="F147" s="88">
+      <c r="F147" s="87">
         <v>8</v>
       </c>
-      <c r="G147" s="97"/>
-      <c r="H147" s="97"/>
+      <c r="G147" s="96"/>
+      <c r="H147" s="96"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
@@ -9206,21 +9187,21 @@
     </row>
     <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B148" s="30"/>
-      <c r="C148" s="63" t="s">
-        <v>461</v>
+      <c r="C148" s="62" t="s">
+        <v>462</v>
       </c>
       <c r="D148" s="36">
         <v>85</v>
       </c>
       <c r="E148" s="14"/>
-      <c r="F148" s="88">
+      <c r="F148" s="87">
         <v>8</v>
       </c>
-      <c r="G148" s="97"/>
-      <c r="H148" s="97"/>
+      <c r="G148" s="96"/>
+      <c r="H148" s="96"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
       <c r="K148" s="14"/>
@@ -9228,28 +9209,28 @@
     </row>
     <row r="149" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F149" s="88">
+        <v>36</v>
+      </c>
+      <c r="F149" s="87">
         <v>8</v>
       </c>
-      <c r="G149" s="97" t="s">
-        <v>471</v>
-      </c>
-      <c r="H149" s="97" t="s">
+      <c r="G149" s="96" t="s">
         <v>472</v>
+      </c>
+      <c r="H149" s="96" t="s">
+        <v>473</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -9258,28 +9239,28 @@
     </row>
     <row r="150" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B150" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D150" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="E150" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="87">
+        <v>8</v>
+      </c>
+      <c r="G150" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="H150" s="54" t="s">
         <v>473</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D150" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="E150" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F150" s="88">
-        <v>8</v>
-      </c>
-      <c r="G150" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="H150" s="54" t="s">
-        <v>472</v>
       </c>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
@@ -9289,7 +9270,7 @@
     <row r="151" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="13"/>
@@ -9307,18 +9288,18 @@
     <row r="152" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
-      <c r="C152" s="63" t="s">
-        <v>455</v>
+      <c r="C152" s="62" t="s">
+        <v>456</v>
       </c>
       <c r="D152" s="36">
         <v>82</v>
       </c>
       <c r="E152" s="14"/>
-      <c r="F152" s="88">
+      <c r="F152" s="87">
         <v>8</v>
       </c>
-      <c r="G152" s="97"/>
-      <c r="H152" s="97"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="96"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
       <c r="K152" s="14"/>
@@ -9326,10 +9307,10 @@
     </row>
     <row r="153" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="13"/>
@@ -9345,27 +9326,29 @@
       <c r="L153" s="19"/>
     </row>
     <row r="154" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="72" t="s">
-        <v>477</v>
+      <c r="A154" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="E154" s="14"/>
-      <c r="F154" s="88">
+        <v>482</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="87">
         <v>9</v>
       </c>
-      <c r="G154" s="97" t="s">
-        <v>482</v>
-      </c>
-      <c r="H154" s="97" t="s">
+      <c r="G154" s="96" t="s">
         <v>483</v>
+      </c>
+      <c r="H154" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
@@ -9373,27 +9356,29 @@
       <c r="L154" s="14"/>
     </row>
     <row r="155" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="72" t="s">
-        <v>477</v>
+      <c r="A155" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D155" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="E155" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="F155" s="87">
+        <v>9</v>
+      </c>
+      <c r="G155" s="96" t="s">
+        <v>483</v>
+      </c>
+      <c r="H155" s="96" t="s">
         <v>484</v>
-      </c>
-      <c r="E155" s="14"/>
-      <c r="F155" s="88">
-        <v>9</v>
-      </c>
-      <c r="G155" s="97" t="s">
-        <v>482</v>
-      </c>
-      <c r="H155" s="97" t="s">
-        <v>483</v>
       </c>
       <c r="I155" s="14"/>
       <c r="J155" s="14"/>
@@ -9401,27 +9386,29 @@
       <c r="L155" s="14"/>
     </row>
     <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="72" t="s">
-        <v>477</v>
+      <c r="A156" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="E156" s="14"/>
-      <c r="F156" s="88">
+        <v>488</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="87">
         <v>9</v>
       </c>
-      <c r="G156" s="97" t="s">
-        <v>487</v>
-      </c>
-      <c r="H156" s="97" t="s">
-        <v>483</v>
+      <c r="G156" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="H156" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I156" s="14"/>
       <c r="J156" s="14"/>
@@ -9429,27 +9416,29 @@
       <c r="L156" s="14"/>
     </row>
     <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="72" t="s">
-        <v>477</v>
+      <c r="A157" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="E157" s="14"/>
-      <c r="F157" s="88">
+        <v>490</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="87">
         <v>9</v>
       </c>
-      <c r="G157" s="97" t="s">
-        <v>489</v>
-      </c>
-      <c r="H157" s="97" t="s">
-        <v>490</v>
+      <c r="G157" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="H157" s="96" t="s">
+        <v>492</v>
       </c>
       <c r="I157" s="14"/>
       <c r="J157" s="14"/>
@@ -9457,27 +9446,29 @@
       <c r="L157" s="14"/>
     </row>
     <row r="158" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="72" t="s">
-        <v>477</v>
+      <c r="A158" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C158" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="87">
+        <v>9</v>
+      </c>
+      <c r="G158" s="96" t="s">
         <v>491</v>
       </c>
-      <c r="D158" s="36" t="s">
+      <c r="H158" s="96" t="s">
         <v>492</v>
-      </c>
-      <c r="E158" s="14"/>
-      <c r="F158" s="88">
-        <v>9</v>
-      </c>
-      <c r="G158" s="97" t="s">
-        <v>489</v>
-      </c>
-      <c r="H158" s="97" t="s">
-        <v>490</v>
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
@@ -9485,27 +9476,29 @@
       <c r="L158" s="14"/>
     </row>
     <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="72" t="s">
-        <v>477</v>
+      <c r="A159" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="E159" s="14"/>
-      <c r="F159" s="88">
+        <v>496</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="87">
         <v>9</v>
       </c>
-      <c r="G159" s="97" t="s">
-        <v>482</v>
-      </c>
-      <c r="H159" s="97" t="s">
+      <c r="G159" s="96" t="s">
         <v>483</v>
+      </c>
+      <c r="H159" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -9513,27 +9506,29 @@
       <c r="L159" s="14"/>
     </row>
     <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="72" t="s">
-        <v>477</v>
+      <c r="A160" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D160" s="36" t="s">
-        <v>496</v>
-      </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="88">
+        <v>499</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="87">
         <v>9</v>
       </c>
-      <c r="G160" s="97" t="s">
-        <v>497</v>
-      </c>
-      <c r="H160" s="97" t="s">
-        <v>498</v>
+      <c r="G160" s="96" t="s">
+        <v>500</v>
+      </c>
+      <c r="H160" s="96" t="s">
+        <v>501</v>
       </c>
       <c r="I160" s="14"/>
       <c r="J160" s="14"/>
@@ -9542,10 +9537,10 @@
     </row>
     <row r="161" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
@@ -9561,27 +9556,29 @@
       <c r="L161" s="19"/>
     </row>
     <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="72" t="s">
-        <v>477</v>
+      <c r="A162" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D162" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="E162" s="14"/>
-      <c r="F162" s="88">
+        <v>505</v>
+      </c>
+      <c r="E162" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F162" s="87">
         <v>9</v>
       </c>
-      <c r="G162" s="97" t="s">
-        <v>503</v>
-      </c>
-      <c r="H162" s="97" t="s">
-        <v>504</v>
+      <c r="G162" s="96" t="s">
+        <v>507</v>
+      </c>
+      <c r="H162" s="96" t="s">
+        <v>508</v>
       </c>
       <c r="I162" s="14"/>
       <c r="J162" s="14"/>
@@ -9590,26 +9587,28 @@
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D163" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="E163" s="14"/>
-      <c r="F163" s="88">
+        <v>510</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="87">
         <v>9</v>
       </c>
-      <c r="G163" s="97" t="s">
-        <v>507</v>
-      </c>
-      <c r="H163" s="97" t="s">
-        <v>504</v>
+      <c r="G163" s="96" t="s">
+        <v>511</v>
+      </c>
+      <c r="H163" s="96" t="s">
+        <v>508</v>
       </c>
       <c r="I163" s="14"/>
       <c r="J163" s="14"/>
@@ -9618,26 +9617,28 @@
     </row>
     <row r="164" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D164" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="E164" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F164" s="87">
+        <v>9</v>
+      </c>
+      <c r="G164" s="96" t="s">
+        <v>513</v>
+      </c>
+      <c r="H164" s="96" t="s">
         <v>508</v>
-      </c>
-      <c r="E164" s="14"/>
-      <c r="F164" s="88">
-        <v>9</v>
-      </c>
-      <c r="G164" s="97" t="s">
-        <v>509</v>
-      </c>
-      <c r="H164" s="97" t="s">
-        <v>504</v>
       </c>
       <c r="I164" s="14"/>
       <c r="J164" s="14"/>
@@ -9646,54 +9647,58 @@
     </row>
     <row r="165" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="E165" s="14"/>
-      <c r="F165" s="88">
+        <v>516</v>
+      </c>
+      <c r="E165" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F165" s="87">
         <v>9</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H165" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="I165" s="98"/>
+        <v>517</v>
+      </c>
+      <c r="H165" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="I165" s="97"/>
       <c r="J165" s="14"/>
       <c r="K165" s="14"/>
       <c r="L165" s="14"/>
     </row>
     <row r="166" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E166" s="14"/>
-      <c r="F166" s="88">
+        <v>519</v>
+      </c>
+      <c r="E166" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F166" s="87">
         <v>9</v>
       </c>
-      <c r="G166" s="97" t="s">
-        <v>513</v>
-      </c>
-      <c r="H166" s="97" t="s">
-        <v>514</v>
+      <c r="G166" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="H166" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="I166" s="14"/>
       <c r="J166" s="14"/>
@@ -9702,26 +9707,28 @@
     </row>
     <row r="167" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B167" s="64" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="B167" s="63" t="s">
+        <v>514</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="88">
+        <v>521</v>
+      </c>
+      <c r="E167" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F167" s="87">
         <v>9</v>
       </c>
-      <c r="G167" s="97" t="s">
+      <c r="G167" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="H167" s="96" t="s">
         <v>518</v>
-      </c>
-      <c r="H167" s="97" t="s">
-        <v>514</v>
       </c>
       <c r="I167" s="14"/>
       <c r="J167" s="14"/>
@@ -9730,26 +9737,28 @@
     </row>
     <row r="168" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B168" s="64" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="B168" s="63" t="s">
+        <v>514</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="E168" s="14"/>
-      <c r="F168" s="88">
+        <v>523</v>
+      </c>
+      <c r="E168" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F168" s="87">
         <v>9</v>
       </c>
-      <c r="G168" s="97" t="s">
+      <c r="G168" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="H168" s="96" t="s">
         <v>518</v>
-      </c>
-      <c r="H168" s="97" t="s">
-        <v>514</v>
       </c>
       <c r="I168" s="14"/>
       <c r="J168" s="14"/>
@@ -9758,26 +9767,28 @@
     </row>
     <row r="169" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B169" s="64" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="B169" s="63" t="s">
+        <v>514</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="E169" s="14"/>
-      <c r="F169" s="88">
+        <v>524</v>
+      </c>
+      <c r="E169" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F169" s="87">
         <v>9</v>
       </c>
-      <c r="G169" s="97" t="s">
-        <v>521</v>
-      </c>
-      <c r="H169" s="97" t="s">
-        <v>514</v>
+      <c r="G169" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="H169" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="I169" s="14"/>
       <c r="J169" s="14"/>
@@ -9786,26 +9797,28 @@
     </row>
     <row r="170" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B170" s="64" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="B170" s="63" t="s">
+        <v>514</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D170" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="E170" s="14"/>
-      <c r="F170" s="88">
+        <v>526</v>
+      </c>
+      <c r="E170" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F170" s="87">
         <v>9</v>
       </c>
-      <c r="G170" s="97" t="s">
-        <v>523</v>
-      </c>
-      <c r="H170" s="97" t="s">
-        <v>524</v>
+      <c r="G170" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="H170" s="96" t="s">
+        <v>528</v>
       </c>
       <c r="I170" s="14"/>
       <c r="J170" s="14"/>
@@ -9814,10 +9827,10 @@
     </row>
     <row r="171" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C171" s="19"/>
       <c r="D171" s="13"/>
@@ -9834,26 +9847,28 @@
     </row>
     <row r="172" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B172" s="44" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D172" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E172" s="14"/>
-      <c r="F172" s="88">
+        <v>532</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F172" s="87">
         <v>9</v>
       </c>
-      <c r="G172" s="97" t="s">
-        <v>529</v>
-      </c>
-      <c r="H172" s="97" t="s">
-        <v>483</v>
+      <c r="G172" s="96" t="s">
+        <v>533</v>
+      </c>
+      <c r="H172" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -9862,26 +9877,28 @@
     </row>
     <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B173" s="44" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="E173" s="14"/>
-      <c r="F173" s="88">
+        <v>534</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="87">
         <v>9</v>
       </c>
-      <c r="G173" s="97" t="s">
-        <v>529</v>
-      </c>
-      <c r="H173" s="97" t="s">
-        <v>483</v>
+      <c r="G173" s="96" t="s">
+        <v>533</v>
+      </c>
+      <c r="H173" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I173" s="14"/>
       <c r="J173" s="14"/>
@@ -9890,23 +9907,25 @@
     </row>
     <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B174" s="44" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D174" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="E174" s="14"/>
-      <c r="F174" s="88">
+        <v>535</v>
+      </c>
+      <c r="E174" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="F174" s="87">
         <v>9</v>
       </c>
-      <c r="G174" s="97"/>
-      <c r="H174" s="97"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="96"/>
       <c r="I174" s="14"/>
       <c r="J174" s="14"/>
       <c r="K174" s="14"/>
@@ -9914,26 +9933,26 @@
     </row>
     <row r="175" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B175" s="44" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D175" s="44" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E175" s="14"/>
-      <c r="F175" s="88">
+      <c r="F175" s="87">
         <v>9</v>
       </c>
-      <c r="G175" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H175" s="97" t="s">
-        <v>109</v>
+      <c r="G175" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H175" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
@@ -9942,26 +9961,26 @@
     </row>
     <row r="176" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B176" s="44" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D176" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E176" s="14"/>
-      <c r="F176" s="88">
+      <c r="F176" s="87">
         <v>9</v>
       </c>
-      <c r="G176" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H176" s="97" t="s">
-        <v>112</v>
+      <c r="G176" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I176" s="14"/>
       <c r="J176" s="14"/>
@@ -9970,27 +9989,27 @@
     </row>
     <row r="177" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B177" s="30"/>
       <c r="C177" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D177" s="36" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E177" s="14"/>
-      <c r="F177" s="88">
+      <c r="F177" s="87">
         <v>9</v>
       </c>
-      <c r="G177" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H177" s="97" t="s">
-        <v>538</v>
+      <c r="G177" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H177" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="J177" s="14"/>
       <c r="K177" s="14"/>
@@ -9998,22 +10017,22 @@
     </row>
     <row r="178" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B178" s="83"/>
+        <v>304</v>
+      </c>
+      <c r="B178" s="82"/>
       <c r="C178" s="14"/>
       <c r="D178" s="58" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E178" s="14"/>
-      <c r="F178" s="88">
+      <c r="F178" s="87">
         <v>9</v>
       </c>
-      <c r="G178" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H178" s="97" t="s">
-        <v>109</v>
+      <c r="G178" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="I178" s="14"/>
       <c r="J178" s="14"/>
@@ -10022,22 +10041,22 @@
     </row>
     <row r="179" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B179" s="30"/>
       <c r="C179" s="14"/>
       <c r="D179" s="58" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E179" s="14"/>
-      <c r="F179" s="88">
+      <c r="F179" s="87">
         <v>9</v>
       </c>
-      <c r="G179" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H179" s="97" t="s">
-        <v>112</v>
+      <c r="G179" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H179" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I179" s="14"/>
       <c r="J179" s="14"/>
@@ -10046,22 +10065,22 @@
     </row>
     <row r="180" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B180" s="64"/>
+        <v>304</v>
+      </c>
+      <c r="B180" s="63"/>
       <c r="C180" s="14"/>
       <c r="D180" s="58" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E180" s="14"/>
-      <c r="F180" s="88">
+      <c r="F180" s="87">
         <v>9</v>
       </c>
-      <c r="G180" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H180" s="97" t="s">
-        <v>112</v>
+      <c r="G180" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H180" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I180" s="14"/>
       <c r="J180" s="14"/>
@@ -10070,22 +10089,22 @@
     </row>
     <row r="181" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B181" s="30"/>
       <c r="C181" s="14"/>
       <c r="D181" s="58" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E181" s="14"/>
-      <c r="F181" s="88">
+      <c r="F181" s="87">
         <v>9</v>
       </c>
-      <c r="G181" s="97" t="s">
-        <v>529</v>
-      </c>
-      <c r="H181" s="97" t="s">
-        <v>483</v>
+      <c r="G181" s="96" t="s">
+        <v>533</v>
+      </c>
+      <c r="H181" s="96" t="s">
+        <v>484</v>
       </c>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -10094,22 +10113,22 @@
     </row>
     <row r="182" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A182" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B182" s="30"/>
       <c r="C182" s="14"/>
       <c r="D182" s="58" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E182" s="14"/>
-      <c r="F182" s="88">
+      <c r="F182" s="87">
         <v>9</v>
       </c>
-      <c r="G182" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H182" s="97" t="s">
-        <v>112</v>
+      <c r="G182" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -10117,28 +10136,28 @@
       <c r="L182" s="14"/>
     </row>
     <row r="183" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="72"/>
+      <c r="A183" s="71"/>
       <c r="B183" s="30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D183" s="36" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E183" s="14"/>
-      <c r="F183" s="88">
+      <c r="F183" s="87">
         <v>9</v>
       </c>
-      <c r="G183" s="97" t="s">
+      <c r="G183" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="H183" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="H183" s="97" t="s">
-        <v>514</v>
-      </c>
       <c r="I183" s="14" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
@@ -10147,18 +10166,18 @@
     <row r="184" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
       <c r="B184" s="30" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="44" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E184" s="14"/>
-      <c r="F184" s="88">
+      <c r="F184" s="87">
         <v>9</v>
       </c>
-      <c r="G184" s="97"/>
-      <c r="H184" s="97"/>
+      <c r="G184" s="96"/>
+      <c r="H184" s="96"/>
       <c r="I184" s="14"/>
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
@@ -10166,10 +10185,10 @@
     </row>
     <row r="185" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -10186,26 +10205,26 @@
     </row>
     <row r="186" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="21">
         <v>10</v>
       </c>
       <c r="G186" s="41" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H186" s="41" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
@@ -10214,24 +10233,24 @@
     </row>
     <row r="187" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B187" s="29" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="36" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="21">
         <v>10</v>
       </c>
-      <c r="G187" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H187" s="97" t="s">
-        <v>538</v>
+      <c r="G187" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H187" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I187" s="14"/>
       <c r="J187" s="14"/>
@@ -10240,26 +10259,26 @@
     </row>
     <row r="188" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B188" s="44" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="21">
         <v>10</v>
       </c>
-      <c r="G188" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H188" s="97" t="s">
-        <v>538</v>
+      <c r="G188" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H188" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I188" s="14"/>
       <c r="J188" s="14"/>
@@ -10268,25 +10287,25 @@
     </row>
     <row r="189" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="21">
         <v>10</v>
       </c>
-      <c r="G189" s="97"/>
-      <c r="H189" s="97"/>
+      <c r="G189" s="96"/>
+      <c r="H189" s="96"/>
       <c r="I189" s="14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J189" s="14"/>
       <c r="K189" s="14"/>
@@ -10294,21 +10313,21 @@
     </row>
     <row r="190" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="44" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E190" s="14"/>
       <c r="F190" s="21">
         <v>10</v>
       </c>
-      <c r="G190" s="97"/>
-      <c r="H190" s="97"/>
+      <c r="G190" s="96"/>
+      <c r="H190" s="96"/>
       <c r="I190" s="14"/>
       <c r="J190" s="14"/>
       <c r="K190" s="14"/>
@@ -10316,24 +10335,24 @@
     </row>
     <row r="191" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B191" s="44"/>
       <c r="C191" s="14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E191" s="14"/>
       <c r="F191" s="21">
         <v>10</v>
       </c>
-      <c r="G191" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H191" s="97" t="s">
-        <v>564</v>
+      <c r="G191" s="96" t="s">
+        <v>567</v>
+      </c>
+      <c r="H191" s="96" t="s">
+        <v>568</v>
       </c>
       <c r="I191" s="14"/>
       <c r="J191" s="14"/>
@@ -10342,24 +10361,24 @@
     </row>
     <row r="192" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B192" s="44"/>
       <c r="C192" s="14" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D192" s="36" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="21">
         <v>10</v>
       </c>
-      <c r="G192" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H192" s="97" t="s">
-        <v>564</v>
+      <c r="G192" s="96" t="s">
+        <v>567</v>
+      </c>
+      <c r="H192" s="96" t="s">
+        <v>568</v>
       </c>
       <c r="I192" s="14"/>
       <c r="J192" s="14"/>
@@ -10368,24 +10387,24 @@
     </row>
     <row r="193" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B193" s="44"/>
       <c r="C193" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D193" s="36" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E193" s="14"/>
       <c r="F193" s="21">
         <v>10</v>
       </c>
-      <c r="G193" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H193" s="97" t="s">
-        <v>538</v>
+      <c r="G193" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H193" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -10394,24 +10413,24 @@
     </row>
     <row r="194" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B194" s="30"/>
       <c r="C194" s="14" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D194" s="36" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="21">
         <v>10</v>
       </c>
-      <c r="G194" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H194" s="97" t="s">
-        <v>538</v>
+      <c r="G194" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H194" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I194" s="14"/>
       <c r="J194" s="14"/>
@@ -10420,24 +10439,24 @@
     </row>
     <row r="195" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D195" s="36" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="21">
         <v>10</v>
       </c>
-      <c r="G195" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H195" s="97" t="s">
-        <v>538</v>
+      <c r="G195" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H195" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -10446,24 +10465,24 @@
     </row>
     <row r="196" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B196" s="30"/>
       <c r="C196" s="14" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D196" s="36" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="21">
         <v>10</v>
       </c>
-      <c r="G196" s="97" t="s">
-        <v>537</v>
-      </c>
-      <c r="H196" s="97" t="s">
-        <v>538</v>
+      <c r="G196" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H196" s="96" t="s">
+        <v>542</v>
       </c>
       <c r="I196" s="14"/>
       <c r="J196" s="14"/>
@@ -10472,48 +10491,48 @@
     </row>
     <row r="197" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B197" s="30"/>
       <c r="C197" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E197" s="14"/>
       <c r="F197" s="21">
         <v>10</v>
       </c>
-      <c r="G197" s="97"/>
-      <c r="H197" s="97"/>
+      <c r="G197" s="96"/>
+      <c r="H197" s="96"/>
       <c r="I197" s="14" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J197" s="14"/>
       <c r="K197" s="14"/>
       <c r="L197" s="14"/>
     </row>
     <row r="198" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="72" t="s">
-        <v>477</v>
+      <c r="A198" s="71" t="s">
+        <v>478</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D198" s="36" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E198" s="14"/>
-      <c r="F198" s="88"/>
-      <c r="G198" s="97" t="s">
-        <v>578</v>
-      </c>
-      <c r="H198" s="97" t="s">
-        <v>490</v>
+      <c r="F198" s="87"/>
+      <c r="G198" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="H198" s="96" t="s">
+        <v>492</v>
       </c>
       <c r="I198" s="14"/>
       <c r="J198" s="14"/>
@@ -10522,10 +10541,10 @@
     </row>
     <row r="199" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C199" s="19"/>
       <c r="D199" s="13"/>
@@ -10540,17 +10559,17 @@
     </row>
     <row r="200" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B200" s="30"/>
       <c r="C200" s="14"/>
       <c r="D200" s="36"/>
       <c r="E200" s="14"/>
-      <c r="F200" s="88"/>
-      <c r="G200" s="97"/>
-      <c r="H200" s="97"/>
+      <c r="F200" s="87"/>
+      <c r="G200" s="96"/>
+      <c r="H200" s="96"/>
       <c r="I200" s="14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J200" s="14"/>
       <c r="K200" s="14"/>
@@ -10558,31 +10577,31 @@
     </row>
     <row r="201" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B201" s="30"/>
       <c r="C201" s="14"/>
       <c r="D201" s="36"/>
       <c r="E201" s="14"/>
-      <c r="F201" s="88"/>
-      <c r="G201" s="97"/>
-      <c r="H201" s="97"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="96"/>
+      <c r="H201" s="96"/>
       <c r="I201" s="14"/>
       <c r="J201" s="14"/>
       <c r="K201" s="14"/>
       <c r="L201" s="14"/>
     </row>
     <row r="202" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="72" t="s">
-        <v>425</v>
+      <c r="A202" s="71" t="s">
+        <v>426</v>
       </c>
       <c r="B202" s="30"/>
       <c r="C202" s="14"/>
       <c r="D202" s="36"/>
       <c r="E202" s="14"/>
-      <c r="F202" s="88"/>
-      <c r="G202" s="97"/>
-      <c r="H202" s="97"/>
+      <c r="F202" s="87"/>
+      <c r="G202" s="96"/>
+      <c r="H202" s="96"/>
       <c r="I202" s="14"/>
       <c r="J202" s="14"/>
       <c r="K202" s="14"/>
@@ -10590,21 +10609,21 @@
     </row>
     <row r="203" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A203" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B203" s="83" t="s">
-        <v>580</v>
+        <v>304</v>
+      </c>
+      <c r="B203" s="82" t="s">
+        <v>584</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="51" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F203" s="88"/>
-      <c r="G203" s="97"/>
-      <c r="H203" s="97"/>
+        <v>586</v>
+      </c>
+      <c r="F203" s="87"/>
+      <c r="G203" s="96"/>
+      <c r="H203" s="96"/>
       <c r="I203" s="14"/>
       <c r="J203" s="14"/>
       <c r="K203" s="14"/>
@@ -10612,10 +10631,10 @@
     </row>
     <row r="204" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C204" s="19"/>
       <c r="D204" s="13"/>
@@ -10630,10 +10649,10 @@
     </row>
     <row r="205" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="30" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C205" s="19"/>
       <c r="D205" s="13"/>
@@ -10648,10 +10667,10 @@
     </row>
     <row r="206" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C206" s="19"/>
       <c r="D206" s="13"/>
@@ -10666,10 +10685,10 @@
     </row>
     <row r="207" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C207" s="19"/>
       <c r="D207" s="13"/>
@@ -10684,10 +10703,10 @@
     </row>
     <row r="208" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="30" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="13"/>
@@ -10702,10 +10721,10 @@
     </row>
     <row r="209" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C209" s="19"/>
       <c r="D209" s="13"/>
@@ -10719,14 +10738,14 @@
       <c r="L209" s="19"/>
     </row>
     <row r="210" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A210" s="72"/>
+      <c r="A210" s="71"/>
       <c r="B210" s="30"/>
       <c r="C210" s="14"/>
       <c r="D210" s="36"/>
       <c r="E210" s="14"/>
-      <c r="F210" s="88"/>
-      <c r="G210" s="97"/>
-      <c r="H210" s="97"/>
+      <c r="F210" s="87"/>
+      <c r="G210" s="96"/>
+      <c r="H210" s="96"/>
       <c r="I210" s="14"/>
       <c r="J210" s="14"/>
       <c r="K210" s="14"/>
@@ -10735,7 +10754,7 @@
     <row r="211" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="30"/>
       <c r="B211" s="22" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C211" s="19"/>
       <c r="D211" s="13"/>
@@ -10751,14 +10770,14 @@
     <row r="212" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="30"/>
       <c r="B212" s="30" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="44"/>
       <c r="E212" s="14"/>
-      <c r="F212" s="88"/>
-      <c r="G212" s="97"/>
-      <c r="H212" s="97"/>
+      <c r="F212" s="87"/>
+      <c r="G212" s="96"/>
+      <c r="H212" s="96"/>
       <c r="I212" s="14"/>
       <c r="J212" s="14"/>
       <c r="K212" s="14"/>
@@ -10767,14 +10786,14 @@
     <row r="213" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30"/>
       <c r="B213" s="30" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="36"/>
       <c r="E213" s="14"/>
-      <c r="F213" s="88"/>
-      <c r="G213" s="97"/>
-      <c r="H213" s="97"/>
+      <c r="F213" s="87"/>
+      <c r="G213" s="96"/>
+      <c r="H213" s="96"/>
       <c r="I213" s="14"/>
       <c r="J213" s="14"/>
       <c r="K213" s="14"/>
@@ -10783,14 +10802,14 @@
     <row r="214" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="30"/>
       <c r="B214" s="30" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="36"/>
       <c r="E214" s="14"/>
-      <c r="F214" s="88"/>
-      <c r="G214" s="97"/>
-      <c r="H214" s="97"/>
+      <c r="F214" s="87"/>
+      <c r="G214" s="96"/>
+      <c r="H214" s="96"/>
       <c r="I214" s="14"/>
       <c r="J214" s="14"/>
       <c r="K214" s="14"/>
@@ -10799,14 +10818,14 @@
     <row r="215" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="B215" s="30" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C215" s="14"/>
       <c r="D215" s="36"/>
       <c r="E215" s="14"/>
-      <c r="F215" s="88"/>
-      <c r="G215" s="97"/>
-      <c r="H215" s="97"/>
+      <c r="F215" s="87"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="96"/>
       <c r="I215" s="14"/>
       <c r="J215" s="14"/>
       <c r="K215" s="14"/>
@@ -10815,32 +10834,32 @@
     <row r="216" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="87"/>
+        <v>599</v>
+      </c>
+      <c r="C216" s="63"/>
+      <c r="D216" s="63"/>
+      <c r="E216" s="63"/>
+      <c r="F216" s="86"/>
       <c r="G216" s="54"/>
       <c r="H216" s="54"/>
-      <c r="I216" s="64"/>
-      <c r="J216" s="64"/>
-      <c r="K216" s="64"/>
-      <c r="L216" s="64"/>
+      <c r="I216" s="63"/>
+      <c r="J216" s="63"/>
+      <c r="K216" s="63"/>
+      <c r="L216" s="63"/>
     </row>
     <row r="217" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="30"/>
-      <c r="B217" s="72"/>
-      <c r="C217" s="63"/>
+      <c r="B217" s="71"/>
+      <c r="C217" s="62"/>
       <c r="D217" s="31"/>
-      <c r="E217" s="63"/>
+      <c r="E217" s="62"/>
       <c r="F217" s="43"/>
-      <c r="G217" s="97"/>
-      <c r="H217" s="97"/>
-      <c r="I217" s="63"/>
-      <c r="J217" s="63"/>
-      <c r="K217" s="63"/>
-      <c r="L217" s="63"/>
+      <c r="G217" s="96"/>
+      <c r="H217" s="96"/>
+      <c r="I217" s="62"/>
+      <c r="J217" s="62"/>
+      <c r="K217" s="62"/>
+      <c r="L217" s="62"/>
     </row>
     <row r="218" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="30"/>
@@ -10848,9 +10867,9 @@
       <c r="C218" s="14"/>
       <c r="D218" s="36"/>
       <c r="E218" s="14"/>
-      <c r="F218" s="88"/>
-      <c r="G218" s="97"/>
-      <c r="H218" s="97"/>
+      <c r="F218" s="87"/>
+      <c r="G218" s="96"/>
+      <c r="H218" s="96"/>
       <c r="I218" s="14"/>
       <c r="J218" s="14"/>
       <c r="K218" s="14"/>
@@ -10858,13 +10877,13 @@
     </row>
     <row r="219" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="44"/>
-      <c r="B219" s="72"/>
+      <c r="B219" s="71"/>
       <c r="C219" s="14"/>
       <c r="D219" s="36"/>
       <c r="E219" s="14"/>
-      <c r="F219" s="88"/>
-      <c r="G219" s="97"/>
-      <c r="H219" s="97"/>
+      <c r="F219" s="87"/>
+      <c r="G219" s="96"/>
+      <c r="H219" s="96"/>
       <c r="I219" s="14"/>
       <c r="J219" s="14"/>
       <c r="K219" s="14"/>
@@ -10876,9 +10895,9 @@
       <c r="C220" s="14"/>
       <c r="D220" s="36"/>
       <c r="E220" s="14"/>
-      <c r="F220" s="88"/>
-      <c r="G220" s="97"/>
-      <c r="H220" s="97"/>
+      <c r="F220" s="87"/>
+      <c r="G220" s="96"/>
+      <c r="H220" s="96"/>
       <c r="I220" s="14"/>
       <c r="J220" s="14"/>
       <c r="K220" s="14"/>
@@ -10890,9 +10909,9 @@
       <c r="C221" s="14"/>
       <c r="D221" s="36"/>
       <c r="E221" s="14"/>
-      <c r="F221" s="88"/>
-      <c r="G221" s="97"/>
-      <c r="H221" s="97"/>
+      <c r="F221" s="87"/>
+      <c r="G221" s="96"/>
+      <c r="H221" s="96"/>
       <c r="I221" s="14"/>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
@@ -10904,9 +10923,9 @@
       <c r="C222" s="14"/>
       <c r="D222" s="36"/>
       <c r="E222" s="14"/>
-      <c r="F222" s="88"/>
-      <c r="G222" s="97"/>
-      <c r="H222" s="97"/>
+      <c r="F222" s="87"/>
+      <c r="G222" s="96"/>
+      <c r="H222" s="96"/>
       <c r="I222" s="14"/>
       <c r="J222" s="14"/>
       <c r="K222" s="14"/>
@@ -10918,9 +10937,9 @@
       <c r="C223" s="14"/>
       <c r="D223" s="36"/>
       <c r="E223" s="14"/>
-      <c r="F223" s="88"/>
-      <c r="G223" s="97"/>
-      <c r="H223" s="97"/>
+      <c r="F223" s="87"/>
+      <c r="G223" s="96"/>
+      <c r="H223" s="96"/>
       <c r="I223" s="14"/>
       <c r="J223" s="14"/>
       <c r="K223" s="14"/>
@@ -10932,9 +10951,9 @@
       <c r="C224" s="14"/>
       <c r="D224" s="36"/>
       <c r="E224" s="14"/>
-      <c r="F224" s="88"/>
-      <c r="G224" s="97"/>
-      <c r="H224" s="97"/>
+      <c r="F224" s="87"/>
+      <c r="G224" s="96"/>
+      <c r="H224" s="96"/>
       <c r="I224" s="14"/>
       <c r="J224" s="14"/>
       <c r="K224" s="14"/>
@@ -10946,9 +10965,9 @@
       <c r="C225" s="14"/>
       <c r="D225" s="36"/>
       <c r="E225" s="14"/>
-      <c r="F225" s="88"/>
-      <c r="G225" s="97"/>
-      <c r="H225" s="97"/>
+      <c r="F225" s="87"/>
+      <c r="G225" s="96"/>
+      <c r="H225" s="96"/>
       <c r="I225" s="14"/>
       <c r="J225" s="14"/>
       <c r="K225" s="14"/>
@@ -10960,37 +10979,37 @@
       <c r="C226" s="14"/>
       <c r="D226" s="36"/>
       <c r="E226" s="14"/>
-      <c r="F226" s="88"/>
-      <c r="G226" s="97"/>
-      <c r="H226" s="97"/>
+      <c r="F226" s="87"/>
+      <c r="G226" s="96"/>
+      <c r="H226" s="96"/>
       <c r="I226" s="14"/>
       <c r="J226" s="14"/>
       <c r="K226" s="14"/>
       <c r="L226" s="14"/>
     </row>
     <row r="227" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="72"/>
+      <c r="A227" s="71"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
       <c r="D227" s="36"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="88"/>
-      <c r="G227" s="97"/>
-      <c r="H227" s="97"/>
+      <c r="F227" s="87"/>
+      <c r="G227" s="96"/>
+      <c r="H227" s="96"/>
       <c r="I227" s="14"/>
       <c r="J227" s="14"/>
       <c r="K227" s="14"/>
       <c r="L227" s="14"/>
     </row>
     <row r="228" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A228" s="72"/>
+      <c r="A228" s="71"/>
       <c r="B228" s="30"/>
       <c r="C228" s="14"/>
       <c r="D228" s="36"/>
       <c r="E228" s="14"/>
-      <c r="F228" s="88"/>
-      <c r="G228" s="97"/>
-      <c r="H228" s="97"/>
+      <c r="F228" s="87"/>
+      <c r="G228" s="96"/>
+      <c r="H228" s="96"/>
       <c r="I228" s="14"/>
       <c r="J228" s="14"/>
       <c r="K228" s="14"/>
@@ -11002,9 +11021,9 @@
       <c r="C229" s="14"/>
       <c r="D229" s="36"/>
       <c r="E229" s="14"/>
-      <c r="F229" s="88"/>
-      <c r="G229" s="97"/>
-      <c r="H229" s="97"/>
+      <c r="F229" s="87"/>
+      <c r="G229" s="96"/>
+      <c r="H229" s="96"/>
       <c r="I229" s="14"/>
       <c r="J229" s="14"/>
       <c r="K229" s="14"/>
@@ -11016,9 +11035,9 @@
       <c r="C230" s="14"/>
       <c r="D230" s="36"/>
       <c r="E230" s="14"/>
-      <c r="F230" s="88"/>
-      <c r="G230" s="97"/>
-      <c r="H230" s="97"/>
+      <c r="F230" s="87"/>
+      <c r="G230" s="96"/>
+      <c r="H230" s="96"/>
       <c r="I230" s="14"/>
       <c r="J230" s="14"/>
       <c r="K230" s="14"/>
@@ -11027,12 +11046,12 @@
     <row r="231" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="30"/>
       <c r="B231" s="14"/>
-      <c r="C231" s="64"/>
+      <c r="C231" s="63"/>
       <c r="D231" s="36"/>
       <c r="E231" s="14"/>
-      <c r="F231" s="88"/>
-      <c r="G231" s="97"/>
-      <c r="H231" s="97"/>
+      <c r="F231" s="87"/>
+      <c r="G231" s="96"/>
+      <c r="H231" s="96"/>
       <c r="I231" s="14"/>
       <c r="J231" s="14"/>
       <c r="K231" s="14"/>
@@ -11040,11 +11059,11 @@
     </row>
     <row r="232" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="30"/>
-      <c r="B232" s="72"/>
+      <c r="B232" s="71"/>
       <c r="C232" s="14"/>
       <c r="D232" s="36"/>
       <c r="E232" s="36"/>
-      <c r="F232" s="88"/>
+      <c r="F232" s="87"/>
       <c r="G232" s="54"/>
       <c r="H232" s="54"/>
       <c r="I232" s="36"/>
@@ -11058,37 +11077,37 @@
       <c r="C233" s="14"/>
       <c r="D233" s="36"/>
       <c r="E233" s="14"/>
-      <c r="F233" s="88"/>
-      <c r="G233" s="97"/>
-      <c r="H233" s="97"/>
+      <c r="F233" s="87"/>
+      <c r="G233" s="96"/>
+      <c r="H233" s="96"/>
       <c r="I233" s="14"/>
       <c r="J233" s="14"/>
       <c r="K233" s="14"/>
       <c r="L233" s="14"/>
     </row>
     <row r="234" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A234" s="101"/>
+      <c r="A234" s="100"/>
       <c r="B234" s="30"/>
       <c r="C234" s="14"/>
       <c r="D234" s="36"/>
       <c r="E234" s="14"/>
-      <c r="F234" s="88"/>
-      <c r="G234" s="97"/>
-      <c r="H234" s="97"/>
+      <c r="F234" s="87"/>
+      <c r="G234" s="96"/>
+      <c r="H234" s="96"/>
       <c r="I234" s="14"/>
       <c r="J234" s="14"/>
       <c r="K234" s="14"/>
       <c r="L234" s="14"/>
     </row>
     <row r="235" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="72"/>
+      <c r="A235" s="71"/>
       <c r="B235" s="28"/>
       <c r="C235" s="14"/>
       <c r="D235" s="36"/>
       <c r="E235" s="14"/>
-      <c r="F235" s="88"/>
-      <c r="G235" s="97"/>
-      <c r="H235" s="97"/>
+      <c r="F235" s="87"/>
+      <c r="G235" s="96"/>
+      <c r="H235" s="96"/>
       <c r="I235" s="14"/>
       <c r="J235" s="14"/>
       <c r="K235" s="14"/>
@@ -11100,9 +11119,9 @@
       <c r="C236" s="14"/>
       <c r="D236" s="36"/>
       <c r="E236" s="14"/>
-      <c r="F236" s="88"/>
-      <c r="G236" s="97"/>
-      <c r="H236" s="97"/>
+      <c r="F236" s="87"/>
+      <c r="G236" s="96"/>
+      <c r="H236" s="96"/>
       <c r="I236" s="14"/>
       <c r="J236" s="14"/>
       <c r="K236" s="14"/>
@@ -11114,37 +11133,37 @@
       <c r="C237" s="14"/>
       <c r="D237" s="36"/>
       <c r="E237" s="14"/>
-      <c r="F237" s="88"/>
-      <c r="G237" s="97"/>
-      <c r="H237" s="97"/>
+      <c r="F237" s="87"/>
+      <c r="G237" s="96"/>
+      <c r="H237" s="96"/>
       <c r="I237" s="14"/>
       <c r="J237" s="14"/>
       <c r="K237" s="14"/>
       <c r="L237" s="14"/>
     </row>
     <row r="238" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A238" s="72"/>
+      <c r="A238" s="71"/>
       <c r="B238" s="28"/>
       <c r="C238" s="14"/>
       <c r="D238" s="36"/>
       <c r="E238" s="14"/>
-      <c r="F238" s="88"/>
-      <c r="G238" s="97"/>
-      <c r="H238" s="97"/>
+      <c r="F238" s="87"/>
+      <c r="G238" s="96"/>
+      <c r="H238" s="96"/>
       <c r="I238" s="14"/>
       <c r="J238" s="14"/>
       <c r="K238" s="14"/>
       <c r="L238" s="14"/>
     </row>
     <row r="239" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A239" s="101"/>
+      <c r="A239" s="100"/>
       <c r="B239" s="30"/>
       <c r="C239" s="14"/>
       <c r="D239" s="36"/>
       <c r="E239" s="14"/>
-      <c r="F239" s="88"/>
-      <c r="G239" s="97"/>
-      <c r="H239" s="97"/>
+      <c r="F239" s="87"/>
+      <c r="G239" s="96"/>
+      <c r="H239" s="96"/>
       <c r="I239" s="14"/>
       <c r="J239" s="14"/>
       <c r="K239" s="14"/>
@@ -11156,9 +11175,9 @@
       <c r="C240" s="14"/>
       <c r="D240" s="36"/>
       <c r="E240" s="14"/>
-      <c r="F240" s="88"/>
-      <c r="G240" s="97"/>
-      <c r="H240" s="97"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="96"/>
+      <c r="H240" s="96"/>
       <c r="I240" s="14"/>
       <c r="J240" s="14"/>
       <c r="K240" s="14"/>
@@ -11170,9 +11189,9 @@
       <c r="C241" s="14"/>
       <c r="D241" s="36"/>
       <c r="E241" s="14"/>
-      <c r="F241" s="88"/>
-      <c r="G241" s="97"/>
-      <c r="H241" s="97"/>
+      <c r="F241" s="87"/>
+      <c r="G241" s="96"/>
+      <c r="H241" s="96"/>
       <c r="I241" s="14"/>
       <c r="J241" s="14"/>
       <c r="K241" s="14"/>
@@ -11184,9 +11203,9 @@
       <c r="C242" s="14"/>
       <c r="D242" s="36"/>
       <c r="E242" s="14"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="97"/>
-      <c r="H242" s="97"/>
+      <c r="F242" s="87"/>
+      <c r="G242" s="96"/>
+      <c r="H242" s="96"/>
       <c r="I242" s="14"/>
       <c r="J242" s="14"/>
       <c r="K242" s="14"/>
@@ -11195,14 +11214,14 @@
     <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37"/>
       <c r="B243" s="30"/>
-      <c r="C243" s="89"/>
-      <c r="D243" s="84"/>
-      <c r="E243" s="98"/>
+      <c r="C243" s="88"/>
+      <c r="D243" s="83"/>
+      <c r="E243" s="97"/>
       <c r="F243" s="42"/>
-      <c r="G243" s="93"/>
-      <c r="H243" s="93"/>
-      <c r="I243" s="98"/>
-      <c r="J243" s="89"/>
+      <c r="G243" s="92"/>
+      <c r="H243" s="92"/>
+      <c r="I243" s="97"/>
+      <c r="J243" s="88"/>
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
     </row>
@@ -11212,9 +11231,9 @@
       <c r="C244" s="14"/>
       <c r="D244" s="36"/>
       <c r="E244" s="14"/>
-      <c r="F244" s="88"/>
-      <c r="G244" s="97"/>
-      <c r="H244" s="97"/>
+      <c r="F244" s="87"/>
+      <c r="G244" s="96"/>
+      <c r="H244" s="96"/>
       <c r="I244" s="14"/>
       <c r="J244" s="14"/>
       <c r="K244" s="14"/>
@@ -11226,9 +11245,9 @@
       <c r="C245" s="14"/>
       <c r="D245" s="36"/>
       <c r="E245" s="14"/>
-      <c r="F245" s="88"/>
-      <c r="G245" s="97"/>
-      <c r="H245" s="97"/>
+      <c r="F245" s="87"/>
+      <c r="G245" s="96"/>
+      <c r="H245" s="96"/>
       <c r="I245" s="14"/>
       <c r="J245" s="14"/>
       <c r="K245" s="14"/>
@@ -11240,23 +11259,23 @@
       <c r="C246" s="14"/>
       <c r="D246" s="36"/>
       <c r="E246" s="14"/>
-      <c r="F246" s="88"/>
-      <c r="G246" s="97"/>
-      <c r="H246" s="97"/>
+      <c r="F246" s="87"/>
+      <c r="G246" s="96"/>
+      <c r="H246" s="96"/>
       <c r="I246" s="14"/>
       <c r="J246" s="14"/>
       <c r="K246" s="14"/>
       <c r="L246" s="14"/>
     </row>
     <row r="247" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="86"/>
+      <c r="A247" s="85"/>
       <c r="B247" s="30"/>
       <c r="C247" s="14"/>
       <c r="D247" s="36"/>
       <c r="E247" s="14"/>
-      <c r="F247" s="88"/>
-      <c r="G247" s="97"/>
-      <c r="H247" s="97"/>
+      <c r="F247" s="87"/>
+      <c r="G247" s="96"/>
+      <c r="H247" s="96"/>
       <c r="I247" s="14"/>
       <c r="J247" s="14"/>
       <c r="K247" s="14"/>
@@ -11268,9 +11287,9 @@
       <c r="C248" s="14"/>
       <c r="D248" s="36"/>
       <c r="E248" s="14"/>
-      <c r="F248" s="88"/>
-      <c r="G248" s="97"/>
-      <c r="H248" s="97"/>
+      <c r="F248" s="87"/>
+      <c r="G248" s="96"/>
+      <c r="H248" s="96"/>
       <c r="I248" s="14"/>
       <c r="J248" s="14"/>
       <c r="K248" s="14"/>
@@ -11282,9 +11301,9 @@
       <c r="C249" s="14"/>
       <c r="D249" s="36"/>
       <c r="E249" s="14"/>
-      <c r="F249" s="88"/>
-      <c r="G249" s="97"/>
-      <c r="H249" s="97"/>
+      <c r="F249" s="87"/>
+      <c r="G249" s="96"/>
+      <c r="H249" s="96"/>
       <c r="I249" s="14"/>
       <c r="J249" s="14"/>
       <c r="K249" s="14"/>
@@ -11296,9 +11315,9 @@
       <c r="C250" s="14"/>
       <c r="D250" s="36"/>
       <c r="E250" s="14"/>
-      <c r="F250" s="88"/>
-      <c r="G250" s="97"/>
-      <c r="H250" s="97"/>
+      <c r="F250" s="87"/>
+      <c r="G250" s="96"/>
+      <c r="H250" s="96"/>
       <c r="I250" s="14"/>
       <c r="J250" s="14"/>
       <c r="K250" s="14"/>
@@ -11310,9 +11329,9 @@
       <c r="C251" s="14"/>
       <c r="D251" s="36"/>
       <c r="E251" s="14"/>
-      <c r="F251" s="88"/>
-      <c r="G251" s="97"/>
-      <c r="H251" s="97"/>
+      <c r="F251" s="87"/>
+      <c r="G251" s="96"/>
+      <c r="H251" s="96"/>
       <c r="I251" s="14"/>
       <c r="J251" s="14"/>
       <c r="K251" s="14"/>
@@ -11324,9 +11343,9 @@
       <c r="C252" s="14"/>
       <c r="D252" s="36"/>
       <c r="E252" s="14"/>
-      <c r="F252" s="88"/>
-      <c r="G252" s="97"/>
-      <c r="H252" s="97"/>
+      <c r="F252" s="87"/>
+      <c r="G252" s="96"/>
+      <c r="H252" s="96"/>
       <c r="I252" s="14"/>
       <c r="J252" s="14"/>
       <c r="K252" s="14"/>
@@ -11338,9 +11357,9 @@
       <c r="C253" s="14"/>
       <c r="D253" s="36"/>
       <c r="E253" s="14"/>
-      <c r="F253" s="88"/>
-      <c r="G253" s="97"/>
-      <c r="H253" s="97"/>
+      <c r="F253" s="87"/>
+      <c r="G253" s="96"/>
+      <c r="H253" s="96"/>
       <c r="I253" s="14"/>
       <c r="J253" s="14"/>
       <c r="K253" s="14"/>
@@ -11352,27 +11371,27 @@
       <c r="C254" s="14"/>
       <c r="D254" s="36"/>
       <c r="E254" s="14"/>
-      <c r="F254" s="88"/>
-      <c r="G254" s="97"/>
-      <c r="H254" s="97"/>
+      <c r="F254" s="87"/>
+      <c r="G254" s="96"/>
+      <c r="H254" s="96"/>
       <c r="I254" s="14"/>
       <c r="J254" s="14"/>
       <c r="K254" s="14"/>
       <c r="L254" s="14"/>
     </row>
     <row r="255" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A255" s="101"/>
+      <c r="A255" s="100"/>
       <c r="B255" s="30"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="88"/>
+      <c r="C255" s="63"/>
+      <c r="D255" s="63"/>
+      <c r="E255" s="63"/>
+      <c r="F255" s="87"/>
       <c r="G255" s="54"/>
       <c r="H255" s="54"/>
-      <c r="I255" s="64"/>
-      <c r="J255" s="64"/>
-      <c r="K255" s="64"/>
-      <c r="L255" s="64"/>
+      <c r="I255" s="63"/>
+      <c r="J255" s="63"/>
+      <c r="K255" s="63"/>
+      <c r="L255" s="63"/>
     </row>
     <row r="256" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="30"/>
@@ -11380,9 +11399,9 @@
       <c r="C256" s="14"/>
       <c r="D256" s="36"/>
       <c r="E256" s="14"/>
-      <c r="F256" s="88"/>
-      <c r="G256" s="97"/>
-      <c r="H256" s="97"/>
+      <c r="F256" s="87"/>
+      <c r="G256" s="96"/>
+      <c r="H256" s="96"/>
       <c r="I256" s="14"/>
       <c r="J256" s="14"/>
       <c r="K256" s="14"/>
@@ -11394,9 +11413,9 @@
       <c r="C257" s="14"/>
       <c r="D257" s="36"/>
       <c r="E257" s="14"/>
-      <c r="F257" s="88"/>
-      <c r="G257" s="97"/>
-      <c r="H257" s="97"/>
+      <c r="F257" s="87"/>
+      <c r="G257" s="96"/>
+      <c r="H257" s="96"/>
       <c r="I257" s="14"/>
       <c r="J257" s="14"/>
       <c r="K257" s="14"/>
@@ -11408,21 +11427,21 @@
       <c r="C258" s="14"/>
       <c r="D258" s="36"/>
       <c r="E258" s="14"/>
-      <c r="F258" s="88"/>
-      <c r="G258" s="97"/>
-      <c r="H258" s="97"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="96"/>
+      <c r="H258" s="96"/>
       <c r="I258" s="14"/>
       <c r="J258" s="14"/>
       <c r="K258" s="14"/>
       <c r="L258" s="14"/>
     </row>
     <row r="259" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A259" s="81"/>
-      <c r="B259" s="81"/>
+      <c r="A259" s="80"/>
+      <c r="B259" s="80"/>
       <c r="C259" s="23"/>
       <c r="D259" s="55"/>
       <c r="E259" s="23"/>
-      <c r="F259" s="79"/>
+      <c r="F259" s="78"/>
       <c r="G259" s="15"/>
       <c r="H259" s="15"/>
       <c r="I259" s="23"/>
@@ -11460,171 +11479,171 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+        <v>600</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+        <v>601</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+        <v>602</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+        <v>603</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
